--- a/DW3/DQ3.xlsx
+++ b/DW3/DQ3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="233">
   <si>
     <t>Notes</t>
   </si>
@@ -724,9 +724,6 @@
     <t>To Cave</t>
   </si>
   <si>
-    <t>To Pyramid</t>
-  </si>
-  <si>
     <t>Up Stairs</t>
   </si>
   <si>
@@ -755,6 +752,12 @@
   </si>
   <si>
     <t>Enter Pyramid</t>
+  </si>
+  <si>
+    <t>Through Pyramid</t>
+  </si>
+  <si>
+    <t>Death</t>
   </si>
 </sst>
 </file>
@@ -2401,8 +2404,8 @@
   <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2431,7 +2434,7 @@
       <c r="G1" s="140"/>
       <c r="H1" s="141">
         <f>SUM(G1:G65538)</f>
-        <v>0</v>
+        <v>7969</v>
       </c>
       <c r="I1" s="141" t="s">
         <v>202</v>
@@ -2453,19 +2456,19 @@
       <c r="G2" s="140"/>
       <c r="H2" s="144">
         <f>IF(H1&lt;3600,H1/60,QUOTIENT(H1, 3600))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="141" t="str">
         <f>IF(H1&lt;3600,"Seconds","Minutes")</f>
-        <v>Seconds</v>
-      </c>
-      <c r="J2" s="144" t="str">
+        <v>Minutes</v>
+      </c>
+      <c r="J2" s="144">
         <f>IF(H1&lt;3600,"",(MOD(H1,3600)/60))</f>
-        <v/>
+        <v>12.816666666666666</v>
       </c>
       <c r="K2" s="141" t="str">
         <f>IF(H1&lt;3600, "", "Seconds")</f>
-        <v/>
+        <v>Seconds</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
@@ -2719,7 +2722,7 @@
     <row r="18" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="19" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
       <c r="A19" s="151" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B19" s="109" t="s">
         <v>181</v>
@@ -2757,7 +2760,7 @@
     <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A21" s="150"/>
       <c r="B21" s="148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" s="101">
         <v>9264</v>
@@ -2774,7 +2777,7 @@
     <row r="22" spans="1:7" ht="15" outlineLevel="1">
       <c r="A22" s="150"/>
       <c r="B22" s="148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="101">
         <v>10006</v>
@@ -2791,7 +2794,7 @@
     <row r="23" spans="1:7" ht="15" outlineLevel="1">
       <c r="A23" s="150"/>
       <c r="B23" s="148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="101">
         <v>11009</v>
@@ -2808,7 +2811,7 @@
     <row r="24" spans="1:7" ht="15" outlineLevel="1">
       <c r="A24" s="150"/>
       <c r="B24" s="148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" s="101">
         <v>12082</v>
@@ -2825,7 +2828,7 @@
     <row r="25" spans="1:7" ht="15" outlineLevel="1">
       <c r="A25" s="150"/>
       <c r="B25" s="148" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C25" s="101">
         <v>13338</v>
@@ -2842,7 +2845,7 @@
     <row r="26" spans="1:7" ht="15" outlineLevel="1">
       <c r="A26" s="150"/>
       <c r="B26" s="148" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="101">
         <v>16018</v>
@@ -2859,7 +2862,7 @@
     <row r="27" spans="1:7" ht="15" outlineLevel="1">
       <c r="A27" s="150"/>
       <c r="B27" s="148" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C27" s="101">
         <v>17678</v>
@@ -2876,7 +2879,7 @@
     <row r="28" spans="1:7" ht="15" outlineLevel="1">
       <c r="A28" s="150"/>
       <c r="B28" s="148" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28" s="101">
         <v>20692</v>
@@ -2893,7 +2896,7 @@
     <row r="29" spans="1:7" ht="15" outlineLevel="1">
       <c r="A29" s="150"/>
       <c r="B29" s="148" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C29" s="101">
         <v>23167</v>
@@ -2910,7 +2913,7 @@
     <row r="30" spans="1:7" ht="15" outlineLevel="1">
       <c r="A30" s="150"/>
       <c r="B30" s="148" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C30" s="101">
         <v>24630</v>
@@ -2927,7 +2930,7 @@
     <row r="31" spans="1:7" ht="15" outlineLevel="1">
       <c r="A31" s="150"/>
       <c r="B31" s="148" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C31" s="101"/>
       <c r="D31" s="101">
@@ -2942,7 +2945,7 @@
     <row r="32" spans="1:7" ht="15" outlineLevel="1">
       <c r="A32" s="150"/>
       <c r="B32" s="213" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C32" s="101">
         <v>27502</v>
@@ -2959,7 +2962,7 @@
     <row r="33" spans="1:7" ht="15" outlineLevel="1">
       <c r="A33" s="150"/>
       <c r="B33" s="213" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C33" s="101">
         <v>29241</v>
@@ -2976,7 +2979,7 @@
     <row r="34" spans="1:7" ht="15" outlineLevel="1">
       <c r="A34" s="150"/>
       <c r="B34" s="213" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" s="101">
         <v>30054</v>
@@ -2992,12 +2995,18 @@
     </row>
     <row r="35" spans="1:7" ht="15" outlineLevel="1">
       <c r="A35" s="150"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="213" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="101">
+        <v>34644</v>
+      </c>
+      <c r="D35" s="101">
+        <v>42613</v>
+      </c>
       <c r="E35" s="123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7969</v>
       </c>
       <c r="F35" s="105"/>
     </row>
@@ -3006,11 +3015,15 @@
       <c r="B36" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
+      <c r="C36" s="99">
+        <v>34644</v>
+      </c>
+      <c r="D36" s="99">
+        <v>42613</v>
+      </c>
       <c r="E36" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7969</v>
       </c>
       <c r="F36" s="104"/>
     </row>
@@ -3023,20 +3036,20 @@
       </c>
       <c r="C37" s="103">
         <f>C36-C20</f>
-        <v>-8110</v>
+        <v>26534</v>
       </c>
       <c r="D37" s="103">
         <f>D36-D20</f>
-        <v>-10236</v>
+        <v>32377</v>
       </c>
       <c r="E37" s="126">
         <f>E36-E20</f>
-        <v>-2126</v>
+        <v>5843</v>
       </c>
       <c r="F37" s="108"/>
       <c r="G37" s="112">
         <f>E37</f>
-        <v>-2126</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="13.5" thickBot="1"/>
@@ -25382,7 +25395,7 @@
       </c>
       <c r="C6" s="134">
         <f>FrameCounts!H2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -25394,7 +25407,7 @@
       </c>
       <c r="C7" s="135">
         <f>C6/60</f>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>

--- a/DW3/DQ3.xlsx
+++ b/DW3/DQ3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="234">
   <si>
     <t>Notes</t>
   </si>
@@ -759,6 +759,9 @@
   <si>
     <t>Death</t>
   </si>
+  <si>
+    <t>Beging registration</t>
+  </si>
 </sst>
 </file>
 
@@ -768,10 +771,17 @@
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1690,34 +1700,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,208 +1735,208 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1936,10 +1946,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1960,137 +1970,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2404,8 +2417,8 @@
   <dimension ref="A1:K156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2421,20 +2434,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="155" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="155" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="156" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="157"/>
       <c r="G1" s="140"/>
       <c r="H1" s="141">
         <f>SUM(G1:G65538)</f>
-        <v>7969</v>
+        <v>2126</v>
       </c>
       <c r="I1" s="141" t="s">
         <v>202</v>
@@ -2456,19 +2469,19 @@
       <c r="G2" s="140"/>
       <c r="H2" s="144">
         <f>IF(H1&lt;3600,H1/60,QUOTIENT(H1, 3600))</f>
-        <v>2</v>
+        <v>35.43333333333333</v>
       </c>
       <c r="I2" s="141" t="str">
         <f>IF(H1&lt;3600,"Seconds","Minutes")</f>
-        <v>Minutes</v>
-      </c>
-      <c r="J2" s="144">
+        <v>Seconds</v>
+      </c>
+      <c r="J2" s="144" t="str">
         <f>IF(H1&lt;3600,"",(MOD(H1,3600)/60))</f>
-        <v>12.816666666666666</v>
+        <v/>
       </c>
       <c r="K2" s="141" t="str">
         <f>IF(H1&lt;3600, "", "Seconds")</f>
-        <v>Seconds</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
@@ -2508,10 +2521,10 @@
       <c r="B5" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="152"/>
+      <c r="D5" s="153"/>
       <c r="E5" s="147"/>
       <c r="F5" s="143"/>
       <c r="G5" s="140"/>
@@ -2527,10 +2540,10 @@
       <c r="B6" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="153"/>
+      <c r="D6" s="154"/>
       <c r="E6" s="147"/>
       <c r="F6" s="143"/>
       <c r="G6" s="140"/>
@@ -2548,7 +2561,7 @@
       <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="158" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="95" t="s">
@@ -2568,7 +2581,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A9" s="150"/>
+      <c r="A9" s="151"/>
       <c r="B9" s="98" t="s">
         <v>183</v>
       </c>
@@ -2582,7 +2595,7 @@
       <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A10" s="150"/>
+      <c r="A10" s="151"/>
       <c r="B10" s="148" t="s">
         <v>215</v>
       </c>
@@ -2599,7 +2612,7 @@
       <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A11" s="150"/>
+      <c r="A11" s="151"/>
       <c r="B11" s="148" t="s">
         <v>216</v>
       </c>
@@ -2616,7 +2629,7 @@
       <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A12" s="150"/>
+      <c r="A12" s="151"/>
       <c r="B12" s="148" t="s">
         <v>217</v>
       </c>
@@ -2633,7 +2646,7 @@
       <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A13" s="150"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="148" t="s">
         <v>218</v>
       </c>
@@ -2650,7 +2663,7 @@
       <c r="F13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A14" s="150"/>
+      <c r="A14" s="151"/>
       <c r="B14" s="148" t="s">
         <v>219</v>
       </c>
@@ -2667,7 +2680,7 @@
       <c r="F14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A15" s="150"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
@@ -2678,7 +2691,7 @@
       <c r="F15" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A16" s="150"/>
+      <c r="A16" s="151"/>
       <c r="B16" s="98" t="s">
         <v>186</v>
       </c>
@@ -2721,7 +2734,7 @@
     </row>
     <row r="18" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="19" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="152" t="s">
         <v>231</v>
       </c>
       <c r="B19" s="109" t="s">
@@ -2741,7 +2754,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A20" s="150"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="98" t="s">
         <v>183</v>
       </c>
@@ -2758,7 +2771,7 @@
       <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A21" s="150"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="148" t="s">
         <v>221</v>
       </c>
@@ -2775,7 +2788,7 @@
       <c r="F21" s="105"/>
     </row>
     <row r="22" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A22" s="150"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="148" t="s">
         <v>221</v>
       </c>
@@ -2792,7 +2805,7 @@
       <c r="F22" s="105"/>
     </row>
     <row r="23" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A23" s="150"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="148" t="s">
         <v>221</v>
       </c>
@@ -2809,7 +2822,7 @@
       <c r="F23" s="105"/>
     </row>
     <row r="24" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A24" s="150"/>
+      <c r="A24" s="151"/>
       <c r="B24" s="148" t="s">
         <v>221</v>
       </c>
@@ -2826,7 +2839,7 @@
       <c r="F24" s="105"/>
     </row>
     <row r="25" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A25" s="150"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="148" t="s">
         <v>222</v>
       </c>
@@ -2843,7 +2856,7 @@
       <c r="F25" s="105"/>
     </row>
     <row r="26" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A26" s="150"/>
+      <c r="A26" s="151"/>
       <c r="B26" s="148" t="s">
         <v>223</v>
       </c>
@@ -2860,7 +2873,7 @@
       <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A27" s="150"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="148" t="s">
         <v>224</v>
       </c>
@@ -2877,7 +2890,7 @@
       <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A28" s="150"/>
+      <c r="A28" s="151"/>
       <c r="B28" s="148" t="s">
         <v>224</v>
       </c>
@@ -2894,7 +2907,7 @@
       <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A29" s="150"/>
+      <c r="A29" s="151"/>
       <c r="B29" s="148" t="s">
         <v>225</v>
       </c>
@@ -2911,7 +2924,7 @@
       <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A30" s="150"/>
+      <c r="A30" s="151"/>
       <c r="B30" s="148" t="s">
         <v>226</v>
       </c>
@@ -2928,7 +2941,7 @@
       <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A31" s="150"/>
+      <c r="A31" s="151"/>
       <c r="B31" s="148" t="s">
         <v>227</v>
       </c>
@@ -2943,8 +2956,8 @@
       <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A32" s="150"/>
-      <c r="B32" s="213" t="s">
+      <c r="A32" s="151"/>
+      <c r="B32" s="149" t="s">
         <v>228</v>
       </c>
       <c r="C32" s="101">
@@ -2960,8 +2973,8 @@
       <c r="F32" s="105"/>
     </row>
     <row r="33" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A33" s="150"/>
-      <c r="B33" s="213" t="s">
+      <c r="A33" s="151"/>
+      <c r="B33" s="149" t="s">
         <v>229</v>
       </c>
       <c r="C33" s="101">
@@ -2977,8 +2990,8 @@
       <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A34" s="150"/>
-      <c r="B34" s="213" t="s">
+      <c r="A34" s="151"/>
+      <c r="B34" s="149" t="s">
         <v>230</v>
       </c>
       <c r="C34" s="101">
@@ -2994,8 +3007,8 @@
       <c r="F34" s="105"/>
     </row>
     <row r="35" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A35" s="150"/>
-      <c r="B35" s="213" t="s">
+      <c r="A35" s="151"/>
+      <c r="B35" s="149" t="s">
         <v>232</v>
       </c>
       <c r="C35" s="101">
@@ -3005,13 +3018,13 @@
         <v>42613</v>
       </c>
       <c r="E35" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E35" si="2">IF(AND(C35&gt;0,D35&gt;0), D35-C35, 0)</f>
         <v>7969</v>
       </c>
       <c r="F35" s="105"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A36" s="150"/>
+      <c r="A36" s="151"/>
       <c r="B36" s="98" t="s">
         <v>186</v>
       </c>
@@ -3053,8 +3066,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="39" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A39" s="149" t="s">
+    <row r="39" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A39" s="150" t="s">
         <v>169</v>
       </c>
       <c r="B39" s="113" t="s">
@@ -3073,165 +3086,175 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A40" s="150"/>
+    <row r="40" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+      <c r="A40" s="151"/>
       <c r="B40" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
+      <c r="C40" s="99">
+        <v>26534</v>
+      </c>
+      <c r="D40" s="99">
+        <v>32377</v>
+      </c>
       <c r="E40" s="123">
-        <f t="shared" ref="E40:E53" si="2">IF(AND(C40&gt;0,D40&gt;0), D40-C40, 0)</f>
-        <v>0</v>
+        <f t="shared" ref="E40:E53" si="3">IF(AND(C40&gt;0,D40&gt;0), D40-C40, 0)</f>
+        <v>5843</v>
       </c>
       <c r="F40" s="104"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A41" s="150"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
+    <row r="41" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
+      <c r="A41" s="151"/>
+      <c r="B41" s="214" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="101">
+        <v>36263</v>
+      </c>
+      <c r="D41" s="101">
+        <v>54791</v>
+      </c>
       <c r="E41" s="124">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>18528</v>
       </c>
       <c r="F41" s="105"/>
     </row>
-    <row r="42" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A42" s="150"/>
+    <row r="42" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A42" s="151"/>
       <c r="B42" s="100"/>
       <c r="C42" s="101"/>
       <c r="D42" s="101"/>
       <c r="E42" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F42" s="105"/>
     </row>
-    <row r="43" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A43" s="150"/>
+    <row r="43" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A43" s="151"/>
       <c r="B43" s="100"/>
       <c r="C43" s="101"/>
       <c r="D43" s="101"/>
       <c r="E43" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F43" s="105"/>
     </row>
-    <row r="44" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A44" s="150"/>
+    <row r="44" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A44" s="151"/>
       <c r="B44" s="100"/>
       <c r="C44" s="101"/>
       <c r="D44" s="101"/>
       <c r="E44" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F44" s="105"/>
     </row>
-    <row r="45" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A45" s="150"/>
+    <row r="45" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A45" s="151"/>
       <c r="B45" s="100"/>
       <c r="C45" s="101"/>
       <c r="D45" s="101"/>
       <c r="E45" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F45" s="105"/>
     </row>
-    <row r="46" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A46" s="150"/>
+    <row r="46" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A46" s="151"/>
       <c r="B46" s="100"/>
       <c r="C46" s="101"/>
       <c r="D46" s="101"/>
       <c r="E46" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F46" s="105"/>
     </row>
-    <row r="47" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A47" s="150"/>
+    <row r="47" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A47" s="151"/>
       <c r="B47" s="100"/>
       <c r="C47" s="101"/>
       <c r="D47" s="101"/>
       <c r="E47" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" s="105"/>
     </row>
-    <row r="48" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A48" s="150"/>
+    <row r="48" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A48" s="151"/>
       <c r="B48" s="100"/>
       <c r="C48" s="101"/>
       <c r="D48" s="101"/>
       <c r="E48" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48" s="105"/>
     </row>
-    <row r="49" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A49" s="150"/>
+    <row r="49" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A49" s="151"/>
       <c r="B49" s="100"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
       <c r="E49" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F49" s="105"/>
     </row>
-    <row r="50" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A50" s="150"/>
+    <row r="50" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A50" s="151"/>
       <c r="B50" s="100"/>
       <c r="C50" s="101"/>
       <c r="D50" s="101"/>
       <c r="E50" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F50" s="105"/>
     </row>
-    <row r="51" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A51" s="150"/>
+    <row r="51" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A51" s="151"/>
       <c r="B51" s="100"/>
       <c r="C51" s="101"/>
       <c r="D51" s="101"/>
       <c r="E51" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F51" s="105"/>
     </row>
-    <row r="52" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A52" s="150"/>
+    <row r="52" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A52" s="151"/>
       <c r="B52" s="100"/>
       <c r="C52" s="101"/>
       <c r="D52" s="101"/>
       <c r="E52" s="123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F52" s="105"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A53" s="150"/>
+    <row r="53" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+      <c r="A53" s="151"/>
       <c r="B53" s="98" t="s">
         <v>186</v>
       </c>
       <c r="C53" s="99"/>
       <c r="D53" s="99"/>
       <c r="E53" s="125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F53" s="104"/>
     </row>
-    <row r="54" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+    <row r="54" spans="1:7" ht="17.25" thickTop="1" thickBot="1">
       <c r="A54" s="116">
         <v>2</v>
       </c>
@@ -3240,25 +3263,25 @@
       </c>
       <c r="C54" s="103">
         <f>C53-C40</f>
-        <v>0</v>
+        <v>-26534</v>
       </c>
       <c r="D54" s="103">
         <f>D53-D40</f>
-        <v>0</v>
+        <v>-32377</v>
       </c>
       <c r="E54" s="126">
         <f>E53-E40</f>
-        <v>0</v>
+        <v>-5843</v>
       </c>
       <c r="F54" s="107"/>
       <c r="G54" s="112">
         <f>E54</f>
-        <v>0</v>
+        <v>-5843</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="13.5" thickBot="1"/>
-    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A56" s="151" t="s">
+    <row r="56" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A56" s="152" t="s">
         <v>170</v>
       </c>
       <c r="B56" s="109" t="s">
@@ -3277,165 +3300,165 @@
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A57" s="150"/>
+    <row r="57" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+      <c r="A57" s="151"/>
       <c r="B57" s="98" t="s">
         <v>183</v>
       </c>
       <c r="C57" s="99"/>
       <c r="D57" s="99"/>
       <c r="E57" s="123">
-        <f t="shared" ref="E57:E70" si="3">IF(AND(C57&gt;0,D57&gt;0), D57-C57, 0)</f>
+        <f t="shared" ref="E57:E70" si="4">IF(AND(C57&gt;0,D57&gt;0), D57-C57, 0)</f>
         <v>0</v>
       </c>
       <c r="F57" s="104"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A58" s="150"/>
+    <row r="58" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
+      <c r="A58" s="151"/>
       <c r="B58" s="100"/>
       <c r="C58" s="101"/>
       <c r="D58" s="101"/>
       <c r="E58" s="124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F58" s="105"/>
     </row>
-    <row r="59" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A59" s="150"/>
+    <row r="59" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A59" s="151"/>
       <c r="B59" s="100"/>
       <c r="C59" s="101"/>
       <c r="D59" s="101"/>
       <c r="E59" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F59" s="105"/>
     </row>
-    <row r="60" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A60" s="150"/>
+    <row r="60" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A60" s="151"/>
       <c r="B60" s="100"/>
       <c r="C60" s="101"/>
       <c r="D60" s="101"/>
       <c r="E60" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F60" s="105"/>
     </row>
-    <row r="61" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A61" s="150"/>
+    <row r="61" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A61" s="151"/>
       <c r="B61" s="100"/>
       <c r="C61" s="101"/>
       <c r="D61" s="101"/>
       <c r="E61" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F61" s="105"/>
     </row>
-    <row r="62" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A62" s="150"/>
+    <row r="62" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A62" s="151"/>
       <c r="B62" s="100"/>
       <c r="C62" s="101"/>
       <c r="D62" s="101"/>
       <c r="E62" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F62" s="105"/>
     </row>
-    <row r="63" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A63" s="150"/>
+    <row r="63" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A63" s="151"/>
       <c r="B63" s="100"/>
       <c r="C63" s="101"/>
       <c r="D63" s="101"/>
       <c r="E63" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F63" s="105"/>
     </row>
-    <row r="64" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A64" s="150"/>
+    <row r="64" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A64" s="151"/>
       <c r="B64" s="100"/>
       <c r="C64" s="101"/>
       <c r="D64" s="101"/>
       <c r="E64" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F64" s="105"/>
     </row>
-    <row r="65" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A65" s="150"/>
+    <row r="65" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A65" s="151"/>
       <c r="B65" s="100"/>
       <c r="C65" s="101"/>
       <c r="D65" s="101"/>
       <c r="E65" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F65" s="105"/>
     </row>
-    <row r="66" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A66" s="150"/>
+    <row r="66" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A66" s="151"/>
       <c r="B66" s="100"/>
       <c r="C66" s="101"/>
       <c r="D66" s="101"/>
       <c r="E66" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F66" s="105"/>
     </row>
-    <row r="67" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A67" s="150"/>
+    <row r="67" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A67" s="151"/>
       <c r="B67" s="100"/>
       <c r="C67" s="101"/>
       <c r="D67" s="101"/>
       <c r="E67" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F67" s="105"/>
     </row>
-    <row r="68" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A68" s="150"/>
+    <row r="68" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A68" s="151"/>
       <c r="B68" s="100"/>
       <c r="C68" s="101"/>
       <c r="D68" s="101"/>
       <c r="E68" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F68" s="105"/>
     </row>
-    <row r="69" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A69" s="150"/>
+    <row r="69" spans="1:7" ht="15" outlineLevel="1">
+      <c r="A69" s="151"/>
       <c r="B69" s="100"/>
       <c r="C69" s="101"/>
       <c r="D69" s="101"/>
       <c r="E69" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F69" s="105"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A70" s="150"/>
+    <row r="70" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
+      <c r="A70" s="151"/>
       <c r="B70" s="98" t="s">
         <v>186</v>
       </c>
       <c r="C70" s="99"/>
       <c r="D70" s="99"/>
       <c r="E70" s="125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F70" s="104"/>
     </row>
-    <row r="71" spans="1:7" ht="17.25" collapsed="1" thickTop="1" thickBot="1">
+    <row r="71" spans="1:7" ht="17.25" thickTop="1" thickBot="1">
       <c r="A71" s="117">
         <v>3</v>
       </c>
@@ -3462,7 +3485,7 @@
     </row>
     <row r="72" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="73" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A73" s="149" t="s">
+      <c r="A73" s="150" t="s">
         <v>171</v>
       </c>
       <c r="B73" s="113" t="s">
@@ -3482,159 +3505,159 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A74" s="150"/>
+      <c r="A74" s="151"/>
       <c r="B74" s="98" t="s">
         <v>183</v>
       </c>
       <c r="C74" s="99"/>
       <c r="D74" s="99"/>
       <c r="E74" s="123">
-        <f t="shared" ref="E74:E87" si="4">IF(AND(C74&gt;0,D74&gt;0), D74-C74, 0)</f>
+        <f t="shared" ref="E74:E87" si="5">IF(AND(C74&gt;0,D74&gt;0), D74-C74, 0)</f>
         <v>0</v>
       </c>
       <c r="F74" s="104"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A75" s="150"/>
+      <c r="A75" s="151"/>
       <c r="B75" s="100"/>
       <c r="C75" s="101"/>
       <c r="D75" s="101"/>
       <c r="E75" s="124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F75" s="105"/>
     </row>
     <row r="76" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A76" s="150"/>
+      <c r="A76" s="151"/>
       <c r="B76" s="100"/>
       <c r="C76" s="101"/>
       <c r="D76" s="101"/>
       <c r="E76" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F76" s="105"/>
     </row>
     <row r="77" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A77" s="150"/>
+      <c r="A77" s="151"/>
       <c r="B77" s="100"/>
       <c r="C77" s="101"/>
       <c r="D77" s="101"/>
       <c r="E77" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F77" s="105"/>
     </row>
     <row r="78" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A78" s="150"/>
+      <c r="A78" s="151"/>
       <c r="B78" s="100"/>
       <c r="C78" s="101"/>
       <c r="D78" s="101"/>
       <c r="E78" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F78" s="105"/>
     </row>
     <row r="79" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A79" s="150"/>
+      <c r="A79" s="151"/>
       <c r="B79" s="100"/>
       <c r="C79" s="101"/>
       <c r="D79" s="101"/>
       <c r="E79" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F79" s="105"/>
     </row>
     <row r="80" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A80" s="150"/>
+      <c r="A80" s="151"/>
       <c r="B80" s="100"/>
       <c r="C80" s="101"/>
       <c r="D80" s="101"/>
       <c r="E80" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F80" s="105"/>
     </row>
     <row r="81" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A81" s="150"/>
+      <c r="A81" s="151"/>
       <c r="B81" s="100"/>
       <c r="C81" s="101"/>
       <c r="D81" s="101"/>
       <c r="E81" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F81" s="105"/>
     </row>
     <row r="82" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A82" s="150"/>
+      <c r="A82" s="151"/>
       <c r="B82" s="100"/>
       <c r="C82" s="101"/>
       <c r="D82" s="101"/>
       <c r="E82" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F82" s="105"/>
     </row>
     <row r="83" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A83" s="150"/>
+      <c r="A83" s="151"/>
       <c r="B83" s="100"/>
       <c r="C83" s="101"/>
       <c r="D83" s="101"/>
       <c r="E83" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F83" s="105"/>
     </row>
     <row r="84" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A84" s="150"/>
+      <c r="A84" s="151"/>
       <c r="B84" s="100"/>
       <c r="C84" s="101"/>
       <c r="D84" s="101"/>
       <c r="E84" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F84" s="105"/>
     </row>
     <row r="85" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A85" s="150"/>
+      <c r="A85" s="151"/>
       <c r="B85" s="100"/>
       <c r="C85" s="101"/>
       <c r="D85" s="101"/>
       <c r="E85" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F85" s="105"/>
     </row>
     <row r="86" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A86" s="150"/>
+      <c r="A86" s="151"/>
       <c r="B86" s="100"/>
       <c r="C86" s="101"/>
       <c r="D86" s="101"/>
       <c r="E86" s="123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F86" s="105"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A87" s="150"/>
+      <c r="A87" s="151"/>
       <c r="B87" s="98" t="s">
         <v>186</v>
       </c>
       <c r="C87" s="99"/>
       <c r="D87" s="99"/>
       <c r="E87" s="125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F87" s="104"/>
@@ -3666,7 +3689,7 @@
     </row>
     <row r="89" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="90" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A90" s="151" t="s">
+      <c r="A90" s="152" t="s">
         <v>172</v>
       </c>
       <c r="B90" s="109" t="s">
@@ -3686,159 +3709,159 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A91" s="150"/>
+      <c r="A91" s="151"/>
       <c r="B91" s="98" t="s">
         <v>183</v>
       </c>
       <c r="C91" s="99"/>
       <c r="D91" s="99"/>
       <c r="E91" s="123">
-        <f t="shared" ref="E91:E104" si="5">IF(AND(C91&gt;0,D91&gt;0), D91-C91, 0)</f>
+        <f t="shared" ref="E91:E104" si="6">IF(AND(C91&gt;0,D91&gt;0), D91-C91, 0)</f>
         <v>0</v>
       </c>
       <c r="F91" s="104"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A92" s="150"/>
+      <c r="A92" s="151"/>
       <c r="B92" s="100"/>
       <c r="C92" s="101"/>
       <c r="D92" s="101"/>
       <c r="E92" s="124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F92" s="105"/>
     </row>
     <row r="93" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A93" s="150"/>
+      <c r="A93" s="151"/>
       <c r="B93" s="100"/>
       <c r="C93" s="101"/>
       <c r="D93" s="101"/>
       <c r="E93" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F93" s="105"/>
     </row>
     <row r="94" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A94" s="150"/>
+      <c r="A94" s="151"/>
       <c r="B94" s="100"/>
       <c r="C94" s="101"/>
       <c r="D94" s="101"/>
       <c r="E94" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F94" s="105"/>
     </row>
     <row r="95" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A95" s="150"/>
+      <c r="A95" s="151"/>
       <c r="B95" s="100"/>
       <c r="C95" s="101"/>
       <c r="D95" s="101"/>
       <c r="E95" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F95" s="105"/>
     </row>
     <row r="96" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A96" s="150"/>
+      <c r="A96" s="151"/>
       <c r="B96" s="100"/>
       <c r="C96" s="101"/>
       <c r="D96" s="101"/>
       <c r="E96" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F96" s="105"/>
     </row>
     <row r="97" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A97" s="150"/>
+      <c r="A97" s="151"/>
       <c r="B97" s="100"/>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
       <c r="E97" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F97" s="105"/>
     </row>
     <row r="98" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A98" s="150"/>
+      <c r="A98" s="151"/>
       <c r="B98" s="100"/>
       <c r="C98" s="101"/>
       <c r="D98" s="101"/>
       <c r="E98" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F98" s="105"/>
     </row>
     <row r="99" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A99" s="150"/>
+      <c r="A99" s="151"/>
       <c r="B99" s="100"/>
       <c r="C99" s="101"/>
       <c r="D99" s="101"/>
       <c r="E99" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F99" s="105"/>
     </row>
     <row r="100" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A100" s="150"/>
+      <c r="A100" s="151"/>
       <c r="B100" s="100"/>
       <c r="C100" s="101"/>
       <c r="D100" s="101"/>
       <c r="E100" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F100" s="105"/>
     </row>
     <row r="101" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A101" s="150"/>
+      <c r="A101" s="151"/>
       <c r="B101" s="100"/>
       <c r="C101" s="101"/>
       <c r="D101" s="101"/>
       <c r="E101" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F101" s="105"/>
     </row>
     <row r="102" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A102" s="150"/>
+      <c r="A102" s="151"/>
       <c r="B102" s="100"/>
       <c r="C102" s="101"/>
       <c r="D102" s="101"/>
       <c r="E102" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F102" s="105"/>
     </row>
     <row r="103" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A103" s="150"/>
+      <c r="A103" s="151"/>
       <c r="B103" s="100"/>
       <c r="C103" s="101"/>
       <c r="D103" s="101"/>
       <c r="E103" s="123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F103" s="105"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A104" s="150"/>
+      <c r="A104" s="151"/>
       <c r="B104" s="98" t="s">
         <v>186</v>
       </c>
       <c r="C104" s="99"/>
       <c r="D104" s="99"/>
       <c r="E104" s="125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F104" s="104"/>
@@ -3869,7 +3892,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A107" s="149" t="s">
+      <c r="A107" s="150" t="s">
         <v>173</v>
       </c>
       <c r="B107" s="113" t="s">
@@ -3889,159 +3912,159 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A108" s="150"/>
+      <c r="A108" s="151"/>
       <c r="B108" s="98" t="s">
         <v>183</v>
       </c>
       <c r="C108" s="99"/>
       <c r="D108" s="99"/>
       <c r="E108" s="123">
-        <f t="shared" ref="E108:E121" si="6">IF(AND(C108&gt;0,D108&gt;0), D108-C108, 0)</f>
+        <f t="shared" ref="E108:E121" si="7">IF(AND(C108&gt;0,D108&gt;0), D108-C108, 0)</f>
         <v>0</v>
       </c>
       <c r="F108" s="104"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A109" s="150"/>
+      <c r="A109" s="151"/>
       <c r="B109" s="100"/>
       <c r="C109" s="101"/>
       <c r="D109" s="101"/>
       <c r="E109" s="124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F109" s="105"/>
     </row>
     <row r="110" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A110" s="150"/>
+      <c r="A110" s="151"/>
       <c r="B110" s="100"/>
       <c r="C110" s="101"/>
       <c r="D110" s="101"/>
       <c r="E110" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F110" s="105"/>
     </row>
     <row r="111" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A111" s="150"/>
+      <c r="A111" s="151"/>
       <c r="B111" s="100"/>
       <c r="C111" s="101"/>
       <c r="D111" s="101"/>
       <c r="E111" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F111" s="105"/>
     </row>
     <row r="112" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A112" s="150"/>
+      <c r="A112" s="151"/>
       <c r="B112" s="100"/>
       <c r="C112" s="101"/>
       <c r="D112" s="101"/>
       <c r="E112" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F112" s="105"/>
     </row>
     <row r="113" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A113" s="150"/>
+      <c r="A113" s="151"/>
       <c r="B113" s="100"/>
       <c r="C113" s="101"/>
       <c r="D113" s="101"/>
       <c r="E113" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F113" s="105"/>
     </row>
     <row r="114" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A114" s="150"/>
+      <c r="A114" s="151"/>
       <c r="B114" s="100"/>
       <c r="C114" s="101"/>
       <c r="D114" s="101"/>
       <c r="E114" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F114" s="105"/>
     </row>
     <row r="115" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A115" s="150"/>
+      <c r="A115" s="151"/>
       <c r="B115" s="100"/>
       <c r="C115" s="101"/>
       <c r="D115" s="101"/>
       <c r="E115" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F115" s="105"/>
     </row>
     <row r="116" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A116" s="150"/>
+      <c r="A116" s="151"/>
       <c r="B116" s="100"/>
       <c r="C116" s="101"/>
       <c r="D116" s="101"/>
       <c r="E116" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F116" s="105"/>
     </row>
     <row r="117" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A117" s="150"/>
+      <c r="A117" s="151"/>
       <c r="B117" s="100"/>
       <c r="C117" s="101"/>
       <c r="D117" s="101"/>
       <c r="E117" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F117" s="105"/>
     </row>
     <row r="118" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A118" s="150"/>
+      <c r="A118" s="151"/>
       <c r="B118" s="100"/>
       <c r="C118" s="101"/>
       <c r="D118" s="101"/>
       <c r="E118" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F118" s="105"/>
     </row>
     <row r="119" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A119" s="150"/>
+      <c r="A119" s="151"/>
       <c r="B119" s="100"/>
       <c r="C119" s="101"/>
       <c r="D119" s="101"/>
       <c r="E119" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F119" s="105"/>
     </row>
     <row r="120" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A120" s="150"/>
+      <c r="A120" s="151"/>
       <c r="B120" s="100"/>
       <c r="C120" s="101"/>
       <c r="D120" s="101"/>
       <c r="E120" s="123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F120" s="105"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A121" s="150"/>
+      <c r="A121" s="151"/>
       <c r="B121" s="98" t="s">
         <v>186</v>
       </c>
       <c r="C121" s="99"/>
       <c r="D121" s="99"/>
       <c r="E121" s="125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F121" s="104"/>
@@ -4072,7 +4095,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A124" s="151" t="s">
+      <c r="A124" s="152" t="s">
         <v>174</v>
       </c>
       <c r="B124" s="109" t="s">
@@ -4092,159 +4115,159 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A125" s="150"/>
+      <c r="A125" s="151"/>
       <c r="B125" s="98" t="s">
         <v>183</v>
       </c>
       <c r="C125" s="99"/>
       <c r="D125" s="99"/>
       <c r="E125" s="123">
-        <f t="shared" ref="E125:E138" si="7">IF(AND(C125&gt;0,D125&gt;0), D125-C125, 0)</f>
+        <f t="shared" ref="E125:E138" si="8">IF(AND(C125&gt;0,D125&gt;0), D125-C125, 0)</f>
         <v>0</v>
       </c>
       <c r="F125" s="104"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A126" s="150"/>
+      <c r="A126" s="151"/>
       <c r="B126" s="100"/>
       <c r="C126" s="101"/>
       <c r="D126" s="101"/>
       <c r="E126" s="124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F126" s="105"/>
     </row>
     <row r="127" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A127" s="150"/>
+      <c r="A127" s="151"/>
       <c r="B127" s="100"/>
       <c r="C127" s="101"/>
       <c r="D127" s="101"/>
       <c r="E127" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F127" s="105"/>
     </row>
     <row r="128" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A128" s="150"/>
+      <c r="A128" s="151"/>
       <c r="B128" s="100"/>
       <c r="C128" s="101"/>
       <c r="D128" s="101"/>
       <c r="E128" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F128" s="105"/>
     </row>
     <row r="129" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A129" s="150"/>
+      <c r="A129" s="151"/>
       <c r="B129" s="100"/>
       <c r="C129" s="101"/>
       <c r="D129" s="101"/>
       <c r="E129" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F129" s="105"/>
     </row>
     <row r="130" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A130" s="150"/>
+      <c r="A130" s="151"/>
       <c r="B130" s="100"/>
       <c r="C130" s="101"/>
       <c r="D130" s="101"/>
       <c r="E130" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F130" s="105"/>
     </row>
     <row r="131" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A131" s="150"/>
+      <c r="A131" s="151"/>
       <c r="B131" s="100"/>
       <c r="C131" s="101"/>
       <c r="D131" s="101"/>
       <c r="E131" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F131" s="105"/>
     </row>
     <row r="132" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A132" s="150"/>
+      <c r="A132" s="151"/>
       <c r="B132" s="100"/>
       <c r="C132" s="101"/>
       <c r="D132" s="101"/>
       <c r="E132" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F132" s="105"/>
     </row>
     <row r="133" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A133" s="150"/>
+      <c r="A133" s="151"/>
       <c r="B133" s="100"/>
       <c r="C133" s="101"/>
       <c r="D133" s="101"/>
       <c r="E133" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F133" s="105"/>
     </row>
     <row r="134" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A134" s="150"/>
+      <c r="A134" s="151"/>
       <c r="B134" s="100"/>
       <c r="C134" s="101"/>
       <c r="D134" s="101"/>
       <c r="E134" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F134" s="105"/>
     </row>
     <row r="135" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A135" s="150"/>
+      <c r="A135" s="151"/>
       <c r="B135" s="100"/>
       <c r="C135" s="101"/>
       <c r="D135" s="101"/>
       <c r="E135" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F135" s="105"/>
     </row>
     <row r="136" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A136" s="150"/>
+      <c r="A136" s="151"/>
       <c r="B136" s="100"/>
       <c r="C136" s="101"/>
       <c r="D136" s="101"/>
       <c r="E136" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F136" s="105"/>
     </row>
     <row r="137" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A137" s="150"/>
+      <c r="A137" s="151"/>
       <c r="B137" s="100"/>
       <c r="C137" s="101"/>
       <c r="D137" s="101"/>
       <c r="E137" s="123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F137" s="105"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A138" s="150"/>
+      <c r="A138" s="151"/>
       <c r="B138" s="98" t="s">
         <v>186</v>
       </c>
       <c r="C138" s="99"/>
       <c r="D138" s="99"/>
       <c r="E138" s="125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F138" s="104"/>
@@ -4275,7 +4298,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A141" s="149" t="s">
+      <c r="A141" s="150" t="s">
         <v>175</v>
       </c>
       <c r="B141" s="113" t="s">
@@ -4295,159 +4318,159 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A142" s="150"/>
+      <c r="A142" s="151"/>
       <c r="B142" s="98" t="s">
         <v>183</v>
       </c>
       <c r="C142" s="99"/>
       <c r="D142" s="99"/>
       <c r="E142" s="123">
-        <f t="shared" ref="E142:E155" si="8">IF(AND(C142&gt;0,D142&gt;0), D142-C142, 0)</f>
+        <f t="shared" ref="E142:E155" si="9">IF(AND(C142&gt;0,D142&gt;0), D142-C142, 0)</f>
         <v>0</v>
       </c>
       <c r="F142" s="104"/>
     </row>
     <row r="143" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickTop="1">
-      <c r="A143" s="150"/>
+      <c r="A143" s="151"/>
       <c r="B143" s="100"/>
       <c r="C143" s="101"/>
       <c r="D143" s="101"/>
       <c r="E143" s="124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F143" s="105"/>
     </row>
     <row r="144" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A144" s="150"/>
+      <c r="A144" s="151"/>
       <c r="B144" s="100"/>
       <c r="C144" s="101"/>
       <c r="D144" s="101"/>
       <c r="E144" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F144" s="105"/>
     </row>
     <row r="145" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A145" s="150"/>
+      <c r="A145" s="151"/>
       <c r="B145" s="100"/>
       <c r="C145" s="101"/>
       <c r="D145" s="101"/>
       <c r="E145" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F145" s="105"/>
     </row>
     <row r="146" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A146" s="150"/>
+      <c r="A146" s="151"/>
       <c r="B146" s="100"/>
       <c r="C146" s="101"/>
       <c r="D146" s="101"/>
       <c r="E146" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F146" s="105"/>
     </row>
     <row r="147" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A147" s="150"/>
+      <c r="A147" s="151"/>
       <c r="B147" s="100"/>
       <c r="C147" s="101"/>
       <c r="D147" s="101"/>
       <c r="E147" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F147" s="105"/>
     </row>
     <row r="148" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A148" s="150"/>
+      <c r="A148" s="151"/>
       <c r="B148" s="100"/>
       <c r="C148" s="101"/>
       <c r="D148" s="101"/>
       <c r="E148" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F148" s="105"/>
     </row>
     <row r="149" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A149" s="150"/>
+      <c r="A149" s="151"/>
       <c r="B149" s="100"/>
       <c r="C149" s="101"/>
       <c r="D149" s="101"/>
       <c r="E149" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F149" s="105"/>
     </row>
     <row r="150" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A150" s="150"/>
+      <c r="A150" s="151"/>
       <c r="B150" s="100"/>
       <c r="C150" s="101"/>
       <c r="D150" s="101"/>
       <c r="E150" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F150" s="105"/>
     </row>
     <row r="151" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A151" s="150"/>
+      <c r="A151" s="151"/>
       <c r="B151" s="100"/>
       <c r="C151" s="101"/>
       <c r="D151" s="101"/>
       <c r="E151" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F151" s="105"/>
     </row>
     <row r="152" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A152" s="150"/>
+      <c r="A152" s="151"/>
       <c r="B152" s="100"/>
       <c r="C152" s="101"/>
       <c r="D152" s="101"/>
       <c r="E152" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F152" s="105"/>
     </row>
     <row r="153" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A153" s="150"/>
+      <c r="A153" s="151"/>
       <c r="B153" s="100"/>
       <c r="C153" s="101"/>
       <c r="D153" s="101"/>
       <c r="E153" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F153" s="105"/>
     </row>
     <row r="154" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A154" s="150"/>
+      <c r="A154" s="151"/>
       <c r="B154" s="100"/>
       <c r="C154" s="101"/>
       <c r="D154" s="101"/>
       <c r="E154" s="123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F154" s="105"/>
     </row>
     <row r="155" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A155" s="150"/>
+      <c r="A155" s="151"/>
       <c r="B155" s="98" t="s">
         <v>186</v>
       </c>
       <c r="C155" s="99"/>
       <c r="D155" s="99"/>
       <c r="E155" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F155" s="104"/>
@@ -4479,6 +4502,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A141:A155"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A73:A87"/>
+    <mergeCell ref="A124:A138"/>
+    <mergeCell ref="A90:A104"/>
     <mergeCell ref="A39:A53"/>
     <mergeCell ref="A56:A70"/>
     <mergeCell ref="C5:D5"/>
@@ -4487,11 +4515,6 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A19:A36"/>
-    <mergeCell ref="A141:A155"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A73:A87"/>
-    <mergeCell ref="A124:A138"/>
-    <mergeCell ref="A90:A104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4523,13 +4546,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4559,18 +4582,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
     </row>
     <row r="4" spans="1:8" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2">
@@ -4722,9 +4745,9 @@
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A22" s="47">
@@ -4875,9 +4898,9 @@
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A39" s="47">
@@ -5028,9 +5051,9 @@
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="159"/>
+      <c r="C55" s="162"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="163"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A56" s="47">
@@ -5181,9 +5204,9 @@
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="158"/>
-      <c r="D72" s="159"/>
-      <c r="E72" s="159"/>
+      <c r="C72" s="162"/>
+      <c r="D72" s="163"/>
+      <c r="E72" s="163"/>
     </row>
     <row r="73" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A73" s="47">
@@ -5334,9 +5357,9 @@
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="158"/>
-      <c r="D89" s="159"/>
-      <c r="E89" s="159"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="163"/>
+      <c r="E89" s="163"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A90" s="47">
@@ -5487,9 +5510,9 @@
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="158"/>
-      <c r="D106" s="159"/>
-      <c r="E106" s="159"/>
+      <c r="C106" s="162"/>
+      <c r="D106" s="163"/>
+      <c r="E106" s="163"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A107" s="47">
@@ -5640,9 +5663,9 @@
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="158"/>
-      <c r="D123" s="159"/>
-      <c r="E123" s="159"/>
+      <c r="C123" s="162"/>
+      <c r="D123" s="163"/>
+      <c r="E123" s="163"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A124" s="47">
@@ -5793,9 +5816,9 @@
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="158"/>
-      <c r="D140" s="159"/>
-      <c r="E140" s="159"/>
+      <c r="C140" s="162"/>
+      <c r="D140" s="163"/>
+      <c r="E140" s="163"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A141" s="47">
@@ -5946,9 +5969,9 @@
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="158"/>
-      <c r="D157" s="159"/>
-      <c r="E157" s="159"/>
+      <c r="C157" s="162"/>
+      <c r="D157" s="163"/>
+      <c r="E157" s="163"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A158" s="47">
@@ -6099,9 +6122,9 @@
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="158"/>
-      <c r="D174" s="159"/>
-      <c r="E174" s="159"/>
+      <c r="C174" s="162"/>
+      <c r="D174" s="163"/>
+      <c r="E174" s="163"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A175" s="47">
@@ -6252,9 +6275,9 @@
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="158"/>
-      <c r="D191" s="159"/>
-      <c r="E191" s="159"/>
+      <c r="C191" s="162"/>
+      <c r="D191" s="163"/>
+      <c r="E191" s="163"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A192" s="47">
@@ -6405,9 +6428,9 @@
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="158"/>
-      <c r="D208" s="159"/>
-      <c r="E208" s="159"/>
+      <c r="C208" s="162"/>
+      <c r="D208" s="163"/>
+      <c r="E208" s="163"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A209" s="47">
@@ -6558,9 +6581,9 @@
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="158"/>
-      <c r="D225" s="159"/>
-      <c r="E225" s="159"/>
+      <c r="C225" s="162"/>
+      <c r="D225" s="163"/>
+      <c r="E225" s="163"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A226" s="47">
@@ -6711,9 +6734,9 @@
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="158"/>
-      <c r="D242" s="159"/>
-      <c r="E242" s="159"/>
+      <c r="C242" s="162"/>
+      <c r="D242" s="163"/>
+      <c r="E242" s="163"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A243" s="47">
@@ -6864,9 +6887,9 @@
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="158"/>
-      <c r="D259" s="159"/>
-      <c r="E259" s="159"/>
+      <c r="C259" s="162"/>
+      <c r="D259" s="163"/>
+      <c r="E259" s="163"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A260" s="47">
@@ -7017,18 +7040,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="174"/>
-      <c r="D276" s="175"/>
-      <c r="E276" s="175"/>
+      <c r="C276" s="166"/>
+      <c r="D276" s="167"/>
+      <c r="E276" s="167"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="158"/>
-      <c r="D277" s="159"/>
-      <c r="E277" s="159"/>
+      <c r="C277" s="162"/>
+      <c r="D277" s="163"/>
+      <c r="E277" s="163"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A278" s="52">
@@ -7179,9 +7202,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="160"/>
-      <c r="D294" s="161"/>
-      <c r="E294" s="161"/>
+      <c r="C294" s="164"/>
+      <c r="D294" s="165"/>
+      <c r="E294" s="165"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A295" s="52">
@@ -7332,9 +7355,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="158"/>
-      <c r="D311" s="159"/>
-      <c r="E311" s="159"/>
+      <c r="C311" s="162"/>
+      <c r="D311" s="163"/>
+      <c r="E311" s="163"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A312" s="52">
@@ -7485,9 +7508,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="158"/>
-      <c r="D328" s="159"/>
-      <c r="E328" s="159"/>
+      <c r="C328" s="162"/>
+      <c r="D328" s="163"/>
+      <c r="E328" s="163"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A329" s="52">
@@ -7638,9 +7661,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="158"/>
-      <c r="D345" s="159"/>
-      <c r="E345" s="159"/>
+      <c r="C345" s="162"/>
+      <c r="D345" s="163"/>
+      <c r="E345" s="163"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A346" s="52">
@@ -7791,9 +7814,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="158"/>
-      <c r="D362" s="159"/>
-      <c r="E362" s="159"/>
+      <c r="C362" s="162"/>
+      <c r="D362" s="163"/>
+      <c r="E362" s="163"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A363" s="52">
@@ -7944,9 +7967,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="158"/>
-      <c r="D379" s="159"/>
-      <c r="E379" s="159"/>
+      <c r="C379" s="162"/>
+      <c r="D379" s="163"/>
+      <c r="E379" s="163"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A380" s="52">
@@ -8097,9 +8120,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="158"/>
-      <c r="D396" s="159"/>
-      <c r="E396" s="159"/>
+      <c r="C396" s="162"/>
+      <c r="D396" s="163"/>
+      <c r="E396" s="163"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A397" s="52">
@@ -8250,9 +8273,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="158"/>
-      <c r="D413" s="159"/>
-      <c r="E413" s="159"/>
+      <c r="C413" s="162"/>
+      <c r="D413" s="163"/>
+      <c r="E413" s="163"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A414" s="52">
@@ -8403,9 +8426,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="158"/>
-      <c r="D430" s="159"/>
-      <c r="E430" s="159"/>
+      <c r="C430" s="162"/>
+      <c r="D430" s="163"/>
+      <c r="E430" s="163"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A431" s="52">
@@ -8556,9 +8579,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="158"/>
-      <c r="D447" s="159"/>
-      <c r="E447" s="159"/>
+      <c r="C447" s="162"/>
+      <c r="D447" s="163"/>
+      <c r="E447" s="163"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A448" s="52">
@@ -8709,9 +8732,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="158"/>
-      <c r="D464" s="159"/>
-      <c r="E464" s="159"/>
+      <c r="C464" s="162"/>
+      <c r="D464" s="163"/>
+      <c r="E464" s="163"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A465" s="52">
@@ -8862,9 +8885,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="158"/>
-      <c r="D481" s="159"/>
-      <c r="E481" s="159"/>
+      <c r="C481" s="162"/>
+      <c r="D481" s="163"/>
+      <c r="E481" s="163"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A482" s="52">
@@ -9015,9 +9038,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="158"/>
-      <c r="D498" s="159"/>
-      <c r="E498" s="159"/>
+      <c r="C498" s="162"/>
+      <c r="D498" s="163"/>
+      <c r="E498" s="163"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A499" s="52">
@@ -9168,9 +9191,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="158"/>
-      <c r="D515" s="159"/>
-      <c r="E515" s="159"/>
+      <c r="C515" s="162"/>
+      <c r="D515" s="163"/>
+      <c r="E515" s="163"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A516" s="52">
@@ -9321,9 +9344,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="158"/>
-      <c r="D532" s="159"/>
-      <c r="E532" s="159"/>
+      <c r="C532" s="162"/>
+      <c r="D532" s="163"/>
+      <c r="E532" s="163"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A533" s="55">
@@ -9474,18 +9497,18 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="172"/>
-      <c r="D549" s="173"/>
-      <c r="E549" s="173"/>
+      <c r="C549" s="168"/>
+      <c r="D549" s="169"/>
+      <c r="E549" s="169"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A550" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="158"/>
-      <c r="D550" s="159"/>
-      <c r="E550" s="159"/>
+      <c r="C550" s="162"/>
+      <c r="D550" s="163"/>
+      <c r="E550" s="163"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -9636,9 +9659,9 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="160"/>
-      <c r="D567" s="161"/>
-      <c r="E567" s="161"/>
+      <c r="C567" s="164"/>
+      <c r="D567" s="165"/>
+      <c r="E567" s="165"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A568" s="59">
@@ -9789,9 +9812,9 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="158"/>
-      <c r="D584" s="159"/>
-      <c r="E584" s="159"/>
+      <c r="C584" s="162"/>
+      <c r="D584" s="163"/>
+      <c r="E584" s="163"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -9942,9 +9965,9 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="158"/>
-      <c r="D601" s="159"/>
-      <c r="E601" s="159"/>
+      <c r="C601" s="162"/>
+      <c r="D601" s="163"/>
+      <c r="E601" s="163"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -10095,9 +10118,9 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="158"/>
-      <c r="D618" s="159"/>
-      <c r="E618" s="159"/>
+      <c r="C618" s="162"/>
+      <c r="D618" s="163"/>
+      <c r="E618" s="163"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -10248,9 +10271,9 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="158"/>
-      <c r="D635" s="159"/>
-      <c r="E635" s="159"/>
+      <c r="C635" s="162"/>
+      <c r="D635" s="163"/>
+      <c r="E635" s="163"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -10401,9 +10424,9 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="158"/>
-      <c r="D652" s="159"/>
-      <c r="E652" s="159"/>
+      <c r="C652" s="162"/>
+      <c r="D652" s="163"/>
+      <c r="E652" s="163"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -10554,9 +10577,9 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="158"/>
-      <c r="D669" s="159"/>
-      <c r="E669" s="159"/>
+      <c r="C669" s="162"/>
+      <c r="D669" s="163"/>
+      <c r="E669" s="163"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -10707,9 +10730,9 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="158"/>
-      <c r="D686" s="159"/>
-      <c r="E686" s="159"/>
+      <c r="C686" s="162"/>
+      <c r="D686" s="163"/>
+      <c r="E686" s="163"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -10860,9 +10883,9 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="158"/>
-      <c r="D703" s="159"/>
-      <c r="E703" s="159"/>
+      <c r="C703" s="162"/>
+      <c r="D703" s="163"/>
+      <c r="E703" s="163"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -11013,9 +11036,9 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="158"/>
-      <c r="D720" s="159"/>
-      <c r="E720" s="159"/>
+      <c r="C720" s="162"/>
+      <c r="D720" s="163"/>
+      <c r="E720" s="163"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -11166,9 +11189,9 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="158"/>
-      <c r="D737" s="159"/>
-      <c r="E737" s="159"/>
+      <c r="C737" s="162"/>
+      <c r="D737" s="163"/>
+      <c r="E737" s="163"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -11319,9 +11342,9 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="158"/>
-      <c r="D754" s="159"/>
-      <c r="E754" s="159"/>
+      <c r="C754" s="162"/>
+      <c r="D754" s="163"/>
+      <c r="E754" s="163"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -11472,9 +11495,9 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="158"/>
-      <c r="D771" s="159"/>
-      <c r="E771" s="159"/>
+      <c r="C771" s="162"/>
+      <c r="D771" s="163"/>
+      <c r="E771" s="163"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -11625,9 +11648,9 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="158"/>
-      <c r="D788" s="159"/>
-      <c r="E788" s="159"/>
+      <c r="C788" s="162"/>
+      <c r="D788" s="163"/>
+      <c r="E788" s="163"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -11778,9 +11801,9 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="158"/>
-      <c r="D805" s="159"/>
-      <c r="E805" s="159"/>
+      <c r="C805" s="162"/>
+      <c r="D805" s="163"/>
+      <c r="E805" s="163"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -11940,9 +11963,9 @@
         <v>68</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="158"/>
-      <c r="D823" s="159"/>
-      <c r="E823" s="159"/>
+      <c r="C823" s="162"/>
+      <c r="D823" s="163"/>
+      <c r="E823" s="163"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A824" s="64">
@@ -12093,9 +12116,9 @@
         <v>69</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="160"/>
-      <c r="D840" s="161"/>
-      <c r="E840" s="161"/>
+      <c r="C840" s="164"/>
+      <c r="D840" s="165"/>
+      <c r="E840" s="165"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A841" s="64">
@@ -12246,9 +12269,9 @@
         <v>70</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="158"/>
-      <c r="D857" s="159"/>
-      <c r="E857" s="159"/>
+      <c r="C857" s="162"/>
+      <c r="D857" s="163"/>
+      <c r="E857" s="163"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A858" s="64">
@@ -12399,9 +12422,9 @@
         <v>71</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="158"/>
-      <c r="D874" s="159"/>
-      <c r="E874" s="159"/>
+      <c r="C874" s="162"/>
+      <c r="D874" s="163"/>
+      <c r="E874" s="163"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A875" s="64">
@@ -12552,9 +12575,9 @@
         <v>72</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="158"/>
-      <c r="D891" s="159"/>
-      <c r="E891" s="159"/>
+      <c r="C891" s="162"/>
+      <c r="D891" s="163"/>
+      <c r="E891" s="163"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A892" s="64">
@@ -12705,9 +12728,9 @@
         <v>73</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="158"/>
-      <c r="D908" s="159"/>
-      <c r="E908" s="159"/>
+      <c r="C908" s="162"/>
+      <c r="D908" s="163"/>
+      <c r="E908" s="163"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A909" s="64">
@@ -12858,9 +12881,9 @@
         <v>74</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="158"/>
-      <c r="D925" s="159"/>
-      <c r="E925" s="159"/>
+      <c r="C925" s="162"/>
+      <c r="D925" s="163"/>
+      <c r="E925" s="163"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A926" s="64">
@@ -13011,9 +13034,9 @@
         <v>75</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="158"/>
-      <c r="D942" s="159"/>
-      <c r="E942" s="159"/>
+      <c r="C942" s="162"/>
+      <c r="D942" s="163"/>
+      <c r="E942" s="163"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A943" s="64">
@@ -13164,9 +13187,9 @@
         <v>76</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="158"/>
-      <c r="D959" s="159"/>
-      <c r="E959" s="159"/>
+      <c r="C959" s="162"/>
+      <c r="D959" s="163"/>
+      <c r="E959" s="163"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A960" s="64">
@@ -13317,9 +13340,9 @@
         <v>77</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="158"/>
-      <c r="D976" s="159"/>
-      <c r="E976" s="159"/>
+      <c r="C976" s="162"/>
+      <c r="D976" s="163"/>
+      <c r="E976" s="163"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A977" s="64">
@@ -13470,9 +13493,9 @@
         <v>78</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="158"/>
-      <c r="D993" s="159"/>
-      <c r="E993" s="159"/>
+      <c r="C993" s="162"/>
+      <c r="D993" s="163"/>
+      <c r="E993" s="163"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A994" s="64">
@@ -13623,9 +13646,9 @@
         <v>79</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="158"/>
-      <c r="D1010" s="159"/>
-      <c r="E1010" s="159"/>
+      <c r="C1010" s="162"/>
+      <c r="D1010" s="163"/>
+      <c r="E1010" s="163"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1011" s="64">
@@ -13776,9 +13799,9 @@
         <v>80</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="158"/>
-      <c r="D1027" s="159"/>
-      <c r="E1027" s="159"/>
+      <c r="C1027" s="162"/>
+      <c r="D1027" s="163"/>
+      <c r="E1027" s="163"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1028" s="64">
@@ -13929,9 +13952,9 @@
         <v>83</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="158"/>
-      <c r="D1044" s="159"/>
-      <c r="E1044" s="159"/>
+      <c r="C1044" s="162"/>
+      <c r="D1044" s="163"/>
+      <c r="E1044" s="163"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1045" s="64">
@@ -14082,9 +14105,9 @@
         <v>82</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="158"/>
-      <c r="D1061" s="159"/>
-      <c r="E1061" s="159"/>
+      <c r="C1061" s="162"/>
+      <c r="D1061" s="163"/>
+      <c r="E1061" s="163"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1062" s="64">
@@ -14235,9 +14258,9 @@
         <v>84</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="158"/>
-      <c r="D1078" s="159"/>
-      <c r="E1078" s="159"/>
+      <c r="C1078" s="162"/>
+      <c r="D1078" s="163"/>
+      <c r="E1078" s="163"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1079" s="64">
@@ -14388,18 +14411,18 @@
         <v>104</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="168"/>
-      <c r="D1095" s="169"/>
-      <c r="E1095" s="169"/>
+      <c r="C1095" s="172"/>
+      <c r="D1095" s="173"/>
+      <c r="E1095" s="173"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1096" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="158"/>
-      <c r="D1096" s="159"/>
-      <c r="E1096" s="159"/>
+      <c r="C1096" s="162"/>
+      <c r="D1096" s="163"/>
+      <c r="E1096" s="163"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1097" s="69">
@@ -14550,9 +14573,9 @@
         <v>86</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="160"/>
-      <c r="D1113" s="161"/>
-      <c r="E1113" s="161"/>
+      <c r="C1113" s="164"/>
+      <c r="D1113" s="165"/>
+      <c r="E1113" s="165"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1114" s="69">
@@ -14703,9 +14726,9 @@
         <v>87</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="158"/>
-      <c r="D1130" s="159"/>
-      <c r="E1130" s="159"/>
+      <c r="C1130" s="162"/>
+      <c r="D1130" s="163"/>
+      <c r="E1130" s="163"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1131" s="69">
@@ -14856,9 +14879,9 @@
         <v>88</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="158"/>
-      <c r="D1147" s="159"/>
-      <c r="E1147" s="159"/>
+      <c r="C1147" s="162"/>
+      <c r="D1147" s="163"/>
+      <c r="E1147" s="163"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1148" s="69">
@@ -15009,9 +15032,9 @@
         <v>89</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="158"/>
-      <c r="D1164" s="159"/>
-      <c r="E1164" s="159"/>
+      <c r="C1164" s="162"/>
+      <c r="D1164" s="163"/>
+      <c r="E1164" s="163"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1165" s="69">
@@ -15162,9 +15185,9 @@
         <v>90</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="158"/>
-      <c r="D1181" s="159"/>
-      <c r="E1181" s="159"/>
+      <c r="C1181" s="162"/>
+      <c r="D1181" s="163"/>
+      <c r="E1181" s="163"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3">
       <c r="A1182" s="69">
@@ -15315,9 +15338,9 @@
         <v>91</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="158"/>
-      <c r="D1198" s="159"/>
-      <c r="E1198" s="159"/>
+      <c r="C1198" s="162"/>
+      <c r="D1198" s="163"/>
+      <c r="E1198" s="163"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1199" s="69">
@@ -15468,9 +15491,9 @@
         <v>92</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="158"/>
-      <c r="D1215" s="159"/>
-      <c r="E1215" s="159"/>
+      <c r="C1215" s="162"/>
+      <c r="D1215" s="163"/>
+      <c r="E1215" s="163"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1216" s="69">
@@ -15621,9 +15644,9 @@
         <v>93</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="158"/>
-      <c r="D1232" s="159"/>
-      <c r="E1232" s="159"/>
+      <c r="C1232" s="162"/>
+      <c r="D1232" s="163"/>
+      <c r="E1232" s="163"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1233" s="69">
@@ -15774,9 +15797,9 @@
         <v>94</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="158"/>
-      <c r="D1249" s="159"/>
-      <c r="E1249" s="159"/>
+      <c r="C1249" s="162"/>
+      <c r="D1249" s="163"/>
+      <c r="E1249" s="163"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1250" s="69">
@@ -15927,9 +15950,9 @@
         <v>99</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="158"/>
-      <c r="D1266" s="159"/>
-      <c r="E1266" s="159"/>
+      <c r="C1266" s="162"/>
+      <c r="D1266" s="163"/>
+      <c r="E1266" s="163"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1267" s="69">
@@ -16080,9 +16103,9 @@
         <v>100</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="158"/>
-      <c r="D1283" s="159"/>
-      <c r="E1283" s="159"/>
+      <c r="C1283" s="162"/>
+      <c r="D1283" s="163"/>
+      <c r="E1283" s="163"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1284" s="69">
@@ -16233,9 +16256,9 @@
         <v>101</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="158"/>
-      <c r="D1300" s="159"/>
-      <c r="E1300" s="159"/>
+      <c r="C1300" s="162"/>
+      <c r="D1300" s="163"/>
+      <c r="E1300" s="163"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1301" s="69">
@@ -16386,9 +16409,9 @@
         <v>81</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="158"/>
-      <c r="D1317" s="159"/>
-      <c r="E1317" s="159"/>
+      <c r="C1317" s="162"/>
+      <c r="D1317" s="163"/>
+      <c r="E1317" s="163"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1318" s="69">
@@ -16539,9 +16562,9 @@
         <v>102</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="158"/>
-      <c r="D1334" s="159"/>
-      <c r="E1334" s="159"/>
+      <c r="C1334" s="162"/>
+      <c r="D1334" s="163"/>
+      <c r="E1334" s="163"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1335" s="69">
@@ -16692,9 +16715,9 @@
         <v>98</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="158"/>
-      <c r="D1351" s="159"/>
-      <c r="E1351" s="159"/>
+      <c r="C1351" s="162"/>
+      <c r="D1351" s="163"/>
+      <c r="E1351" s="163"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1352" s="69">
@@ -16845,18 +16868,18 @@
         <v>103</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="166"/>
-      <c r="D1368" s="167"/>
-      <c r="E1368" s="167"/>
+      <c r="C1368" s="174"/>
+      <c r="D1368" s="175"/>
+      <c r="E1368" s="175"/>
     </row>
     <row r="1369" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1369" s="73" t="s">
         <v>105</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="158"/>
-      <c r="D1369" s="159"/>
-      <c r="E1369" s="159"/>
+      <c r="C1369" s="162"/>
+      <c r="D1369" s="163"/>
+      <c r="E1369" s="163"/>
     </row>
     <row r="1370" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1370" s="74">
@@ -17007,9 +17030,9 @@
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="160"/>
-      <c r="D1386" s="161"/>
-      <c r="E1386" s="161"/>
+      <c r="C1386" s="164"/>
+      <c r="D1386" s="165"/>
+      <c r="E1386" s="165"/>
     </row>
     <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1387" s="74">
@@ -17160,9 +17183,9 @@
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="158"/>
-      <c r="D1403" s="159"/>
-      <c r="E1403" s="159"/>
+      <c r="C1403" s="162"/>
+      <c r="D1403" s="163"/>
+      <c r="E1403" s="163"/>
     </row>
     <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1404" s="74">
@@ -17313,9 +17336,9 @@
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="158"/>
-      <c r="D1420" s="159"/>
-      <c r="E1420" s="159"/>
+      <c r="C1420" s="162"/>
+      <c r="D1420" s="163"/>
+      <c r="E1420" s="163"/>
     </row>
     <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1421" s="74">
@@ -17466,9 +17489,9 @@
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="158"/>
-      <c r="D1437" s="159"/>
-      <c r="E1437" s="159"/>
+      <c r="C1437" s="162"/>
+      <c r="D1437" s="163"/>
+      <c r="E1437" s="163"/>
     </row>
     <row r="1438" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1438" s="74">
@@ -17619,9 +17642,9 @@
         <v>110</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="158"/>
-      <c r="D1454" s="159"/>
-      <c r="E1454" s="159"/>
+      <c r="C1454" s="162"/>
+      <c r="D1454" s="163"/>
+      <c r="E1454" s="163"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1455" s="74">
@@ -17772,9 +17795,9 @@
         <v>111</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="158"/>
-      <c r="D1471" s="159"/>
-      <c r="E1471" s="159"/>
+      <c r="C1471" s="162"/>
+      <c r="D1471" s="163"/>
+      <c r="E1471" s="163"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1472" s="74">
@@ -17925,9 +17948,9 @@
         <v>112</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="158"/>
-      <c r="D1488" s="159"/>
-      <c r="E1488" s="159"/>
+      <c r="C1488" s="162"/>
+      <c r="D1488" s="163"/>
+      <c r="E1488" s="163"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1489" s="74">
@@ -18078,9 +18101,9 @@
         <v>113</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="158"/>
-      <c r="D1505" s="159"/>
-      <c r="E1505" s="159"/>
+      <c r="C1505" s="162"/>
+      <c r="D1505" s="163"/>
+      <c r="E1505" s="163"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1506" s="74">
@@ -18231,9 +18254,9 @@
         <v>114</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="158"/>
-      <c r="D1522" s="159"/>
-      <c r="E1522" s="159"/>
+      <c r="C1522" s="162"/>
+      <c r="D1522" s="163"/>
+      <c r="E1522" s="163"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1523" s="74">
@@ -18384,9 +18407,9 @@
         <v>95</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="158"/>
-      <c r="D1539" s="159"/>
-      <c r="E1539" s="159"/>
+      <c r="C1539" s="162"/>
+      <c r="D1539" s="163"/>
+      <c r="E1539" s="163"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1540" s="74">
@@ -18537,9 +18560,9 @@
         <v>115</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="158"/>
-      <c r="D1556" s="159"/>
-      <c r="E1556" s="159"/>
+      <c r="C1556" s="162"/>
+      <c r="D1556" s="163"/>
+      <c r="E1556" s="163"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1557" s="74">
@@ -18690,9 +18713,9 @@
         <v>116</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="158"/>
-      <c r="D1573" s="159"/>
-      <c r="E1573" s="159"/>
+      <c r="C1573" s="162"/>
+      <c r="D1573" s="163"/>
+      <c r="E1573" s="163"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1574" s="74">
@@ -18843,9 +18866,9 @@
         <v>117</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="158"/>
-      <c r="D1590" s="159"/>
-      <c r="E1590" s="159"/>
+      <c r="C1590" s="162"/>
+      <c r="D1590" s="163"/>
+      <c r="E1590" s="163"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1591" s="74">
@@ -18996,9 +19019,9 @@
         <v>118</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="158"/>
-      <c r="D1607" s="159"/>
-      <c r="E1607" s="159"/>
+      <c r="C1607" s="162"/>
+      <c r="D1607" s="163"/>
+      <c r="E1607" s="163"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1608" s="74">
@@ -19149,9 +19172,9 @@
         <v>119</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="158"/>
-      <c r="D1624" s="159"/>
-      <c r="E1624" s="159"/>
+      <c r="C1624" s="162"/>
+      <c r="D1624" s="163"/>
+      <c r="E1624" s="163"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1625" s="74">
@@ -19302,18 +19325,18 @@
         <v>120</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="164"/>
-      <c r="D1641" s="165"/>
-      <c r="E1641" s="165"/>
+      <c r="C1641" s="176"/>
+      <c r="D1641" s="177"/>
+      <c r="E1641" s="177"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1642" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="158"/>
-      <c r="D1642" s="159"/>
-      <c r="E1642" s="159"/>
+      <c r="C1642" s="162"/>
+      <c r="D1642" s="163"/>
+      <c r="E1642" s="163"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1643" s="79">
@@ -19464,9 +19487,9 @@
         <v>122</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="160"/>
-      <c r="D1659" s="161"/>
-      <c r="E1659" s="161"/>
+      <c r="C1659" s="164"/>
+      <c r="D1659" s="165"/>
+      <c r="E1659" s="165"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1660" s="79">
@@ -19617,9 +19640,9 @@
         <v>123</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="158"/>
-      <c r="D1676" s="159"/>
-      <c r="E1676" s="159"/>
+      <c r="C1676" s="162"/>
+      <c r="D1676" s="163"/>
+      <c r="E1676" s="163"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1677" s="79">
@@ -19770,9 +19793,9 @@
         <v>124</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="158"/>
-      <c r="D1693" s="159"/>
-      <c r="E1693" s="159"/>
+      <c r="C1693" s="162"/>
+      <c r="D1693" s="163"/>
+      <c r="E1693" s="163"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1694" s="79">
@@ -19923,9 +19946,9 @@
         <v>125</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="158"/>
-      <c r="D1710" s="159"/>
-      <c r="E1710" s="159"/>
+      <c r="C1710" s="162"/>
+      <c r="D1710" s="163"/>
+      <c r="E1710" s="163"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1711" s="79">
@@ -20076,9 +20099,9 @@
         <v>126</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="158"/>
-      <c r="D1727" s="159"/>
-      <c r="E1727" s="159"/>
+      <c r="C1727" s="162"/>
+      <c r="D1727" s="163"/>
+      <c r="E1727" s="163"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1728" s="79">
@@ -20229,9 +20252,9 @@
         <v>127</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="158"/>
-      <c r="D1744" s="159"/>
-      <c r="E1744" s="159"/>
+      <c r="C1744" s="162"/>
+      <c r="D1744" s="163"/>
+      <c r="E1744" s="163"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1745" s="79">
@@ -20382,9 +20405,9 @@
         <v>128</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="158"/>
-      <c r="D1761" s="159"/>
-      <c r="E1761" s="159"/>
+      <c r="C1761" s="162"/>
+      <c r="D1761" s="163"/>
+      <c r="E1761" s="163"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1762" s="79">
@@ -20535,9 +20558,9 @@
         <v>129</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="158"/>
-      <c r="D1778" s="159"/>
-      <c r="E1778" s="159"/>
+      <c r="C1778" s="162"/>
+      <c r="D1778" s="163"/>
+      <c r="E1778" s="163"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1779" s="79">
@@ -20688,9 +20711,9 @@
         <v>130</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="158"/>
-      <c r="D1795" s="159"/>
-      <c r="E1795" s="159"/>
+      <c r="C1795" s="162"/>
+      <c r="D1795" s="163"/>
+      <c r="E1795" s="163"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1796" s="79">
@@ -20841,9 +20864,9 @@
         <v>131</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="158"/>
-      <c r="D1812" s="159"/>
-      <c r="E1812" s="159"/>
+      <c r="C1812" s="162"/>
+      <c r="D1812" s="163"/>
+      <c r="E1812" s="163"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1813" s="79">
@@ -20994,9 +21017,9 @@
         <v>96</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="158"/>
-      <c r="D1829" s="159"/>
-      <c r="E1829" s="159"/>
+      <c r="C1829" s="162"/>
+      <c r="D1829" s="163"/>
+      <c r="E1829" s="163"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1830" s="79">
@@ -21147,9 +21170,9 @@
         <v>132</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="158"/>
-      <c r="D1846" s="159"/>
-      <c r="E1846" s="159"/>
+      <c r="C1846" s="162"/>
+      <c r="D1846" s="163"/>
+      <c r="E1846" s="163"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1847" s="79">
@@ -21300,9 +21323,9 @@
         <v>133</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="158"/>
-      <c r="D1863" s="159"/>
-      <c r="E1863" s="159"/>
+      <c r="C1863" s="162"/>
+      <c r="D1863" s="163"/>
+      <c r="E1863" s="163"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1864" s="79">
@@ -21453,9 +21476,9 @@
         <v>134</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="158"/>
-      <c r="D1880" s="159"/>
-      <c r="E1880" s="159"/>
+      <c r="C1880" s="162"/>
+      <c r="D1880" s="163"/>
+      <c r="E1880" s="163"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1881" s="79">
@@ -21606,9 +21629,9 @@
         <v>135</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="158"/>
-      <c r="D1897" s="159"/>
-      <c r="E1897" s="159"/>
+      <c r="C1897" s="162"/>
+      <c r="D1897" s="163"/>
+      <c r="E1897" s="163"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1898" s="79">
@@ -21759,18 +21782,18 @@
         <v>136</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="162"/>
-      <c r="D1914" s="163"/>
-      <c r="E1914" s="163"/>
+      <c r="C1914" s="178"/>
+      <c r="D1914" s="179"/>
+      <c r="E1914" s="179"/>
     </row>
     <row r="1915" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1915" s="83" t="s">
         <v>137</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="158"/>
-      <c r="D1915" s="159"/>
-      <c r="E1915" s="159"/>
+      <c r="C1915" s="162"/>
+      <c r="D1915" s="163"/>
+      <c r="E1915" s="163"/>
     </row>
     <row r="1916" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1916" s="84">
@@ -21921,9 +21944,9 @@
         <v>138</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="160"/>
-      <c r="D1932" s="161"/>
-      <c r="E1932" s="161"/>
+      <c r="C1932" s="164"/>
+      <c r="D1932" s="165"/>
+      <c r="E1932" s="165"/>
     </row>
     <row r="1933" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1933" s="84">
@@ -22074,9 +22097,9 @@
         <v>139</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="158"/>
-      <c r="D1949" s="159"/>
-      <c r="E1949" s="159"/>
+      <c r="C1949" s="162"/>
+      <c r="D1949" s="163"/>
+      <c r="E1949" s="163"/>
     </row>
     <row r="1950" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1950" s="84">
@@ -22227,9 +22250,9 @@
         <v>140</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="158"/>
-      <c r="D1966" s="159"/>
-      <c r="E1966" s="159"/>
+      <c r="C1966" s="162"/>
+      <c r="D1966" s="163"/>
+      <c r="E1966" s="163"/>
     </row>
     <row r="1967" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1967" s="84">
@@ -22380,9 +22403,9 @@
         <v>141</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="158"/>
-      <c r="D1983" s="159"/>
-      <c r="E1983" s="159"/>
+      <c r="C1983" s="162"/>
+      <c r="D1983" s="163"/>
+      <c r="E1983" s="163"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1984" s="84">
@@ -22533,9 +22556,9 @@
         <v>142</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="158"/>
-      <c r="D2000" s="159"/>
-      <c r="E2000" s="159"/>
+      <c r="C2000" s="162"/>
+      <c r="D2000" s="163"/>
+      <c r="E2000" s="163"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2001" s="84">
@@ -22686,9 +22709,9 @@
         <v>143</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="158"/>
-      <c r="D2017" s="159"/>
-      <c r="E2017" s="159"/>
+      <c r="C2017" s="162"/>
+      <c r="D2017" s="163"/>
+      <c r="E2017" s="163"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2018" s="84">
@@ -22839,9 +22862,9 @@
         <v>144</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="158"/>
-      <c r="D2034" s="159"/>
-      <c r="E2034" s="159"/>
+      <c r="C2034" s="162"/>
+      <c r="D2034" s="163"/>
+      <c r="E2034" s="163"/>
     </row>
     <row r="2035" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2035" s="84">
@@ -22992,9 +23015,9 @@
         <v>145</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="158"/>
-      <c r="D2051" s="159"/>
-      <c r="E2051" s="159"/>
+      <c r="C2051" s="162"/>
+      <c r="D2051" s="163"/>
+      <c r="E2051" s="163"/>
     </row>
     <row r="2052" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2052" s="84">
@@ -23145,9 +23168,9 @@
         <v>146</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="158"/>
-      <c r="D2068" s="159"/>
-      <c r="E2068" s="159"/>
+      <c r="C2068" s="162"/>
+      <c r="D2068" s="163"/>
+      <c r="E2068" s="163"/>
     </row>
     <row r="2069" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2069" s="84">
@@ -23298,9 +23321,9 @@
         <v>147</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="158"/>
-      <c r="D2085" s="159"/>
-      <c r="E2085" s="159"/>
+      <c r="C2085" s="162"/>
+      <c r="D2085" s="163"/>
+      <c r="E2085" s="163"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2086" s="84">
@@ -23451,9 +23474,9 @@
         <v>148</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="158"/>
-      <c r="D2102" s="159"/>
-      <c r="E2102" s="159"/>
+      <c r="C2102" s="162"/>
+      <c r="D2102" s="163"/>
+      <c r="E2102" s="163"/>
     </row>
     <row r="2103" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2103" s="84">
@@ -23604,9 +23627,9 @@
         <v>97</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="158"/>
-      <c r="D2119" s="159"/>
-      <c r="E2119" s="159"/>
+      <c r="C2119" s="162"/>
+      <c r="D2119" s="163"/>
+      <c r="E2119" s="163"/>
     </row>
     <row r="2120" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2120" s="84">
@@ -23757,9 +23780,9 @@
         <v>149</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="158"/>
-      <c r="D2136" s="159"/>
-      <c r="E2136" s="159"/>
+      <c r="C2136" s="162"/>
+      <c r="D2136" s="163"/>
+      <c r="E2136" s="163"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2137" s="84">
@@ -23910,9 +23933,9 @@
         <v>150</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="158"/>
-      <c r="D2153" s="159"/>
-      <c r="E2153" s="159"/>
+      <c r="C2153" s="162"/>
+      <c r="D2153" s="163"/>
+      <c r="E2153" s="163"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2154" s="84">
@@ -24063,9 +24086,9 @@
         <v>151</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="158"/>
-      <c r="D2170" s="159"/>
-      <c r="E2170" s="159"/>
+      <c r="C2170" s="162"/>
+      <c r="D2170" s="163"/>
+      <c r="E2170" s="163"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2171" s="84">
@@ -24213,26 +24236,111 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="C1932:E1932"/>
+    <mergeCell ref="C1949:E1949"/>
+    <mergeCell ref="C1966:E1966"/>
+    <mergeCell ref="C1983:E1983"/>
+    <mergeCell ref="C2000:E2000"/>
+    <mergeCell ref="C2017:E2017"/>
+    <mergeCell ref="C1846:E1846"/>
+    <mergeCell ref="C1863:E1863"/>
+    <mergeCell ref="C1880:E1880"/>
+    <mergeCell ref="C1897:E1897"/>
+    <mergeCell ref="C1914:E1914"/>
+    <mergeCell ref="C1915:E1915"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
     <mergeCell ref="C396:E396"/>
     <mergeCell ref="C413:E413"/>
     <mergeCell ref="C430:E430"/>
@@ -24245,113 +24353,28 @@
     <mergeCell ref="C345:E345"/>
     <mergeCell ref="C362:E362"/>
     <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1932:E1932"/>
-    <mergeCell ref="C1949:E1949"/>
-    <mergeCell ref="C1966:E1966"/>
-    <mergeCell ref="C1983:E1983"/>
-    <mergeCell ref="C2000:E2000"/>
-    <mergeCell ref="C2017:E2017"/>
-    <mergeCell ref="C1846:E1846"/>
-    <mergeCell ref="C1863:E1863"/>
-    <mergeCell ref="C1880:E1880"/>
-    <mergeCell ref="C1897:E1897"/>
-    <mergeCell ref="C1914:E1914"/>
-    <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -24376,51 +24399,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="186" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="185"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="180" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="182"/>
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1">
       <c r="A4" s="28" t="s">
@@ -24637,19 +24660,19 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="180" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="181"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="181"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="182"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28" t="s">
@@ -24866,19 +24889,19 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="180" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="180"/>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="180"/>
-      <c r="K37" s="181"/>
+      <c r="B37" s="181"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="182"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
@@ -25102,7 +25125,7 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A20:K20"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25136,28 +25159,28 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="186"/>
+      <c r="A3" s="187"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="187"/>
+      <c r="A4" s="188"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="187"/>
+      <c r="A5" s="188"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="187"/>
+      <c r="A6" s="188"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="187"/>
+      <c r="A7" s="188"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="187"/>
+      <c r="A8" s="188"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="187"/>
+      <c r="A9" s="188"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" thickBot="1">
-      <c r="A10" s="188"/>
+      <c r="A10" s="189"/>
     </row>
     <row r="11" spans="1:1" ht="27" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -25313,7 +25336,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:A10"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25340,10 +25363,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="190" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="190"/>
+      <c r="C1" s="191"/>
       <c r="D1" s="92"/>
       <c r="E1" s="32"/>
     </row>
@@ -25354,7 +25377,7 @@
       <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="192" t="s">
         <v>208</v>
       </c>
       <c r="B3" s="131" t="s">
@@ -25368,7 +25391,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="192"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="128" t="s">
         <v>159</v>
       </c>
@@ -25380,7 +25403,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="192"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="128" t="s">
         <v>160</v>
       </c>
@@ -25389,31 +25412,31 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="192"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="139" t="s">
         <v>210</v>
       </c>
       <c r="C6" s="134">
         <f>FrameCounts!H2</f>
-        <v>2</v>
+        <v>35.43333333333333</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="192"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="128" t="s">
         <v>177</v>
       </c>
       <c r="C7" s="135">
         <f>C6/60</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0.5905555555555555</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="192"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="128" t="s">
         <v>178</v>
       </c>
@@ -25422,7 +25445,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A9" s="193"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="136" t="s">
         <v>161</v>
       </c>
@@ -25437,7 +25460,7 @@
       <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A11" s="191" t="s">
+      <c r="A11" s="192" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="131" t="s">
@@ -25451,7 +25474,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="192"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="128" t="s">
         <v>159</v>
       </c>
@@ -25463,7 +25486,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="192"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="128" t="s">
         <v>160</v>
       </c>
@@ -25472,7 +25495,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="192"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="139" t="s">
         <v>210</v>
       </c>
@@ -25484,7 +25507,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="192"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="128" t="s">
         <v>177</v>
       </c>
@@ -25496,7 +25519,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="192"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="128" t="s">
         <v>178</v>
       </c>
@@ -25505,7 +25528,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A17" s="193"/>
+      <c r="A17" s="194"/>
       <c r="B17" s="136" t="s">
         <v>161</v>
       </c>
@@ -25520,7 +25543,7 @@
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" collapsed="1">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="192" t="s">
         <v>209</v>
       </c>
       <c r="B19" s="131" t="s">
@@ -25529,7 +25552,7 @@
       <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A20" s="192"/>
+      <c r="A20" s="193"/>
       <c r="B20" s="128" t="s">
         <v>159</v>
       </c>
@@ -25539,14 +25562,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A21" s="192"/>
+      <c r="A21" s="193"/>
       <c r="B21" s="128" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A22" s="192"/>
+      <c r="A22" s="193"/>
       <c r="B22" s="139" t="s">
         <v>210</v>
       </c>
@@ -25556,7 +25579,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A23" s="192"/>
+      <c r="A23" s="193"/>
       <c r="B23" s="128" t="s">
         <v>177</v>
       </c>
@@ -25566,14 +25589,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A24" s="192"/>
+      <c r="A24" s="193"/>
       <c r="B24" s="128" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A25" s="193"/>
+      <c r="A25" s="194"/>
       <c r="B25" s="136" t="s">
         <v>161</v>
       </c>
@@ -25586,7 +25609,7 @@
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A25"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -25608,163 +25631,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="205" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="204"/>
+      <c r="B1" s="206"/>
       <c r="C1" s="118"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="211" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="201"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="213" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="201"/>
+      <c r="B3" s="212"/>
       <c r="C3" s="120"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="207"/>
-      <c r="B4" s="208"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="210"/>
       <c r="C4" s="120"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="205" t="s">
+      <c r="A5" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="206"/>
+      <c r="B5" s="208"/>
       <c r="C5" s="120"/>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="211" t="s">
+      <c r="A7" s="199" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="212"/>
+      <c r="B7" s="200"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="120"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="201" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="210"/>
+      <c r="B9" s="202"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="196"/>
-      <c r="B10" s="197"/>
+      <c r="A10" s="203"/>
+      <c r="B10" s="204"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="195" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="199"/>
+      <c r="B11" s="196"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="198" t="s">
+      <c r="A12" s="195" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="199"/>
+      <c r="B12" s="196"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="195" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="199"/>
+      <c r="B13" s="196"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="195" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="199"/>
+      <c r="B14" s="196"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="198" t="s">
+      <c r="A15" s="195" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="199"/>
+      <c r="B15" s="196"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="198" t="s">
+      <c r="A16" s="195" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="199"/>
+      <c r="B16" s="196"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="194" t="s">
+      <c r="A17" s="197" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="195"/>
+      <c r="B17" s="198"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="211" t="s">
+      <c r="A19" s="199" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="212"/>
+      <c r="B19" s="200"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="120"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="209" t="s">
+      <c r="A21" s="201" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="210"/>
+      <c r="B21" s="202"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="196"/>
-      <c r="B22" s="197"/>
+      <c r="A22" s="203"/>
+      <c r="B22" s="204"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="198" t="s">
+      <c r="A23" s="195" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="199"/>
+      <c r="B23" s="196"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="198"/>
-      <c r="B24" s="199"/>
+      <c r="A24" s="195"/>
+      <c r="B24" s="196"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="198" t="s">
+      <c r="A25" s="195" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="199"/>
+      <c r="B25" s="196"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="198" t="s">
+      <c r="A26" s="195" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="199"/>
+      <c r="B26" s="196"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="194"/>
-      <c r="B27" s="195"/>
+      <c r="A27" s="197"/>
+      <c r="B27" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -25775,6 +25785,19 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/DW3/DQ3.xlsx
+++ b/DW3/DQ3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="235">
   <si>
     <t>Notes</t>
   </si>
@@ -762,6 +762,9 @@
   <si>
     <t>Beging registration</t>
   </si>
+  <si>
+    <t>Step on square to right of Kanave</t>
+  </si>
 </sst>
 </file>
 
@@ -771,10 +774,17 @@
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1700,34 +1710,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,208 +1745,208 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1946,10 +1956,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1970,140 +1980,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2418,7 +2431,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -2434,16 +2447,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="156" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="158"/>
       <c r="G1" s="140"/>
       <c r="H1" s="141">
         <f>SUM(G1:G65538)</f>
@@ -2521,10 +2534,10 @@
       <c r="B5" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="154" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="153"/>
+      <c r="D5" s="154"/>
       <c r="E5" s="147"/>
       <c r="F5" s="143"/>
       <c r="G5" s="140"/>
@@ -2540,10 +2553,10 @@
       <c r="B6" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="154" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="147"/>
       <c r="F6" s="143"/>
       <c r="G6" s="140"/>
@@ -2561,7 +2574,7 @@
       <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="159" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="95" t="s">
@@ -2581,7 +2594,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A9" s="151"/>
+      <c r="A9" s="152"/>
       <c r="B9" s="98" t="s">
         <v>183</v>
       </c>
@@ -2595,7 +2608,7 @@
       <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A10" s="151"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="148" t="s">
         <v>215</v>
       </c>
@@ -2612,7 +2625,7 @@
       <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A11" s="151"/>
+      <c r="A11" s="152"/>
       <c r="B11" s="148" t="s">
         <v>216</v>
       </c>
@@ -2629,7 +2642,7 @@
       <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A12" s="151"/>
+      <c r="A12" s="152"/>
       <c r="B12" s="148" t="s">
         <v>217</v>
       </c>
@@ -2646,7 +2659,7 @@
       <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A13" s="151"/>
+      <c r="A13" s="152"/>
       <c r="B13" s="148" t="s">
         <v>218</v>
       </c>
@@ -2663,7 +2676,7 @@
       <c r="F13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A14" s="151"/>
+      <c r="A14" s="152"/>
       <c r="B14" s="148" t="s">
         <v>219</v>
       </c>
@@ -2680,7 +2693,7 @@
       <c r="F14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A15" s="151"/>
+      <c r="A15" s="152"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
@@ -2691,7 +2704,7 @@
       <c r="F15" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A16" s="151"/>
+      <c r="A16" s="152"/>
       <c r="B16" s="98" t="s">
         <v>186</v>
       </c>
@@ -2734,7 +2747,7 @@
     </row>
     <row r="18" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="19" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="153" t="s">
         <v>231</v>
       </c>
       <c r="B19" s="109" t="s">
@@ -2754,7 +2767,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A20" s="151"/>
+      <c r="A20" s="152"/>
       <c r="B20" s="98" t="s">
         <v>183</v>
       </c>
@@ -2771,7 +2784,7 @@
       <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A21" s="151"/>
+      <c r="A21" s="152"/>
       <c r="B21" s="148" t="s">
         <v>221</v>
       </c>
@@ -2788,7 +2801,7 @@
       <c r="F21" s="105"/>
     </row>
     <row r="22" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A22" s="151"/>
+      <c r="A22" s="152"/>
       <c r="B22" s="148" t="s">
         <v>221</v>
       </c>
@@ -2805,7 +2818,7 @@
       <c r="F22" s="105"/>
     </row>
     <row r="23" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A23" s="151"/>
+      <c r="A23" s="152"/>
       <c r="B23" s="148" t="s">
         <v>221</v>
       </c>
@@ -2822,7 +2835,7 @@
       <c r="F23" s="105"/>
     </row>
     <row r="24" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A24" s="151"/>
+      <c r="A24" s="152"/>
       <c r="B24" s="148" t="s">
         <v>221</v>
       </c>
@@ -2839,7 +2852,7 @@
       <c r="F24" s="105"/>
     </row>
     <row r="25" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A25" s="151"/>
+      <c r="A25" s="152"/>
       <c r="B25" s="148" t="s">
         <v>222</v>
       </c>
@@ -2856,7 +2869,7 @@
       <c r="F25" s="105"/>
     </row>
     <row r="26" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A26" s="151"/>
+      <c r="A26" s="152"/>
       <c r="B26" s="148" t="s">
         <v>223</v>
       </c>
@@ -2873,7 +2886,7 @@
       <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A27" s="151"/>
+      <c r="A27" s="152"/>
       <c r="B27" s="148" t="s">
         <v>224</v>
       </c>
@@ -2890,7 +2903,7 @@
       <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A28" s="151"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="148" t="s">
         <v>224</v>
       </c>
@@ -2907,7 +2920,7 @@
       <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A29" s="151"/>
+      <c r="A29" s="152"/>
       <c r="B29" s="148" t="s">
         <v>225</v>
       </c>
@@ -2924,7 +2937,7 @@
       <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A30" s="151"/>
+      <c r="A30" s="152"/>
       <c r="B30" s="148" t="s">
         <v>226</v>
       </c>
@@ -2941,7 +2954,7 @@
       <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A31" s="151"/>
+      <c r="A31" s="152"/>
       <c r="B31" s="148" t="s">
         <v>227</v>
       </c>
@@ -2956,7 +2969,7 @@
       <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A32" s="151"/>
+      <c r="A32" s="152"/>
       <c r="B32" s="149" t="s">
         <v>228</v>
       </c>
@@ -2973,7 +2986,7 @@
       <c r="F32" s="105"/>
     </row>
     <row r="33" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A33" s="151"/>
+      <c r="A33" s="152"/>
       <c r="B33" s="149" t="s">
         <v>229</v>
       </c>
@@ -2990,7 +3003,7 @@
       <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A34" s="151"/>
+      <c r="A34" s="152"/>
       <c r="B34" s="149" t="s">
         <v>230</v>
       </c>
@@ -3007,7 +3020,7 @@
       <c r="F34" s="105"/>
     </row>
     <row r="35" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A35" s="151"/>
+      <c r="A35" s="152"/>
       <c r="B35" s="149" t="s">
         <v>232</v>
       </c>
@@ -3024,7 +3037,7 @@
       <c r="F35" s="105"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A36" s="151"/>
+      <c r="A36" s="152"/>
       <c r="B36" s="98" t="s">
         <v>186</v>
       </c>
@@ -3067,7 +3080,7 @@
     </row>
     <row r="38" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="39" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A39" s="150" t="s">
+      <c r="A39" s="151" t="s">
         <v>169</v>
       </c>
       <c r="B39" s="113" t="s">
@@ -3087,7 +3100,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A40" s="151"/>
+      <c r="A40" s="152"/>
       <c r="B40" s="98" t="s">
         <v>183</v>
       </c>
@@ -3104,8 +3117,8 @@
       <c r="F40" s="104"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A41" s="151"/>
-      <c r="B41" s="214" t="s">
+      <c r="A41" s="152"/>
+      <c r="B41" s="150" t="s">
         <v>233</v>
       </c>
       <c r="C41" s="101">
@@ -3121,18 +3134,24 @@
       <c r="F41" s="105"/>
     </row>
     <row r="42" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A42" s="151"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
+      <c r="A42" s="152"/>
+      <c r="B42" s="215" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="101">
+        <v>41709</v>
+      </c>
+      <c r="D42" s="101">
+        <v>67224</v>
+      </c>
       <c r="E42" s="123">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25515</v>
       </c>
       <c r="F42" s="105"/>
     </row>
     <row r="43" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A43" s="151"/>
+      <c r="A43" s="152"/>
       <c r="B43" s="100"/>
       <c r="C43" s="101"/>
       <c r="D43" s="101"/>
@@ -3143,7 +3162,7 @@
       <c r="F43" s="105"/>
     </row>
     <row r="44" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A44" s="151"/>
+      <c r="A44" s="152"/>
       <c r="B44" s="100"/>
       <c r="C44" s="101"/>
       <c r="D44" s="101"/>
@@ -3154,7 +3173,7 @@
       <c r="F44" s="105"/>
     </row>
     <row r="45" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A45" s="151"/>
+      <c r="A45" s="152"/>
       <c r="B45" s="100"/>
       <c r="C45" s="101"/>
       <c r="D45" s="101"/>
@@ -3165,7 +3184,7 @@
       <c r="F45" s="105"/>
     </row>
     <row r="46" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A46" s="151"/>
+      <c r="A46" s="152"/>
       <c r="B46" s="100"/>
       <c r="C46" s="101"/>
       <c r="D46" s="101"/>
@@ -3176,7 +3195,7 @@
       <c r="F46" s="105"/>
     </row>
     <row r="47" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A47" s="151"/>
+      <c r="A47" s="152"/>
       <c r="B47" s="100"/>
       <c r="C47" s="101"/>
       <c r="D47" s="101"/>
@@ -3187,7 +3206,7 @@
       <c r="F47" s="105"/>
     </row>
     <row r="48" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A48" s="151"/>
+      <c r="A48" s="152"/>
       <c r="B48" s="100"/>
       <c r="C48" s="101"/>
       <c r="D48" s="101"/>
@@ -3198,7 +3217,7 @@
       <c r="F48" s="105"/>
     </row>
     <row r="49" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A49" s="151"/>
+      <c r="A49" s="152"/>
       <c r="B49" s="100"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
@@ -3209,7 +3228,7 @@
       <c r="F49" s="105"/>
     </row>
     <row r="50" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A50" s="151"/>
+      <c r="A50" s="152"/>
       <c r="B50" s="100"/>
       <c r="C50" s="101"/>
       <c r="D50" s="101"/>
@@ -3220,7 +3239,7 @@
       <c r="F50" s="105"/>
     </row>
     <row r="51" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A51" s="151"/>
+      <c r="A51" s="152"/>
       <c r="B51" s="100"/>
       <c r="C51" s="101"/>
       <c r="D51" s="101"/>
@@ -3231,7 +3250,7 @@
       <c r="F51" s="105"/>
     </row>
     <row r="52" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A52" s="151"/>
+      <c r="A52" s="152"/>
       <c r="B52" s="100"/>
       <c r="C52" s="101"/>
       <c r="D52" s="101"/>
@@ -3242,7 +3261,7 @@
       <c r="F52" s="105"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A53" s="151"/>
+      <c r="A53" s="152"/>
       <c r="B53" s="98" t="s">
         <v>186</v>
       </c>
@@ -3281,7 +3300,7 @@
     </row>
     <row r="55" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="56" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A56" s="152" t="s">
+      <c r="A56" s="153" t="s">
         <v>170</v>
       </c>
       <c r="B56" s="109" t="s">
@@ -3301,7 +3320,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A57" s="151"/>
+      <c r="A57" s="152"/>
       <c r="B57" s="98" t="s">
         <v>183</v>
       </c>
@@ -3314,7 +3333,7 @@
       <c r="F57" s="104"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A58" s="151"/>
+      <c r="A58" s="152"/>
       <c r="B58" s="100"/>
       <c r="C58" s="101"/>
       <c r="D58" s="101"/>
@@ -3325,7 +3344,7 @@
       <c r="F58" s="105"/>
     </row>
     <row r="59" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A59" s="151"/>
+      <c r="A59" s="152"/>
       <c r="B59" s="100"/>
       <c r="C59" s="101"/>
       <c r="D59" s="101"/>
@@ -3336,7 +3355,7 @@
       <c r="F59" s="105"/>
     </row>
     <row r="60" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A60" s="151"/>
+      <c r="A60" s="152"/>
       <c r="B60" s="100"/>
       <c r="C60" s="101"/>
       <c r="D60" s="101"/>
@@ -3347,7 +3366,7 @@
       <c r="F60" s="105"/>
     </row>
     <row r="61" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A61" s="151"/>
+      <c r="A61" s="152"/>
       <c r="B61" s="100"/>
       <c r="C61" s="101"/>
       <c r="D61" s="101"/>
@@ -3358,7 +3377,7 @@
       <c r="F61" s="105"/>
     </row>
     <row r="62" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A62" s="151"/>
+      <c r="A62" s="152"/>
       <c r="B62" s="100"/>
       <c r="C62" s="101"/>
       <c r="D62" s="101"/>
@@ -3369,7 +3388,7 @@
       <c r="F62" s="105"/>
     </row>
     <row r="63" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A63" s="151"/>
+      <c r="A63" s="152"/>
       <c r="B63" s="100"/>
       <c r="C63" s="101"/>
       <c r="D63" s="101"/>
@@ -3380,7 +3399,7 @@
       <c r="F63" s="105"/>
     </row>
     <row r="64" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A64" s="151"/>
+      <c r="A64" s="152"/>
       <c r="B64" s="100"/>
       <c r="C64" s="101"/>
       <c r="D64" s="101"/>
@@ -3391,7 +3410,7 @@
       <c r="F64" s="105"/>
     </row>
     <row r="65" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A65" s="151"/>
+      <c r="A65" s="152"/>
       <c r="B65" s="100"/>
       <c r="C65" s="101"/>
       <c r="D65" s="101"/>
@@ -3402,7 +3421,7 @@
       <c r="F65" s="105"/>
     </row>
     <row r="66" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A66" s="151"/>
+      <c r="A66" s="152"/>
       <c r="B66" s="100"/>
       <c r="C66" s="101"/>
       <c r="D66" s="101"/>
@@ -3413,7 +3432,7 @@
       <c r="F66" s="105"/>
     </row>
     <row r="67" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A67" s="151"/>
+      <c r="A67" s="152"/>
       <c r="B67" s="100"/>
       <c r="C67" s="101"/>
       <c r="D67" s="101"/>
@@ -3424,7 +3443,7 @@
       <c r="F67" s="105"/>
     </row>
     <row r="68" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A68" s="151"/>
+      <c r="A68" s="152"/>
       <c r="B68" s="100"/>
       <c r="C68" s="101"/>
       <c r="D68" s="101"/>
@@ -3435,7 +3454,7 @@
       <c r="F68" s="105"/>
     </row>
     <row r="69" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A69" s="151"/>
+      <c r="A69" s="152"/>
       <c r="B69" s="100"/>
       <c r="C69" s="101"/>
       <c r="D69" s="101"/>
@@ -3446,7 +3465,7 @@
       <c r="F69" s="105"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A70" s="151"/>
+      <c r="A70" s="152"/>
       <c r="B70" s="98" t="s">
         <v>186</v>
       </c>
@@ -3485,7 +3504,7 @@
     </row>
     <row r="72" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="73" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A73" s="150" t="s">
+      <c r="A73" s="151" t="s">
         <v>171</v>
       </c>
       <c r="B73" s="113" t="s">
@@ -3505,7 +3524,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A74" s="151"/>
+      <c r="A74" s="152"/>
       <c r="B74" s="98" t="s">
         <v>183</v>
       </c>
@@ -3518,7 +3537,7 @@
       <c r="F74" s="104"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A75" s="151"/>
+      <c r="A75" s="152"/>
       <c r="B75" s="100"/>
       <c r="C75" s="101"/>
       <c r="D75" s="101"/>
@@ -3529,7 +3548,7 @@
       <c r="F75" s="105"/>
     </row>
     <row r="76" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A76" s="151"/>
+      <c r="A76" s="152"/>
       <c r="B76" s="100"/>
       <c r="C76" s="101"/>
       <c r="D76" s="101"/>
@@ -3540,7 +3559,7 @@
       <c r="F76" s="105"/>
     </row>
     <row r="77" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A77" s="151"/>
+      <c r="A77" s="152"/>
       <c r="B77" s="100"/>
       <c r="C77" s="101"/>
       <c r="D77" s="101"/>
@@ -3551,7 +3570,7 @@
       <c r="F77" s="105"/>
     </row>
     <row r="78" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A78" s="151"/>
+      <c r="A78" s="152"/>
       <c r="B78" s="100"/>
       <c r="C78" s="101"/>
       <c r="D78" s="101"/>
@@ -3562,7 +3581,7 @@
       <c r="F78" s="105"/>
     </row>
     <row r="79" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A79" s="151"/>
+      <c r="A79" s="152"/>
       <c r="B79" s="100"/>
       <c r="C79" s="101"/>
       <c r="D79" s="101"/>
@@ -3573,7 +3592,7 @@
       <c r="F79" s="105"/>
     </row>
     <row r="80" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A80" s="151"/>
+      <c r="A80" s="152"/>
       <c r="B80" s="100"/>
       <c r="C80" s="101"/>
       <c r="D80" s="101"/>
@@ -3584,7 +3603,7 @@
       <c r="F80" s="105"/>
     </row>
     <row r="81" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A81" s="151"/>
+      <c r="A81" s="152"/>
       <c r="B81" s="100"/>
       <c r="C81" s="101"/>
       <c r="D81" s="101"/>
@@ -3595,7 +3614,7 @@
       <c r="F81" s="105"/>
     </row>
     <row r="82" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A82" s="151"/>
+      <c r="A82" s="152"/>
       <c r="B82" s="100"/>
       <c r="C82" s="101"/>
       <c r="D82" s="101"/>
@@ -3606,7 +3625,7 @@
       <c r="F82" s="105"/>
     </row>
     <row r="83" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A83" s="151"/>
+      <c r="A83" s="152"/>
       <c r="B83" s="100"/>
       <c r="C83" s="101"/>
       <c r="D83" s="101"/>
@@ -3617,7 +3636,7 @@
       <c r="F83" s="105"/>
     </row>
     <row r="84" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A84" s="151"/>
+      <c r="A84" s="152"/>
       <c r="B84" s="100"/>
       <c r="C84" s="101"/>
       <c r="D84" s="101"/>
@@ -3628,7 +3647,7 @@
       <c r="F84" s="105"/>
     </row>
     <row r="85" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A85" s="151"/>
+      <c r="A85" s="152"/>
       <c r="B85" s="100"/>
       <c r="C85" s="101"/>
       <c r="D85" s="101"/>
@@ -3639,7 +3658,7 @@
       <c r="F85" s="105"/>
     </row>
     <row r="86" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A86" s="151"/>
+      <c r="A86" s="152"/>
       <c r="B86" s="100"/>
       <c r="C86" s="101"/>
       <c r="D86" s="101"/>
@@ -3650,7 +3669,7 @@
       <c r="F86" s="105"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A87" s="151"/>
+      <c r="A87" s="152"/>
       <c r="B87" s="98" t="s">
         <v>186</v>
       </c>
@@ -3689,7 +3708,7 @@
     </row>
     <row r="89" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="90" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A90" s="152" t="s">
+      <c r="A90" s="153" t="s">
         <v>172</v>
       </c>
       <c r="B90" s="109" t="s">
@@ -3709,7 +3728,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A91" s="151"/>
+      <c r="A91" s="152"/>
       <c r="B91" s="98" t="s">
         <v>183</v>
       </c>
@@ -3722,7 +3741,7 @@
       <c r="F91" s="104"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A92" s="151"/>
+      <c r="A92" s="152"/>
       <c r="B92" s="100"/>
       <c r="C92" s="101"/>
       <c r="D92" s="101"/>
@@ -3733,7 +3752,7 @@
       <c r="F92" s="105"/>
     </row>
     <row r="93" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A93" s="151"/>
+      <c r="A93" s="152"/>
       <c r="B93" s="100"/>
       <c r="C93" s="101"/>
       <c r="D93" s="101"/>
@@ -3744,7 +3763,7 @@
       <c r="F93" s="105"/>
     </row>
     <row r="94" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A94" s="151"/>
+      <c r="A94" s="152"/>
       <c r="B94" s="100"/>
       <c r="C94" s="101"/>
       <c r="D94" s="101"/>
@@ -3755,7 +3774,7 @@
       <c r="F94" s="105"/>
     </row>
     <row r="95" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A95" s="151"/>
+      <c r="A95" s="152"/>
       <c r="B95" s="100"/>
       <c r="C95" s="101"/>
       <c r="D95" s="101"/>
@@ -3766,7 +3785,7 @@
       <c r="F95" s="105"/>
     </row>
     <row r="96" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A96" s="151"/>
+      <c r="A96" s="152"/>
       <c r="B96" s="100"/>
       <c r="C96" s="101"/>
       <c r="D96" s="101"/>
@@ -3777,7 +3796,7 @@
       <c r="F96" s="105"/>
     </row>
     <row r="97" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A97" s="151"/>
+      <c r="A97" s="152"/>
       <c r="B97" s="100"/>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
@@ -3788,7 +3807,7 @@
       <c r="F97" s="105"/>
     </row>
     <row r="98" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A98" s="151"/>
+      <c r="A98" s="152"/>
       <c r="B98" s="100"/>
       <c r="C98" s="101"/>
       <c r="D98" s="101"/>
@@ -3799,7 +3818,7 @@
       <c r="F98" s="105"/>
     </row>
     <row r="99" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A99" s="151"/>
+      <c r="A99" s="152"/>
       <c r="B99" s="100"/>
       <c r="C99" s="101"/>
       <c r="D99" s="101"/>
@@ -3810,7 +3829,7 @@
       <c r="F99" s="105"/>
     </row>
     <row r="100" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A100" s="151"/>
+      <c r="A100" s="152"/>
       <c r="B100" s="100"/>
       <c r="C100" s="101"/>
       <c r="D100" s="101"/>
@@ -3821,7 +3840,7 @@
       <c r="F100" s="105"/>
     </row>
     <row r="101" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A101" s="151"/>
+      <c r="A101" s="152"/>
       <c r="B101" s="100"/>
       <c r="C101" s="101"/>
       <c r="D101" s="101"/>
@@ -3832,7 +3851,7 @@
       <c r="F101" s="105"/>
     </row>
     <row r="102" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A102" s="151"/>
+      <c r="A102" s="152"/>
       <c r="B102" s="100"/>
       <c r="C102" s="101"/>
       <c r="D102" s="101"/>
@@ -3843,7 +3862,7 @@
       <c r="F102" s="105"/>
     </row>
     <row r="103" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A103" s="151"/>
+      <c r="A103" s="152"/>
       <c r="B103" s="100"/>
       <c r="C103" s="101"/>
       <c r="D103" s="101"/>
@@ -3854,7 +3873,7 @@
       <c r="F103" s="105"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A104" s="151"/>
+      <c r="A104" s="152"/>
       <c r="B104" s="98" t="s">
         <v>186</v>
       </c>
@@ -3892,7 +3911,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A107" s="150" t="s">
+      <c r="A107" s="151" t="s">
         <v>173</v>
       </c>
       <c r="B107" s="113" t="s">
@@ -3912,7 +3931,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A108" s="151"/>
+      <c r="A108" s="152"/>
       <c r="B108" s="98" t="s">
         <v>183</v>
       </c>
@@ -3925,7 +3944,7 @@
       <c r="F108" s="104"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A109" s="151"/>
+      <c r="A109" s="152"/>
       <c r="B109" s="100"/>
       <c r="C109" s="101"/>
       <c r="D109" s="101"/>
@@ -3936,7 +3955,7 @@
       <c r="F109" s="105"/>
     </row>
     <row r="110" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A110" s="151"/>
+      <c r="A110" s="152"/>
       <c r="B110" s="100"/>
       <c r="C110" s="101"/>
       <c r="D110" s="101"/>
@@ -3947,7 +3966,7 @@
       <c r="F110" s="105"/>
     </row>
     <row r="111" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A111" s="151"/>
+      <c r="A111" s="152"/>
       <c r="B111" s="100"/>
       <c r="C111" s="101"/>
       <c r="D111" s="101"/>
@@ -3958,7 +3977,7 @@
       <c r="F111" s="105"/>
     </row>
     <row r="112" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A112" s="151"/>
+      <c r="A112" s="152"/>
       <c r="B112" s="100"/>
       <c r="C112" s="101"/>
       <c r="D112" s="101"/>
@@ -3969,7 +3988,7 @@
       <c r="F112" s="105"/>
     </row>
     <row r="113" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A113" s="151"/>
+      <c r="A113" s="152"/>
       <c r="B113" s="100"/>
       <c r="C113" s="101"/>
       <c r="D113" s="101"/>
@@ -3980,7 +3999,7 @@
       <c r="F113" s="105"/>
     </row>
     <row r="114" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A114" s="151"/>
+      <c r="A114" s="152"/>
       <c r="B114" s="100"/>
       <c r="C114" s="101"/>
       <c r="D114" s="101"/>
@@ -3991,7 +4010,7 @@
       <c r="F114" s="105"/>
     </row>
     <row r="115" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A115" s="151"/>
+      <c r="A115" s="152"/>
       <c r="B115" s="100"/>
       <c r="C115" s="101"/>
       <c r="D115" s="101"/>
@@ -4002,7 +4021,7 @@
       <c r="F115" s="105"/>
     </row>
     <row r="116" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A116" s="151"/>
+      <c r="A116" s="152"/>
       <c r="B116" s="100"/>
       <c r="C116" s="101"/>
       <c r="D116" s="101"/>
@@ -4013,7 +4032,7 @@
       <c r="F116" s="105"/>
     </row>
     <row r="117" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A117" s="151"/>
+      <c r="A117" s="152"/>
       <c r="B117" s="100"/>
       <c r="C117" s="101"/>
       <c r="D117" s="101"/>
@@ -4024,7 +4043,7 @@
       <c r="F117" s="105"/>
     </row>
     <row r="118" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A118" s="151"/>
+      <c r="A118" s="152"/>
       <c r="B118" s="100"/>
       <c r="C118" s="101"/>
       <c r="D118" s="101"/>
@@ -4035,7 +4054,7 @@
       <c r="F118" s="105"/>
     </row>
     <row r="119" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A119" s="151"/>
+      <c r="A119" s="152"/>
       <c r="B119" s="100"/>
       <c r="C119" s="101"/>
       <c r="D119" s="101"/>
@@ -4046,7 +4065,7 @@
       <c r="F119" s="105"/>
     </row>
     <row r="120" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A120" s="151"/>
+      <c r="A120" s="152"/>
       <c r="B120" s="100"/>
       <c r="C120" s="101"/>
       <c r="D120" s="101"/>
@@ -4057,7 +4076,7 @@
       <c r="F120" s="105"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A121" s="151"/>
+      <c r="A121" s="152"/>
       <c r="B121" s="98" t="s">
         <v>186</v>
       </c>
@@ -4095,7 +4114,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A124" s="152" t="s">
+      <c r="A124" s="153" t="s">
         <v>174</v>
       </c>
       <c r="B124" s="109" t="s">
@@ -4115,7 +4134,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A125" s="151"/>
+      <c r="A125" s="152"/>
       <c r="B125" s="98" t="s">
         <v>183</v>
       </c>
@@ -4128,7 +4147,7 @@
       <c r="F125" s="104"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A126" s="151"/>
+      <c r="A126" s="152"/>
       <c r="B126" s="100"/>
       <c r="C126" s="101"/>
       <c r="D126" s="101"/>
@@ -4139,7 +4158,7 @@
       <c r="F126" s="105"/>
     </row>
     <row r="127" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A127" s="151"/>
+      <c r="A127" s="152"/>
       <c r="B127" s="100"/>
       <c r="C127" s="101"/>
       <c r="D127" s="101"/>
@@ -4150,7 +4169,7 @@
       <c r="F127" s="105"/>
     </row>
     <row r="128" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A128" s="151"/>
+      <c r="A128" s="152"/>
       <c r="B128" s="100"/>
       <c r="C128" s="101"/>
       <c r="D128" s="101"/>
@@ -4161,7 +4180,7 @@
       <c r="F128" s="105"/>
     </row>
     <row r="129" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A129" s="151"/>
+      <c r="A129" s="152"/>
       <c r="B129" s="100"/>
       <c r="C129" s="101"/>
       <c r="D129" s="101"/>
@@ -4172,7 +4191,7 @@
       <c r="F129" s="105"/>
     </row>
     <row r="130" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A130" s="151"/>
+      <c r="A130" s="152"/>
       <c r="B130" s="100"/>
       <c r="C130" s="101"/>
       <c r="D130" s="101"/>
@@ -4183,7 +4202,7 @@
       <c r="F130" s="105"/>
     </row>
     <row r="131" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A131" s="151"/>
+      <c r="A131" s="152"/>
       <c r="B131" s="100"/>
       <c r="C131" s="101"/>
       <c r="D131" s="101"/>
@@ -4194,7 +4213,7 @@
       <c r="F131" s="105"/>
     </row>
     <row r="132" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A132" s="151"/>
+      <c r="A132" s="152"/>
       <c r="B132" s="100"/>
       <c r="C132" s="101"/>
       <c r="D132" s="101"/>
@@ -4205,7 +4224,7 @@
       <c r="F132" s="105"/>
     </row>
     <row r="133" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A133" s="151"/>
+      <c r="A133" s="152"/>
       <c r="B133" s="100"/>
       <c r="C133" s="101"/>
       <c r="D133" s="101"/>
@@ -4216,7 +4235,7 @@
       <c r="F133" s="105"/>
     </row>
     <row r="134" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A134" s="151"/>
+      <c r="A134" s="152"/>
       <c r="B134" s="100"/>
       <c r="C134" s="101"/>
       <c r="D134" s="101"/>
@@ -4227,7 +4246,7 @@
       <c r="F134" s="105"/>
     </row>
     <row r="135" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A135" s="151"/>
+      <c r="A135" s="152"/>
       <c r="B135" s="100"/>
       <c r="C135" s="101"/>
       <c r="D135" s="101"/>
@@ -4238,7 +4257,7 @@
       <c r="F135" s="105"/>
     </row>
     <row r="136" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A136" s="151"/>
+      <c r="A136" s="152"/>
       <c r="B136" s="100"/>
       <c r="C136" s="101"/>
       <c r="D136" s="101"/>
@@ -4249,7 +4268,7 @@
       <c r="F136" s="105"/>
     </row>
     <row r="137" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A137" s="151"/>
+      <c r="A137" s="152"/>
       <c r="B137" s="100"/>
       <c r="C137" s="101"/>
       <c r="D137" s="101"/>
@@ -4260,7 +4279,7 @@
       <c r="F137" s="105"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A138" s="151"/>
+      <c r="A138" s="152"/>
       <c r="B138" s="98" t="s">
         <v>186</v>
       </c>
@@ -4298,7 +4317,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A141" s="150" t="s">
+      <c r="A141" s="151" t="s">
         <v>175</v>
       </c>
       <c r="B141" s="113" t="s">
@@ -4318,7 +4337,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A142" s="151"/>
+      <c r="A142" s="152"/>
       <c r="B142" s="98" t="s">
         <v>183</v>
       </c>
@@ -4331,7 +4350,7 @@
       <c r="F142" s="104"/>
     </row>
     <row r="143" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickTop="1">
-      <c r="A143" s="151"/>
+      <c r="A143" s="152"/>
       <c r="B143" s="100"/>
       <c r="C143" s="101"/>
       <c r="D143" s="101"/>
@@ -4342,7 +4361,7 @@
       <c r="F143" s="105"/>
     </row>
     <row r="144" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A144" s="151"/>
+      <c r="A144" s="152"/>
       <c r="B144" s="100"/>
       <c r="C144" s="101"/>
       <c r="D144" s="101"/>
@@ -4353,7 +4372,7 @@
       <c r="F144" s="105"/>
     </row>
     <row r="145" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A145" s="151"/>
+      <c r="A145" s="152"/>
       <c r="B145" s="100"/>
       <c r="C145" s="101"/>
       <c r="D145" s="101"/>
@@ -4364,7 +4383,7 @@
       <c r="F145" s="105"/>
     </row>
     <row r="146" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A146" s="151"/>
+      <c r="A146" s="152"/>
       <c r="B146" s="100"/>
       <c r="C146" s="101"/>
       <c r="D146" s="101"/>
@@ -4375,7 +4394,7 @@
       <c r="F146" s="105"/>
     </row>
     <row r="147" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A147" s="151"/>
+      <c r="A147" s="152"/>
       <c r="B147" s="100"/>
       <c r="C147" s="101"/>
       <c r="D147" s="101"/>
@@ -4386,7 +4405,7 @@
       <c r="F147" s="105"/>
     </row>
     <row r="148" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A148" s="151"/>
+      <c r="A148" s="152"/>
       <c r="B148" s="100"/>
       <c r="C148" s="101"/>
       <c r="D148" s="101"/>
@@ -4397,7 +4416,7 @@
       <c r="F148" s="105"/>
     </row>
     <row r="149" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A149" s="151"/>
+      <c r="A149" s="152"/>
       <c r="B149" s="100"/>
       <c r="C149" s="101"/>
       <c r="D149" s="101"/>
@@ -4408,7 +4427,7 @@
       <c r="F149" s="105"/>
     </row>
     <row r="150" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A150" s="151"/>
+      <c r="A150" s="152"/>
       <c r="B150" s="100"/>
       <c r="C150" s="101"/>
       <c r="D150" s="101"/>
@@ -4419,7 +4438,7 @@
       <c r="F150" s="105"/>
     </row>
     <row r="151" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A151" s="151"/>
+      <c r="A151" s="152"/>
       <c r="B151" s="100"/>
       <c r="C151" s="101"/>
       <c r="D151" s="101"/>
@@ -4430,7 +4449,7 @@
       <c r="F151" s="105"/>
     </row>
     <row r="152" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A152" s="151"/>
+      <c r="A152" s="152"/>
       <c r="B152" s="100"/>
       <c r="C152" s="101"/>
       <c r="D152" s="101"/>
@@ -4441,7 +4460,7 @@
       <c r="F152" s="105"/>
     </row>
     <row r="153" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A153" s="151"/>
+      <c r="A153" s="152"/>
       <c r="B153" s="100"/>
       <c r="C153" s="101"/>
       <c r="D153" s="101"/>
@@ -4452,7 +4471,7 @@
       <c r="F153" s="105"/>
     </row>
     <row r="154" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A154" s="151"/>
+      <c r="A154" s="152"/>
       <c r="B154" s="100"/>
       <c r="C154" s="101"/>
       <c r="D154" s="101"/>
@@ -4463,7 +4482,7 @@
       <c r="F154" s="105"/>
     </row>
     <row r="155" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A155" s="151"/>
+      <c r="A155" s="152"/>
       <c r="B155" s="98" t="s">
         <v>186</v>
       </c>
@@ -4502,11 +4521,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A141:A155"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A73:A87"/>
-    <mergeCell ref="A124:A138"/>
-    <mergeCell ref="A90:A104"/>
     <mergeCell ref="A39:A53"/>
     <mergeCell ref="A56:A70"/>
     <mergeCell ref="C5:D5"/>
@@ -4515,6 +4529,11 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A19:A36"/>
+    <mergeCell ref="A141:A155"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A73:A87"/>
+    <mergeCell ref="A124:A138"/>
+    <mergeCell ref="A90:A104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4546,13 +4565,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4582,18 +4601,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
     </row>
     <row r="4" spans="1:8" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2">
@@ -4745,9 +4764,9 @@
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A22" s="47">
@@ -4898,9 +4917,9 @@
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A39" s="47">
@@ -5051,9 +5070,9 @@
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="162"/>
-      <c r="D55" s="163"/>
-      <c r="E55" s="163"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="161"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A56" s="47">
@@ -5204,9 +5223,9 @@
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="162"/>
-      <c r="D72" s="163"/>
-      <c r="E72" s="163"/>
+      <c r="C72" s="160"/>
+      <c r="D72" s="161"/>
+      <c r="E72" s="161"/>
     </row>
     <row r="73" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A73" s="47">
@@ -5357,9 +5376,9 @@
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="162"/>
-      <c r="D89" s="163"/>
-      <c r="E89" s="163"/>
+      <c r="C89" s="160"/>
+      <c r="D89" s="161"/>
+      <c r="E89" s="161"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A90" s="47">
@@ -5510,9 +5529,9 @@
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="162"/>
-      <c r="D106" s="163"/>
-      <c r="E106" s="163"/>
+      <c r="C106" s="160"/>
+      <c r="D106" s="161"/>
+      <c r="E106" s="161"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A107" s="47">
@@ -5663,9 +5682,9 @@
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="162"/>
-      <c r="D123" s="163"/>
-      <c r="E123" s="163"/>
+      <c r="C123" s="160"/>
+      <c r="D123" s="161"/>
+      <c r="E123" s="161"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A124" s="47">
@@ -5816,9 +5835,9 @@
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="162"/>
-      <c r="D140" s="163"/>
-      <c r="E140" s="163"/>
+      <c r="C140" s="160"/>
+      <c r="D140" s="161"/>
+      <c r="E140" s="161"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A141" s="47">
@@ -5969,9 +5988,9 @@
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="162"/>
-      <c r="D157" s="163"/>
-      <c r="E157" s="163"/>
+      <c r="C157" s="160"/>
+      <c r="D157" s="161"/>
+      <c r="E157" s="161"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A158" s="47">
@@ -6122,9 +6141,9 @@
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="162"/>
-      <c r="D174" s="163"/>
-      <c r="E174" s="163"/>
+      <c r="C174" s="160"/>
+      <c r="D174" s="161"/>
+      <c r="E174" s="161"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A175" s="47">
@@ -6275,9 +6294,9 @@
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="162"/>
-      <c r="D191" s="163"/>
-      <c r="E191" s="163"/>
+      <c r="C191" s="160"/>
+      <c r="D191" s="161"/>
+      <c r="E191" s="161"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A192" s="47">
@@ -6428,9 +6447,9 @@
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="162"/>
-      <c r="D208" s="163"/>
-      <c r="E208" s="163"/>
+      <c r="C208" s="160"/>
+      <c r="D208" s="161"/>
+      <c r="E208" s="161"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A209" s="47">
@@ -6581,9 +6600,9 @@
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="162"/>
-      <c r="D225" s="163"/>
-      <c r="E225" s="163"/>
+      <c r="C225" s="160"/>
+      <c r="D225" s="161"/>
+      <c r="E225" s="161"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A226" s="47">
@@ -6734,9 +6753,9 @@
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="162"/>
-      <c r="D242" s="163"/>
-      <c r="E242" s="163"/>
+      <c r="C242" s="160"/>
+      <c r="D242" s="161"/>
+      <c r="E242" s="161"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A243" s="47">
@@ -6887,9 +6906,9 @@
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="162"/>
-      <c r="D259" s="163"/>
-      <c r="E259" s="163"/>
+      <c r="C259" s="160"/>
+      <c r="D259" s="161"/>
+      <c r="E259" s="161"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A260" s="47">
@@ -7040,18 +7059,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="166"/>
-      <c r="D276" s="167"/>
-      <c r="E276" s="167"/>
+      <c r="C276" s="176"/>
+      <c r="D276" s="177"/>
+      <c r="E276" s="177"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="162"/>
-      <c r="D277" s="163"/>
-      <c r="E277" s="163"/>
+      <c r="C277" s="160"/>
+      <c r="D277" s="161"/>
+      <c r="E277" s="161"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A278" s="52">
@@ -7202,9 +7221,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="164"/>
-      <c r="D294" s="165"/>
-      <c r="E294" s="165"/>
+      <c r="C294" s="162"/>
+      <c r="D294" s="163"/>
+      <c r="E294" s="163"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A295" s="52">
@@ -7355,9 +7374,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="162"/>
-      <c r="D311" s="163"/>
-      <c r="E311" s="163"/>
+      <c r="C311" s="160"/>
+      <c r="D311" s="161"/>
+      <c r="E311" s="161"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A312" s="52">
@@ -7508,9 +7527,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="162"/>
-      <c r="D328" s="163"/>
-      <c r="E328" s="163"/>
+      <c r="C328" s="160"/>
+      <c r="D328" s="161"/>
+      <c r="E328" s="161"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A329" s="52">
@@ -7661,9 +7680,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="162"/>
-      <c r="D345" s="163"/>
-      <c r="E345" s="163"/>
+      <c r="C345" s="160"/>
+      <c r="D345" s="161"/>
+      <c r="E345" s="161"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A346" s="52">
@@ -7814,9 +7833,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="162"/>
-      <c r="D362" s="163"/>
-      <c r="E362" s="163"/>
+      <c r="C362" s="160"/>
+      <c r="D362" s="161"/>
+      <c r="E362" s="161"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A363" s="52">
@@ -7967,9 +7986,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="162"/>
-      <c r="D379" s="163"/>
-      <c r="E379" s="163"/>
+      <c r="C379" s="160"/>
+      <c r="D379" s="161"/>
+      <c r="E379" s="161"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A380" s="52">
@@ -8120,9 +8139,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="162"/>
-      <c r="D396" s="163"/>
-      <c r="E396" s="163"/>
+      <c r="C396" s="160"/>
+      <c r="D396" s="161"/>
+      <c r="E396" s="161"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A397" s="52">
@@ -8273,9 +8292,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="162"/>
-      <c r="D413" s="163"/>
-      <c r="E413" s="163"/>
+      <c r="C413" s="160"/>
+      <c r="D413" s="161"/>
+      <c r="E413" s="161"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A414" s="52">
@@ -8426,9 +8445,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="162"/>
-      <c r="D430" s="163"/>
-      <c r="E430" s="163"/>
+      <c r="C430" s="160"/>
+      <c r="D430" s="161"/>
+      <c r="E430" s="161"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A431" s="52">
@@ -8579,9 +8598,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="162"/>
-      <c r="D447" s="163"/>
-      <c r="E447" s="163"/>
+      <c r="C447" s="160"/>
+      <c r="D447" s="161"/>
+      <c r="E447" s="161"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A448" s="52">
@@ -8732,9 +8751,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="162"/>
-      <c r="D464" s="163"/>
-      <c r="E464" s="163"/>
+      <c r="C464" s="160"/>
+      <c r="D464" s="161"/>
+      <c r="E464" s="161"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A465" s="52">
@@ -8885,9 +8904,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="162"/>
-      <c r="D481" s="163"/>
-      <c r="E481" s="163"/>
+      <c r="C481" s="160"/>
+      <c r="D481" s="161"/>
+      <c r="E481" s="161"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A482" s="52">
@@ -9038,9 +9057,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="162"/>
-      <c r="D498" s="163"/>
-      <c r="E498" s="163"/>
+      <c r="C498" s="160"/>
+      <c r="D498" s="161"/>
+      <c r="E498" s="161"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A499" s="52">
@@ -9191,9 +9210,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="162"/>
-      <c r="D515" s="163"/>
-      <c r="E515" s="163"/>
+      <c r="C515" s="160"/>
+      <c r="D515" s="161"/>
+      <c r="E515" s="161"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A516" s="52">
@@ -9344,9 +9363,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="162"/>
-      <c r="D532" s="163"/>
-      <c r="E532" s="163"/>
+      <c r="C532" s="160"/>
+      <c r="D532" s="161"/>
+      <c r="E532" s="161"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A533" s="55">
@@ -9497,18 +9516,18 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="168"/>
-      <c r="D549" s="169"/>
-      <c r="E549" s="169"/>
+      <c r="C549" s="174"/>
+      <c r="D549" s="175"/>
+      <c r="E549" s="175"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A550" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="162"/>
-      <c r="D550" s="163"/>
-      <c r="E550" s="163"/>
+      <c r="C550" s="160"/>
+      <c r="D550" s="161"/>
+      <c r="E550" s="161"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -9659,9 +9678,9 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="164"/>
-      <c r="D567" s="165"/>
-      <c r="E567" s="165"/>
+      <c r="C567" s="162"/>
+      <c r="D567" s="163"/>
+      <c r="E567" s="163"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A568" s="59">
@@ -9812,9 +9831,9 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="162"/>
-      <c r="D584" s="163"/>
-      <c r="E584" s="163"/>
+      <c r="C584" s="160"/>
+      <c r="D584" s="161"/>
+      <c r="E584" s="161"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -9965,9 +9984,9 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="162"/>
-      <c r="D601" s="163"/>
-      <c r="E601" s="163"/>
+      <c r="C601" s="160"/>
+      <c r="D601" s="161"/>
+      <c r="E601" s="161"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -10118,9 +10137,9 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="162"/>
-      <c r="D618" s="163"/>
-      <c r="E618" s="163"/>
+      <c r="C618" s="160"/>
+      <c r="D618" s="161"/>
+      <c r="E618" s="161"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -10271,9 +10290,9 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="162"/>
-      <c r="D635" s="163"/>
-      <c r="E635" s="163"/>
+      <c r="C635" s="160"/>
+      <c r="D635" s="161"/>
+      <c r="E635" s="161"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -10424,9 +10443,9 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="162"/>
-      <c r="D652" s="163"/>
-      <c r="E652" s="163"/>
+      <c r="C652" s="160"/>
+      <c r="D652" s="161"/>
+      <c r="E652" s="161"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -10577,9 +10596,9 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="162"/>
-      <c r="D669" s="163"/>
-      <c r="E669" s="163"/>
+      <c r="C669" s="160"/>
+      <c r="D669" s="161"/>
+      <c r="E669" s="161"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -10730,9 +10749,9 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="162"/>
-      <c r="D686" s="163"/>
-      <c r="E686" s="163"/>
+      <c r="C686" s="160"/>
+      <c r="D686" s="161"/>
+      <c r="E686" s="161"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -10883,9 +10902,9 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="162"/>
-      <c r="D703" s="163"/>
-      <c r="E703" s="163"/>
+      <c r="C703" s="160"/>
+      <c r="D703" s="161"/>
+      <c r="E703" s="161"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -11036,9 +11055,9 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="162"/>
-      <c r="D720" s="163"/>
-      <c r="E720" s="163"/>
+      <c r="C720" s="160"/>
+      <c r="D720" s="161"/>
+      <c r="E720" s="161"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -11189,9 +11208,9 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="162"/>
-      <c r="D737" s="163"/>
-      <c r="E737" s="163"/>
+      <c r="C737" s="160"/>
+      <c r="D737" s="161"/>
+      <c r="E737" s="161"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -11342,9 +11361,9 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="162"/>
-      <c r="D754" s="163"/>
-      <c r="E754" s="163"/>
+      <c r="C754" s="160"/>
+      <c r="D754" s="161"/>
+      <c r="E754" s="161"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -11495,9 +11514,9 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="162"/>
-      <c r="D771" s="163"/>
-      <c r="E771" s="163"/>
+      <c r="C771" s="160"/>
+      <c r="D771" s="161"/>
+      <c r="E771" s="161"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -11648,9 +11667,9 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="162"/>
-      <c r="D788" s="163"/>
-      <c r="E788" s="163"/>
+      <c r="C788" s="160"/>
+      <c r="D788" s="161"/>
+      <c r="E788" s="161"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -11801,9 +11820,9 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="162"/>
-      <c r="D805" s="163"/>
-      <c r="E805" s="163"/>
+      <c r="C805" s="160"/>
+      <c r="D805" s="161"/>
+      <c r="E805" s="161"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -11954,18 +11973,18 @@
         <v>67</v>
       </c>
       <c r="B822" s="39"/>
-      <c r="C822" s="170"/>
-      <c r="D822" s="171"/>
-      <c r="E822" s="171"/>
+      <c r="C822" s="172"/>
+      <c r="D822" s="173"/>
+      <c r="E822" s="173"/>
     </row>
     <row r="823" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A823" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="162"/>
-      <c r="D823" s="163"/>
-      <c r="E823" s="163"/>
+      <c r="C823" s="160"/>
+      <c r="D823" s="161"/>
+      <c r="E823" s="161"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A824" s="64">
@@ -12116,9 +12135,9 @@
         <v>69</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="164"/>
-      <c r="D840" s="165"/>
-      <c r="E840" s="165"/>
+      <c r="C840" s="162"/>
+      <c r="D840" s="163"/>
+      <c r="E840" s="163"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A841" s="64">
@@ -12269,9 +12288,9 @@
         <v>70</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="162"/>
-      <c r="D857" s="163"/>
-      <c r="E857" s="163"/>
+      <c r="C857" s="160"/>
+      <c r="D857" s="161"/>
+      <c r="E857" s="161"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A858" s="64">
@@ -12422,9 +12441,9 @@
         <v>71</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="162"/>
-      <c r="D874" s="163"/>
-      <c r="E874" s="163"/>
+      <c r="C874" s="160"/>
+      <c r="D874" s="161"/>
+      <c r="E874" s="161"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A875" s="64">
@@ -12575,9 +12594,9 @@
         <v>72</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="162"/>
-      <c r="D891" s="163"/>
-      <c r="E891" s="163"/>
+      <c r="C891" s="160"/>
+      <c r="D891" s="161"/>
+      <c r="E891" s="161"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A892" s="64">
@@ -12728,9 +12747,9 @@
         <v>73</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="162"/>
-      <c r="D908" s="163"/>
-      <c r="E908" s="163"/>
+      <c r="C908" s="160"/>
+      <c r="D908" s="161"/>
+      <c r="E908" s="161"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A909" s="64">
@@ -12881,9 +12900,9 @@
         <v>74</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="162"/>
-      <c r="D925" s="163"/>
-      <c r="E925" s="163"/>
+      <c r="C925" s="160"/>
+      <c r="D925" s="161"/>
+      <c r="E925" s="161"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A926" s="64">
@@ -13034,9 +13053,9 @@
         <v>75</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="162"/>
-      <c r="D942" s="163"/>
-      <c r="E942" s="163"/>
+      <c r="C942" s="160"/>
+      <c r="D942" s="161"/>
+      <c r="E942" s="161"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A943" s="64">
@@ -13187,9 +13206,9 @@
         <v>76</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="162"/>
-      <c r="D959" s="163"/>
-      <c r="E959" s="163"/>
+      <c r="C959" s="160"/>
+      <c r="D959" s="161"/>
+      <c r="E959" s="161"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A960" s="64">
@@ -13340,9 +13359,9 @@
         <v>77</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="162"/>
-      <c r="D976" s="163"/>
-      <c r="E976" s="163"/>
+      <c r="C976" s="160"/>
+      <c r="D976" s="161"/>
+      <c r="E976" s="161"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A977" s="64">
@@ -13493,9 +13512,9 @@
         <v>78</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="162"/>
-      <c r="D993" s="163"/>
-      <c r="E993" s="163"/>
+      <c r="C993" s="160"/>
+      <c r="D993" s="161"/>
+      <c r="E993" s="161"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A994" s="64">
@@ -13646,9 +13665,9 @@
         <v>79</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="162"/>
-      <c r="D1010" s="163"/>
-      <c r="E1010" s="163"/>
+      <c r="C1010" s="160"/>
+      <c r="D1010" s="161"/>
+      <c r="E1010" s="161"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1011" s="64">
@@ -13799,9 +13818,9 @@
         <v>80</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="162"/>
-      <c r="D1027" s="163"/>
-      <c r="E1027" s="163"/>
+      <c r="C1027" s="160"/>
+      <c r="D1027" s="161"/>
+      <c r="E1027" s="161"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1028" s="64">
@@ -13952,9 +13971,9 @@
         <v>83</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="162"/>
-      <c r="D1044" s="163"/>
-      <c r="E1044" s="163"/>
+      <c r="C1044" s="160"/>
+      <c r="D1044" s="161"/>
+      <c r="E1044" s="161"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1045" s="64">
@@ -14105,9 +14124,9 @@
         <v>82</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="162"/>
-      <c r="D1061" s="163"/>
-      <c r="E1061" s="163"/>
+      <c r="C1061" s="160"/>
+      <c r="D1061" s="161"/>
+      <c r="E1061" s="161"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1062" s="64">
@@ -14258,9 +14277,9 @@
         <v>84</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="162"/>
-      <c r="D1078" s="163"/>
-      <c r="E1078" s="163"/>
+      <c r="C1078" s="160"/>
+      <c r="D1078" s="161"/>
+      <c r="E1078" s="161"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1079" s="64">
@@ -14411,18 +14430,18 @@
         <v>104</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="172"/>
-      <c r="D1095" s="173"/>
-      <c r="E1095" s="173"/>
+      <c r="C1095" s="170"/>
+      <c r="D1095" s="171"/>
+      <c r="E1095" s="171"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1096" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="162"/>
-      <c r="D1096" s="163"/>
-      <c r="E1096" s="163"/>
+      <c r="C1096" s="160"/>
+      <c r="D1096" s="161"/>
+      <c r="E1096" s="161"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1097" s="69">
@@ -14573,9 +14592,9 @@
         <v>86</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="164"/>
-      <c r="D1113" s="165"/>
-      <c r="E1113" s="165"/>
+      <c r="C1113" s="162"/>
+      <c r="D1113" s="163"/>
+      <c r="E1113" s="163"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1114" s="69">
@@ -14726,9 +14745,9 @@
         <v>87</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="162"/>
-      <c r="D1130" s="163"/>
-      <c r="E1130" s="163"/>
+      <c r="C1130" s="160"/>
+      <c r="D1130" s="161"/>
+      <c r="E1130" s="161"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1131" s="69">
@@ -14879,9 +14898,9 @@
         <v>88</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="162"/>
-      <c r="D1147" s="163"/>
-      <c r="E1147" s="163"/>
+      <c r="C1147" s="160"/>
+      <c r="D1147" s="161"/>
+      <c r="E1147" s="161"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1148" s="69">
@@ -15032,9 +15051,9 @@
         <v>89</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="162"/>
-      <c r="D1164" s="163"/>
-      <c r="E1164" s="163"/>
+      <c r="C1164" s="160"/>
+      <c r="D1164" s="161"/>
+      <c r="E1164" s="161"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1165" s="69">
@@ -15185,9 +15204,9 @@
         <v>90</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="162"/>
-      <c r="D1181" s="163"/>
-      <c r="E1181" s="163"/>
+      <c r="C1181" s="160"/>
+      <c r="D1181" s="161"/>
+      <c r="E1181" s="161"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3">
       <c r="A1182" s="69">
@@ -15338,9 +15357,9 @@
         <v>91</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="162"/>
-      <c r="D1198" s="163"/>
-      <c r="E1198" s="163"/>
+      <c r="C1198" s="160"/>
+      <c r="D1198" s="161"/>
+      <c r="E1198" s="161"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1199" s="69">
@@ -15491,9 +15510,9 @@
         <v>92</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="162"/>
-      <c r="D1215" s="163"/>
-      <c r="E1215" s="163"/>
+      <c r="C1215" s="160"/>
+      <c r="D1215" s="161"/>
+      <c r="E1215" s="161"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1216" s="69">
@@ -15644,9 +15663,9 @@
         <v>93</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="162"/>
-      <c r="D1232" s="163"/>
-      <c r="E1232" s="163"/>
+      <c r="C1232" s="160"/>
+      <c r="D1232" s="161"/>
+      <c r="E1232" s="161"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1233" s="69">
@@ -15797,9 +15816,9 @@
         <v>94</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="162"/>
-      <c r="D1249" s="163"/>
-      <c r="E1249" s="163"/>
+      <c r="C1249" s="160"/>
+      <c r="D1249" s="161"/>
+      <c r="E1249" s="161"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1250" s="69">
@@ -15950,9 +15969,9 @@
         <v>99</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="162"/>
-      <c r="D1266" s="163"/>
-      <c r="E1266" s="163"/>
+      <c r="C1266" s="160"/>
+      <c r="D1266" s="161"/>
+      <c r="E1266" s="161"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1267" s="69">
@@ -16103,9 +16122,9 @@
         <v>100</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="162"/>
-      <c r="D1283" s="163"/>
-      <c r="E1283" s="163"/>
+      <c r="C1283" s="160"/>
+      <c r="D1283" s="161"/>
+      <c r="E1283" s="161"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1284" s="69">
@@ -16256,9 +16275,9 @@
         <v>101</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="162"/>
-      <c r="D1300" s="163"/>
-      <c r="E1300" s="163"/>
+      <c r="C1300" s="160"/>
+      <c r="D1300" s="161"/>
+      <c r="E1300" s="161"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1301" s="69">
@@ -16409,9 +16428,9 @@
         <v>81</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="162"/>
-      <c r="D1317" s="163"/>
-      <c r="E1317" s="163"/>
+      <c r="C1317" s="160"/>
+      <c r="D1317" s="161"/>
+      <c r="E1317" s="161"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1318" s="69">
@@ -16562,9 +16581,9 @@
         <v>102</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="162"/>
-      <c r="D1334" s="163"/>
-      <c r="E1334" s="163"/>
+      <c r="C1334" s="160"/>
+      <c r="D1334" s="161"/>
+      <c r="E1334" s="161"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1335" s="69">
@@ -16715,9 +16734,9 @@
         <v>98</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="162"/>
-      <c r="D1351" s="163"/>
-      <c r="E1351" s="163"/>
+      <c r="C1351" s="160"/>
+      <c r="D1351" s="161"/>
+      <c r="E1351" s="161"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1352" s="69">
@@ -16868,18 +16887,18 @@
         <v>103</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="174"/>
-      <c r="D1368" s="175"/>
-      <c r="E1368" s="175"/>
+      <c r="C1368" s="168"/>
+      <c r="D1368" s="169"/>
+      <c r="E1368" s="169"/>
     </row>
     <row r="1369" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1369" s="73" t="s">
         <v>105</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="162"/>
-      <c r="D1369" s="163"/>
-      <c r="E1369" s="163"/>
+      <c r="C1369" s="160"/>
+      <c r="D1369" s="161"/>
+      <c r="E1369" s="161"/>
     </row>
     <row r="1370" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1370" s="74">
@@ -17030,9 +17049,9 @@
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="164"/>
-      <c r="D1386" s="165"/>
-      <c r="E1386" s="165"/>
+      <c r="C1386" s="162"/>
+      <c r="D1386" s="163"/>
+      <c r="E1386" s="163"/>
     </row>
     <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1387" s="74">
@@ -17183,9 +17202,9 @@
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="162"/>
-      <c r="D1403" s="163"/>
-      <c r="E1403" s="163"/>
+      <c r="C1403" s="160"/>
+      <c r="D1403" s="161"/>
+      <c r="E1403" s="161"/>
     </row>
     <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1404" s="74">
@@ -17336,9 +17355,9 @@
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="162"/>
-      <c r="D1420" s="163"/>
-      <c r="E1420" s="163"/>
+      <c r="C1420" s="160"/>
+      <c r="D1420" s="161"/>
+      <c r="E1420" s="161"/>
     </row>
     <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1421" s="74">
@@ -17489,9 +17508,9 @@
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="162"/>
-      <c r="D1437" s="163"/>
-      <c r="E1437" s="163"/>
+      <c r="C1437" s="160"/>
+      <c r="D1437" s="161"/>
+      <c r="E1437" s="161"/>
     </row>
     <row r="1438" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1438" s="74">
@@ -17642,9 +17661,9 @@
         <v>110</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="162"/>
-      <c r="D1454" s="163"/>
-      <c r="E1454" s="163"/>
+      <c r="C1454" s="160"/>
+      <c r="D1454" s="161"/>
+      <c r="E1454" s="161"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1455" s="74">
@@ -17795,9 +17814,9 @@
         <v>111</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="162"/>
-      <c r="D1471" s="163"/>
-      <c r="E1471" s="163"/>
+      <c r="C1471" s="160"/>
+      <c r="D1471" s="161"/>
+      <c r="E1471" s="161"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1472" s="74">
@@ -17948,9 +17967,9 @@
         <v>112</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="162"/>
-      <c r="D1488" s="163"/>
-      <c r="E1488" s="163"/>
+      <c r="C1488" s="160"/>
+      <c r="D1488" s="161"/>
+      <c r="E1488" s="161"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1489" s="74">
@@ -18101,9 +18120,9 @@
         <v>113</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="162"/>
-      <c r="D1505" s="163"/>
-      <c r="E1505" s="163"/>
+      <c r="C1505" s="160"/>
+      <c r="D1505" s="161"/>
+      <c r="E1505" s="161"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1506" s="74">
@@ -18254,9 +18273,9 @@
         <v>114</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="162"/>
-      <c r="D1522" s="163"/>
-      <c r="E1522" s="163"/>
+      <c r="C1522" s="160"/>
+      <c r="D1522" s="161"/>
+      <c r="E1522" s="161"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1523" s="74">
@@ -18407,9 +18426,9 @@
         <v>95</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="162"/>
-      <c r="D1539" s="163"/>
-      <c r="E1539" s="163"/>
+      <c r="C1539" s="160"/>
+      <c r="D1539" s="161"/>
+      <c r="E1539" s="161"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1540" s="74">
@@ -18560,9 +18579,9 @@
         <v>115</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="162"/>
-      <c r="D1556" s="163"/>
-      <c r="E1556" s="163"/>
+      <c r="C1556" s="160"/>
+      <c r="D1556" s="161"/>
+      <c r="E1556" s="161"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1557" s="74">
@@ -18713,9 +18732,9 @@
         <v>116</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="162"/>
-      <c r="D1573" s="163"/>
-      <c r="E1573" s="163"/>
+      <c r="C1573" s="160"/>
+      <c r="D1573" s="161"/>
+      <c r="E1573" s="161"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1574" s="74">
@@ -18866,9 +18885,9 @@
         <v>117</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="162"/>
-      <c r="D1590" s="163"/>
-      <c r="E1590" s="163"/>
+      <c r="C1590" s="160"/>
+      <c r="D1590" s="161"/>
+      <c r="E1590" s="161"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1591" s="74">
@@ -19019,9 +19038,9 @@
         <v>118</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="162"/>
-      <c r="D1607" s="163"/>
-      <c r="E1607" s="163"/>
+      <c r="C1607" s="160"/>
+      <c r="D1607" s="161"/>
+      <c r="E1607" s="161"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1608" s="74">
@@ -19172,9 +19191,9 @@
         <v>119</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="162"/>
-      <c r="D1624" s="163"/>
-      <c r="E1624" s="163"/>
+      <c r="C1624" s="160"/>
+      <c r="D1624" s="161"/>
+      <c r="E1624" s="161"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1625" s="74">
@@ -19325,18 +19344,18 @@
         <v>120</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="176"/>
-      <c r="D1641" s="177"/>
-      <c r="E1641" s="177"/>
+      <c r="C1641" s="166"/>
+      <c r="D1641" s="167"/>
+      <c r="E1641" s="167"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1642" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="162"/>
-      <c r="D1642" s="163"/>
-      <c r="E1642" s="163"/>
+      <c r="C1642" s="160"/>
+      <c r="D1642" s="161"/>
+      <c r="E1642" s="161"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1643" s="79">
@@ -19487,9 +19506,9 @@
         <v>122</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="164"/>
-      <c r="D1659" s="165"/>
-      <c r="E1659" s="165"/>
+      <c r="C1659" s="162"/>
+      <c r="D1659" s="163"/>
+      <c r="E1659" s="163"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1660" s="79">
@@ -19640,9 +19659,9 @@
         <v>123</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="162"/>
-      <c r="D1676" s="163"/>
-      <c r="E1676" s="163"/>
+      <c r="C1676" s="160"/>
+      <c r="D1676" s="161"/>
+      <c r="E1676" s="161"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1677" s="79">
@@ -19793,9 +19812,9 @@
         <v>124</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="162"/>
-      <c r="D1693" s="163"/>
-      <c r="E1693" s="163"/>
+      <c r="C1693" s="160"/>
+      <c r="D1693" s="161"/>
+      <c r="E1693" s="161"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1694" s="79">
@@ -19946,9 +19965,9 @@
         <v>125</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="162"/>
-      <c r="D1710" s="163"/>
-      <c r="E1710" s="163"/>
+      <c r="C1710" s="160"/>
+      <c r="D1710" s="161"/>
+      <c r="E1710" s="161"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1711" s="79">
@@ -20099,9 +20118,9 @@
         <v>126</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="162"/>
-      <c r="D1727" s="163"/>
-      <c r="E1727" s="163"/>
+      <c r="C1727" s="160"/>
+      <c r="D1727" s="161"/>
+      <c r="E1727" s="161"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1728" s="79">
@@ -20252,9 +20271,9 @@
         <v>127</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="162"/>
-      <c r="D1744" s="163"/>
-      <c r="E1744" s="163"/>
+      <c r="C1744" s="160"/>
+      <c r="D1744" s="161"/>
+      <c r="E1744" s="161"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1745" s="79">
@@ -20405,9 +20424,9 @@
         <v>128</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="162"/>
-      <c r="D1761" s="163"/>
-      <c r="E1761" s="163"/>
+      <c r="C1761" s="160"/>
+      <c r="D1761" s="161"/>
+      <c r="E1761" s="161"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1762" s="79">
@@ -20558,9 +20577,9 @@
         <v>129</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="162"/>
-      <c r="D1778" s="163"/>
-      <c r="E1778" s="163"/>
+      <c r="C1778" s="160"/>
+      <c r="D1778" s="161"/>
+      <c r="E1778" s="161"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1779" s="79">
@@ -20711,9 +20730,9 @@
         <v>130</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="162"/>
-      <c r="D1795" s="163"/>
-      <c r="E1795" s="163"/>
+      <c r="C1795" s="160"/>
+      <c r="D1795" s="161"/>
+      <c r="E1795" s="161"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1796" s="79">
@@ -20864,9 +20883,9 @@
         <v>131</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="162"/>
-      <c r="D1812" s="163"/>
-      <c r="E1812" s="163"/>
+      <c r="C1812" s="160"/>
+      <c r="D1812" s="161"/>
+      <c r="E1812" s="161"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1813" s="79">
@@ -21017,9 +21036,9 @@
         <v>96</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="162"/>
-      <c r="D1829" s="163"/>
-      <c r="E1829" s="163"/>
+      <c r="C1829" s="160"/>
+      <c r="D1829" s="161"/>
+      <c r="E1829" s="161"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1830" s="79">
@@ -21170,9 +21189,9 @@
         <v>132</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="162"/>
-      <c r="D1846" s="163"/>
-      <c r="E1846" s="163"/>
+      <c r="C1846" s="160"/>
+      <c r="D1846" s="161"/>
+      <c r="E1846" s="161"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1847" s="79">
@@ -21323,9 +21342,9 @@
         <v>133</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="162"/>
-      <c r="D1863" s="163"/>
-      <c r="E1863" s="163"/>
+      <c r="C1863" s="160"/>
+      <c r="D1863" s="161"/>
+      <c r="E1863" s="161"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1864" s="79">
@@ -21476,9 +21495,9 @@
         <v>134</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="162"/>
-      <c r="D1880" s="163"/>
-      <c r="E1880" s="163"/>
+      <c r="C1880" s="160"/>
+      <c r="D1880" s="161"/>
+      <c r="E1880" s="161"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1881" s="79">
@@ -21629,9 +21648,9 @@
         <v>135</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="162"/>
-      <c r="D1897" s="163"/>
-      <c r="E1897" s="163"/>
+      <c r="C1897" s="160"/>
+      <c r="D1897" s="161"/>
+      <c r="E1897" s="161"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1898" s="79">
@@ -21782,18 +21801,18 @@
         <v>136</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="178"/>
-      <c r="D1914" s="179"/>
-      <c r="E1914" s="179"/>
+      <c r="C1914" s="164"/>
+      <c r="D1914" s="165"/>
+      <c r="E1914" s="165"/>
     </row>
     <row r="1915" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1915" s="83" t="s">
         <v>137</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="162"/>
-      <c r="D1915" s="163"/>
-      <c r="E1915" s="163"/>
+      <c r="C1915" s="160"/>
+      <c r="D1915" s="161"/>
+      <c r="E1915" s="161"/>
     </row>
     <row r="1916" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1916" s="84">
@@ -21944,9 +21963,9 @@
         <v>138</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="164"/>
-      <c r="D1932" s="165"/>
-      <c r="E1932" s="165"/>
+      <c r="C1932" s="162"/>
+      <c r="D1932" s="163"/>
+      <c r="E1932" s="163"/>
     </row>
     <row r="1933" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1933" s="84">
@@ -22097,9 +22116,9 @@
         <v>139</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="162"/>
-      <c r="D1949" s="163"/>
-      <c r="E1949" s="163"/>
+      <c r="C1949" s="160"/>
+      <c r="D1949" s="161"/>
+      <c r="E1949" s="161"/>
     </row>
     <row r="1950" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1950" s="84">
@@ -22250,9 +22269,9 @@
         <v>140</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="162"/>
-      <c r="D1966" s="163"/>
-      <c r="E1966" s="163"/>
+      <c r="C1966" s="160"/>
+      <c r="D1966" s="161"/>
+      <c r="E1966" s="161"/>
     </row>
     <row r="1967" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1967" s="84">
@@ -22403,9 +22422,9 @@
         <v>141</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="162"/>
-      <c r="D1983" s="163"/>
-      <c r="E1983" s="163"/>
+      <c r="C1983" s="160"/>
+      <c r="D1983" s="161"/>
+      <c r="E1983" s="161"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1984" s="84">
@@ -22556,9 +22575,9 @@
         <v>142</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="162"/>
-      <c r="D2000" s="163"/>
-      <c r="E2000" s="163"/>
+      <c r="C2000" s="160"/>
+      <c r="D2000" s="161"/>
+      <c r="E2000" s="161"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2001" s="84">
@@ -22709,9 +22728,9 @@
         <v>143</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="162"/>
-      <c r="D2017" s="163"/>
-      <c r="E2017" s="163"/>
+      <c r="C2017" s="160"/>
+      <c r="D2017" s="161"/>
+      <c r="E2017" s="161"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2018" s="84">
@@ -22862,9 +22881,9 @@
         <v>144</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="162"/>
-      <c r="D2034" s="163"/>
-      <c r="E2034" s="163"/>
+      <c r="C2034" s="160"/>
+      <c r="D2034" s="161"/>
+      <c r="E2034" s="161"/>
     </row>
     <row r="2035" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2035" s="84">
@@ -23015,9 +23034,9 @@
         <v>145</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="162"/>
-      <c r="D2051" s="163"/>
-      <c r="E2051" s="163"/>
+      <c r="C2051" s="160"/>
+      <c r="D2051" s="161"/>
+      <c r="E2051" s="161"/>
     </row>
     <row r="2052" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2052" s="84">
@@ -23168,9 +23187,9 @@
         <v>146</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="162"/>
-      <c r="D2068" s="163"/>
-      <c r="E2068" s="163"/>
+      <c r="C2068" s="160"/>
+      <c r="D2068" s="161"/>
+      <c r="E2068" s="161"/>
     </row>
     <row r="2069" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2069" s="84">
@@ -23321,9 +23340,9 @@
         <v>147</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="162"/>
-      <c r="D2085" s="163"/>
-      <c r="E2085" s="163"/>
+      <c r="C2085" s="160"/>
+      <c r="D2085" s="161"/>
+      <c r="E2085" s="161"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2086" s="84">
@@ -23474,9 +23493,9 @@
         <v>148</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="162"/>
-      <c r="D2102" s="163"/>
-      <c r="E2102" s="163"/>
+      <c r="C2102" s="160"/>
+      <c r="D2102" s="161"/>
+      <c r="E2102" s="161"/>
     </row>
     <row r="2103" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2103" s="84">
@@ -23627,9 +23646,9 @@
         <v>97</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="162"/>
-      <c r="D2119" s="163"/>
-      <c r="E2119" s="163"/>
+      <c r="C2119" s="160"/>
+      <c r="D2119" s="161"/>
+      <c r="E2119" s="161"/>
     </row>
     <row r="2120" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2120" s="84">
@@ -23780,9 +23799,9 @@
         <v>149</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="162"/>
-      <c r="D2136" s="163"/>
-      <c r="E2136" s="163"/>
+      <c r="C2136" s="160"/>
+      <c r="D2136" s="161"/>
+      <c r="E2136" s="161"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2137" s="84">
@@ -23933,9 +23952,9 @@
         <v>150</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="162"/>
-      <c r="D2153" s="163"/>
-      <c r="E2153" s="163"/>
+      <c r="C2153" s="160"/>
+      <c r="D2153" s="161"/>
+      <c r="E2153" s="161"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2154" s="84">
@@ -24086,9 +24105,9 @@
         <v>151</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="162"/>
-      <c r="D2170" s="163"/>
-      <c r="E2170" s="163"/>
+      <c r="C2170" s="160"/>
+      <c r="D2170" s="161"/>
+      <c r="E2170" s="161"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2171" s="84">
@@ -24236,15 +24255,122 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C396:E396"/>
+    <mergeCell ref="C413:E413"/>
+    <mergeCell ref="C430:E430"/>
+    <mergeCell ref="C447:E447"/>
+    <mergeCell ref="C464:E464"/>
+    <mergeCell ref="C481:E481"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C328:E328"/>
+    <mergeCell ref="C345:E345"/>
+    <mergeCell ref="C362:E362"/>
+    <mergeCell ref="C379:E379"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
     <mergeCell ref="C1932:E1932"/>
     <mergeCell ref="C1949:E1949"/>
     <mergeCell ref="C1966:E1966"/>
@@ -24257,124 +24383,17 @@
     <mergeCell ref="C1897:E1897"/>
     <mergeCell ref="C1914:E1914"/>
     <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C396:E396"/>
-    <mergeCell ref="C413:E413"/>
-    <mergeCell ref="C430:E430"/>
-    <mergeCell ref="C447:E447"/>
-    <mergeCell ref="C464:E464"/>
-    <mergeCell ref="C481:E481"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C328:E328"/>
-    <mergeCell ref="C345:E345"/>
-    <mergeCell ref="C362:E362"/>
-    <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -24399,51 +24418,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="187" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="185"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="186"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="181" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="182"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="183"/>
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1">
       <c r="A4" s="28" t="s">
@@ -24660,19 +24679,19 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="180" t="s">
+      <c r="A20" s="181" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="182"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="183"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28" t="s">
@@ -24889,19 +24908,19 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="181" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="181"/>
-      <c r="C37" s="181"/>
-      <c r="D37" s="181"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
-      <c r="K37" s="182"/>
+      <c r="B37" s="182"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="182"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="182"/>
+      <c r="I37" s="182"/>
+      <c r="J37" s="182"/>
+      <c r="K37" s="183"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
@@ -25125,7 +25144,7 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A20:K20"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25159,28 +25178,28 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="187"/>
+      <c r="A3" s="188"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="188"/>
+      <c r="A4" s="189"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="188"/>
+      <c r="A5" s="189"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="188"/>
+      <c r="A6" s="189"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="188"/>
+      <c r="A7" s="189"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="188"/>
+      <c r="A8" s="189"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="188"/>
+      <c r="A9" s="189"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" thickBot="1">
-      <c r="A10" s="189"/>
+      <c r="A10" s="190"/>
     </row>
     <row r="11" spans="1:1" ht="27" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -25336,7 +25355,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:A10"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -25363,10 +25382,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="191" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="191"/>
+      <c r="C1" s="192"/>
       <c r="D1" s="92"/>
       <c r="E1" s="32"/>
     </row>
@@ -25377,7 +25396,7 @@
       <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="193" t="s">
         <v>208</v>
       </c>
       <c r="B3" s="131" t="s">
@@ -25391,7 +25410,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="193"/>
+      <c r="A4" s="194"/>
       <c r="B4" s="128" t="s">
         <v>159</v>
       </c>
@@ -25403,7 +25422,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="193"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="128" t="s">
         <v>160</v>
       </c>
@@ -25412,7 +25431,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="193"/>
+      <c r="A6" s="194"/>
       <c r="B6" s="139" t="s">
         <v>210</v>
       </c>
@@ -25424,7 +25443,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="193"/>
+      <c r="A7" s="194"/>
       <c r="B7" s="128" t="s">
         <v>177</v>
       </c>
@@ -25436,7 +25455,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="193"/>
+      <c r="A8" s="194"/>
       <c r="B8" s="128" t="s">
         <v>178</v>
       </c>
@@ -25445,7 +25464,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A9" s="194"/>
+      <c r="A9" s="195"/>
       <c r="B9" s="136" t="s">
         <v>161</v>
       </c>
@@ -25460,7 +25479,7 @@
       <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="193" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="131" t="s">
@@ -25474,7 +25493,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="193"/>
+      <c r="A12" s="194"/>
       <c r="B12" s="128" t="s">
         <v>159</v>
       </c>
@@ -25486,7 +25505,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="193"/>
+      <c r="A13" s="194"/>
       <c r="B13" s="128" t="s">
         <v>160</v>
       </c>
@@ -25495,7 +25514,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="193"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="139" t="s">
         <v>210</v>
       </c>
@@ -25507,7 +25526,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="193"/>
+      <c r="A15" s="194"/>
       <c r="B15" s="128" t="s">
         <v>177</v>
       </c>
@@ -25519,7 +25538,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="193"/>
+      <c r="A16" s="194"/>
       <c r="B16" s="128" t="s">
         <v>178</v>
       </c>
@@ -25528,7 +25547,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A17" s="194"/>
+      <c r="A17" s="195"/>
       <c r="B17" s="136" t="s">
         <v>161</v>
       </c>
@@ -25543,7 +25562,7 @@
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" collapsed="1">
-      <c r="A19" s="192" t="s">
+      <c r="A19" s="193" t="s">
         <v>209</v>
       </c>
       <c r="B19" s="131" t="s">
@@ -25552,7 +25571,7 @@
       <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A20" s="193"/>
+      <c r="A20" s="194"/>
       <c r="B20" s="128" t="s">
         <v>159</v>
       </c>
@@ -25562,14 +25581,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A21" s="193"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="128" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A22" s="193"/>
+      <c r="A22" s="194"/>
       <c r="B22" s="139" t="s">
         <v>210</v>
       </c>
@@ -25579,7 +25598,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A23" s="193"/>
+      <c r="A23" s="194"/>
       <c r="B23" s="128" t="s">
         <v>177</v>
       </c>
@@ -25589,14 +25608,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A24" s="193"/>
+      <c r="A24" s="194"/>
       <c r="B24" s="128" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A25" s="194"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="136" t="s">
         <v>161</v>
       </c>
@@ -25609,7 +25628,7 @@
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A25"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -25640,17 +25659,17 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="202" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="212"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="204" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="212"/>
+      <c r="B3" s="203"/>
       <c r="C3" s="120"/>
     </row>
     <row r="4" spans="1:5">
@@ -25666,115 +25685,128 @@
       <c r="C5" s="120"/>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="199" t="s">
+      <c r="A7" s="213" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="200"/>
+      <c r="B7" s="214"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="120"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1">
-      <c r="A9" s="201" t="s">
+      <c r="A9" s="211" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="202"/>
+      <c r="B9" s="212"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="203"/>
-      <c r="B10" s="204"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="199"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="200" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="196"/>
+      <c r="B11" s="201"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="200" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="196"/>
+      <c r="B12" s="201"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="200" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="196"/>
+      <c r="B13" s="201"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="200" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="196"/>
+      <c r="B14" s="201"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="200" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="196"/>
+      <c r="B15" s="201"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="200" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="196"/>
+      <c r="B16" s="201"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="196" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="198"/>
+      <c r="B17" s="197"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="199" t="s">
+      <c r="A19" s="213" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="200"/>
+      <c r="B19" s="214"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="120"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="201" t="s">
+      <c r="A21" s="211" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="202"/>
+      <c r="B21" s="212"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="203"/>
-      <c r="B22" s="204"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="199"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="195" t="s">
+      <c r="A23" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="196"/>
+      <c r="B23" s="201"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="195"/>
-      <c r="B24" s="196"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="201"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="195" t="s">
+      <c r="A25" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="196"/>
+      <c r="B25" s="201"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="195" t="s">
+      <c r="A26" s="200" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="196"/>
+      <c r="B26" s="201"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="197"/>
-      <c r="B27" s="198"/>
+      <c r="A27" s="196"/>
+      <c r="B27" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -25785,19 +25817,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/DW3/DQ3.xlsx
+++ b/DW3/DQ3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FrameCounts" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="307">
   <si>
     <t>Notes</t>
   </si>
@@ -764,6 +764,222 @@
   </si>
   <si>
     <t>Step on square to right of Kanave</t>
+  </si>
+  <si>
+    <t>1st Party Member - Current HP</t>
+  </si>
+  <si>
+    <t>2 bytes</t>
+  </si>
+  <si>
+    <t>2nd byte</t>
+  </si>
+  <si>
+    <t>2nd Party Member - Current HP</t>
+  </si>
+  <si>
+    <t>3rd Party Member - Current HP</t>
+  </si>
+  <si>
+    <t>4thParty Member - Current HP</t>
+  </si>
+  <si>
+    <t>1st Party Member - Max HP</t>
+  </si>
+  <si>
+    <t>2nd Party Member - Max HP</t>
+  </si>
+  <si>
+    <t>3rd  Party Member - Max HP</t>
+  </si>
+  <si>
+    <t>4th Party Member - Max HP</t>
+  </si>
+  <si>
+    <t>Current &amp; Max HP &amp; MP of current party</t>
+  </si>
+  <si>
+    <t>1st Party Member - Current MP</t>
+  </si>
+  <si>
+    <t>2nd Party Member - Current MP</t>
+  </si>
+  <si>
+    <t>3rd Party Member - Current MP</t>
+  </si>
+  <si>
+    <t>4thParty Member - Current MP</t>
+  </si>
+  <si>
+    <t>1st Party Member - Max MP</t>
+  </si>
+  <si>
+    <t>2nd Party Member - Max MP</t>
+  </si>
+  <si>
+    <t>3rd  Party Member - Max MP</t>
+  </si>
+  <si>
+    <t>4th Party Member - Max MP</t>
+  </si>
+  <si>
+    <t>Current &amp; Max MP of current party</t>
+  </si>
+  <si>
+    <t>Current Party HP</t>
+  </si>
+  <si>
+    <t>&amp; Party Items</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>1st Party Member 1st Item</t>
+  </si>
+  <si>
+    <t>See GameFaqs savestate hacking guide for meaning of each value</t>
+  </si>
+  <si>
+    <t>1st Party Member 2nd Item</t>
+  </si>
+  <si>
+    <t>1st Party Member 3rd Item</t>
+  </si>
+  <si>
+    <t>1st Party Member 4th Item</t>
+  </si>
+  <si>
+    <t>Current Party Items</t>
+  </si>
+  <si>
+    <t>1st Party Member 5th Item</t>
+  </si>
+  <si>
+    <t>1st Party Member 6th Item</t>
+  </si>
+  <si>
+    <t>1st Party Member 7th Item</t>
+  </si>
+  <si>
+    <t>1st Party Member 8th Item</t>
+  </si>
+  <si>
+    <t>2nd Party Member 1st Item</t>
+  </si>
+  <si>
+    <t>2nd Party Member 2nd Item</t>
+  </si>
+  <si>
+    <t>2nd Party Member 3rd Item</t>
+  </si>
+  <si>
+    <t>2nd Party Member 4th Item</t>
+  </si>
+  <si>
+    <t>2nd Party Member 5th Item</t>
+  </si>
+  <si>
+    <t>2nd Party Member 6th Item</t>
+  </si>
+  <si>
+    <t>2nd Party Member 7th Item</t>
+  </si>
+  <si>
+    <t>2nd Party Member 8th Item</t>
+  </si>
+  <si>
+    <t>3rd Party Member 1st Item</t>
+  </si>
+  <si>
+    <t>3rd Party Member 2nd Item</t>
+  </si>
+  <si>
+    <t>3rd Party Member 3rd Item</t>
+  </si>
+  <si>
+    <t>3rd Party Member 4th Item</t>
+  </si>
+  <si>
+    <t>3rd Party Member 5th Item</t>
+  </si>
+  <si>
+    <t>3rd Party Member 6th Item</t>
+  </si>
+  <si>
+    <t>3rd Party Member 7th Item</t>
+  </si>
+  <si>
+    <t>3rd Party Member 8th Item</t>
+  </si>
+  <si>
+    <t>4th Party Member 1st Item</t>
+  </si>
+  <si>
+    <t>4th Party Member 2nd Item</t>
+  </si>
+  <si>
+    <t>4th Party Member 3rd Item</t>
+  </si>
+  <si>
+    <t>4th Party Member 4th Item</t>
+  </si>
+  <si>
+    <t>4th Party Member 5th Item</t>
+  </si>
+  <si>
+    <t>4th Party Member 6th Item</t>
+  </si>
+  <si>
+    <t>4th Party Member 7th Item</t>
+  </si>
+  <si>
+    <t>4th Party Member 8th Item</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>3 bytes</t>
+  </si>
+  <si>
+    <t>3rd byte</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>2 byte</t>
+  </si>
+  <si>
+    <t>unsigned</t>
+  </si>
+  <si>
+    <t>Enemy 1 HP</t>
+  </si>
+  <si>
+    <t>Enemy 2 HP</t>
+  </si>
+  <si>
+    <t>Enemy 3 HP</t>
+  </si>
+  <si>
+    <t>Enemy 4 HP</t>
+  </si>
+  <si>
+    <t>Enemy 5 HP</t>
+  </si>
+  <si>
+    <t>Enemy 6 HP</t>
+  </si>
+  <si>
+    <t>Enemy 7 HP</t>
+  </si>
+  <si>
+    <t>Enemy 8 HP</t>
+  </si>
+  <si>
+    <t>Enemy Current HP</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1933,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2001,6 +2217,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2022,29 +2241,29 @@
     <xf numFmtId="0" fontId="33" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2080,20 +2299,34 @@
     <xf numFmtId="0" fontId="47" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
@@ -2103,23 +2336,10 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -2429,7 +2649,7 @@
   </sheetPr>
   <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
@@ -2447,16 +2667,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="157" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="158" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159"/>
       <c r="G1" s="140"/>
       <c r="H1" s="141">
         <f>SUM(G1:G65538)</f>
@@ -2534,10 +2754,10 @@
       <c r="B5" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="154"/>
+      <c r="D5" s="155"/>
       <c r="E5" s="147"/>
       <c r="F5" s="143"/>
       <c r="G5" s="140"/>
@@ -2553,10 +2773,10 @@
       <c r="B6" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="155"/>
+      <c r="D6" s="156"/>
       <c r="E6" s="147"/>
       <c r="F6" s="143"/>
       <c r="G6" s="140"/>
@@ -2574,7 +2794,7 @@
       <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="160" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="95" t="s">
@@ -2594,7 +2814,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A9" s="152"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="98" t="s">
         <v>183</v>
       </c>
@@ -2608,7 +2828,7 @@
       <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A10" s="152"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="148" t="s">
         <v>215</v>
       </c>
@@ -2625,7 +2845,7 @@
       <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A11" s="152"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="148" t="s">
         <v>216</v>
       </c>
@@ -2642,7 +2862,7 @@
       <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A12" s="152"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="148" t="s">
         <v>217</v>
       </c>
@@ -2659,7 +2879,7 @@
       <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A13" s="152"/>
+      <c r="A13" s="153"/>
       <c r="B13" s="148" t="s">
         <v>218</v>
       </c>
@@ -2676,7 +2896,7 @@
       <c r="F13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A14" s="152"/>
+      <c r="A14" s="153"/>
       <c r="B14" s="148" t="s">
         <v>219</v>
       </c>
@@ -2693,7 +2913,7 @@
       <c r="F14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A15" s="152"/>
+      <c r="A15" s="153"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
@@ -2704,7 +2924,7 @@
       <c r="F15" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A16" s="152"/>
+      <c r="A16" s="153"/>
       <c r="B16" s="98" t="s">
         <v>186</v>
       </c>
@@ -2747,7 +2967,7 @@
     </row>
     <row r="18" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="19" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="154" t="s">
         <v>231</v>
       </c>
       <c r="B19" s="109" t="s">
@@ -2767,7 +2987,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A20" s="152"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="98" t="s">
         <v>183</v>
       </c>
@@ -2784,7 +3004,7 @@
       <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A21" s="152"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="148" t="s">
         <v>221</v>
       </c>
@@ -2801,7 +3021,7 @@
       <c r="F21" s="105"/>
     </row>
     <row r="22" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A22" s="152"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="148" t="s">
         <v>221</v>
       </c>
@@ -2818,7 +3038,7 @@
       <c r="F22" s="105"/>
     </row>
     <row r="23" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A23" s="152"/>
+      <c r="A23" s="153"/>
       <c r="B23" s="148" t="s">
         <v>221</v>
       </c>
@@ -2835,7 +3055,7 @@
       <c r="F23" s="105"/>
     </row>
     <row r="24" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A24" s="152"/>
+      <c r="A24" s="153"/>
       <c r="B24" s="148" t="s">
         <v>221</v>
       </c>
@@ -2852,7 +3072,7 @@
       <c r="F24" s="105"/>
     </row>
     <row r="25" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A25" s="152"/>
+      <c r="A25" s="153"/>
       <c r="B25" s="148" t="s">
         <v>222</v>
       </c>
@@ -2869,7 +3089,7 @@
       <c r="F25" s="105"/>
     </row>
     <row r="26" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A26" s="152"/>
+      <c r="A26" s="153"/>
       <c r="B26" s="148" t="s">
         <v>223</v>
       </c>
@@ -2886,7 +3106,7 @@
       <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A27" s="152"/>
+      <c r="A27" s="153"/>
       <c r="B27" s="148" t="s">
         <v>224</v>
       </c>
@@ -2903,7 +3123,7 @@
       <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A28" s="152"/>
+      <c r="A28" s="153"/>
       <c r="B28" s="148" t="s">
         <v>224</v>
       </c>
@@ -2920,7 +3140,7 @@
       <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A29" s="152"/>
+      <c r="A29" s="153"/>
       <c r="B29" s="148" t="s">
         <v>225</v>
       </c>
@@ -2937,7 +3157,7 @@
       <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A30" s="152"/>
+      <c r="A30" s="153"/>
       <c r="B30" s="148" t="s">
         <v>226</v>
       </c>
@@ -2954,7 +3174,7 @@
       <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A31" s="152"/>
+      <c r="A31" s="153"/>
       <c r="B31" s="148" t="s">
         <v>227</v>
       </c>
@@ -2969,7 +3189,7 @@
       <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A32" s="152"/>
+      <c r="A32" s="153"/>
       <c r="B32" s="149" t="s">
         <v>228</v>
       </c>
@@ -2986,7 +3206,7 @@
       <c r="F32" s="105"/>
     </row>
     <row r="33" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A33" s="152"/>
+      <c r="A33" s="153"/>
       <c r="B33" s="149" t="s">
         <v>229</v>
       </c>
@@ -3003,7 +3223,7 @@
       <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A34" s="152"/>
+      <c r="A34" s="153"/>
       <c r="B34" s="149" t="s">
         <v>230</v>
       </c>
@@ -3020,7 +3240,7 @@
       <c r="F34" s="105"/>
     </row>
     <row r="35" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A35" s="152"/>
+      <c r="A35" s="153"/>
       <c r="B35" s="149" t="s">
         <v>232</v>
       </c>
@@ -3037,7 +3257,7 @@
       <c r="F35" s="105"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A36" s="152"/>
+      <c r="A36" s="153"/>
       <c r="B36" s="98" t="s">
         <v>186</v>
       </c>
@@ -3080,7 +3300,7 @@
     </row>
     <row r="38" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="39" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A39" s="151" t="s">
+      <c r="A39" s="152" t="s">
         <v>169</v>
       </c>
       <c r="B39" s="113" t="s">
@@ -3100,7 +3320,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A40" s="152"/>
+      <c r="A40" s="153"/>
       <c r="B40" s="98" t="s">
         <v>183</v>
       </c>
@@ -3117,7 +3337,7 @@
       <c r="F40" s="104"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A41" s="152"/>
+      <c r="A41" s="153"/>
       <c r="B41" s="150" t="s">
         <v>233</v>
       </c>
@@ -3134,8 +3354,8 @@
       <c r="F41" s="105"/>
     </row>
     <row r="42" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A42" s="152"/>
-      <c r="B42" s="215" t="s">
+      <c r="A42" s="153"/>
+      <c r="B42" s="151" t="s">
         <v>234</v>
       </c>
       <c r="C42" s="101">
@@ -3151,7 +3371,7 @@
       <c r="F42" s="105"/>
     </row>
     <row r="43" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A43" s="152"/>
+      <c r="A43" s="153"/>
       <c r="B43" s="100"/>
       <c r="C43" s="101"/>
       <c r="D43" s="101"/>
@@ -3162,7 +3382,7 @@
       <c r="F43" s="105"/>
     </row>
     <row r="44" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A44" s="152"/>
+      <c r="A44" s="153"/>
       <c r="B44" s="100"/>
       <c r="C44" s="101"/>
       <c r="D44" s="101"/>
@@ -3173,7 +3393,7 @@
       <c r="F44" s="105"/>
     </row>
     <row r="45" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A45" s="152"/>
+      <c r="A45" s="153"/>
       <c r="B45" s="100"/>
       <c r="C45" s="101"/>
       <c r="D45" s="101"/>
@@ -3184,7 +3404,7 @@
       <c r="F45" s="105"/>
     </row>
     <row r="46" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A46" s="152"/>
+      <c r="A46" s="153"/>
       <c r="B46" s="100"/>
       <c r="C46" s="101"/>
       <c r="D46" s="101"/>
@@ -3195,7 +3415,7 @@
       <c r="F46" s="105"/>
     </row>
     <row r="47" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A47" s="152"/>
+      <c r="A47" s="153"/>
       <c r="B47" s="100"/>
       <c r="C47" s="101"/>
       <c r="D47" s="101"/>
@@ -3206,7 +3426,7 @@
       <c r="F47" s="105"/>
     </row>
     <row r="48" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A48" s="152"/>
+      <c r="A48" s="153"/>
       <c r="B48" s="100"/>
       <c r="C48" s="101"/>
       <c r="D48" s="101"/>
@@ -3217,7 +3437,7 @@
       <c r="F48" s="105"/>
     </row>
     <row r="49" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A49" s="152"/>
+      <c r="A49" s="153"/>
       <c r="B49" s="100"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
@@ -3228,7 +3448,7 @@
       <c r="F49" s="105"/>
     </row>
     <row r="50" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A50" s="152"/>
+      <c r="A50" s="153"/>
       <c r="B50" s="100"/>
       <c r="C50" s="101"/>
       <c r="D50" s="101"/>
@@ -3239,7 +3459,7 @@
       <c r="F50" s="105"/>
     </row>
     <row r="51" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A51" s="152"/>
+      <c r="A51" s="153"/>
       <c r="B51" s="100"/>
       <c r="C51" s="101"/>
       <c r="D51" s="101"/>
@@ -3250,7 +3470,7 @@
       <c r="F51" s="105"/>
     </row>
     <row r="52" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A52" s="152"/>
+      <c r="A52" s="153"/>
       <c r="B52" s="100"/>
       <c r="C52" s="101"/>
       <c r="D52" s="101"/>
@@ -3261,7 +3481,7 @@
       <c r="F52" s="105"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A53" s="152"/>
+      <c r="A53" s="153"/>
       <c r="B53" s="98" t="s">
         <v>186</v>
       </c>
@@ -3300,7 +3520,7 @@
     </row>
     <row r="55" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="56" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A56" s="153" t="s">
+      <c r="A56" s="154" t="s">
         <v>170</v>
       </c>
       <c r="B56" s="109" t="s">
@@ -3320,7 +3540,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A57" s="152"/>
+      <c r="A57" s="153"/>
       <c r="B57" s="98" t="s">
         <v>183</v>
       </c>
@@ -3333,7 +3553,7 @@
       <c r="F57" s="104"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A58" s="152"/>
+      <c r="A58" s="153"/>
       <c r="B58" s="100"/>
       <c r="C58" s="101"/>
       <c r="D58" s="101"/>
@@ -3344,7 +3564,7 @@
       <c r="F58" s="105"/>
     </row>
     <row r="59" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A59" s="152"/>
+      <c r="A59" s="153"/>
       <c r="B59" s="100"/>
       <c r="C59" s="101"/>
       <c r="D59" s="101"/>
@@ -3355,7 +3575,7 @@
       <c r="F59" s="105"/>
     </row>
     <row r="60" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A60" s="152"/>
+      <c r="A60" s="153"/>
       <c r="B60" s="100"/>
       <c r="C60" s="101"/>
       <c r="D60" s="101"/>
@@ -3366,7 +3586,7 @@
       <c r="F60" s="105"/>
     </row>
     <row r="61" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A61" s="152"/>
+      <c r="A61" s="153"/>
       <c r="B61" s="100"/>
       <c r="C61" s="101"/>
       <c r="D61" s="101"/>
@@ -3377,7 +3597,7 @@
       <c r="F61" s="105"/>
     </row>
     <row r="62" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A62" s="152"/>
+      <c r="A62" s="153"/>
       <c r="B62" s="100"/>
       <c r="C62" s="101"/>
       <c r="D62" s="101"/>
@@ -3388,7 +3608,7 @@
       <c r="F62" s="105"/>
     </row>
     <row r="63" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A63" s="152"/>
+      <c r="A63" s="153"/>
       <c r="B63" s="100"/>
       <c r="C63" s="101"/>
       <c r="D63" s="101"/>
@@ -3399,7 +3619,7 @@
       <c r="F63" s="105"/>
     </row>
     <row r="64" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A64" s="152"/>
+      <c r="A64" s="153"/>
       <c r="B64" s="100"/>
       <c r="C64" s="101"/>
       <c r="D64" s="101"/>
@@ -3410,7 +3630,7 @@
       <c r="F64" s="105"/>
     </row>
     <row r="65" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A65" s="152"/>
+      <c r="A65" s="153"/>
       <c r="B65" s="100"/>
       <c r="C65" s="101"/>
       <c r="D65" s="101"/>
@@ -3421,7 +3641,7 @@
       <c r="F65" s="105"/>
     </row>
     <row r="66" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A66" s="152"/>
+      <c r="A66" s="153"/>
       <c r="B66" s="100"/>
       <c r="C66" s="101"/>
       <c r="D66" s="101"/>
@@ -3432,7 +3652,7 @@
       <c r="F66" s="105"/>
     </row>
     <row r="67" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A67" s="152"/>
+      <c r="A67" s="153"/>
       <c r="B67" s="100"/>
       <c r="C67" s="101"/>
       <c r="D67" s="101"/>
@@ -3443,7 +3663,7 @@
       <c r="F67" s="105"/>
     </row>
     <row r="68" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A68" s="152"/>
+      <c r="A68" s="153"/>
       <c r="B68" s="100"/>
       <c r="C68" s="101"/>
       <c r="D68" s="101"/>
@@ -3454,7 +3674,7 @@
       <c r="F68" s="105"/>
     </row>
     <row r="69" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A69" s="152"/>
+      <c r="A69" s="153"/>
       <c r="B69" s="100"/>
       <c r="C69" s="101"/>
       <c r="D69" s="101"/>
@@ -3465,7 +3685,7 @@
       <c r="F69" s="105"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A70" s="152"/>
+      <c r="A70" s="153"/>
       <c r="B70" s="98" t="s">
         <v>186</v>
       </c>
@@ -3504,7 +3724,7 @@
     </row>
     <row r="72" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="73" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A73" s="151" t="s">
+      <c r="A73" s="152" t="s">
         <v>171</v>
       </c>
       <c r="B73" s="113" t="s">
@@ -3524,7 +3744,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A74" s="152"/>
+      <c r="A74" s="153"/>
       <c r="B74" s="98" t="s">
         <v>183</v>
       </c>
@@ -3537,7 +3757,7 @@
       <c r="F74" s="104"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A75" s="152"/>
+      <c r="A75" s="153"/>
       <c r="B75" s="100"/>
       <c r="C75" s="101"/>
       <c r="D75" s="101"/>
@@ -3548,7 +3768,7 @@
       <c r="F75" s="105"/>
     </row>
     <row r="76" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A76" s="152"/>
+      <c r="A76" s="153"/>
       <c r="B76" s="100"/>
       <c r="C76" s="101"/>
       <c r="D76" s="101"/>
@@ -3559,7 +3779,7 @@
       <c r="F76" s="105"/>
     </row>
     <row r="77" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A77" s="152"/>
+      <c r="A77" s="153"/>
       <c r="B77" s="100"/>
       <c r="C77" s="101"/>
       <c r="D77" s="101"/>
@@ -3570,7 +3790,7 @@
       <c r="F77" s="105"/>
     </row>
     <row r="78" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A78" s="152"/>
+      <c r="A78" s="153"/>
       <c r="B78" s="100"/>
       <c r="C78" s="101"/>
       <c r="D78" s="101"/>
@@ -3581,7 +3801,7 @@
       <c r="F78" s="105"/>
     </row>
     <row r="79" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A79" s="152"/>
+      <c r="A79" s="153"/>
       <c r="B79" s="100"/>
       <c r="C79" s="101"/>
       <c r="D79" s="101"/>
@@ -3592,7 +3812,7 @@
       <c r="F79" s="105"/>
     </row>
     <row r="80" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A80" s="152"/>
+      <c r="A80" s="153"/>
       <c r="B80" s="100"/>
       <c r="C80" s="101"/>
       <c r="D80" s="101"/>
@@ -3603,7 +3823,7 @@
       <c r="F80" s="105"/>
     </row>
     <row r="81" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A81" s="152"/>
+      <c r="A81" s="153"/>
       <c r="B81" s="100"/>
       <c r="C81" s="101"/>
       <c r="D81" s="101"/>
@@ -3614,7 +3834,7 @@
       <c r="F81" s="105"/>
     </row>
     <row r="82" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A82" s="152"/>
+      <c r="A82" s="153"/>
       <c r="B82" s="100"/>
       <c r="C82" s="101"/>
       <c r="D82" s="101"/>
@@ -3625,7 +3845,7 @@
       <c r="F82" s="105"/>
     </row>
     <row r="83" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A83" s="152"/>
+      <c r="A83" s="153"/>
       <c r="B83" s="100"/>
       <c r="C83" s="101"/>
       <c r="D83" s="101"/>
@@ -3636,7 +3856,7 @@
       <c r="F83" s="105"/>
     </row>
     <row r="84" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A84" s="152"/>
+      <c r="A84" s="153"/>
       <c r="B84" s="100"/>
       <c r="C84" s="101"/>
       <c r="D84" s="101"/>
@@ -3647,7 +3867,7 @@
       <c r="F84" s="105"/>
     </row>
     <row r="85" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A85" s="152"/>
+      <c r="A85" s="153"/>
       <c r="B85" s="100"/>
       <c r="C85" s="101"/>
       <c r="D85" s="101"/>
@@ -3658,7 +3878,7 @@
       <c r="F85" s="105"/>
     </row>
     <row r="86" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A86" s="152"/>
+      <c r="A86" s="153"/>
       <c r="B86" s="100"/>
       <c r="C86" s="101"/>
       <c r="D86" s="101"/>
@@ -3669,7 +3889,7 @@
       <c r="F86" s="105"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A87" s="152"/>
+      <c r="A87" s="153"/>
       <c r="B87" s="98" t="s">
         <v>186</v>
       </c>
@@ -3708,7 +3928,7 @@
     </row>
     <row r="89" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="90" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A90" s="153" t="s">
+      <c r="A90" s="154" t="s">
         <v>172</v>
       </c>
       <c r="B90" s="109" t="s">
@@ -3728,7 +3948,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A91" s="152"/>
+      <c r="A91" s="153"/>
       <c r="B91" s="98" t="s">
         <v>183</v>
       </c>
@@ -3741,7 +3961,7 @@
       <c r="F91" s="104"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A92" s="152"/>
+      <c r="A92" s="153"/>
       <c r="B92" s="100"/>
       <c r="C92" s="101"/>
       <c r="D92" s="101"/>
@@ -3752,7 +3972,7 @@
       <c r="F92" s="105"/>
     </row>
     <row r="93" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A93" s="152"/>
+      <c r="A93" s="153"/>
       <c r="B93" s="100"/>
       <c r="C93" s="101"/>
       <c r="D93" s="101"/>
@@ -3763,7 +3983,7 @@
       <c r="F93" s="105"/>
     </row>
     <row r="94" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A94" s="152"/>
+      <c r="A94" s="153"/>
       <c r="B94" s="100"/>
       <c r="C94" s="101"/>
       <c r="D94" s="101"/>
@@ -3774,7 +3994,7 @@
       <c r="F94" s="105"/>
     </row>
     <row r="95" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A95" s="152"/>
+      <c r="A95" s="153"/>
       <c r="B95" s="100"/>
       <c r="C95" s="101"/>
       <c r="D95" s="101"/>
@@ -3785,7 +4005,7 @@
       <c r="F95" s="105"/>
     </row>
     <row r="96" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A96" s="152"/>
+      <c r="A96" s="153"/>
       <c r="B96" s="100"/>
       <c r="C96" s="101"/>
       <c r="D96" s="101"/>
@@ -3796,7 +4016,7 @@
       <c r="F96" s="105"/>
     </row>
     <row r="97" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A97" s="152"/>
+      <c r="A97" s="153"/>
       <c r="B97" s="100"/>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
@@ -3807,7 +4027,7 @@
       <c r="F97" s="105"/>
     </row>
     <row r="98" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A98" s="152"/>
+      <c r="A98" s="153"/>
       <c r="B98" s="100"/>
       <c r="C98" s="101"/>
       <c r="D98" s="101"/>
@@ -3818,7 +4038,7 @@
       <c r="F98" s="105"/>
     </row>
     <row r="99" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A99" s="152"/>
+      <c r="A99" s="153"/>
       <c r="B99" s="100"/>
       <c r="C99" s="101"/>
       <c r="D99" s="101"/>
@@ -3829,7 +4049,7 @@
       <c r="F99" s="105"/>
     </row>
     <row r="100" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A100" s="152"/>
+      <c r="A100" s="153"/>
       <c r="B100" s="100"/>
       <c r="C100" s="101"/>
       <c r="D100" s="101"/>
@@ -3840,7 +4060,7 @@
       <c r="F100" s="105"/>
     </row>
     <row r="101" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A101" s="152"/>
+      <c r="A101" s="153"/>
       <c r="B101" s="100"/>
       <c r="C101" s="101"/>
       <c r="D101" s="101"/>
@@ -3851,7 +4071,7 @@
       <c r="F101" s="105"/>
     </row>
     <row r="102" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A102" s="152"/>
+      <c r="A102" s="153"/>
       <c r="B102" s="100"/>
       <c r="C102" s="101"/>
       <c r="D102" s="101"/>
@@ -3862,7 +4082,7 @@
       <c r="F102" s="105"/>
     </row>
     <row r="103" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A103" s="152"/>
+      <c r="A103" s="153"/>
       <c r="B103" s="100"/>
       <c r="C103" s="101"/>
       <c r="D103" s="101"/>
@@ -3873,7 +4093,7 @@
       <c r="F103" s="105"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A104" s="152"/>
+      <c r="A104" s="153"/>
       <c r="B104" s="98" t="s">
         <v>186</v>
       </c>
@@ -3911,7 +4131,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A107" s="151" t="s">
+      <c r="A107" s="152" t="s">
         <v>173</v>
       </c>
       <c r="B107" s="113" t="s">
@@ -3931,7 +4151,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A108" s="152"/>
+      <c r="A108" s="153"/>
       <c r="B108" s="98" t="s">
         <v>183</v>
       </c>
@@ -3944,7 +4164,7 @@
       <c r="F108" s="104"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A109" s="152"/>
+      <c r="A109" s="153"/>
       <c r="B109" s="100"/>
       <c r="C109" s="101"/>
       <c r="D109" s="101"/>
@@ -3955,7 +4175,7 @@
       <c r="F109" s="105"/>
     </row>
     <row r="110" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A110" s="152"/>
+      <c r="A110" s="153"/>
       <c r="B110" s="100"/>
       <c r="C110" s="101"/>
       <c r="D110" s="101"/>
@@ -3966,7 +4186,7 @@
       <c r="F110" s="105"/>
     </row>
     <row r="111" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A111" s="152"/>
+      <c r="A111" s="153"/>
       <c r="B111" s="100"/>
       <c r="C111" s="101"/>
       <c r="D111" s="101"/>
@@ -3977,7 +4197,7 @@
       <c r="F111" s="105"/>
     </row>
     <row r="112" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A112" s="152"/>
+      <c r="A112" s="153"/>
       <c r="B112" s="100"/>
       <c r="C112" s="101"/>
       <c r="D112" s="101"/>
@@ -3988,7 +4208,7 @@
       <c r="F112" s="105"/>
     </row>
     <row r="113" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A113" s="152"/>
+      <c r="A113" s="153"/>
       <c r="B113" s="100"/>
       <c r="C113" s="101"/>
       <c r="D113" s="101"/>
@@ -3999,7 +4219,7 @@
       <c r="F113" s="105"/>
     </row>
     <row r="114" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A114" s="152"/>
+      <c r="A114" s="153"/>
       <c r="B114" s="100"/>
       <c r="C114" s="101"/>
       <c r="D114" s="101"/>
@@ -4010,7 +4230,7 @@
       <c r="F114" s="105"/>
     </row>
     <row r="115" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A115" s="152"/>
+      <c r="A115" s="153"/>
       <c r="B115" s="100"/>
       <c r="C115" s="101"/>
       <c r="D115" s="101"/>
@@ -4021,7 +4241,7 @@
       <c r="F115" s="105"/>
     </row>
     <row r="116" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A116" s="152"/>
+      <c r="A116" s="153"/>
       <c r="B116" s="100"/>
       <c r="C116" s="101"/>
       <c r="D116" s="101"/>
@@ -4032,7 +4252,7 @@
       <c r="F116" s="105"/>
     </row>
     <row r="117" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A117" s="152"/>
+      <c r="A117" s="153"/>
       <c r="B117" s="100"/>
       <c r="C117" s="101"/>
       <c r="D117" s="101"/>
@@ -4043,7 +4263,7 @@
       <c r="F117" s="105"/>
     </row>
     <row r="118" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A118" s="152"/>
+      <c r="A118" s="153"/>
       <c r="B118" s="100"/>
       <c r="C118" s="101"/>
       <c r="D118" s="101"/>
@@ -4054,7 +4274,7 @@
       <c r="F118" s="105"/>
     </row>
     <row r="119" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A119" s="152"/>
+      <c r="A119" s="153"/>
       <c r="B119" s="100"/>
       <c r="C119" s="101"/>
       <c r="D119" s="101"/>
@@ -4065,7 +4285,7 @@
       <c r="F119" s="105"/>
     </row>
     <row r="120" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A120" s="152"/>
+      <c r="A120" s="153"/>
       <c r="B120" s="100"/>
       <c r="C120" s="101"/>
       <c r="D120" s="101"/>
@@ -4076,7 +4296,7 @@
       <c r="F120" s="105"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A121" s="152"/>
+      <c r="A121" s="153"/>
       <c r="B121" s="98" t="s">
         <v>186</v>
       </c>
@@ -4114,7 +4334,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A124" s="153" t="s">
+      <c r="A124" s="154" t="s">
         <v>174</v>
       </c>
       <c r="B124" s="109" t="s">
@@ -4134,7 +4354,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A125" s="152"/>
+      <c r="A125" s="153"/>
       <c r="B125" s="98" t="s">
         <v>183</v>
       </c>
@@ -4147,7 +4367,7 @@
       <c r="F125" s="104"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A126" s="152"/>
+      <c r="A126" s="153"/>
       <c r="B126" s="100"/>
       <c r="C126" s="101"/>
       <c r="D126" s="101"/>
@@ -4158,7 +4378,7 @@
       <c r="F126" s="105"/>
     </row>
     <row r="127" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A127" s="152"/>
+      <c r="A127" s="153"/>
       <c r="B127" s="100"/>
       <c r="C127" s="101"/>
       <c r="D127" s="101"/>
@@ -4169,7 +4389,7 @@
       <c r="F127" s="105"/>
     </row>
     <row r="128" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A128" s="152"/>
+      <c r="A128" s="153"/>
       <c r="B128" s="100"/>
       <c r="C128" s="101"/>
       <c r="D128" s="101"/>
@@ -4180,7 +4400,7 @@
       <c r="F128" s="105"/>
     </row>
     <row r="129" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A129" s="152"/>
+      <c r="A129" s="153"/>
       <c r="B129" s="100"/>
       <c r="C129" s="101"/>
       <c r="D129" s="101"/>
@@ -4191,7 +4411,7 @@
       <c r="F129" s="105"/>
     </row>
     <row r="130" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A130" s="152"/>
+      <c r="A130" s="153"/>
       <c r="B130" s="100"/>
       <c r="C130" s="101"/>
       <c r="D130" s="101"/>
@@ -4202,7 +4422,7 @@
       <c r="F130" s="105"/>
     </row>
     <row r="131" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A131" s="152"/>
+      <c r="A131" s="153"/>
       <c r="B131" s="100"/>
       <c r="C131" s="101"/>
       <c r="D131" s="101"/>
@@ -4213,7 +4433,7 @@
       <c r="F131" s="105"/>
     </row>
     <row r="132" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A132" s="152"/>
+      <c r="A132" s="153"/>
       <c r="B132" s="100"/>
       <c r="C132" s="101"/>
       <c r="D132" s="101"/>
@@ -4224,7 +4444,7 @@
       <c r="F132" s="105"/>
     </row>
     <row r="133" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A133" s="152"/>
+      <c r="A133" s="153"/>
       <c r="B133" s="100"/>
       <c r="C133" s="101"/>
       <c r="D133" s="101"/>
@@ -4235,7 +4455,7 @@
       <c r="F133" s="105"/>
     </row>
     <row r="134" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A134" s="152"/>
+      <c r="A134" s="153"/>
       <c r="B134" s="100"/>
       <c r="C134" s="101"/>
       <c r="D134" s="101"/>
@@ -4246,7 +4466,7 @@
       <c r="F134" s="105"/>
     </row>
     <row r="135" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A135" s="152"/>
+      <c r="A135" s="153"/>
       <c r="B135" s="100"/>
       <c r="C135" s="101"/>
       <c r="D135" s="101"/>
@@ -4257,7 +4477,7 @@
       <c r="F135" s="105"/>
     </row>
     <row r="136" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A136" s="152"/>
+      <c r="A136" s="153"/>
       <c r="B136" s="100"/>
       <c r="C136" s="101"/>
       <c r="D136" s="101"/>
@@ -4268,7 +4488,7 @@
       <c r="F136" s="105"/>
     </row>
     <row r="137" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A137" s="152"/>
+      <c r="A137" s="153"/>
       <c r="B137" s="100"/>
       <c r="C137" s="101"/>
       <c r="D137" s="101"/>
@@ -4279,7 +4499,7 @@
       <c r="F137" s="105"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A138" s="152"/>
+      <c r="A138" s="153"/>
       <c r="B138" s="98" t="s">
         <v>186</v>
       </c>
@@ -4317,7 +4537,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A141" s="151" t="s">
+      <c r="A141" s="152" t="s">
         <v>175</v>
       </c>
       <c r="B141" s="113" t="s">
@@ -4337,7 +4557,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A142" s="152"/>
+      <c r="A142" s="153"/>
       <c r="B142" s="98" t="s">
         <v>183</v>
       </c>
@@ -4350,7 +4570,7 @@
       <c r="F142" s="104"/>
     </row>
     <row r="143" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickTop="1">
-      <c r="A143" s="152"/>
+      <c r="A143" s="153"/>
       <c r="B143" s="100"/>
       <c r="C143" s="101"/>
       <c r="D143" s="101"/>
@@ -4361,7 +4581,7 @@
       <c r="F143" s="105"/>
     </row>
     <row r="144" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A144" s="152"/>
+      <c r="A144" s="153"/>
       <c r="B144" s="100"/>
       <c r="C144" s="101"/>
       <c r="D144" s="101"/>
@@ -4372,7 +4592,7 @@
       <c r="F144" s="105"/>
     </row>
     <row r="145" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A145" s="152"/>
+      <c r="A145" s="153"/>
       <c r="B145" s="100"/>
       <c r="C145" s="101"/>
       <c r="D145" s="101"/>
@@ -4383,7 +4603,7 @@
       <c r="F145" s="105"/>
     </row>
     <row r="146" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A146" s="152"/>
+      <c r="A146" s="153"/>
       <c r="B146" s="100"/>
       <c r="C146" s="101"/>
       <c r="D146" s="101"/>
@@ -4394,7 +4614,7 @@
       <c r="F146" s="105"/>
     </row>
     <row r="147" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A147" s="152"/>
+      <c r="A147" s="153"/>
       <c r="B147" s="100"/>
       <c r="C147" s="101"/>
       <c r="D147" s="101"/>
@@ -4405,7 +4625,7 @@
       <c r="F147" s="105"/>
     </row>
     <row r="148" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A148" s="152"/>
+      <c r="A148" s="153"/>
       <c r="B148" s="100"/>
       <c r="C148" s="101"/>
       <c r="D148" s="101"/>
@@ -4416,7 +4636,7 @@
       <c r="F148" s="105"/>
     </row>
     <row r="149" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A149" s="152"/>
+      <c r="A149" s="153"/>
       <c r="B149" s="100"/>
       <c r="C149" s="101"/>
       <c r="D149" s="101"/>
@@ -4427,7 +4647,7 @@
       <c r="F149" s="105"/>
     </row>
     <row r="150" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A150" s="152"/>
+      <c r="A150" s="153"/>
       <c r="B150" s="100"/>
       <c r="C150" s="101"/>
       <c r="D150" s="101"/>
@@ -4438,7 +4658,7 @@
       <c r="F150" s="105"/>
     </row>
     <row r="151" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A151" s="152"/>
+      <c r="A151" s="153"/>
       <c r="B151" s="100"/>
       <c r="C151" s="101"/>
       <c r="D151" s="101"/>
@@ -4449,7 +4669,7 @@
       <c r="F151" s="105"/>
     </row>
     <row r="152" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A152" s="152"/>
+      <c r="A152" s="153"/>
       <c r="B152" s="100"/>
       <c r="C152" s="101"/>
       <c r="D152" s="101"/>
@@ -4460,7 +4680,7 @@
       <c r="F152" s="105"/>
     </row>
     <row r="153" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A153" s="152"/>
+      <c r="A153" s="153"/>
       <c r="B153" s="100"/>
       <c r="C153" s="101"/>
       <c r="D153" s="101"/>
@@ -4471,7 +4691,7 @@
       <c r="F153" s="105"/>
     </row>
     <row r="154" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A154" s="152"/>
+      <c r="A154" s="153"/>
       <c r="B154" s="100"/>
       <c r="C154" s="101"/>
       <c r="D154" s="101"/>
@@ -4482,7 +4702,7 @@
       <c r="F154" s="105"/>
     </row>
     <row r="155" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A155" s="152"/>
+      <c r="A155" s="153"/>
       <c r="B155" s="98" t="s">
         <v>186</v>
       </c>
@@ -4521,6 +4741,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A141:A155"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A73:A87"/>
+    <mergeCell ref="A124:A138"/>
+    <mergeCell ref="A90:A104"/>
     <mergeCell ref="A39:A53"/>
     <mergeCell ref="A56:A70"/>
     <mergeCell ref="C5:D5"/>
@@ -4529,11 +4754,6 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A19:A36"/>
-    <mergeCell ref="A141:A155"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A73:A87"/>
-    <mergeCell ref="A124:A138"/>
-    <mergeCell ref="A90:A104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4548,9 +4768,9 @@
   </sheetPr>
   <dimension ref="A1:H2186"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2205" sqref="D2205"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1370" sqref="C1370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -4565,13 +4785,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4596,23 +4816,23 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" ht="18" collapsed="1">
+    <row r="3" spans="1:8" s="14" customFormat="1" ht="18">
       <c r="A3" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" outlineLevel="1" collapsed="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2">
@@ -4759,16 +4979,16 @@
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="21" spans="1:5" ht="18" outlineLevel="1">
       <c r="A21" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+    </row>
+    <row r="22" spans="1:5" outlineLevel="2">
       <c r="A22" s="47">
         <v>0</v>
       </c>
@@ -4777,7 +4997,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="23" spans="1:5" outlineLevel="2">
       <c r="A23" s="47">
         <v>1</v>
       </c>
@@ -4786,7 +5006,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="24" spans="1:5" outlineLevel="2">
       <c r="A24" s="47">
         <v>2</v>
       </c>
@@ -4795,7 +5015,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="25" spans="1:5" outlineLevel="2">
       <c r="A25" s="47">
         <v>3</v>
       </c>
@@ -4804,7 +5024,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="26" spans="1:5" outlineLevel="2">
       <c r="A26" s="47">
         <v>4</v>
       </c>
@@ -4813,7 +5033,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="27" spans="1:5" outlineLevel="2">
       <c r="A27" s="47">
         <v>5</v>
       </c>
@@ -4822,7 +5042,7 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="28" spans="1:5" outlineLevel="2">
       <c r="A28" s="47">
         <v>6</v>
       </c>
@@ -4831,7 +5051,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="29" spans="1:5" outlineLevel="2">
       <c r="A29" s="47">
         <v>7</v>
       </c>
@@ -4840,7 +5060,7 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="30" spans="1:5" outlineLevel="2">
       <c r="A30" s="47">
         <v>8</v>
       </c>
@@ -4849,7 +5069,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="31" spans="1:5" outlineLevel="2">
       <c r="A31" s="47">
         <v>9</v>
       </c>
@@ -4858,7 +5078,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="32" spans="1:5" outlineLevel="2">
       <c r="A32" s="47" t="s">
         <v>2</v>
       </c>
@@ -4867,7 +5087,7 @@
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="33" spans="1:5" outlineLevel="2">
       <c r="A33" s="47" t="s">
         <v>3</v>
       </c>
@@ -4876,16 +5096,20 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="34" spans="1:5" outlineLevel="2">
       <c r="A34" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="88"/>
+      <c r="B34" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C34" s="33"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="216" t="s">
+        <v>295</v>
+      </c>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="35" spans="1:5" outlineLevel="2">
       <c r="A35" s="47" t="s">
         <v>5</v>
       </c>
@@ -4894,7 +5118,7 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="36" spans="1:5" outlineLevel="2">
       <c r="A36" s="47" t="s">
         <v>6</v>
       </c>
@@ -4903,7 +5127,7 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="37" spans="1:5" outlineLevel="2">
       <c r="A37" s="47" t="s">
         <v>7</v>
       </c>
@@ -4912,14 +5136,14 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="38" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A38" s="46" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A39" s="47">
@@ -5065,14 +5289,14 @@
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
     </row>
-    <row r="55" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="55" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A55" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="165"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A56" s="47">
@@ -5218,16 +5442,16 @@
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="72" spans="1:5" ht="18" outlineLevel="1">
       <c r="A72" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="161"/>
-      <c r="E72" s="161"/>
-    </row>
-    <row r="73" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C72" s="164"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="165"/>
+    </row>
+    <row r="73" spans="1:5" outlineLevel="2">
       <c r="A73" s="47">
         <v>0</v>
       </c>
@@ -5236,7 +5460,7 @@
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="74" spans="1:5" outlineLevel="2">
       <c r="A74" s="47">
         <v>1</v>
       </c>
@@ -5245,7 +5469,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
     </row>
-    <row r="75" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="75" spans="1:5" outlineLevel="2">
       <c r="A75" s="47">
         <v>2</v>
       </c>
@@ -5254,7 +5478,7 @@
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="76" spans="1:5" outlineLevel="2">
       <c r="A76" s="47">
         <v>3</v>
       </c>
@@ -5263,7 +5487,7 @@
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
     </row>
-    <row r="77" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="77" spans="1:5" outlineLevel="2">
       <c r="A77" s="47">
         <v>4</v>
       </c>
@@ -5272,7 +5496,7 @@
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="78" spans="1:5" outlineLevel="2">
       <c r="A78" s="47">
         <v>5</v>
       </c>
@@ -5281,7 +5505,7 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
     </row>
-    <row r="79" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="79" spans="1:5" outlineLevel="2">
       <c r="A79" s="47">
         <v>6</v>
       </c>
@@ -5290,7 +5514,7 @@
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="80" spans="1:5" outlineLevel="2">
       <c r="A80" s="47">
         <v>7</v>
       </c>
@@ -5299,7 +5523,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
     </row>
-    <row r="81" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="81" spans="1:5" outlineLevel="2">
       <c r="A81" s="47">
         <v>8</v>
       </c>
@@ -5308,7 +5532,7 @@
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="82" spans="1:5" outlineLevel="2">
       <c r="A82" s="47">
         <v>9</v>
       </c>
@@ -5317,7 +5541,7 @@
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
     </row>
-    <row r="83" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="83" spans="1:5" outlineLevel="2">
       <c r="A83" s="47" t="s">
         <v>2</v>
       </c>
@@ -5326,7 +5550,7 @@
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
     </row>
-    <row r="84" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="84" spans="1:5" outlineLevel="2">
       <c r="A84" s="47" t="s">
         <v>3</v>
       </c>
@@ -5335,7 +5559,7 @@
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
     </row>
-    <row r="85" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="85" spans="1:5" outlineLevel="2">
       <c r="A85" s="47" t="s">
         <v>4</v>
       </c>
@@ -5344,7 +5568,7 @@
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
     </row>
-    <row r="86" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="86" spans="1:5" outlineLevel="2">
       <c r="A86" s="47" t="s">
         <v>5</v>
       </c>
@@ -5353,7 +5577,7 @@
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
     </row>
-    <row r="87" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="87" spans="1:5" outlineLevel="2">
       <c r="A87" s="47" t="s">
         <v>6</v>
       </c>
@@ -5362,7 +5586,7 @@
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
     </row>
-    <row r="88" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="88" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A88" s="48" t="s">
         <v>7</v>
       </c>
@@ -5371,14 +5595,14 @@
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
     </row>
-    <row r="89" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="89" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A89" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="160"/>
-      <c r="D89" s="161"/>
-      <c r="E89" s="161"/>
+      <c r="C89" s="164"/>
+      <c r="D89" s="165"/>
+      <c r="E89" s="165"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A90" s="47">
@@ -5524,14 +5748,14 @@
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
     </row>
-    <row r="106" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="106" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A106" s="46" t="s">
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="160"/>
-      <c r="D106" s="161"/>
-      <c r="E106" s="161"/>
+      <c r="C106" s="164"/>
+      <c r="D106" s="165"/>
+      <c r="E106" s="165"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A107" s="47">
@@ -5677,14 +5901,14 @@
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
     </row>
-    <row r="123" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="123" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A123" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="160"/>
-      <c r="D123" s="161"/>
-      <c r="E123" s="161"/>
+      <c r="C123" s="164"/>
+      <c r="D123" s="165"/>
+      <c r="E123" s="165"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A124" s="47">
@@ -5830,14 +6054,14 @@
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
     </row>
-    <row r="140" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="140" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A140" s="46" t="s">
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="160"/>
-      <c r="D140" s="161"/>
-      <c r="E140" s="161"/>
+      <c r="C140" s="164"/>
+      <c r="D140" s="165"/>
+      <c r="E140" s="165"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A141" s="47">
@@ -5983,14 +6207,14 @@
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
     </row>
-    <row r="157" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="157" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A157" s="46" t="s">
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="160"/>
-      <c r="D157" s="161"/>
-      <c r="E157" s="161"/>
+      <c r="C157" s="164"/>
+      <c r="D157" s="165"/>
+      <c r="E157" s="165"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A158" s="47">
@@ -6136,14 +6360,14 @@
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
     </row>
-    <row r="174" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="174" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A174" s="46" t="s">
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="160"/>
-      <c r="D174" s="161"/>
-      <c r="E174" s="161"/>
+      <c r="C174" s="164"/>
+      <c r="D174" s="165"/>
+      <c r="E174" s="165"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A175" s="47">
@@ -6185,9 +6409,13 @@
       <c r="A179" s="47">
         <v>4</v>
       </c>
-      <c r="B179" s="88"/>
+      <c r="B179" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C179" s="33"/>
-      <c r="D179" s="15"/>
+      <c r="D179" s="216" t="s">
+        <v>295</v>
+      </c>
       <c r="E179" s="15"/>
     </row>
     <row r="180" spans="1:5" hidden="1" outlineLevel="2">
@@ -6289,14 +6517,14 @@
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
     </row>
-    <row r="191" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="191" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A191" s="46" t="s">
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="160"/>
-      <c r="D191" s="161"/>
-      <c r="E191" s="161"/>
+      <c r="C191" s="164"/>
+      <c r="D191" s="165"/>
+      <c r="E191" s="165"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A192" s="47">
@@ -6442,14 +6670,14 @@
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
     </row>
-    <row r="208" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="208" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A208" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="160"/>
-      <c r="D208" s="161"/>
-      <c r="E208" s="161"/>
+      <c r="C208" s="164"/>
+      <c r="D208" s="165"/>
+      <c r="E208" s="165"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A209" s="47">
@@ -6595,14 +6823,14 @@
       <c r="D224" s="16"/>
       <c r="E224" s="16"/>
     </row>
-    <row r="225" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="225" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A225" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="160"/>
-      <c r="D225" s="161"/>
-      <c r="E225" s="161"/>
+      <c r="C225" s="164"/>
+      <c r="D225" s="165"/>
+      <c r="E225" s="165"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A226" s="47">
@@ -6748,14 +6976,14 @@
       <c r="D241" s="16"/>
       <c r="E241" s="16"/>
     </row>
-    <row r="242" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="242" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A242" s="46" t="s">
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="160"/>
-      <c r="D242" s="161"/>
-      <c r="E242" s="161"/>
+      <c r="C242" s="164"/>
+      <c r="D242" s="165"/>
+      <c r="E242" s="165"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A243" s="47">
@@ -6901,14 +7129,14 @@
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
     </row>
-    <row r="259" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="259" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A259" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="160"/>
-      <c r="D259" s="161"/>
-      <c r="E259" s="161"/>
+      <c r="C259" s="164"/>
+      <c r="D259" s="165"/>
+      <c r="E259" s="165"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A260" s="47">
@@ -7059,18 +7287,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="176"/>
-      <c r="D276" s="177"/>
-      <c r="E276" s="177"/>
+      <c r="C276" s="168"/>
+      <c r="D276" s="169"/>
+      <c r="E276" s="169"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="160"/>
-      <c r="D277" s="161"/>
-      <c r="E277" s="161"/>
+      <c r="C277" s="164"/>
+      <c r="D277" s="165"/>
+      <c r="E277" s="165"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A278" s="52">
@@ -7221,9 +7449,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="162"/>
-      <c r="D294" s="163"/>
-      <c r="E294" s="163"/>
+      <c r="C294" s="166"/>
+      <c r="D294" s="167"/>
+      <c r="E294" s="167"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A295" s="52">
@@ -7374,9 +7602,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="160"/>
-      <c r="D311" s="161"/>
-      <c r="E311" s="161"/>
+      <c r="C311" s="164"/>
+      <c r="D311" s="165"/>
+      <c r="E311" s="165"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A312" s="52">
@@ -7527,9 +7755,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="160"/>
-      <c r="D328" s="161"/>
-      <c r="E328" s="161"/>
+      <c r="C328" s="164"/>
+      <c r="D328" s="165"/>
+      <c r="E328" s="165"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A329" s="52">
@@ -7680,9 +7908,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="160"/>
-      <c r="D345" s="161"/>
-      <c r="E345" s="161"/>
+      <c r="C345" s="164"/>
+      <c r="D345" s="165"/>
+      <c r="E345" s="165"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A346" s="52">
@@ -7833,9 +8061,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="160"/>
-      <c r="D362" s="161"/>
-      <c r="E362" s="161"/>
+      <c r="C362" s="164"/>
+      <c r="D362" s="165"/>
+      <c r="E362" s="165"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A363" s="52">
@@ -7986,9 +8214,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="160"/>
-      <c r="D379" s="161"/>
-      <c r="E379" s="161"/>
+      <c r="C379" s="164"/>
+      <c r="D379" s="165"/>
+      <c r="E379" s="165"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A380" s="52">
@@ -8139,9 +8367,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="160"/>
-      <c r="D396" s="161"/>
-      <c r="E396" s="161"/>
+      <c r="C396" s="164"/>
+      <c r="D396" s="165"/>
+      <c r="E396" s="165"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A397" s="52">
@@ -8292,9 +8520,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="160"/>
-      <c r="D413" s="161"/>
-      <c r="E413" s="161"/>
+      <c r="C413" s="164"/>
+      <c r="D413" s="165"/>
+      <c r="E413" s="165"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A414" s="52">
@@ -8445,9 +8673,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="160"/>
-      <c r="D430" s="161"/>
-      <c r="E430" s="161"/>
+      <c r="C430" s="164"/>
+      <c r="D430" s="165"/>
+      <c r="E430" s="165"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A431" s="52">
@@ -8598,9 +8826,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="160"/>
-      <c r="D447" s="161"/>
-      <c r="E447" s="161"/>
+      <c r="C447" s="164"/>
+      <c r="D447" s="165"/>
+      <c r="E447" s="165"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A448" s="52">
@@ -8751,9 +8979,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="160"/>
-      <c r="D464" s="161"/>
-      <c r="E464" s="161"/>
+      <c r="C464" s="164"/>
+      <c r="D464" s="165"/>
+      <c r="E464" s="165"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A465" s="52">
@@ -8904,9 +9132,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="160"/>
-      <c r="D481" s="161"/>
-      <c r="E481" s="161"/>
+      <c r="C481" s="164"/>
+      <c r="D481" s="165"/>
+      <c r="E481" s="165"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A482" s="52">
@@ -9057,9 +9285,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="160"/>
-      <c r="D498" s="161"/>
-      <c r="E498" s="161"/>
+      <c r="C498" s="164"/>
+      <c r="D498" s="165"/>
+      <c r="E498" s="165"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A499" s="52">
@@ -9210,9 +9438,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="160"/>
-      <c r="D515" s="161"/>
-      <c r="E515" s="161"/>
+      <c r="C515" s="164"/>
+      <c r="D515" s="165"/>
+      <c r="E515" s="165"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A516" s="52">
@@ -9363,9 +9591,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="160"/>
-      <c r="D532" s="161"/>
-      <c r="E532" s="161"/>
+      <c r="C532" s="164"/>
+      <c r="D532" s="165"/>
+      <c r="E532" s="165"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A533" s="55">
@@ -9516,18 +9744,18 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="174"/>
-      <c r="D549" s="175"/>
-      <c r="E549" s="175"/>
+      <c r="C549" s="170"/>
+      <c r="D549" s="171"/>
+      <c r="E549" s="171"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A550" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="160"/>
-      <c r="D550" s="161"/>
-      <c r="E550" s="161"/>
+      <c r="C550" s="164"/>
+      <c r="D550" s="165"/>
+      <c r="E550" s="165"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -9678,9 +9906,9 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="162"/>
-      <c r="D567" s="163"/>
-      <c r="E567" s="163"/>
+      <c r="C567" s="166"/>
+      <c r="D567" s="167"/>
+      <c r="E567" s="167"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A568" s="59">
@@ -9831,9 +10059,9 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="160"/>
-      <c r="D584" s="161"/>
-      <c r="E584" s="161"/>
+      <c r="C584" s="164"/>
+      <c r="D584" s="165"/>
+      <c r="E584" s="165"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -9984,9 +10212,9 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="160"/>
-      <c r="D601" s="161"/>
-      <c r="E601" s="161"/>
+      <c r="C601" s="164"/>
+      <c r="D601" s="165"/>
+      <c r="E601" s="165"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -10137,9 +10365,9 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="160"/>
-      <c r="D618" s="161"/>
-      <c r="E618" s="161"/>
+      <c r="C618" s="164"/>
+      <c r="D618" s="165"/>
+      <c r="E618" s="165"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -10290,9 +10518,9 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="160"/>
-      <c r="D635" s="161"/>
-      <c r="E635" s="161"/>
+      <c r="C635" s="164"/>
+      <c r="D635" s="165"/>
+      <c r="E635" s="165"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -10443,9 +10671,9 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="160"/>
-      <c r="D652" s="161"/>
-      <c r="E652" s="161"/>
+      <c r="C652" s="164"/>
+      <c r="D652" s="165"/>
+      <c r="E652" s="165"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -10596,9 +10824,9 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="160"/>
-      <c r="D669" s="161"/>
-      <c r="E669" s="161"/>
+      <c r="C669" s="164"/>
+      <c r="D669" s="165"/>
+      <c r="E669" s="165"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -10749,9 +10977,9 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="160"/>
-      <c r="D686" s="161"/>
-      <c r="E686" s="161"/>
+      <c r="C686" s="164"/>
+      <c r="D686" s="165"/>
+      <c r="E686" s="165"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -10902,9 +11130,9 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="160"/>
-      <c r="D703" s="161"/>
-      <c r="E703" s="161"/>
+      <c r="C703" s="164"/>
+      <c r="D703" s="165"/>
+      <c r="E703" s="165"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -11055,9 +11283,9 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="160"/>
-      <c r="D720" s="161"/>
-      <c r="E720" s="161"/>
+      <c r="C720" s="164"/>
+      <c r="D720" s="165"/>
+      <c r="E720" s="165"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -11208,9 +11436,9 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="160"/>
-      <c r="D737" s="161"/>
-      <c r="E737" s="161"/>
+      <c r="C737" s="164"/>
+      <c r="D737" s="165"/>
+      <c r="E737" s="165"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -11361,9 +11589,9 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="160"/>
-      <c r="D754" s="161"/>
-      <c r="E754" s="161"/>
+      <c r="C754" s="164"/>
+      <c r="D754" s="165"/>
+      <c r="E754" s="165"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -11514,9 +11742,9 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="160"/>
-      <c r="D771" s="161"/>
-      <c r="E771" s="161"/>
+      <c r="C771" s="164"/>
+      <c r="D771" s="165"/>
+      <c r="E771" s="165"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -11667,9 +11895,9 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="160"/>
-      <c r="D788" s="161"/>
-      <c r="E788" s="161"/>
+      <c r="C788" s="164"/>
+      <c r="D788" s="165"/>
+      <c r="E788" s="165"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -11820,9 +12048,9 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="160"/>
-      <c r="D805" s="161"/>
-      <c r="E805" s="161"/>
+      <c r="C805" s="164"/>
+      <c r="D805" s="165"/>
+      <c r="E805" s="165"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -11982,9 +12210,9 @@
         <v>68</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="160"/>
-      <c r="D823" s="161"/>
-      <c r="E823" s="161"/>
+      <c r="C823" s="164"/>
+      <c r="D823" s="165"/>
+      <c r="E823" s="165"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A824" s="64">
@@ -12135,9 +12363,9 @@
         <v>69</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="162"/>
-      <c r="D840" s="163"/>
-      <c r="E840" s="163"/>
+      <c r="C840" s="166"/>
+      <c r="D840" s="167"/>
+      <c r="E840" s="167"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A841" s="64">
@@ -12288,9 +12516,9 @@
         <v>70</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="160"/>
-      <c r="D857" s="161"/>
-      <c r="E857" s="161"/>
+      <c r="C857" s="164"/>
+      <c r="D857" s="165"/>
+      <c r="E857" s="165"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A858" s="64">
@@ -12441,9 +12669,9 @@
         <v>71</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="160"/>
-      <c r="D874" s="161"/>
-      <c r="E874" s="161"/>
+      <c r="C874" s="164"/>
+      <c r="D874" s="165"/>
+      <c r="E874" s="165"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A875" s="64">
@@ -12594,9 +12822,9 @@
         <v>72</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="160"/>
-      <c r="D891" s="161"/>
-      <c r="E891" s="161"/>
+      <c r="C891" s="164"/>
+      <c r="D891" s="165"/>
+      <c r="E891" s="165"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A892" s="64">
@@ -12747,9 +12975,9 @@
         <v>73</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="160"/>
-      <c r="D908" s="161"/>
-      <c r="E908" s="161"/>
+      <c r="C908" s="164"/>
+      <c r="D908" s="165"/>
+      <c r="E908" s="165"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A909" s="64">
@@ -12900,9 +13128,9 @@
         <v>74</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="160"/>
-      <c r="D925" s="161"/>
-      <c r="E925" s="161"/>
+      <c r="C925" s="164"/>
+      <c r="D925" s="165"/>
+      <c r="E925" s="165"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A926" s="64">
@@ -13053,9 +13281,9 @@
         <v>75</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="160"/>
-      <c r="D942" s="161"/>
-      <c r="E942" s="161"/>
+      <c r="C942" s="164"/>
+      <c r="D942" s="165"/>
+      <c r="E942" s="165"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A943" s="64">
@@ -13206,9 +13434,9 @@
         <v>76</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="160"/>
-      <c r="D959" s="161"/>
-      <c r="E959" s="161"/>
+      <c r="C959" s="164"/>
+      <c r="D959" s="165"/>
+      <c r="E959" s="165"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A960" s="64">
@@ -13359,9 +13587,9 @@
         <v>77</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="160"/>
-      <c r="D976" s="161"/>
-      <c r="E976" s="161"/>
+      <c r="C976" s="164"/>
+      <c r="D976" s="165"/>
+      <c r="E976" s="165"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A977" s="64">
@@ -13512,9 +13740,9 @@
         <v>78</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="160"/>
-      <c r="D993" s="161"/>
-      <c r="E993" s="161"/>
+      <c r="C993" s="164"/>
+      <c r="D993" s="165"/>
+      <c r="E993" s="165"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A994" s="64">
@@ -13665,9 +13893,9 @@
         <v>79</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="160"/>
-      <c r="D1010" s="161"/>
-      <c r="E1010" s="161"/>
+      <c r="C1010" s="164"/>
+      <c r="D1010" s="165"/>
+      <c r="E1010" s="165"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1011" s="64">
@@ -13818,9 +14046,9 @@
         <v>80</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="160"/>
-      <c r="D1027" s="161"/>
-      <c r="E1027" s="161"/>
+      <c r="C1027" s="164"/>
+      <c r="D1027" s="165"/>
+      <c r="E1027" s="165"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1028" s="64">
@@ -13971,9 +14199,9 @@
         <v>83</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="160"/>
-      <c r="D1044" s="161"/>
-      <c r="E1044" s="161"/>
+      <c r="C1044" s="164"/>
+      <c r="D1044" s="165"/>
+      <c r="E1044" s="165"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1045" s="64">
@@ -14124,9 +14352,9 @@
         <v>82</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="160"/>
-      <c r="D1061" s="161"/>
-      <c r="E1061" s="161"/>
+      <c r="C1061" s="164"/>
+      <c r="D1061" s="165"/>
+      <c r="E1061" s="165"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1062" s="64">
@@ -14277,9 +14505,9 @@
         <v>84</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="160"/>
-      <c r="D1078" s="161"/>
-      <c r="E1078" s="161"/>
+      <c r="C1078" s="164"/>
+      <c r="D1078" s="165"/>
+      <c r="E1078" s="165"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1079" s="64">
@@ -14430,18 +14658,18 @@
         <v>104</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="170"/>
-      <c r="D1095" s="171"/>
-      <c r="E1095" s="171"/>
+      <c r="C1095" s="174"/>
+      <c r="D1095" s="175"/>
+      <c r="E1095" s="175"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1096" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="160"/>
-      <c r="D1096" s="161"/>
-      <c r="E1096" s="161"/>
+      <c r="C1096" s="164"/>
+      <c r="D1096" s="165"/>
+      <c r="E1096" s="165"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1097" s="69">
@@ -14592,9 +14820,9 @@
         <v>86</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="162"/>
-      <c r="D1113" s="163"/>
-      <c r="E1113" s="163"/>
+      <c r="C1113" s="166"/>
+      <c r="D1113" s="167"/>
+      <c r="E1113" s="167"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1114" s="69">
@@ -14745,9 +14973,9 @@
         <v>87</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="160"/>
-      <c r="D1130" s="161"/>
-      <c r="E1130" s="161"/>
+      <c r="C1130" s="164"/>
+      <c r="D1130" s="165"/>
+      <c r="E1130" s="165"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1131" s="69">
@@ -14898,9 +15126,9 @@
         <v>88</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="160"/>
-      <c r="D1147" s="161"/>
-      <c r="E1147" s="161"/>
+      <c r="C1147" s="164"/>
+      <c r="D1147" s="165"/>
+      <c r="E1147" s="165"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1148" s="69">
@@ -15051,9 +15279,9 @@
         <v>89</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="160"/>
-      <c r="D1164" s="161"/>
-      <c r="E1164" s="161"/>
+      <c r="C1164" s="164"/>
+      <c r="D1164" s="165"/>
+      <c r="E1164" s="165"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1165" s="69">
@@ -15204,9 +15432,9 @@
         <v>90</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="160"/>
-      <c r="D1181" s="161"/>
-      <c r="E1181" s="161"/>
+      <c r="C1181" s="164"/>
+      <c r="D1181" s="165"/>
+      <c r="E1181" s="165"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3">
       <c r="A1182" s="69">
@@ -15357,9 +15585,9 @@
         <v>91</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="160"/>
-      <c r="D1198" s="161"/>
-      <c r="E1198" s="161"/>
+      <c r="C1198" s="164"/>
+      <c r="D1198" s="165"/>
+      <c r="E1198" s="165"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1199" s="69">
@@ -15510,9 +15738,9 @@
         <v>92</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="160"/>
-      <c r="D1215" s="161"/>
-      <c r="E1215" s="161"/>
+      <c r="C1215" s="164"/>
+      <c r="D1215" s="165"/>
+      <c r="E1215" s="165"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1216" s="69">
@@ -15663,9 +15891,9 @@
         <v>93</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="160"/>
-      <c r="D1232" s="161"/>
-      <c r="E1232" s="161"/>
+      <c r="C1232" s="164"/>
+      <c r="D1232" s="165"/>
+      <c r="E1232" s="165"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1233" s="69">
@@ -15816,9 +16044,9 @@
         <v>94</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="160"/>
-      <c r="D1249" s="161"/>
-      <c r="E1249" s="161"/>
+      <c r="C1249" s="164"/>
+      <c r="D1249" s="165"/>
+      <c r="E1249" s="165"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1250" s="69">
@@ -15969,9 +16197,9 @@
         <v>99</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="160"/>
-      <c r="D1266" s="161"/>
-      <c r="E1266" s="161"/>
+      <c r="C1266" s="164"/>
+      <c r="D1266" s="165"/>
+      <c r="E1266" s="165"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1267" s="69">
@@ -16122,9 +16350,9 @@
         <v>100</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="160"/>
-      <c r="D1283" s="161"/>
-      <c r="E1283" s="161"/>
+      <c r="C1283" s="164"/>
+      <c r="D1283" s="165"/>
+      <c r="E1283" s="165"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1284" s="69">
@@ -16275,9 +16503,9 @@
         <v>101</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="160"/>
-      <c r="D1300" s="161"/>
-      <c r="E1300" s="161"/>
+      <c r="C1300" s="164"/>
+      <c r="D1300" s="165"/>
+      <c r="E1300" s="165"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1301" s="69">
@@ -16428,9 +16656,9 @@
         <v>81</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="160"/>
-      <c r="D1317" s="161"/>
-      <c r="E1317" s="161"/>
+      <c r="C1317" s="164"/>
+      <c r="D1317" s="165"/>
+      <c r="E1317" s="165"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1318" s="69">
@@ -16581,9 +16809,9 @@
         <v>102</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="160"/>
-      <c r="D1334" s="161"/>
-      <c r="E1334" s="161"/>
+      <c r="C1334" s="164"/>
+      <c r="D1334" s="165"/>
+      <c r="E1334" s="165"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1335" s="69">
@@ -16734,9 +16962,9 @@
         <v>98</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="160"/>
-      <c r="D1351" s="161"/>
-      <c r="E1351" s="161"/>
+      <c r="C1351" s="164"/>
+      <c r="D1351" s="165"/>
+      <c r="E1351" s="165"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1352" s="69">
@@ -16882,176 +17110,274 @@
       <c r="D1367" s="16"/>
       <c r="E1367" s="16"/>
     </row>
-    <row r="1368" spans="1:5" ht="18" collapsed="1">
+    <row r="1368" spans="1:5" ht="18">
       <c r="A1368" s="72" t="s">
         <v>103</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="168"/>
-      <c r="D1368" s="169"/>
-      <c r="E1368" s="169"/>
-    </row>
-    <row r="1369" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+      <c r="C1368" s="176"/>
+      <c r="D1368" s="177"/>
+      <c r="E1368" s="177"/>
+    </row>
+    <row r="1369" spans="1:5" ht="18" outlineLevel="1">
       <c r="A1369" s="73" t="s">
         <v>105</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="160"/>
-      <c r="D1369" s="161"/>
-      <c r="E1369" s="161"/>
-    </row>
-    <row r="1370" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C1369" s="164" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1369" s="165"/>
+      <c r="E1369" s="165"/>
+    </row>
+    <row r="1370" spans="1:5" outlineLevel="2">
       <c r="A1370" s="74">
         <v>0</v>
       </c>
-      <c r="B1370" s="88"/>
-      <c r="C1370" s="33"/>
-      <c r="D1370" s="15"/>
+      <c r="B1370" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1370" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1370" s="216" t="s">
+        <v>298</v>
+      </c>
       <c r="E1370" s="15"/>
     </row>
-    <row r="1371" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1371" spans="1:5" outlineLevel="2">
       <c r="A1371" s="74">
         <v>1</v>
       </c>
-      <c r="B1371" s="88"/>
-      <c r="C1371" s="33"/>
-      <c r="D1371" s="15"/>
+      <c r="B1371" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1371" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1371" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1371" s="15"/>
     </row>
-    <row r="1372" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1372" spans="1:5" outlineLevel="2">
       <c r="A1372" s="74">
         <v>2</v>
       </c>
-      <c r="B1372" s="88"/>
-      <c r="C1372" s="33"/>
-      <c r="D1372" s="15"/>
+      <c r="B1372" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1372" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1372" s="216" t="s">
+        <v>299</v>
+      </c>
       <c r="E1372" s="15"/>
     </row>
-    <row r="1373" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1373" spans="1:5" outlineLevel="2">
       <c r="A1373" s="74">
         <v>3</v>
       </c>
-      <c r="B1373" s="88"/>
-      <c r="C1373" s="33"/>
-      <c r="D1373" s="15"/>
+      <c r="B1373" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1373" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1373" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1373" s="15"/>
     </row>
-    <row r="1374" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1374" spans="1:5" outlineLevel="2">
       <c r="A1374" s="74">
         <v>4</v>
       </c>
-      <c r="B1374" s="88"/>
-      <c r="C1374" s="33"/>
-      <c r="D1374" s="15"/>
+      <c r="B1374" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1374" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1374" s="216" t="s">
+        <v>300</v>
+      </c>
       <c r="E1374" s="15"/>
     </row>
-    <row r="1375" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1375" spans="1:5" outlineLevel="2">
       <c r="A1375" s="74">
         <v>5</v>
       </c>
-      <c r="B1375" s="88"/>
-      <c r="C1375" s="33"/>
-      <c r="D1375" s="15"/>
+      <c r="B1375" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1375" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1375" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1375" s="15"/>
     </row>
-    <row r="1376" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1376" spans="1:5" outlineLevel="2">
       <c r="A1376" s="74">
         <v>6</v>
       </c>
-      <c r="B1376" s="88"/>
-      <c r="C1376" s="33"/>
-      <c r="D1376" s="15"/>
+      <c r="B1376" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1376" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1376" s="216" t="s">
+        <v>301</v>
+      </c>
       <c r="E1376" s="15"/>
     </row>
-    <row r="1377" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1377" spans="1:5" outlineLevel="2">
       <c r="A1377" s="74">
         <v>7</v>
       </c>
-      <c r="B1377" s="88"/>
-      <c r="C1377" s="33"/>
-      <c r="D1377" s="15"/>
+      <c r="B1377" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1377" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1377" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1377" s="15"/>
     </row>
-    <row r="1378" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1378" spans="1:5" outlineLevel="2">
       <c r="A1378" s="74">
         <v>8</v>
       </c>
-      <c r="B1378" s="88"/>
-      <c r="C1378" s="33"/>
-      <c r="D1378" s="15"/>
+      <c r="B1378" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1378" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1378" s="216" t="s">
+        <v>302</v>
+      </c>
       <c r="E1378" s="15"/>
     </row>
-    <row r="1379" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1379" spans="1:5" outlineLevel="2">
       <c r="A1379" s="74">
         <v>9</v>
       </c>
-      <c r="B1379" s="88"/>
-      <c r="C1379" s="33"/>
-      <c r="D1379" s="15"/>
+      <c r="B1379" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1379" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1379" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1379" s="15"/>
     </row>
-    <row r="1380" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1380" spans="1:5" outlineLevel="2">
       <c r="A1380" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1380" s="88"/>
-      <c r="C1380" s="33"/>
-      <c r="D1380" s="15"/>
+      <c r="B1380" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1380" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1380" s="216" t="s">
+        <v>303</v>
+      </c>
       <c r="E1380" s="15"/>
     </row>
-    <row r="1381" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1381" spans="1:5" outlineLevel="2">
       <c r="A1381" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B1381" s="88"/>
-      <c r="C1381" s="33"/>
-      <c r="D1381" s="15"/>
+      <c r="B1381" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1381" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1381" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1381" s="15"/>
     </row>
-    <row r="1382" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1382" spans="1:5" outlineLevel="2">
       <c r="A1382" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1382" s="88"/>
-      <c r="C1382" s="33"/>
-      <c r="D1382" s="15"/>
+      <c r="B1382" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1382" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1382" s="216" t="s">
+        <v>304</v>
+      </c>
       <c r="E1382" s="15"/>
     </row>
-    <row r="1383" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1383" spans="1:5" outlineLevel="2">
       <c r="A1383" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1383" s="88"/>
-      <c r="C1383" s="33"/>
-      <c r="D1383" s="15"/>
+      <c r="B1383" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1383" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1383" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1383" s="15"/>
     </row>
-    <row r="1384" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1384" spans="1:5" outlineLevel="2">
       <c r="A1384" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1384" s="88"/>
-      <c r="C1384" s="33"/>
-      <c r="D1384" s="15"/>
+      <c r="B1384" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1384" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1384" s="216" t="s">
+        <v>305</v>
+      </c>
       <c r="E1384" s="15"/>
     </row>
-    <row r="1385" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="1385" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A1385" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B1385" s="89"/>
-      <c r="C1385" s="34"/>
-      <c r="D1385" s="16"/>
+      <c r="B1385" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1385" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1385" s="219" t="s">
+        <v>237</v>
+      </c>
       <c r="E1385" s="16"/>
     </row>
-    <row r="1386" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1386" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1386" s="76" t="s">
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="162"/>
-      <c r="D1386" s="163"/>
-      <c r="E1386" s="163"/>
+      <c r="C1386" s="166"/>
+      <c r="D1386" s="167"/>
+      <c r="E1386" s="167"/>
     </row>
     <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1387" s="74">
@@ -17197,14 +17523,14 @@
       <c r="D1402" s="15"/>
       <c r="E1402" s="15"/>
     </row>
-    <row r="1403" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1403" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1403" s="73" t="s">
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="160"/>
-      <c r="D1403" s="161"/>
-      <c r="E1403" s="161"/>
+      <c r="C1403" s="164"/>
+      <c r="D1403" s="165"/>
+      <c r="E1403" s="165"/>
     </row>
     <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1404" s="74">
@@ -17350,14 +17676,14 @@
       <c r="D1419" s="16"/>
       <c r="E1419" s="16"/>
     </row>
-    <row r="1420" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1420" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1420" s="73" t="s">
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="160"/>
-      <c r="D1420" s="161"/>
-      <c r="E1420" s="161"/>
+      <c r="C1420" s="164"/>
+      <c r="D1420" s="165"/>
+      <c r="E1420" s="165"/>
     </row>
     <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1421" s="74">
@@ -17503,14 +17829,14 @@
       <c r="D1436" s="16"/>
       <c r="E1436" s="16"/>
     </row>
-    <row r="1437" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1437" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1437" s="73" t="s">
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="160"/>
-      <c r="D1437" s="161"/>
-      <c r="E1437" s="161"/>
+      <c r="C1437" s="164"/>
+      <c r="D1437" s="165"/>
+      <c r="E1437" s="165"/>
     </row>
     <row r="1438" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1438" s="74">
@@ -17656,14 +17982,14 @@
       <c r="D1453" s="16"/>
       <c r="E1453" s="16"/>
     </row>
-    <row r="1454" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1454" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1454" s="73" t="s">
         <v>110</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="160"/>
-      <c r="D1454" s="161"/>
-      <c r="E1454" s="161"/>
+      <c r="C1454" s="164"/>
+      <c r="D1454" s="165"/>
+      <c r="E1454" s="165"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1455" s="74">
@@ -17809,14 +18135,14 @@
       <c r="D1470" s="16"/>
       <c r="E1470" s="16"/>
     </row>
-    <row r="1471" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1471" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1471" s="73" t="s">
         <v>111</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="160"/>
-      <c r="D1471" s="161"/>
-      <c r="E1471" s="161"/>
+      <c r="C1471" s="164"/>
+      <c r="D1471" s="165"/>
+      <c r="E1471" s="165"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1472" s="74">
@@ -17962,14 +18288,14 @@
       <c r="D1487" s="16"/>
       <c r="E1487" s="16"/>
     </row>
-    <row r="1488" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1488" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1488" s="73" t="s">
         <v>112</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="160"/>
-      <c r="D1488" s="161"/>
-      <c r="E1488" s="161"/>
+      <c r="C1488" s="164"/>
+      <c r="D1488" s="165"/>
+      <c r="E1488" s="165"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1489" s="74">
@@ -18115,14 +18441,14 @@
       <c r="D1504" s="16"/>
       <c r="E1504" s="16"/>
     </row>
-    <row r="1505" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1505" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1505" s="73" t="s">
         <v>113</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="160"/>
-      <c r="D1505" s="161"/>
-      <c r="E1505" s="161"/>
+      <c r="C1505" s="164"/>
+      <c r="D1505" s="165"/>
+      <c r="E1505" s="165"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1506" s="74">
@@ -18268,14 +18594,14 @@
       <c r="D1521" s="16"/>
       <c r="E1521" s="16"/>
     </row>
-    <row r="1522" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1522" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1522" s="73" t="s">
         <v>114</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="160"/>
-      <c r="D1522" s="161"/>
-      <c r="E1522" s="161"/>
+      <c r="C1522" s="164"/>
+      <c r="D1522" s="165"/>
+      <c r="E1522" s="165"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1523" s="74">
@@ -18421,14 +18747,14 @@
       <c r="D1538" s="16"/>
       <c r="E1538" s="16"/>
     </row>
-    <row r="1539" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1539" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1539" s="73" t="s">
         <v>95</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="160"/>
-      <c r="D1539" s="161"/>
-      <c r="E1539" s="161"/>
+      <c r="C1539" s="164"/>
+      <c r="D1539" s="165"/>
+      <c r="E1539" s="165"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1540" s="74">
@@ -18574,14 +18900,14 @@
       <c r="D1555" s="16"/>
       <c r="E1555" s="16"/>
     </row>
-    <row r="1556" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1556" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1556" s="73" t="s">
         <v>115</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="160"/>
-      <c r="D1556" s="161"/>
-      <c r="E1556" s="161"/>
+      <c r="C1556" s="164"/>
+      <c r="D1556" s="165"/>
+      <c r="E1556" s="165"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1557" s="74">
@@ -18727,14 +19053,14 @@
       <c r="D1572" s="16"/>
       <c r="E1572" s="16"/>
     </row>
-    <row r="1573" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1573" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1573" s="73" t="s">
         <v>116</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="160"/>
-      <c r="D1573" s="161"/>
-      <c r="E1573" s="161"/>
+      <c r="C1573" s="164"/>
+      <c r="D1573" s="165"/>
+      <c r="E1573" s="165"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1574" s="74">
@@ -18880,14 +19206,14 @@
       <c r="D1589" s="16"/>
       <c r="E1589" s="16"/>
     </row>
-    <row r="1590" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1590" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1590" s="73" t="s">
         <v>117</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="160"/>
-      <c r="D1590" s="161"/>
-      <c r="E1590" s="161"/>
+      <c r="C1590" s="164"/>
+      <c r="D1590" s="165"/>
+      <c r="E1590" s="165"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1591" s="74">
@@ -19033,14 +19359,14 @@
       <c r="D1606" s="16"/>
       <c r="E1606" s="16"/>
     </row>
-    <row r="1607" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1607" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1607" s="73" t="s">
         <v>118</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="160"/>
-      <c r="D1607" s="161"/>
-      <c r="E1607" s="161"/>
+      <c r="C1607" s="164"/>
+      <c r="D1607" s="165"/>
+      <c r="E1607" s="165"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1608" s="74">
@@ -19186,14 +19512,14 @@
       <c r="D1623" s="16"/>
       <c r="E1623" s="16"/>
     </row>
-    <row r="1624" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1624" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1624" s="73" t="s">
         <v>119</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="160"/>
-      <c r="D1624" s="161"/>
-      <c r="E1624" s="161"/>
+      <c r="C1624" s="164"/>
+      <c r="D1624" s="165"/>
+      <c r="E1624" s="165"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1625" s="74">
@@ -19344,18 +19670,18 @@
         <v>120</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="166"/>
-      <c r="D1641" s="167"/>
-      <c r="E1641" s="167"/>
+      <c r="C1641" s="178"/>
+      <c r="D1641" s="179"/>
+      <c r="E1641" s="179"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1642" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="160"/>
-      <c r="D1642" s="161"/>
-      <c r="E1642" s="161"/>
+      <c r="C1642" s="164"/>
+      <c r="D1642" s="165"/>
+      <c r="E1642" s="165"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1643" s="79">
@@ -19506,9 +19832,9 @@
         <v>122</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="162"/>
-      <c r="D1659" s="163"/>
-      <c r="E1659" s="163"/>
+      <c r="C1659" s="166"/>
+      <c r="D1659" s="167"/>
+      <c r="E1659" s="167"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1660" s="79">
@@ -19659,9 +19985,9 @@
         <v>123</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="160"/>
-      <c r="D1676" s="161"/>
-      <c r="E1676" s="161"/>
+      <c r="C1676" s="164"/>
+      <c r="D1676" s="165"/>
+      <c r="E1676" s="165"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1677" s="79">
@@ -19812,9 +20138,9 @@
         <v>124</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="160"/>
-      <c r="D1693" s="161"/>
-      <c r="E1693" s="161"/>
+      <c r="C1693" s="164"/>
+      <c r="D1693" s="165"/>
+      <c r="E1693" s="165"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1694" s="79">
@@ -19965,9 +20291,9 @@
         <v>125</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="160"/>
-      <c r="D1710" s="161"/>
-      <c r="E1710" s="161"/>
+      <c r="C1710" s="164"/>
+      <c r="D1710" s="165"/>
+      <c r="E1710" s="165"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1711" s="79">
@@ -20118,9 +20444,9 @@
         <v>126</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="160"/>
-      <c r="D1727" s="161"/>
-      <c r="E1727" s="161"/>
+      <c r="C1727" s="164"/>
+      <c r="D1727" s="165"/>
+      <c r="E1727" s="165"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1728" s="79">
@@ -20271,9 +20597,9 @@
         <v>127</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="160"/>
-      <c r="D1744" s="161"/>
-      <c r="E1744" s="161"/>
+      <c r="C1744" s="164"/>
+      <c r="D1744" s="165"/>
+      <c r="E1744" s="165"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1745" s="79">
@@ -20424,9 +20750,9 @@
         <v>128</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="160"/>
-      <c r="D1761" s="161"/>
-      <c r="E1761" s="161"/>
+      <c r="C1761" s="164"/>
+      <c r="D1761" s="165"/>
+      <c r="E1761" s="165"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1762" s="79">
@@ -20577,9 +20903,9 @@
         <v>129</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="160"/>
-      <c r="D1778" s="161"/>
-      <c r="E1778" s="161"/>
+      <c r="C1778" s="164"/>
+      <c r="D1778" s="165"/>
+      <c r="E1778" s="165"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1779" s="79">
@@ -20730,9 +21056,9 @@
         <v>130</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="160"/>
-      <c r="D1795" s="161"/>
-      <c r="E1795" s="161"/>
+      <c r="C1795" s="164"/>
+      <c r="D1795" s="165"/>
+      <c r="E1795" s="165"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1796" s="79">
@@ -20883,9 +21209,9 @@
         <v>131</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="160"/>
-      <c r="D1812" s="161"/>
-      <c r="E1812" s="161"/>
+      <c r="C1812" s="164"/>
+      <c r="D1812" s="165"/>
+      <c r="E1812" s="165"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1813" s="79">
@@ -21036,9 +21362,9 @@
         <v>96</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="160"/>
-      <c r="D1829" s="161"/>
-      <c r="E1829" s="161"/>
+      <c r="C1829" s="164"/>
+      <c r="D1829" s="165"/>
+      <c r="E1829" s="165"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1830" s="79">
@@ -21189,9 +21515,9 @@
         <v>132</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="160"/>
-      <c r="D1846" s="161"/>
-      <c r="E1846" s="161"/>
+      <c r="C1846" s="164"/>
+      <c r="D1846" s="165"/>
+      <c r="E1846" s="165"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1847" s="79">
@@ -21342,9 +21668,9 @@
         <v>133</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="160"/>
-      <c r="D1863" s="161"/>
-      <c r="E1863" s="161"/>
+      <c r="C1863" s="164"/>
+      <c r="D1863" s="165"/>
+      <c r="E1863" s="165"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1864" s="79">
@@ -21495,9 +21821,9 @@
         <v>134</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="160"/>
-      <c r="D1880" s="161"/>
-      <c r="E1880" s="161"/>
+      <c r="C1880" s="164"/>
+      <c r="D1880" s="165"/>
+      <c r="E1880" s="165"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1881" s="79">
@@ -21648,9 +21974,9 @@
         <v>135</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="160"/>
-      <c r="D1897" s="161"/>
-      <c r="E1897" s="161"/>
+      <c r="C1897" s="164"/>
+      <c r="D1897" s="165"/>
+      <c r="E1897" s="165"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1898" s="79">
@@ -21796,23 +22122,23 @@
       <c r="D1913" s="16"/>
       <c r="E1913" s="16"/>
     </row>
-    <row r="1914" spans="1:5" ht="18" collapsed="1">
+    <row r="1914" spans="1:5" ht="18">
       <c r="A1914" s="82" t="s">
         <v>136</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="164"/>
-      <c r="D1914" s="165"/>
-      <c r="E1914" s="165"/>
-    </row>
-    <row r="1915" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+      <c r="C1914" s="180"/>
+      <c r="D1914" s="181"/>
+      <c r="E1914" s="181"/>
+    </row>
+    <row r="1915" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1915" s="83" t="s">
         <v>137</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="160"/>
-      <c r="D1915" s="161"/>
-      <c r="E1915" s="161"/>
+      <c r="C1915" s="164"/>
+      <c r="D1915" s="165"/>
+      <c r="E1915" s="165"/>
     </row>
     <row r="1916" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1916" s="84">
@@ -21958,16 +22284,18 @@
       <c r="D1931" s="16"/>
       <c r="E1931" s="16"/>
     </row>
-    <row r="1932" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1932" spans="1:5" ht="18" outlineLevel="1">
       <c r="A1932" s="86" t="s">
         <v>138</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="162"/>
-      <c r="D1932" s="163"/>
-      <c r="E1932" s="163"/>
-    </row>
-    <row r="1933" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C1932" s="166" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1932" s="167"/>
+      <c r="E1932" s="167"/>
+    </row>
+    <row r="1933" spans="1:5" outlineLevel="2">
       <c r="A1933" s="84">
         <v>0</v>
       </c>
@@ -21976,7 +22304,7 @@
       <c r="D1933" s="15"/>
       <c r="E1933" s="15"/>
     </row>
-    <row r="1934" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1934" spans="1:5" outlineLevel="2">
       <c r="A1934" s="84">
         <v>1</v>
       </c>
@@ -21985,7 +22313,7 @@
       <c r="D1934" s="15"/>
       <c r="E1934" s="15"/>
     </row>
-    <row r="1935" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1935" spans="1:5" outlineLevel="2">
       <c r="A1935" s="84">
         <v>2</v>
       </c>
@@ -21994,7 +22322,7 @@
       <c r="D1935" s="15"/>
       <c r="E1935" s="15"/>
     </row>
-    <row r="1936" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1936" spans="1:5" outlineLevel="2">
       <c r="A1936" s="84">
         <v>3</v>
       </c>
@@ -22003,7 +22331,7 @@
       <c r="D1936" s="15"/>
       <c r="E1936" s="15"/>
     </row>
-    <row r="1937" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1937" spans="1:5" outlineLevel="2">
       <c r="A1937" s="84">
         <v>4</v>
       </c>
@@ -22012,7 +22340,7 @@
       <c r="D1937" s="15"/>
       <c r="E1937" s="15"/>
     </row>
-    <row r="1938" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1938" spans="1:5" outlineLevel="2">
       <c r="A1938" s="84">
         <v>5</v>
       </c>
@@ -22021,7 +22349,7 @@
       <c r="D1938" s="15"/>
       <c r="E1938" s="15"/>
     </row>
-    <row r="1939" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1939" spans="1:5" outlineLevel="2">
       <c r="A1939" s="84">
         <v>6</v>
       </c>
@@ -22030,7 +22358,7 @@
       <c r="D1939" s="15"/>
       <c r="E1939" s="15"/>
     </row>
-    <row r="1940" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1940" spans="1:5" outlineLevel="2">
       <c r="A1940" s="84">
         <v>7</v>
       </c>
@@ -22039,7 +22367,7 @@
       <c r="D1940" s="15"/>
       <c r="E1940" s="15"/>
     </row>
-    <row r="1941" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1941" spans="1:5" outlineLevel="2">
       <c r="A1941" s="84">
         <v>8</v>
       </c>
@@ -22048,7 +22376,7 @@
       <c r="D1941" s="15"/>
       <c r="E1941" s="15"/>
     </row>
-    <row r="1942" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1942" spans="1:5" outlineLevel="2">
       <c r="A1942" s="84">
         <v>9</v>
       </c>
@@ -22057,7 +22385,7 @@
       <c r="D1942" s="15"/>
       <c r="E1942" s="15"/>
     </row>
-    <row r="1943" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1943" spans="1:5" outlineLevel="2">
       <c r="A1943" s="84" t="s">
         <v>2</v>
       </c>
@@ -22066,7 +22394,7 @@
       <c r="D1943" s="15"/>
       <c r="E1943" s="15"/>
     </row>
-    <row r="1944" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1944" spans="1:5" outlineLevel="2">
       <c r="A1944" s="84" t="s">
         <v>3</v>
       </c>
@@ -22075,313 +22403,413 @@
       <c r="D1944" s="15"/>
       <c r="E1944" s="15"/>
     </row>
-    <row r="1945" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1945" spans="1:5" outlineLevel="2">
       <c r="A1945" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1945" s="88"/>
+      <c r="B1945" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1945" s="33"/>
-      <c r="D1945" s="15"/>
+      <c r="D1945" s="216" t="s">
+        <v>235</v>
+      </c>
       <c r="E1945" s="15"/>
     </row>
-    <row r="1946" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1946" spans="1:5" outlineLevel="2">
       <c r="A1946" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B1946" s="88"/>
       <c r="C1946" s="33"/>
-      <c r="D1946" s="15"/>
+      <c r="D1946" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1946" s="15"/>
     </row>
-    <row r="1947" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1947" spans="1:5" outlineLevel="2">
       <c r="A1947" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1947" s="88"/>
+      <c r="B1947" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1947" s="33"/>
-      <c r="D1947" s="15"/>
+      <c r="D1947" s="216" t="s">
+        <v>238</v>
+      </c>
       <c r="E1947" s="15"/>
     </row>
-    <row r="1948" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1948" spans="1:5" outlineLevel="2">
       <c r="A1948" s="84" t="s">
         <v>7</v>
       </c>
       <c r="B1948" s="88"/>
       <c r="C1948" s="33"/>
-      <c r="D1948" s="15"/>
+      <c r="D1948" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1948" s="15"/>
     </row>
-    <row r="1949" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1949" spans="1:5" ht="18" outlineLevel="1">
       <c r="A1949" s="83" t="s">
         <v>139</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="160"/>
-      <c r="D1949" s="161"/>
-      <c r="E1949" s="161"/>
-    </row>
-    <row r="1950" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C1949" s="164" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1949" s="165"/>
+      <c r="E1949" s="165"/>
+    </row>
+    <row r="1950" spans="1:5" outlineLevel="2">
       <c r="A1950" s="84">
         <v>0</v>
       </c>
-      <c r="B1950" s="88"/>
+      <c r="B1950" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1950" s="33"/>
-      <c r="D1950" s="15"/>
+      <c r="D1950" s="216" t="s">
+        <v>239</v>
+      </c>
       <c r="E1950" s="15"/>
     </row>
-    <row r="1951" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1951" spans="1:5" outlineLevel="2">
       <c r="A1951" s="84">
         <v>1</v>
       </c>
       <c r="B1951" s="88"/>
       <c r="C1951" s="33"/>
-      <c r="D1951" s="15"/>
+      <c r="D1951" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1951" s="15"/>
     </row>
-    <row r="1952" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1952" spans="1:5" outlineLevel="2">
       <c r="A1952" s="84">
         <v>2</v>
       </c>
-      <c r="B1952" s="88"/>
+      <c r="B1952" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1952" s="33"/>
-      <c r="D1952" s="15"/>
+      <c r="D1952" s="216" t="s">
+        <v>240</v>
+      </c>
       <c r="E1952" s="15"/>
     </row>
-    <row r="1953" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1953" spans="1:5" outlineLevel="2">
       <c r="A1953" s="84">
         <v>3</v>
       </c>
       <c r="B1953" s="88"/>
       <c r="C1953" s="33"/>
-      <c r="D1953" s="15"/>
+      <c r="D1953" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1953" s="15"/>
     </row>
-    <row r="1954" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1954" spans="1:5" outlineLevel="2">
       <c r="A1954" s="84">
         <v>4</v>
       </c>
-      <c r="B1954" s="88"/>
+      <c r="B1954" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1954" s="33"/>
-      <c r="D1954" s="15"/>
+      <c r="D1954" s="216" t="s">
+        <v>241</v>
+      </c>
       <c r="E1954" s="15"/>
     </row>
-    <row r="1955" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1955" spans="1:5" outlineLevel="2">
       <c r="A1955" s="84">
         <v>5</v>
       </c>
       <c r="B1955" s="88"/>
       <c r="C1955" s="33"/>
-      <c r="D1955" s="15"/>
+      <c r="D1955" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1955" s="15"/>
     </row>
-    <row r="1956" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1956" spans="1:5" outlineLevel="2">
       <c r="A1956" s="84">
         <v>6</v>
       </c>
-      <c r="B1956" s="88"/>
+      <c r="B1956" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1956" s="33"/>
-      <c r="D1956" s="15"/>
+      <c r="D1956" s="216" t="s">
+        <v>242</v>
+      </c>
       <c r="E1956" s="15"/>
     </row>
-    <row r="1957" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1957" spans="1:5" outlineLevel="2">
       <c r="A1957" s="84">
         <v>7</v>
       </c>
       <c r="B1957" s="88"/>
       <c r="C1957" s="33"/>
-      <c r="D1957" s="15"/>
+      <c r="D1957" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1957" s="15"/>
     </row>
-    <row r="1958" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1958" spans="1:5" outlineLevel="2">
       <c r="A1958" s="84">
         <v>8</v>
       </c>
-      <c r="B1958" s="88"/>
+      <c r="B1958" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1958" s="33"/>
-      <c r="D1958" s="15"/>
+      <c r="D1958" s="216" t="s">
+        <v>243</v>
+      </c>
       <c r="E1958" s="15"/>
     </row>
-    <row r="1959" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1959" spans="1:5" outlineLevel="2">
       <c r="A1959" s="84">
         <v>9</v>
       </c>
       <c r="B1959" s="88"/>
       <c r="C1959" s="33"/>
-      <c r="D1959" s="15"/>
+      <c r="D1959" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1959" s="15"/>
     </row>
-    <row r="1960" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1960" spans="1:5" outlineLevel="2">
       <c r="A1960" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B1960" s="88"/>
+      <c r="B1960" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1960" s="33"/>
-      <c r="D1960" s="15"/>
+      <c r="D1960" s="216" t="s">
+        <v>244</v>
+      </c>
       <c r="E1960" s="15"/>
     </row>
-    <row r="1961" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1961" spans="1:5" outlineLevel="2">
       <c r="A1961" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1961" s="88"/>
+      <c r="B1961" s="217"/>
       <c r="C1961" s="33"/>
-      <c r="D1961" s="15"/>
+      <c r="D1961" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1961" s="15"/>
     </row>
-    <row r="1962" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1962" spans="1:5" outlineLevel="2">
       <c r="A1962" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1962" s="88"/>
+      <c r="B1962" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1962" s="33"/>
-      <c r="D1962" s="15"/>
+      <c r="D1962" s="216" t="s">
+        <v>246</v>
+      </c>
       <c r="E1962" s="15"/>
     </row>
-    <row r="1963" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1963" spans="1:5" outlineLevel="2">
       <c r="A1963" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B1963" s="88"/>
       <c r="C1963" s="33"/>
-      <c r="D1963" s="15"/>
+      <c r="D1963" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1963" s="15"/>
     </row>
-    <row r="1964" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1964" spans="1:5" outlineLevel="2">
       <c r="A1964" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1964" s="88"/>
+      <c r="B1964" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1964" s="33"/>
-      <c r="D1964" s="15"/>
+      <c r="D1964" s="216" t="s">
+        <v>247</v>
+      </c>
       <c r="E1964" s="15"/>
     </row>
-    <row r="1965" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="1965" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A1965" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B1965" s="89"/>
-      <c r="C1965" s="34"/>
-      <c r="D1965" s="16"/>
+      <c r="B1965" s="88"/>
+      <c r="C1965" s="33"/>
+      <c r="D1965" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1965" s="16"/>
     </row>
-    <row r="1966" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1966" spans="1:5" ht="18" outlineLevel="1">
       <c r="A1966" s="83" t="s">
         <v>140</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="160"/>
-      <c r="D1966" s="161"/>
-      <c r="E1966" s="161"/>
-    </row>
-    <row r="1967" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C1966" s="164" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1966" s="165"/>
+      <c r="E1966" s="165"/>
+    </row>
+    <row r="1967" spans="1:5" outlineLevel="2">
       <c r="A1967" s="84">
         <v>0</v>
       </c>
-      <c r="B1967" s="88"/>
+      <c r="B1967" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1967" s="33"/>
-      <c r="D1967" s="15"/>
+      <c r="D1967" s="216" t="s">
+        <v>248</v>
+      </c>
       <c r="E1967" s="15"/>
     </row>
-    <row r="1968" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1968" spans="1:5" outlineLevel="2">
       <c r="A1968" s="84">
         <v>1</v>
       </c>
       <c r="B1968" s="88"/>
       <c r="C1968" s="33"/>
-      <c r="D1968" s="15"/>
+      <c r="D1968" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1968" s="15"/>
     </row>
-    <row r="1969" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1969" spans="1:5" outlineLevel="2">
       <c r="A1969" s="84">
         <v>2</v>
       </c>
-      <c r="B1969" s="88"/>
+      <c r="B1969" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1969" s="33"/>
-      <c r="D1969" s="15"/>
+      <c r="D1969" s="216" t="s">
+        <v>249</v>
+      </c>
       <c r="E1969" s="15"/>
     </row>
-    <row r="1970" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1970" spans="1:5" outlineLevel="2">
       <c r="A1970" s="84">
         <v>3</v>
       </c>
       <c r="B1970" s="88"/>
       <c r="C1970" s="33"/>
-      <c r="D1970" s="15"/>
+      <c r="D1970" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1970" s="15"/>
     </row>
-    <row r="1971" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1971" spans="1:5" outlineLevel="2">
       <c r="A1971" s="84">
         <v>4</v>
       </c>
-      <c r="B1971" s="88"/>
+      <c r="B1971" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1971" s="33"/>
-      <c r="D1971" s="15"/>
+      <c r="D1971" s="216" t="s">
+        <v>250</v>
+      </c>
       <c r="E1971" s="15"/>
     </row>
-    <row r="1972" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1972" spans="1:5" outlineLevel="2">
       <c r="A1972" s="84">
         <v>5</v>
       </c>
       <c r="B1972" s="88"/>
       <c r="C1972" s="33"/>
-      <c r="D1972" s="15"/>
+      <c r="D1972" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1972" s="15"/>
     </row>
-    <row r="1973" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1973" spans="1:5" outlineLevel="2">
       <c r="A1973" s="84">
         <v>6</v>
       </c>
-      <c r="B1973" s="88"/>
+      <c r="B1973" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1973" s="33"/>
-      <c r="D1973" s="15"/>
+      <c r="D1973" s="216" t="s">
+        <v>251</v>
+      </c>
       <c r="E1973" s="15"/>
     </row>
-    <row r="1974" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1974" spans="1:5" outlineLevel="2">
       <c r="A1974" s="84">
         <v>7</v>
       </c>
       <c r="B1974" s="88"/>
       <c r="C1974" s="33"/>
-      <c r="D1974" s="15"/>
+      <c r="D1974" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1974" s="15"/>
     </row>
-    <row r="1975" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1975" spans="1:5" outlineLevel="2">
       <c r="A1975" s="84">
         <v>8</v>
       </c>
-      <c r="B1975" s="88"/>
+      <c r="B1975" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1975" s="33"/>
-      <c r="D1975" s="15"/>
+      <c r="D1975" s="216" t="s">
+        <v>252</v>
+      </c>
       <c r="E1975" s="15"/>
     </row>
-    <row r="1976" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1976" spans="1:5" outlineLevel="2">
       <c r="A1976" s="84">
         <v>9</v>
       </c>
       <c r="B1976" s="88"/>
       <c r="C1976" s="33"/>
-      <c r="D1976" s="15"/>
+      <c r="D1976" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1976" s="15"/>
     </row>
-    <row r="1977" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1977" spans="1:5" outlineLevel="2">
       <c r="A1977" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B1977" s="88"/>
+      <c r="B1977" s="217" t="s">
+        <v>236</v>
+      </c>
       <c r="C1977" s="33"/>
-      <c r="D1977" s="15"/>
+      <c r="D1977" s="216" t="s">
+        <v>253</v>
+      </c>
       <c r="E1977" s="15"/>
     </row>
-    <row r="1978" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1978" spans="1:5" outlineLevel="2">
       <c r="A1978" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1978" s="88"/>
+      <c r="B1978" s="217"/>
       <c r="C1978" s="33"/>
-      <c r="D1978" s="15"/>
+      <c r="D1978" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1978" s="15"/>
     </row>
-    <row r="1979" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1979" spans="1:5" outlineLevel="2">
       <c r="A1979" s="84" t="s">
         <v>4</v>
       </c>
@@ -22390,7 +22818,7 @@
       <c r="D1979" s="15"/>
       <c r="E1979" s="15"/>
     </row>
-    <row r="1980" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1980" spans="1:5" outlineLevel="2">
       <c r="A1980" s="84" t="s">
         <v>5</v>
       </c>
@@ -22399,7 +22827,7 @@
       <c r="D1980" s="15"/>
       <c r="E1980" s="15"/>
     </row>
-    <row r="1981" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1981" spans="1:5" outlineLevel="2">
       <c r="A1981" s="84" t="s">
         <v>6</v>
       </c>
@@ -22408,7 +22836,7 @@
       <c r="D1981" s="15"/>
       <c r="E1981" s="15"/>
     </row>
-    <row r="1982" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="1982" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A1982" s="85" t="s">
         <v>7</v>
       </c>
@@ -22417,14 +22845,14 @@
       <c r="D1982" s="16"/>
       <c r="E1982" s="16"/>
     </row>
-    <row r="1983" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="1983" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1983" s="83" t="s">
         <v>141</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="160"/>
-      <c r="D1983" s="161"/>
-      <c r="E1983" s="161"/>
+      <c r="C1983" s="164"/>
+      <c r="D1983" s="165"/>
+      <c r="E1983" s="165"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1984" s="84">
@@ -22570,14 +22998,14 @@
       <c r="D1999" s="16"/>
       <c r="E1999" s="16"/>
     </row>
-    <row r="2000" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2000" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2000" s="83" t="s">
         <v>142</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="160"/>
-      <c r="D2000" s="161"/>
-      <c r="E2000" s="161"/>
+      <c r="C2000" s="164"/>
+      <c r="D2000" s="165"/>
+      <c r="E2000" s="165"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2001" s="84">
@@ -22723,14 +23151,14 @@
       <c r="D2016" s="16"/>
       <c r="E2016" s="16"/>
     </row>
-    <row r="2017" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2017" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2017" s="83" t="s">
         <v>143</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="160"/>
-      <c r="D2017" s="161"/>
-      <c r="E2017" s="161"/>
+      <c r="C2017" s="164"/>
+      <c r="D2017" s="165"/>
+      <c r="E2017" s="165"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2018" s="84">
@@ -22876,16 +23304,18 @@
       <c r="D2033" s="16"/>
       <c r="E2033" s="16"/>
     </row>
-    <row r="2034" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2034" spans="1:5" ht="18" outlineLevel="1">
       <c r="A2034" s="83" t="s">
         <v>144</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="160"/>
-      <c r="D2034" s="161"/>
-      <c r="E2034" s="161"/>
-    </row>
-    <row r="2035" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C2034" s="164" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2034" s="165"/>
+      <c r="E2034" s="165"/>
+    </row>
+    <row r="2035" spans="1:5" outlineLevel="2">
       <c r="A2035" s="84">
         <v>0</v>
       </c>
@@ -22894,7 +23324,7 @@
       <c r="D2035" s="15"/>
       <c r="E2035" s="15"/>
     </row>
-    <row r="2036" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2036" spans="1:5" outlineLevel="2">
       <c r="A2036" s="84">
         <v>1</v>
       </c>
@@ -22903,7 +23333,7 @@
       <c r="D2036" s="15"/>
       <c r="E2036" s="15"/>
     </row>
-    <row r="2037" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2037" spans="1:5" outlineLevel="2">
       <c r="A2037" s="84">
         <v>2</v>
       </c>
@@ -22912,7 +23342,7 @@
       <c r="D2037" s="15"/>
       <c r="E2037" s="15"/>
     </row>
-    <row r="2038" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2038" spans="1:5" outlineLevel="2">
       <c r="A2038" s="84">
         <v>3</v>
       </c>
@@ -22921,7 +23351,7 @@
       <c r="D2038" s="15"/>
       <c r="E2038" s="15"/>
     </row>
-    <row r="2039" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2039" spans="1:5" outlineLevel="2">
       <c r="A2039" s="84">
         <v>4</v>
       </c>
@@ -22930,7 +23360,7 @@
       <c r="D2039" s="15"/>
       <c r="E2039" s="15"/>
     </row>
-    <row r="2040" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2040" spans="1:5" outlineLevel="2">
       <c r="A2040" s="84">
         <v>5</v>
       </c>
@@ -22939,7 +23369,7 @@
       <c r="D2040" s="15"/>
       <c r="E2040" s="15"/>
     </row>
-    <row r="2041" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2041" spans="1:5" outlineLevel="2">
       <c r="A2041" s="84">
         <v>6</v>
       </c>
@@ -22948,7 +23378,7 @@
       <c r="D2041" s="15"/>
       <c r="E2041" s="15"/>
     </row>
-    <row r="2042" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2042" spans="1:5" outlineLevel="2">
       <c r="A2042" s="84">
         <v>7</v>
       </c>
@@ -22957,7 +23387,7 @@
       <c r="D2042" s="15"/>
       <c r="E2042" s="15"/>
     </row>
-    <row r="2043" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2043" spans="1:5" outlineLevel="2">
       <c r="A2043" s="84">
         <v>8</v>
       </c>
@@ -22966,7 +23396,7 @@
       <c r="D2043" s="15"/>
       <c r="E2043" s="15"/>
     </row>
-    <row r="2044" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2044" spans="1:5" outlineLevel="2">
       <c r="A2044" s="84">
         <v>9</v>
       </c>
@@ -22975,7 +23405,7 @@
       <c r="D2044" s="15"/>
       <c r="E2044" s="15"/>
     </row>
-    <row r="2045" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2045" spans="1:5" outlineLevel="2">
       <c r="A2045" s="84" t="s">
         <v>2</v>
       </c>
@@ -22984,7 +23414,7 @@
       <c r="D2045" s="15"/>
       <c r="E2045" s="15"/>
     </row>
-    <row r="2046" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2046" spans="1:5" outlineLevel="2">
       <c r="A2046" s="84" t="s">
         <v>3</v>
       </c>
@@ -22993,313 +23423,447 @@
       <c r="D2046" s="15"/>
       <c r="E2046" s="15"/>
     </row>
-    <row r="2047" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2047" spans="1:5" outlineLevel="2">
       <c r="A2047" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2047" s="88"/>
+      <c r="B2047" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2047" s="33"/>
-      <c r="D2047" s="15"/>
-      <c r="E2047" s="15"/>
-    </row>
-    <row r="2048" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="D2047" s="216" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2047" s="216" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:5" outlineLevel="2">
       <c r="A2048" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B2048" s="88"/>
+      <c r="B2048" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2048" s="33"/>
-      <c r="D2048" s="15"/>
+      <c r="D2048" s="216" t="s">
+        <v>260</v>
+      </c>
       <c r="E2048" s="15"/>
     </row>
-    <row r="2049" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2049" spans="1:5" outlineLevel="2">
       <c r="A2049" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B2049" s="88"/>
+      <c r="B2049" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2049" s="33"/>
-      <c r="D2049" s="15"/>
+      <c r="D2049" s="216" t="s">
+        <v>261</v>
+      </c>
       <c r="E2049" s="15"/>
     </row>
-    <row r="2050" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="2050" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A2050" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B2050" s="89"/>
+      <c r="B2050" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2050" s="34"/>
-      <c r="D2050" s="16"/>
+      <c r="D2050" s="216" t="s">
+        <v>262</v>
+      </c>
       <c r="E2050" s="16"/>
     </row>
-    <row r="2051" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2051" spans="1:5" ht="18" outlineLevel="1">
       <c r="A2051" s="83" t="s">
         <v>145</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="160"/>
-      <c r="D2051" s="161"/>
-      <c r="E2051" s="161"/>
-    </row>
-    <row r="2052" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C2051" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2051" s="165"/>
+      <c r="E2051" s="165"/>
+    </row>
+    <row r="2052" spans="1:5" outlineLevel="2">
       <c r="A2052" s="84">
         <v>0</v>
       </c>
-      <c r="B2052" s="88"/>
+      <c r="B2052" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2052" s="33"/>
-      <c r="D2052" s="15"/>
+      <c r="D2052" s="216" t="s">
+        <v>264</v>
+      </c>
       <c r="E2052" s="15"/>
     </row>
-    <row r="2053" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2053" spans="1:5" outlineLevel="2">
       <c r="A2053" s="84">
         <v>1</v>
       </c>
-      <c r="B2053" s="88"/>
+      <c r="B2053" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2053" s="33"/>
-      <c r="D2053" s="15"/>
+      <c r="D2053" s="216" t="s">
+        <v>265</v>
+      </c>
       <c r="E2053" s="15"/>
     </row>
-    <row r="2054" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2054" spans="1:5" outlineLevel="2">
       <c r="A2054" s="84">
         <v>2</v>
       </c>
-      <c r="B2054" s="88"/>
+      <c r="B2054" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2054" s="33"/>
-      <c r="D2054" s="15"/>
+      <c r="D2054" s="216" t="s">
+        <v>266</v>
+      </c>
       <c r="E2054" s="15"/>
     </row>
-    <row r="2055" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2055" spans="1:5" outlineLevel="2">
       <c r="A2055" s="84">
         <v>3</v>
       </c>
-      <c r="B2055" s="88"/>
+      <c r="B2055" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2055" s="33"/>
-      <c r="D2055" s="15"/>
+      <c r="D2055" s="216" t="s">
+        <v>267</v>
+      </c>
       <c r="E2055" s="15"/>
     </row>
-    <row r="2056" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2056" spans="1:5" outlineLevel="2">
       <c r="A2056" s="84">
         <v>4</v>
       </c>
-      <c r="B2056" s="88"/>
+      <c r="B2056" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2056" s="33"/>
-      <c r="D2056" s="15"/>
+      <c r="D2056" s="216" t="s">
+        <v>268</v>
+      </c>
       <c r="E2056" s="15"/>
     </row>
-    <row r="2057" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2057" spans="1:5" outlineLevel="2">
       <c r="A2057" s="84">
         <v>5</v>
       </c>
-      <c r="B2057" s="88"/>
+      <c r="B2057" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2057" s="33"/>
-      <c r="D2057" s="15"/>
+      <c r="D2057" s="216" t="s">
+        <v>269</v>
+      </c>
       <c r="E2057" s="15"/>
     </row>
-    <row r="2058" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2058" spans="1:5" outlineLevel="2">
       <c r="A2058" s="84">
         <v>6</v>
       </c>
-      <c r="B2058" s="88"/>
+      <c r="B2058" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2058" s="33"/>
-      <c r="D2058" s="15"/>
+      <c r="D2058" s="216" t="s">
+        <v>270</v>
+      </c>
       <c r="E2058" s="15"/>
     </row>
-    <row r="2059" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2059" spans="1:5" outlineLevel="2">
       <c r="A2059" s="84">
         <v>7</v>
       </c>
-      <c r="B2059" s="88"/>
+      <c r="B2059" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2059" s="33"/>
-      <c r="D2059" s="15"/>
+      <c r="D2059" s="216" t="s">
+        <v>271</v>
+      </c>
       <c r="E2059" s="15"/>
     </row>
-    <row r="2060" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2060" spans="1:5" outlineLevel="2">
       <c r="A2060" s="84">
         <v>8</v>
       </c>
-      <c r="B2060" s="88"/>
+      <c r="B2060" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2060" s="33"/>
-      <c r="D2060" s="15"/>
+      <c r="D2060" s="216" t="s">
+        <v>272</v>
+      </c>
       <c r="E2060" s="15"/>
     </row>
-    <row r="2061" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2061" spans="1:5" outlineLevel="2">
       <c r="A2061" s="84">
         <v>9</v>
       </c>
-      <c r="B2061" s="88"/>
+      <c r="B2061" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2061" s="33"/>
-      <c r="D2061" s="15"/>
+      <c r="D2061" s="216" t="s">
+        <v>273</v>
+      </c>
       <c r="E2061" s="15"/>
     </row>
-    <row r="2062" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2062" spans="1:5" outlineLevel="2">
       <c r="A2062" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2062" s="88"/>
+      <c r="B2062" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2062" s="33"/>
-      <c r="D2062" s="15"/>
+      <c r="D2062" s="216" t="s">
+        <v>274</v>
+      </c>
       <c r="E2062" s="15"/>
     </row>
-    <row r="2063" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2063" spans="1:5" outlineLevel="2">
       <c r="A2063" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B2063" s="88"/>
+      <c r="B2063" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2063" s="33"/>
-      <c r="D2063" s="15"/>
+      <c r="D2063" s="216" t="s">
+        <v>275</v>
+      </c>
       <c r="E2063" s="15"/>
     </row>
-    <row r="2064" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2064" spans="1:5" outlineLevel="2">
       <c r="A2064" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2064" s="88"/>
+      <c r="B2064" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2064" s="33"/>
-      <c r="D2064" s="15"/>
+      <c r="D2064" s="216" t="s">
+        <v>276</v>
+      </c>
       <c r="E2064" s="15"/>
     </row>
-    <row r="2065" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2065" spans="1:5" outlineLevel="2">
       <c r="A2065" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B2065" s="88"/>
+      <c r="B2065" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2065" s="33"/>
-      <c r="D2065" s="15"/>
+      <c r="D2065" s="216" t="s">
+        <v>277</v>
+      </c>
       <c r="E2065" s="15"/>
     </row>
-    <row r="2066" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2066" spans="1:5" outlineLevel="2">
       <c r="A2066" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B2066" s="88"/>
+      <c r="B2066" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2066" s="33"/>
-      <c r="D2066" s="15"/>
+      <c r="D2066" s="216" t="s">
+        <v>278</v>
+      </c>
       <c r="E2066" s="15"/>
     </row>
-    <row r="2067" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="2067" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A2067" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B2067" s="89"/>
+      <c r="B2067" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2067" s="34"/>
-      <c r="D2067" s="16"/>
+      <c r="D2067" s="216" t="s">
+        <v>279</v>
+      </c>
       <c r="E2067" s="16"/>
     </row>
-    <row r="2068" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2068" spans="1:5" ht="18" outlineLevel="1">
       <c r="A2068" s="83" t="s">
         <v>146</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="160"/>
-      <c r="D2068" s="161"/>
-      <c r="E2068" s="161"/>
-    </row>
-    <row r="2069" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C2068" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2068" s="165"/>
+      <c r="E2068" s="165"/>
+    </row>
+    <row r="2069" spans="1:5" outlineLevel="2">
       <c r="A2069" s="84">
         <v>0</v>
       </c>
-      <c r="B2069" s="88"/>
+      <c r="B2069" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2069" s="33"/>
-      <c r="D2069" s="15"/>
+      <c r="D2069" s="216" t="s">
+        <v>280</v>
+      </c>
       <c r="E2069" s="15"/>
     </row>
-    <row r="2070" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2070" spans="1:5" outlineLevel="2">
       <c r="A2070" s="84">
         <v>1</v>
       </c>
-      <c r="B2070" s="88"/>
+      <c r="B2070" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2070" s="33"/>
-      <c r="D2070" s="15"/>
+      <c r="D2070" s="216" t="s">
+        <v>281</v>
+      </c>
       <c r="E2070" s="15"/>
     </row>
-    <row r="2071" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2071" spans="1:5" outlineLevel="2">
       <c r="A2071" s="84">
         <v>2</v>
       </c>
-      <c r="B2071" s="88"/>
+      <c r="B2071" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2071" s="33"/>
-      <c r="D2071" s="15"/>
+      <c r="D2071" s="216" t="s">
+        <v>282</v>
+      </c>
       <c r="E2071" s="15"/>
     </row>
-    <row r="2072" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2072" spans="1:5" outlineLevel="2">
       <c r="A2072" s="84">
         <v>3</v>
       </c>
-      <c r="B2072" s="88"/>
+      <c r="B2072" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2072" s="33"/>
-      <c r="D2072" s="15"/>
+      <c r="D2072" s="216" t="s">
+        <v>283</v>
+      </c>
       <c r="E2072" s="15"/>
     </row>
-    <row r="2073" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2073" spans="1:5" outlineLevel="2">
       <c r="A2073" s="84">
         <v>4</v>
       </c>
-      <c r="B2073" s="88"/>
+      <c r="B2073" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2073" s="33"/>
-      <c r="D2073" s="15"/>
+      <c r="D2073" s="216" t="s">
+        <v>284</v>
+      </c>
       <c r="E2073" s="15"/>
     </row>
-    <row r="2074" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2074" spans="1:5" outlineLevel="2">
       <c r="A2074" s="84">
         <v>5</v>
       </c>
-      <c r="B2074" s="88"/>
+      <c r="B2074" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2074" s="33"/>
-      <c r="D2074" s="15"/>
+      <c r="D2074" s="216" t="s">
+        <v>285</v>
+      </c>
       <c r="E2074" s="15"/>
     </row>
-    <row r="2075" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2075" spans="1:5" outlineLevel="2">
       <c r="A2075" s="84">
         <v>6</v>
       </c>
-      <c r="B2075" s="88"/>
+      <c r="B2075" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2075" s="33"/>
-      <c r="D2075" s="15"/>
+      <c r="D2075" s="216" t="s">
+        <v>286</v>
+      </c>
       <c r="E2075" s="15"/>
     </row>
-    <row r="2076" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2076" spans="1:5" outlineLevel="2">
       <c r="A2076" s="84">
         <v>7</v>
       </c>
-      <c r="B2076" s="88"/>
+      <c r="B2076" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2076" s="33"/>
-      <c r="D2076" s="15"/>
+      <c r="D2076" s="216" t="s">
+        <v>287</v>
+      </c>
       <c r="E2076" s="15"/>
     </row>
-    <row r="2077" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2077" spans="1:5" outlineLevel="2">
       <c r="A2077" s="84">
         <v>8</v>
       </c>
-      <c r="B2077" s="88"/>
+      <c r="B2077" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2077" s="33"/>
-      <c r="D2077" s="15"/>
+      <c r="D2077" s="216" t="s">
+        <v>288</v>
+      </c>
       <c r="E2077" s="15"/>
     </row>
-    <row r="2078" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2078" spans="1:5" outlineLevel="2">
       <c r="A2078" s="84">
         <v>9</v>
       </c>
-      <c r="B2078" s="88"/>
+      <c r="B2078" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2078" s="33"/>
-      <c r="D2078" s="15"/>
+      <c r="D2078" s="216" t="s">
+        <v>289</v>
+      </c>
       <c r="E2078" s="15"/>
     </row>
-    <row r="2079" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2079" spans="1:5" outlineLevel="2">
       <c r="A2079" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2079" s="88"/>
+      <c r="B2079" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2079" s="33"/>
-      <c r="D2079" s="15"/>
+      <c r="D2079" s="216" t="s">
+        <v>290</v>
+      </c>
       <c r="E2079" s="15"/>
     </row>
-    <row r="2080" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2080" spans="1:5" outlineLevel="2">
       <c r="A2080" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B2080" s="88"/>
+      <c r="B2080" s="217" t="s">
+        <v>257</v>
+      </c>
       <c r="C2080" s="33"/>
-      <c r="D2080" s="15"/>
+      <c r="D2080" s="216" t="s">
+        <v>291</v>
+      </c>
       <c r="E2080" s="15"/>
     </row>
-    <row r="2081" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2081" spans="1:5" outlineLevel="2">
       <c r="A2081" s="84" t="s">
         <v>4</v>
       </c>
@@ -23308,7 +23872,7 @@
       <c r="D2081" s="15"/>
       <c r="E2081" s="15"/>
     </row>
-    <row r="2082" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2082" spans="1:5" outlineLevel="2">
       <c r="A2082" s="84" t="s">
         <v>5</v>
       </c>
@@ -23317,7 +23881,7 @@
       <c r="D2082" s="15"/>
       <c r="E2082" s="15"/>
     </row>
-    <row r="2083" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2083" spans="1:5" outlineLevel="2">
       <c r="A2083" s="84" t="s">
         <v>6</v>
       </c>
@@ -23326,7 +23890,7 @@
       <c r="D2083" s="15"/>
       <c r="E2083" s="15"/>
     </row>
-    <row r="2084" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="2084" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A2084" s="85" t="s">
         <v>7</v>
       </c>
@@ -23335,14 +23899,14 @@
       <c r="D2084" s="16"/>
       <c r="E2084" s="16"/>
     </row>
-    <row r="2085" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2085" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2085" s="83" t="s">
         <v>147</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="160"/>
-      <c r="D2085" s="161"/>
-      <c r="E2085" s="161"/>
+      <c r="C2085" s="164"/>
+      <c r="D2085" s="165"/>
+      <c r="E2085" s="165"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2086" s="84">
@@ -23488,16 +24052,16 @@
       <c r="D2101" s="16"/>
       <c r="E2101" s="16"/>
     </row>
-    <row r="2102" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2102" spans="1:5" ht="18" outlineLevel="1">
       <c r="A2102" s="83" t="s">
         <v>148</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="160"/>
-      <c r="D2102" s="161"/>
-      <c r="E2102" s="161"/>
-    </row>
-    <row r="2103" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C2102" s="164"/>
+      <c r="D2102" s="165"/>
+      <c r="E2102" s="165"/>
+    </row>
+    <row r="2103" spans="1:5" outlineLevel="2">
       <c r="A2103" s="84">
         <v>0</v>
       </c>
@@ -23506,7 +24070,7 @@
       <c r="D2103" s="15"/>
       <c r="E2103" s="15"/>
     </row>
-    <row r="2104" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2104" spans="1:5" outlineLevel="2">
       <c r="A2104" s="84">
         <v>1</v>
       </c>
@@ -23515,7 +24079,7 @@
       <c r="D2104" s="15"/>
       <c r="E2104" s="15"/>
     </row>
-    <row r="2105" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2105" spans="1:5" outlineLevel="2">
       <c r="A2105" s="84">
         <v>2</v>
       </c>
@@ -23524,7 +24088,7 @@
       <c r="D2105" s="15"/>
       <c r="E2105" s="15"/>
     </row>
-    <row r="2106" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2106" spans="1:5" outlineLevel="2">
       <c r="A2106" s="84">
         <v>3</v>
       </c>
@@ -23533,7 +24097,7 @@
       <c r="D2106" s="15"/>
       <c r="E2106" s="15"/>
     </row>
-    <row r="2107" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2107" spans="1:5" outlineLevel="2">
       <c r="A2107" s="84">
         <v>4</v>
       </c>
@@ -23542,7 +24106,7 @@
       <c r="D2107" s="15"/>
       <c r="E2107" s="15"/>
     </row>
-    <row r="2108" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2108" spans="1:5" outlineLevel="2">
       <c r="A2108" s="84">
         <v>5</v>
       </c>
@@ -23551,7 +24115,7 @@
       <c r="D2108" s="15"/>
       <c r="E2108" s="15"/>
     </row>
-    <row r="2109" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2109" spans="1:5" outlineLevel="2">
       <c r="A2109" s="84">
         <v>6</v>
       </c>
@@ -23560,7 +24124,7 @@
       <c r="D2109" s="15"/>
       <c r="E2109" s="15"/>
     </row>
-    <row r="2110" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2110" spans="1:5" outlineLevel="2">
       <c r="A2110" s="84">
         <v>7</v>
       </c>
@@ -23569,7 +24133,7 @@
       <c r="D2110" s="15"/>
       <c r="E2110" s="15"/>
     </row>
-    <row r="2111" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2111" spans="1:5" outlineLevel="2">
       <c r="A2111" s="84">
         <v>8</v>
       </c>
@@ -23578,7 +24142,7 @@
       <c r="D2111" s="15"/>
       <c r="E2111" s="15"/>
     </row>
-    <row r="2112" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2112" spans="1:5" outlineLevel="2">
       <c r="A2112" s="84">
         <v>9</v>
       </c>
@@ -23587,7 +24151,7 @@
       <c r="D2112" s="15"/>
       <c r="E2112" s="15"/>
     </row>
-    <row r="2113" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2113" spans="1:5" outlineLevel="2">
       <c r="A2113" s="84" t="s">
         <v>2</v>
       </c>
@@ -23596,7 +24160,7 @@
       <c r="D2113" s="15"/>
       <c r="E2113" s="15"/>
     </row>
-    <row r="2114" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2114" spans="1:5" outlineLevel="2">
       <c r="A2114" s="84" t="s">
         <v>3</v>
       </c>
@@ -23605,34 +24169,42 @@
       <c r="D2114" s="15"/>
       <c r="E2114" s="15"/>
     </row>
-    <row r="2115" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2115" spans="1:5" outlineLevel="2">
       <c r="A2115" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2115" s="88"/>
+      <c r="B2115" s="217" t="s">
+        <v>293</v>
+      </c>
       <c r="C2115" s="33"/>
-      <c r="D2115" s="15"/>
+      <c r="D2115" s="216" t="s">
+        <v>292</v>
+      </c>
       <c r="E2115" s="15"/>
     </row>
-    <row r="2116" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2116" spans="1:5" outlineLevel="2">
       <c r="A2116" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B2116" s="88"/>
       <c r="C2116" s="33"/>
-      <c r="D2116" s="15"/>
+      <c r="D2116" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E2116" s="15"/>
     </row>
-    <row r="2117" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2117" spans="1:5" outlineLevel="2">
       <c r="A2117" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B2117" s="88"/>
       <c r="C2117" s="33"/>
-      <c r="D2117" s="15"/>
+      <c r="D2117" s="216" t="s">
+        <v>294</v>
+      </c>
       <c r="E2117" s="15"/>
     </row>
-    <row r="2118" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="2118" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A2118" s="85" t="s">
         <v>7</v>
       </c>
@@ -23641,14 +24213,14 @@
       <c r="D2118" s="16"/>
       <c r="E2118" s="16"/>
     </row>
-    <row r="2119" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2119" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2119" s="83" t="s">
         <v>97</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="160"/>
-      <c r="D2119" s="161"/>
-      <c r="E2119" s="161"/>
+      <c r="C2119" s="164"/>
+      <c r="D2119" s="165"/>
+      <c r="E2119" s="165"/>
     </row>
     <row r="2120" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2120" s="84">
@@ -23794,14 +24366,14 @@
       <c r="D2135" s="16"/>
       <c r="E2135" s="16"/>
     </row>
-    <row r="2136" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2136" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2136" s="83" t="s">
         <v>149</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="160"/>
-      <c r="D2136" s="161"/>
-      <c r="E2136" s="161"/>
+      <c r="C2136" s="164"/>
+      <c r="D2136" s="165"/>
+      <c r="E2136" s="165"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2137" s="84">
@@ -23947,14 +24519,14 @@
       <c r="D2152" s="16"/>
       <c r="E2152" s="16"/>
     </row>
-    <row r="2153" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2153" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2153" s="83" t="s">
         <v>150</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="160"/>
-      <c r="D2153" s="161"/>
-      <c r="E2153" s="161"/>
+      <c r="C2153" s="164"/>
+      <c r="D2153" s="165"/>
+      <c r="E2153" s="165"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2154" s="84">
@@ -24100,14 +24672,14 @@
       <c r="D2169" s="16"/>
       <c r="E2169" s="16"/>
     </row>
-    <row r="2170" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="2170" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2170" s="83" t="s">
         <v>151</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="160"/>
-      <c r="D2170" s="161"/>
-      <c r="E2170" s="161"/>
+      <c r="C2170" s="164"/>
+      <c r="D2170" s="165"/>
+      <c r="E2170" s="165"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2171" s="84">
@@ -24255,26 +24827,111 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="C1932:E1932"/>
+    <mergeCell ref="C1949:E1949"/>
+    <mergeCell ref="C1966:E1966"/>
+    <mergeCell ref="C1983:E1983"/>
+    <mergeCell ref="C2000:E2000"/>
+    <mergeCell ref="C2017:E2017"/>
+    <mergeCell ref="C1846:E1846"/>
+    <mergeCell ref="C1863:E1863"/>
+    <mergeCell ref="C1880:E1880"/>
+    <mergeCell ref="C1897:E1897"/>
+    <mergeCell ref="C1914:E1914"/>
+    <mergeCell ref="C1915:E1915"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
     <mergeCell ref="C396:E396"/>
     <mergeCell ref="C413:E413"/>
     <mergeCell ref="C430:E430"/>
@@ -24287,111 +24944,26 @@
     <mergeCell ref="C345:E345"/>
     <mergeCell ref="C362:E362"/>
     <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1932:E1932"/>
-    <mergeCell ref="C1949:E1949"/>
-    <mergeCell ref="C1966:E1966"/>
-    <mergeCell ref="C1983:E1983"/>
-    <mergeCell ref="C2000:E2000"/>
-    <mergeCell ref="C2017:E2017"/>
-    <mergeCell ref="C1846:E1846"/>
-    <mergeCell ref="C1863:E1863"/>
-    <mergeCell ref="C1880:E1880"/>
-    <mergeCell ref="C1897:E1897"/>
-    <mergeCell ref="C1914:E1914"/>
-    <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24418,51 +24990,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="188" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="185" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="186"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="187"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="182" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="183"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="184"/>
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1">
       <c r="A4" s="28" t="s">
@@ -24679,19 +25251,19 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="181" t="s">
+      <c r="A20" s="182" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="184"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28" t="s">
@@ -24908,19 +25480,19 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="182"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="182"/>
-      <c r="F37" s="182"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="182"/>
-      <c r="I37" s="182"/>
-      <c r="J37" s="182"/>
-      <c r="K37" s="183"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="184"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
@@ -25178,28 +25750,28 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="188"/>
+      <c r="A3" s="189"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="189"/>
+      <c r="A4" s="190"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="189"/>
+      <c r="A5" s="190"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="189"/>
+      <c r="A6" s="190"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="189"/>
+      <c r="A7" s="190"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="189"/>
+      <c r="A8" s="190"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="189"/>
+      <c r="A9" s="190"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" thickBot="1">
-      <c r="A10" s="190"/>
+      <c r="A10" s="191"/>
     </row>
     <row r="11" spans="1:1" ht="27" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -25382,10 +25954,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="192" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="192"/>
+      <c r="C1" s="193"/>
       <c r="D1" s="92"/>
       <c r="E1" s="32"/>
     </row>
@@ -25396,7 +25968,7 @@
       <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="194" t="s">
         <v>208</v>
       </c>
       <c r="B3" s="131" t="s">
@@ -25410,7 +25982,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="194"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="128" t="s">
         <v>159</v>
       </c>
@@ -25422,7 +25994,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="194"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="128" t="s">
         <v>160</v>
       </c>
@@ -25431,7 +26003,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="194"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="139" t="s">
         <v>210</v>
       </c>
@@ -25443,7 +26015,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="194"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="128" t="s">
         <v>177</v>
       </c>
@@ -25455,7 +26027,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="194"/>
+      <c r="A8" s="195"/>
       <c r="B8" s="128" t="s">
         <v>178</v>
       </c>
@@ -25464,7 +26036,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A9" s="195"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="136" t="s">
         <v>161</v>
       </c>
@@ -25479,7 +26051,7 @@
       <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A11" s="193" t="s">
+      <c r="A11" s="194" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="131" t="s">
@@ -25493,7 +26065,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="194"/>
+      <c r="A12" s="195"/>
       <c r="B12" s="128" t="s">
         <v>159</v>
       </c>
@@ -25505,7 +26077,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="194"/>
+      <c r="A13" s="195"/>
       <c r="B13" s="128" t="s">
         <v>160</v>
       </c>
@@ -25514,7 +26086,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="194"/>
+      <c r="A14" s="195"/>
       <c r="B14" s="139" t="s">
         <v>210</v>
       </c>
@@ -25526,7 +26098,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="194"/>
+      <c r="A15" s="195"/>
       <c r="B15" s="128" t="s">
         <v>177</v>
       </c>
@@ -25538,7 +26110,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="194"/>
+      <c r="A16" s="195"/>
       <c r="B16" s="128" t="s">
         <v>178</v>
       </c>
@@ -25547,7 +26119,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A17" s="195"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="136" t="s">
         <v>161</v>
       </c>
@@ -25562,7 +26134,7 @@
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" collapsed="1">
-      <c r="A19" s="193" t="s">
+      <c r="A19" s="194" t="s">
         <v>209</v>
       </c>
       <c r="B19" s="131" t="s">
@@ -25571,7 +26143,7 @@
       <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A20" s="194"/>
+      <c r="A20" s="195"/>
       <c r="B20" s="128" t="s">
         <v>159</v>
       </c>
@@ -25581,14 +26153,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A21" s="194"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="128" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A22" s="194"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="139" t="s">
         <v>210</v>
       </c>
@@ -25598,7 +26170,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A23" s="194"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="128" t="s">
         <v>177</v>
       </c>
@@ -25608,14 +26180,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A24" s="194"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="128" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A25" s="195"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="136" t="s">
         <v>161</v>
       </c>
@@ -25650,163 +26222,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="207" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="206"/>
+      <c r="B1" s="208"/>
       <c r="C1" s="118"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="213" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="203"/>
+      <c r="B2" s="214"/>
       <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="203"/>
+      <c r="B3" s="214"/>
       <c r="C3" s="120"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="209"/>
-      <c r="B4" s="210"/>
+      <c r="A4" s="211"/>
+      <c r="B4" s="212"/>
       <c r="C4" s="120"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="209" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="208"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="120"/>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="213" t="s">
+      <c r="A7" s="201" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="214"/>
+      <c r="B7" s="202"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="120"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1">
-      <c r="A9" s="211" t="s">
+      <c r="A9" s="203" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="212"/>
+      <c r="B9" s="204"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="198"/>
-      <c r="B10" s="199"/>
+      <c r="A10" s="205"/>
+      <c r="B10" s="206"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="197" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="201"/>
+      <c r="B11" s="198"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="200" t="s">
+      <c r="A12" s="197" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="201"/>
+      <c r="B12" s="198"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="197" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="201"/>
+      <c r="B13" s="198"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="197" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="201"/>
+      <c r="B14" s="198"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="201"/>
+      <c r="B15" s="198"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="197" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="201"/>
+      <c r="B16" s="198"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="196" t="s">
+      <c r="A17" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="197"/>
+      <c r="B17" s="200"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="213" t="s">
+      <c r="A19" s="201" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="214"/>
+      <c r="B19" s="202"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="120"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="211" t="s">
+      <c r="A21" s="203" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="212"/>
+      <c r="B21" s="204"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="198"/>
-      <c r="B22" s="199"/>
+      <c r="A22" s="205"/>
+      <c r="B22" s="206"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="197" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="201"/>
+      <c r="B23" s="198"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="200"/>
-      <c r="B24" s="201"/>
+      <c r="A24" s="197"/>
+      <c r="B24" s="198"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="200" t="s">
+      <c r="A25" s="197" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="201"/>
+      <c r="B25" s="198"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="200" t="s">
+      <c r="A26" s="197" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="201"/>
+      <c r="B26" s="198"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="196"/>
-      <c r="B27" s="197"/>
+      <c r="A27" s="199"/>
+      <c r="B27" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -25817,6 +26376,19 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/DW3/DQ3.xlsx
+++ b/DW3/DQ3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="329">
   <si>
     <t>Notes</t>
   </si>
@@ -980,6 +980,72 @@
   </si>
   <si>
     <t>Enemy Current HP</t>
+  </si>
+  <si>
+    <t>Enemey 1 MP</t>
+  </si>
+  <si>
+    <t>Enemy 2 MP</t>
+  </si>
+  <si>
+    <t>Enemy 3 MP</t>
+  </si>
+  <si>
+    <t>Enemy 4 MP</t>
+  </si>
+  <si>
+    <t>Enemy 5 MP</t>
+  </si>
+  <si>
+    <t>Enemy 6 MP</t>
+  </si>
+  <si>
+    <t>Enemy 7 MP</t>
+  </si>
+  <si>
+    <t>Enemy 8 MP</t>
+  </si>
+  <si>
+    <t>Enemy 1 Agility</t>
+  </si>
+  <si>
+    <t>Enemy MP &amp; Agilty</t>
+  </si>
+  <si>
+    <t>Enemy 2 Agility</t>
+  </si>
+  <si>
+    <t>Enemy 3 Agility</t>
+  </si>
+  <si>
+    <t>Enemy 4 Agility</t>
+  </si>
+  <si>
+    <t>Enemy 5 Agility</t>
+  </si>
+  <si>
+    <t>Enemy 6 Agility</t>
+  </si>
+  <si>
+    <t>Enemy 7 Agility</t>
+  </si>
+  <si>
+    <t>Enemy 8 Agility</t>
+  </si>
+  <si>
+    <t>Enemy Initialized and part of Member group</t>
+  </si>
+  <si>
+    <t>This 16 block is 2 byte values that relate to enemy initilized values and what group number they are in</t>
+  </si>
+  <si>
+    <t>Enemey Defense</t>
+  </si>
+  <si>
+    <t>Enemy 1 Defense</t>
+  </si>
+  <si>
+    <t>Enemy 2 Defense</t>
   </si>
 </sst>
 </file>
@@ -4769,8 +4835,8 @@
   <dimension ref="A1:H2186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1370" sqref="C1370"/>
+      <pane ySplit="2" topLeftCell="A1386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1419" sqref="D1419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -17370,461 +17436,645 @@
       </c>
       <c r="E1385" s="16"/>
     </row>
-    <row r="1386" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
+    <row r="1386" spans="1:5" ht="18" outlineLevel="1">
       <c r="A1386" s="76" t="s">
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="166"/>
+      <c r="C1386" s="166" t="s">
+        <v>316</v>
+      </c>
       <c r="D1386" s="167"/>
       <c r="E1386" s="167"/>
     </row>
-    <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1387" spans="1:5" outlineLevel="2">
       <c r="A1387" s="74">
         <v>0</v>
       </c>
-      <c r="B1387" s="88"/>
-      <c r="C1387" s="33"/>
-      <c r="D1387" s="15"/>
+      <c r="B1387" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1387" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1387" s="216" t="s">
+        <v>307</v>
+      </c>
       <c r="E1387" s="15"/>
     </row>
-    <row r="1388" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1388" spans="1:5" outlineLevel="2">
       <c r="A1388" s="74">
         <v>1</v>
       </c>
-      <c r="B1388" s="88"/>
-      <c r="C1388" s="33"/>
-      <c r="D1388" s="15"/>
+      <c r="B1388" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1388" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1388" s="216" t="s">
+        <v>308</v>
+      </c>
       <c r="E1388" s="15"/>
     </row>
-    <row r="1389" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1389" spans="1:5" outlineLevel="2">
       <c r="A1389" s="74">
         <v>2</v>
       </c>
-      <c r="B1389" s="88"/>
-      <c r="C1389" s="33"/>
-      <c r="D1389" s="15"/>
+      <c r="B1389" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1389" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1389" s="216" t="s">
+        <v>309</v>
+      </c>
       <c r="E1389" s="15"/>
     </row>
-    <row r="1390" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1390" spans="1:5" outlineLevel="2">
       <c r="A1390" s="74">
         <v>3</v>
       </c>
-      <c r="B1390" s="88"/>
-      <c r="C1390" s="33"/>
-      <c r="D1390" s="15"/>
+      <c r="B1390" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1390" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1390" s="216" t="s">
+        <v>310</v>
+      </c>
       <c r="E1390" s="15"/>
     </row>
-    <row r="1391" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1391" spans="1:5" outlineLevel="2">
       <c r="A1391" s="74">
         <v>4</v>
       </c>
-      <c r="B1391" s="88"/>
-      <c r="C1391" s="33"/>
-      <c r="D1391" s="15"/>
+      <c r="B1391" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1391" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1391" s="216" t="s">
+        <v>311</v>
+      </c>
       <c r="E1391" s="15"/>
     </row>
-    <row r="1392" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1392" spans="1:5" outlineLevel="2">
       <c r="A1392" s="74">
         <v>5</v>
       </c>
-      <c r="B1392" s="88"/>
-      <c r="C1392" s="33"/>
-      <c r="D1392" s="15"/>
+      <c r="B1392" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1392" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1392" s="216" t="s">
+        <v>312</v>
+      </c>
       <c r="E1392" s="15"/>
     </row>
-    <row r="1393" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1393" spans="1:5" outlineLevel="2">
       <c r="A1393" s="74">
         <v>6</v>
       </c>
-      <c r="B1393" s="88"/>
-      <c r="C1393" s="33"/>
-      <c r="D1393" s="15"/>
+      <c r="B1393" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1393" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1393" s="216" t="s">
+        <v>313</v>
+      </c>
       <c r="E1393" s="15"/>
     </row>
-    <row r="1394" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1394" spans="1:5" outlineLevel="2">
       <c r="A1394" s="74">
         <v>7</v>
       </c>
-      <c r="B1394" s="88"/>
-      <c r="C1394" s="33"/>
-      <c r="D1394" s="15"/>
+      <c r="B1394" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1394" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1394" s="216" t="s">
+        <v>314</v>
+      </c>
       <c r="E1394" s="15"/>
     </row>
-    <row r="1395" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1395" spans="1:5" outlineLevel="2">
       <c r="A1395" s="74">
         <v>8</v>
       </c>
-      <c r="B1395" s="88"/>
-      <c r="C1395" s="33"/>
-      <c r="D1395" s="15"/>
+      <c r="B1395" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1395" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1395" s="216" t="s">
+        <v>315</v>
+      </c>
       <c r="E1395" s="15"/>
     </row>
-    <row r="1396" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1396" spans="1:5" outlineLevel="2">
       <c r="A1396" s="74">
         <v>9</v>
       </c>
-      <c r="B1396" s="88"/>
-      <c r="C1396" s="33"/>
-      <c r="D1396" s="15"/>
+      <c r="B1396" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1396" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1396" s="216" t="s">
+        <v>317</v>
+      </c>
       <c r="E1396" s="15"/>
     </row>
-    <row r="1397" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1397" spans="1:5" outlineLevel="2">
       <c r="A1397" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1397" s="88"/>
-      <c r="C1397" s="33"/>
-      <c r="D1397" s="15"/>
+      <c r="B1397" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1397" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1397" s="216" t="s">
+        <v>318</v>
+      </c>
       <c r="E1397" s="15"/>
     </row>
-    <row r="1398" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1398" spans="1:5" outlineLevel="2">
       <c r="A1398" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B1398" s="88"/>
-      <c r="C1398" s="33"/>
-      <c r="D1398" s="15"/>
+      <c r="B1398" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1398" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1398" s="216" t="s">
+        <v>319</v>
+      </c>
       <c r="E1398" s="15"/>
     </row>
-    <row r="1399" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1399" spans="1:5" outlineLevel="2">
       <c r="A1399" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1399" s="88"/>
-      <c r="C1399" s="33"/>
-      <c r="D1399" s="15"/>
+      <c r="B1399" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1399" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1399" s="216" t="s">
+        <v>320</v>
+      </c>
       <c r="E1399" s="15"/>
     </row>
-    <row r="1400" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1400" spans="1:5" outlineLevel="2">
       <c r="A1400" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1400" s="88"/>
-      <c r="C1400" s="33"/>
-      <c r="D1400" s="15"/>
+      <c r="B1400" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1400" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1400" s="216" t="s">
+        <v>321</v>
+      </c>
       <c r="E1400" s="15"/>
     </row>
-    <row r="1401" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1401" spans="1:5" outlineLevel="2">
       <c r="A1401" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1401" s="88"/>
-      <c r="C1401" s="33"/>
-      <c r="D1401" s="15"/>
+      <c r="B1401" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1401" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1401" s="216" t="s">
+        <v>322</v>
+      </c>
       <c r="E1401" s="15"/>
     </row>
-    <row r="1402" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1402" spans="1:5" outlineLevel="2">
       <c r="A1402" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B1402" s="88"/>
-      <c r="C1402" s="33"/>
-      <c r="D1402" s="15"/>
+      <c r="B1402" s="217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1402" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1402" s="216" t="s">
+        <v>323</v>
+      </c>
       <c r="E1402" s="15"/>
     </row>
-    <row r="1403" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
+    <row r="1403" spans="1:5" ht="18" outlineLevel="1">
       <c r="A1403" s="73" t="s">
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="164"/>
+      <c r="C1403" s="164" t="s">
+        <v>326</v>
+      </c>
       <c r="D1403" s="165"/>
       <c r="E1403" s="165"/>
     </row>
-    <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1404" spans="1:5" outlineLevel="2">
       <c r="A1404" s="74">
         <v>0</v>
       </c>
-      <c r="B1404" s="88"/>
+      <c r="B1404" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1404" s="33"/>
-      <c r="D1404" s="15"/>
+      <c r="D1404" s="216" t="s">
+        <v>327</v>
+      </c>
       <c r="E1404" s="15"/>
     </row>
-    <row r="1405" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1405" spans="1:5" outlineLevel="2">
       <c r="A1405" s="74">
         <v>1</v>
       </c>
       <c r="B1405" s="88"/>
       <c r="C1405" s="33"/>
-      <c r="D1405" s="15"/>
+      <c r="D1405" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1405" s="15"/>
     </row>
-    <row r="1406" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1406" spans="1:5" outlineLevel="2">
       <c r="A1406" s="74">
         <v>2</v>
       </c>
-      <c r="B1406" s="88"/>
+      <c r="B1406" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1406" s="33"/>
-      <c r="D1406" s="15"/>
+      <c r="D1406" s="216" t="s">
+        <v>328</v>
+      </c>
       <c r="E1406" s="15"/>
     </row>
-    <row r="1407" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1407" spans="1:5" outlineLevel="2">
       <c r="A1407" s="74">
         <v>3</v>
       </c>
       <c r="B1407" s="88"/>
       <c r="C1407" s="33"/>
-      <c r="D1407" s="15"/>
+      <c r="D1407" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1407" s="15"/>
     </row>
-    <row r="1408" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1408" spans="1:5" outlineLevel="2">
       <c r="A1408" s="74">
         <v>4</v>
       </c>
-      <c r="B1408" s="88"/>
+      <c r="B1408" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1408" s="33"/>
-      <c r="D1408" s="15"/>
+      <c r="D1408" s="216" t="s">
+        <v>328</v>
+      </c>
       <c r="E1408" s="15"/>
     </row>
-    <row r="1409" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1409" spans="1:5" outlineLevel="2">
       <c r="A1409" s="74">
         <v>5</v>
       </c>
       <c r="B1409" s="88"/>
       <c r="C1409" s="33"/>
-      <c r="D1409" s="15"/>
+      <c r="D1409" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1409" s="15"/>
     </row>
-    <row r="1410" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1410" spans="1:5" outlineLevel="2">
       <c r="A1410" s="74">
         <v>6</v>
       </c>
-      <c r="B1410" s="88"/>
+      <c r="B1410" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1410" s="33"/>
-      <c r="D1410" s="15"/>
+      <c r="D1410" s="216" t="s">
+        <v>328</v>
+      </c>
       <c r="E1410" s="15"/>
     </row>
-    <row r="1411" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1411" spans="1:5" outlineLevel="2">
       <c r="A1411" s="74">
         <v>7</v>
       </c>
       <c r="B1411" s="88"/>
       <c r="C1411" s="33"/>
-      <c r="D1411" s="15"/>
+      <c r="D1411" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1411" s="15"/>
     </row>
-    <row r="1412" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1412" spans="1:5" outlineLevel="2">
       <c r="A1412" s="74">
         <v>8</v>
       </c>
-      <c r="B1412" s="88"/>
+      <c r="B1412" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1412" s="33"/>
-      <c r="D1412" s="15"/>
+      <c r="D1412" s="216" t="s">
+        <v>328</v>
+      </c>
       <c r="E1412" s="15"/>
     </row>
-    <row r="1413" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1413" spans="1:5" outlineLevel="2">
       <c r="A1413" s="74">
         <v>9</v>
       </c>
       <c r="B1413" s="88"/>
       <c r="C1413" s="33"/>
-      <c r="D1413" s="15"/>
+      <c r="D1413" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1413" s="15"/>
     </row>
-    <row r="1414" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1414" spans="1:5" outlineLevel="2">
       <c r="A1414" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1414" s="88"/>
+      <c r="B1414" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1414" s="33"/>
-      <c r="D1414" s="15"/>
+      <c r="D1414" s="216" t="s">
+        <v>328</v>
+      </c>
       <c r="E1414" s="15"/>
     </row>
-    <row r="1415" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1415" spans="1:5" outlineLevel="2">
       <c r="A1415" s="74" t="s">
         <v>3</v>
       </c>
       <c r="B1415" s="88"/>
       <c r="C1415" s="33"/>
-      <c r="D1415" s="15"/>
+      <c r="D1415" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1415" s="15"/>
     </row>
-    <row r="1416" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1416" spans="1:5" outlineLevel="2">
       <c r="A1416" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1416" s="88"/>
+      <c r="B1416" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1416" s="33"/>
-      <c r="D1416" s="15"/>
+      <c r="D1416" s="216" t="s">
+        <v>328</v>
+      </c>
       <c r="E1416" s="15"/>
     </row>
-    <row r="1417" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1417" spans="1:5" outlineLevel="2">
       <c r="A1417" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B1417" s="88"/>
       <c r="C1417" s="33"/>
-      <c r="D1417" s="15"/>
+      <c r="D1417" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1417" s="15"/>
     </row>
-    <row r="1418" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1418" spans="1:5" outlineLevel="2">
       <c r="A1418" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1418" s="88"/>
+      <c r="B1418" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1418" s="33"/>
-      <c r="D1418" s="15"/>
+      <c r="D1418" s="216" t="s">
+        <v>328</v>
+      </c>
       <c r="E1418" s="15"/>
     </row>
-    <row r="1419" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="1419" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A1419" s="75" t="s">
         <v>7</v>
       </c>
       <c r="B1419" s="89"/>
       <c r="C1419" s="34"/>
-      <c r="D1419" s="16"/>
+      <c r="D1419" s="216" t="s">
+        <v>237</v>
+      </c>
       <c r="E1419" s="16"/>
     </row>
-    <row r="1420" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
+    <row r="1420" spans="1:5" ht="18" outlineLevel="1">
       <c r="A1420" s="73" t="s">
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="164"/>
+      <c r="C1420" s="164" t="s">
+        <v>324</v>
+      </c>
       <c r="D1420" s="165"/>
       <c r="E1420" s="165"/>
     </row>
-    <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1421" spans="1:5" outlineLevel="2">
       <c r="A1421" s="74">
         <v>0</v>
       </c>
-      <c r="B1421" s="88"/>
+      <c r="B1421" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1421" s="33"/>
-      <c r="D1421" s="15"/>
+      <c r="D1421" s="216" t="s">
+        <v>325</v>
+      </c>
       <c r="E1421" s="15"/>
     </row>
-    <row r="1422" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1422" spans="1:5" outlineLevel="2">
       <c r="A1422" s="74">
         <v>1</v>
       </c>
-      <c r="B1422" s="88"/>
+      <c r="B1422" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1422" s="33"/>
       <c r="D1422" s="15"/>
       <c r="E1422" s="15"/>
     </row>
-    <row r="1423" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1423" spans="1:5" outlineLevel="2">
       <c r="A1423" s="74">
         <v>2</v>
       </c>
-      <c r="B1423" s="88"/>
+      <c r="B1423" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1423" s="33"/>
       <c r="D1423" s="15"/>
       <c r="E1423" s="15"/>
     </row>
-    <row r="1424" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1424" spans="1:5" outlineLevel="2">
       <c r="A1424" s="74">
         <v>3</v>
       </c>
-      <c r="B1424" s="88"/>
+      <c r="B1424" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1424" s="33"/>
       <c r="D1424" s="15"/>
       <c r="E1424" s="15"/>
     </row>
-    <row r="1425" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1425" spans="1:5" outlineLevel="2">
       <c r="A1425" s="74">
         <v>4</v>
       </c>
-      <c r="B1425" s="88"/>
+      <c r="B1425" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1425" s="33"/>
       <c r="D1425" s="15"/>
       <c r="E1425" s="15"/>
     </row>
-    <row r="1426" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1426" spans="1:5" outlineLevel="2">
       <c r="A1426" s="74">
         <v>5</v>
       </c>
-      <c r="B1426" s="88"/>
+      <c r="B1426" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1426" s="33"/>
       <c r="D1426" s="15"/>
       <c r="E1426" s="15"/>
     </row>
-    <row r="1427" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1427" spans="1:5" outlineLevel="2">
       <c r="A1427" s="74">
         <v>6</v>
       </c>
-      <c r="B1427" s="88"/>
+      <c r="B1427" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1427" s="33"/>
       <c r="D1427" s="15"/>
       <c r="E1427" s="15"/>
     </row>
-    <row r="1428" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1428" spans="1:5" outlineLevel="2">
       <c r="A1428" s="74">
         <v>7</v>
       </c>
-      <c r="B1428" s="88"/>
+      <c r="B1428" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1428" s="33"/>
       <c r="D1428" s="15"/>
       <c r="E1428" s="15"/>
     </row>
-    <row r="1429" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1429" spans="1:5" outlineLevel="2">
       <c r="A1429" s="74">
         <v>8</v>
       </c>
-      <c r="B1429" s="88"/>
+      <c r="B1429" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1429" s="33"/>
       <c r="D1429" s="15"/>
       <c r="E1429" s="15"/>
     </row>
-    <row r="1430" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1430" spans="1:5" outlineLevel="2">
       <c r="A1430" s="74">
         <v>9</v>
       </c>
-      <c r="B1430" s="88"/>
+      <c r="B1430" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1430" s="33"/>
       <c r="D1430" s="15"/>
       <c r="E1430" s="15"/>
     </row>
-    <row r="1431" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1431" spans="1:5" outlineLevel="2">
       <c r="A1431" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1431" s="88"/>
+      <c r="B1431" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1431" s="33"/>
       <c r="D1431" s="15"/>
       <c r="E1431" s="15"/>
     </row>
-    <row r="1432" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1432" spans="1:5" outlineLevel="2">
       <c r="A1432" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B1432" s="88"/>
+      <c r="B1432" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1432" s="33"/>
       <c r="D1432" s="15"/>
       <c r="E1432" s="15"/>
     </row>
-    <row r="1433" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1433" spans="1:5" outlineLevel="2">
       <c r="A1433" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1433" s="88"/>
+      <c r="B1433" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1433" s="33"/>
       <c r="D1433" s="15"/>
       <c r="E1433" s="15"/>
     </row>
-    <row r="1434" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1434" spans="1:5" outlineLevel="2">
       <c r="A1434" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1434" s="88"/>
+      <c r="B1434" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1434" s="33"/>
       <c r="D1434" s="15"/>
       <c r="E1434" s="15"/>
     </row>
-    <row r="1435" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1435" spans="1:5" outlineLevel="2">
       <c r="A1435" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1435" s="88"/>
+      <c r="B1435" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1435" s="33"/>
       <c r="D1435" s="15"/>
       <c r="E1435" s="15"/>
     </row>
-    <row r="1436" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="1436" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A1436" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B1436" s="89"/>
+      <c r="B1436" s="217" t="s">
+        <v>296</v>
+      </c>
       <c r="C1436" s="34"/>
       <c r="D1436" s="16"/>
       <c r="E1436" s="16"/>

--- a/DW3/DQ3.xlsx
+++ b/DW3/DQ3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="354">
   <si>
     <t>Notes</t>
   </si>
@@ -826,9 +826,6 @@
     <t>Current &amp; Max MP of current party</t>
   </si>
   <si>
-    <t>Current Party HP</t>
-  </si>
-  <si>
     <t>&amp; Party Items</t>
   </si>
   <si>
@@ -1046,6 +1043,84 @@
   </si>
   <si>
     <t>Enemy 2 Defense</t>
+  </si>
+  <si>
+    <t>1st Party Member Agility</t>
+  </si>
+  <si>
+    <t>unsigend</t>
+  </si>
+  <si>
+    <t>3rd Party Member Agility</t>
+  </si>
+  <si>
+    <t>4th Party Member Agility</t>
+  </si>
+  <si>
+    <t>2nd Party Member Agility</t>
+  </si>
+  <si>
+    <t>1st Party Member Intelligence</t>
+  </si>
+  <si>
+    <t>2nd Party Member Intelligence</t>
+  </si>
+  <si>
+    <t>3rd Party Member Intelligence</t>
+  </si>
+  <si>
+    <t>4th Party Member Intelligence</t>
+  </si>
+  <si>
+    <t>1st Party Member Luck</t>
+  </si>
+  <si>
+    <t>2nd Party Member Luck</t>
+  </si>
+  <si>
+    <t>3rd Party Member Luck</t>
+  </si>
+  <si>
+    <t>4th Party Member Luck</t>
+  </si>
+  <si>
+    <t>1st Party member Vitality</t>
+  </si>
+  <si>
+    <t>2nd Party member Vitality</t>
+  </si>
+  <si>
+    <t>3rd Party member Vitality</t>
+  </si>
+  <si>
+    <t>4th Party member vitality</t>
+  </si>
+  <si>
+    <t>2nd Party Member Class &amp; Sex</t>
+  </si>
+  <si>
+    <t>1st Party Member Class &amp; Sex</t>
+  </si>
+  <si>
+    <t>3rd Party Member Class &amp; Sex</t>
+  </si>
+  <si>
+    <t>4th Party Member Class &amp; Sex</t>
+  </si>
+  <si>
+    <t>Current Party Stats, Class, Sex, and HP</t>
+  </si>
+  <si>
+    <t>1st Party Member Strength</t>
+  </si>
+  <si>
+    <t>2dn Party Member Strength</t>
+  </si>
+  <si>
+    <t>3rd Party Member Strength</t>
+  </si>
+  <si>
+    <t>4th Party Member Strength</t>
   </si>
 </sst>
 </file>
@@ -2286,6 +2361,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2307,29 +2386,29 @@
     <xf numFmtId="0" fontId="33" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2365,34 +2444,20 @@
     <xf numFmtId="0" fontId="47" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
@@ -2402,10 +2467,20 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -2733,16 +2808,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="161" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="158" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="162" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="159"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="163"/>
       <c r="G1" s="140"/>
       <c r="H1" s="141">
         <f>SUM(G1:G65538)</f>
@@ -2820,10 +2895,10 @@
       <c r="B5" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="159" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="155"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="147"/>
       <c r="F5" s="143"/>
       <c r="G5" s="140"/>
@@ -2839,10 +2914,10 @@
       <c r="B6" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="159" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="156"/>
+      <c r="D6" s="160"/>
       <c r="E6" s="147"/>
       <c r="F6" s="143"/>
       <c r="G6" s="140"/>
@@ -2860,7 +2935,7 @@
       <c r="F7" s="93"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="164" t="s">
         <v>220</v>
       </c>
       <c r="B8" s="95" t="s">
@@ -2880,7 +2955,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A9" s="153"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="98" t="s">
         <v>183</v>
       </c>
@@ -2894,7 +2969,7 @@
       <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A10" s="153"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="148" t="s">
         <v>215</v>
       </c>
@@ -2911,7 +2986,7 @@
       <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A11" s="153"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="148" t="s">
         <v>216</v>
       </c>
@@ -2928,7 +3003,7 @@
       <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A12" s="153"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="148" t="s">
         <v>217</v>
       </c>
@@ -2945,7 +3020,7 @@
       <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A13" s="153"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="148" t="s">
         <v>218</v>
       </c>
@@ -2962,7 +3037,7 @@
       <c r="F13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A14" s="153"/>
+      <c r="A14" s="157"/>
       <c r="B14" s="148" t="s">
         <v>219</v>
       </c>
@@ -2979,7 +3054,7 @@
       <c r="F14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15" outlineLevel="1">
-      <c r="A15" s="153"/>
+      <c r="A15" s="157"/>
       <c r="B15" s="100"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
@@ -2990,7 +3065,7 @@
       <c r="F15" s="105"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A16" s="153"/>
+      <c r="A16" s="157"/>
       <c r="B16" s="98" t="s">
         <v>186</v>
       </c>
@@ -3033,7 +3108,7 @@
     </row>
     <row r="18" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="19" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A19" s="154" t="s">
+      <c r="A19" s="158" t="s">
         <v>231</v>
       </c>
       <c r="B19" s="109" t="s">
@@ -3053,7 +3128,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A20" s="153"/>
+      <c r="A20" s="157"/>
       <c r="B20" s="98" t="s">
         <v>183</v>
       </c>
@@ -3070,7 +3145,7 @@
       <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A21" s="153"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="148" t="s">
         <v>221</v>
       </c>
@@ -3087,7 +3162,7 @@
       <c r="F21" s="105"/>
     </row>
     <row r="22" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A22" s="153"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="148" t="s">
         <v>221</v>
       </c>
@@ -3104,7 +3179,7 @@
       <c r="F22" s="105"/>
     </row>
     <row r="23" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A23" s="153"/>
+      <c r="A23" s="157"/>
       <c r="B23" s="148" t="s">
         <v>221</v>
       </c>
@@ -3121,7 +3196,7 @@
       <c r="F23" s="105"/>
     </row>
     <row r="24" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A24" s="153"/>
+      <c r="A24" s="157"/>
       <c r="B24" s="148" t="s">
         <v>221</v>
       </c>
@@ -3138,7 +3213,7 @@
       <c r="F24" s="105"/>
     </row>
     <row r="25" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A25" s="153"/>
+      <c r="A25" s="157"/>
       <c r="B25" s="148" t="s">
         <v>222</v>
       </c>
@@ -3155,7 +3230,7 @@
       <c r="F25" s="105"/>
     </row>
     <row r="26" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A26" s="153"/>
+      <c r="A26" s="157"/>
       <c r="B26" s="148" t="s">
         <v>223</v>
       </c>
@@ -3172,7 +3247,7 @@
       <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A27" s="153"/>
+      <c r="A27" s="157"/>
       <c r="B27" s="148" t="s">
         <v>224</v>
       </c>
@@ -3189,7 +3264,7 @@
       <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A28" s="153"/>
+      <c r="A28" s="157"/>
       <c r="B28" s="148" t="s">
         <v>224</v>
       </c>
@@ -3206,7 +3281,7 @@
       <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A29" s="153"/>
+      <c r="A29" s="157"/>
       <c r="B29" s="148" t="s">
         <v>225</v>
       </c>
@@ -3223,7 +3298,7 @@
       <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A30" s="153"/>
+      <c r="A30" s="157"/>
       <c r="B30" s="148" t="s">
         <v>226</v>
       </c>
@@ -3240,7 +3315,7 @@
       <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A31" s="153"/>
+      <c r="A31" s="157"/>
       <c r="B31" s="148" t="s">
         <v>227</v>
       </c>
@@ -3255,7 +3330,7 @@
       <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A32" s="153"/>
+      <c r="A32" s="157"/>
       <c r="B32" s="149" t="s">
         <v>228</v>
       </c>
@@ -3272,7 +3347,7 @@
       <c r="F32" s="105"/>
     </row>
     <row r="33" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A33" s="153"/>
+      <c r="A33" s="157"/>
       <c r="B33" s="149" t="s">
         <v>229</v>
       </c>
@@ -3289,7 +3364,7 @@
       <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A34" s="153"/>
+      <c r="A34" s="157"/>
       <c r="B34" s="149" t="s">
         <v>230</v>
       </c>
@@ -3306,7 +3381,7 @@
       <c r="F34" s="105"/>
     </row>
     <row r="35" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A35" s="153"/>
+      <c r="A35" s="157"/>
       <c r="B35" s="149" t="s">
         <v>232</v>
       </c>
@@ -3323,7 +3398,7 @@
       <c r="F35" s="105"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A36" s="153"/>
+      <c r="A36" s="157"/>
       <c r="B36" s="98" t="s">
         <v>186</v>
       </c>
@@ -3366,7 +3441,7 @@
     </row>
     <row r="38" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="39" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A39" s="152" t="s">
+      <c r="A39" s="156" t="s">
         <v>169</v>
       </c>
       <c r="B39" s="113" t="s">
@@ -3386,7 +3461,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A40" s="153"/>
+      <c r="A40" s="157"/>
       <c r="B40" s="98" t="s">
         <v>183</v>
       </c>
@@ -3403,7 +3478,7 @@
       <c r="F40" s="104"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A41" s="153"/>
+      <c r="A41" s="157"/>
       <c r="B41" s="150" t="s">
         <v>233</v>
       </c>
@@ -3420,7 +3495,7 @@
       <c r="F41" s="105"/>
     </row>
     <row r="42" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A42" s="153"/>
+      <c r="A42" s="157"/>
       <c r="B42" s="151" t="s">
         <v>234</v>
       </c>
@@ -3437,7 +3512,7 @@
       <c r="F42" s="105"/>
     </row>
     <row r="43" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A43" s="153"/>
+      <c r="A43" s="157"/>
       <c r="B43" s="100"/>
       <c r="C43" s="101"/>
       <c r="D43" s="101"/>
@@ -3448,7 +3523,7 @@
       <c r="F43" s="105"/>
     </row>
     <row r="44" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A44" s="153"/>
+      <c r="A44" s="157"/>
       <c r="B44" s="100"/>
       <c r="C44" s="101"/>
       <c r="D44" s="101"/>
@@ -3459,7 +3534,7 @@
       <c r="F44" s="105"/>
     </row>
     <row r="45" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A45" s="153"/>
+      <c r="A45" s="157"/>
       <c r="B45" s="100"/>
       <c r="C45" s="101"/>
       <c r="D45" s="101"/>
@@ -3470,7 +3545,7 @@
       <c r="F45" s="105"/>
     </row>
     <row r="46" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A46" s="153"/>
+      <c r="A46" s="157"/>
       <c r="B46" s="100"/>
       <c r="C46" s="101"/>
       <c r="D46" s="101"/>
@@ -3481,7 +3556,7 @@
       <c r="F46" s="105"/>
     </row>
     <row r="47" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A47" s="153"/>
+      <c r="A47" s="157"/>
       <c r="B47" s="100"/>
       <c r="C47" s="101"/>
       <c r="D47" s="101"/>
@@ -3492,7 +3567,7 @@
       <c r="F47" s="105"/>
     </row>
     <row r="48" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A48" s="153"/>
+      <c r="A48" s="157"/>
       <c r="B48" s="100"/>
       <c r="C48" s="101"/>
       <c r="D48" s="101"/>
@@ -3503,7 +3578,7 @@
       <c r="F48" s="105"/>
     </row>
     <row r="49" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A49" s="153"/>
+      <c r="A49" s="157"/>
       <c r="B49" s="100"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
@@ -3514,7 +3589,7 @@
       <c r="F49" s="105"/>
     </row>
     <row r="50" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A50" s="153"/>
+      <c r="A50" s="157"/>
       <c r="B50" s="100"/>
       <c r="C50" s="101"/>
       <c r="D50" s="101"/>
@@ -3525,7 +3600,7 @@
       <c r="F50" s="105"/>
     </row>
     <row r="51" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A51" s="153"/>
+      <c r="A51" s="157"/>
       <c r="B51" s="100"/>
       <c r="C51" s="101"/>
       <c r="D51" s="101"/>
@@ -3536,7 +3611,7 @@
       <c r="F51" s="105"/>
     </row>
     <row r="52" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A52" s="153"/>
+      <c r="A52" s="157"/>
       <c r="B52" s="100"/>
       <c r="C52" s="101"/>
       <c r="D52" s="101"/>
@@ -3547,7 +3622,7 @@
       <c r="F52" s="105"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A53" s="153"/>
+      <c r="A53" s="157"/>
       <c r="B53" s="98" t="s">
         <v>186</v>
       </c>
@@ -3586,7 +3661,7 @@
     </row>
     <row r="55" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="56" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A56" s="154" t="s">
+      <c r="A56" s="158" t="s">
         <v>170</v>
       </c>
       <c r="B56" s="109" t="s">
@@ -3606,7 +3681,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A57" s="153"/>
+      <c r="A57" s="157"/>
       <c r="B57" s="98" t="s">
         <v>183</v>
       </c>
@@ -3619,7 +3694,7 @@
       <c r="F57" s="104"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
-      <c r="A58" s="153"/>
+      <c r="A58" s="157"/>
       <c r="B58" s="100"/>
       <c r="C58" s="101"/>
       <c r="D58" s="101"/>
@@ -3630,7 +3705,7 @@
       <c r="F58" s="105"/>
     </row>
     <row r="59" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A59" s="153"/>
+      <c r="A59" s="157"/>
       <c r="B59" s="100"/>
       <c r="C59" s="101"/>
       <c r="D59" s="101"/>
@@ -3641,7 +3716,7 @@
       <c r="F59" s="105"/>
     </row>
     <row r="60" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A60" s="153"/>
+      <c r="A60" s="157"/>
       <c r="B60" s="100"/>
       <c r="C60" s="101"/>
       <c r="D60" s="101"/>
@@ -3652,7 +3727,7 @@
       <c r="F60" s="105"/>
     </row>
     <row r="61" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A61" s="153"/>
+      <c r="A61" s="157"/>
       <c r="B61" s="100"/>
       <c r="C61" s="101"/>
       <c r="D61" s="101"/>
@@ -3663,7 +3738,7 @@
       <c r="F61" s="105"/>
     </row>
     <row r="62" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A62" s="153"/>
+      <c r="A62" s="157"/>
       <c r="B62" s="100"/>
       <c r="C62" s="101"/>
       <c r="D62" s="101"/>
@@ -3674,7 +3749,7 @@
       <c r="F62" s="105"/>
     </row>
     <row r="63" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A63" s="153"/>
+      <c r="A63" s="157"/>
       <c r="B63" s="100"/>
       <c r="C63" s="101"/>
       <c r="D63" s="101"/>
@@ -3685,7 +3760,7 @@
       <c r="F63" s="105"/>
     </row>
     <row r="64" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A64" s="153"/>
+      <c r="A64" s="157"/>
       <c r="B64" s="100"/>
       <c r="C64" s="101"/>
       <c r="D64" s="101"/>
@@ -3696,7 +3771,7 @@
       <c r="F64" s="105"/>
     </row>
     <row r="65" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A65" s="153"/>
+      <c r="A65" s="157"/>
       <c r="B65" s="100"/>
       <c r="C65" s="101"/>
       <c r="D65" s="101"/>
@@ -3707,7 +3782,7 @@
       <c r="F65" s="105"/>
     </row>
     <row r="66" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A66" s="153"/>
+      <c r="A66" s="157"/>
       <c r="B66" s="100"/>
       <c r="C66" s="101"/>
       <c r="D66" s="101"/>
@@ -3718,7 +3793,7 @@
       <c r="F66" s="105"/>
     </row>
     <row r="67" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A67" s="153"/>
+      <c r="A67" s="157"/>
       <c r="B67" s="100"/>
       <c r="C67" s="101"/>
       <c r="D67" s="101"/>
@@ -3729,7 +3804,7 @@
       <c r="F67" s="105"/>
     </row>
     <row r="68" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A68" s="153"/>
+      <c r="A68" s="157"/>
       <c r="B68" s="100"/>
       <c r="C68" s="101"/>
       <c r="D68" s="101"/>
@@ -3740,7 +3815,7 @@
       <c r="F68" s="105"/>
     </row>
     <row r="69" spans="1:7" ht="15" outlineLevel="1">
-      <c r="A69" s="153"/>
+      <c r="A69" s="157"/>
       <c r="B69" s="100"/>
       <c r="C69" s="101"/>
       <c r="D69" s="101"/>
@@ -3751,7 +3826,7 @@
       <c r="F69" s="105"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
-      <c r="A70" s="153"/>
+      <c r="A70" s="157"/>
       <c r="B70" s="98" t="s">
         <v>186</v>
       </c>
@@ -3790,7 +3865,7 @@
     </row>
     <row r="72" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="73" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A73" s="152" t="s">
+      <c r="A73" s="156" t="s">
         <v>171</v>
       </c>
       <c r="B73" s="113" t="s">
@@ -3810,7 +3885,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A74" s="153"/>
+      <c r="A74" s="157"/>
       <c r="B74" s="98" t="s">
         <v>183</v>
       </c>
@@ -3823,7 +3898,7 @@
       <c r="F74" s="104"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A75" s="153"/>
+      <c r="A75" s="157"/>
       <c r="B75" s="100"/>
       <c r="C75" s="101"/>
       <c r="D75" s="101"/>
@@ -3834,7 +3909,7 @@
       <c r="F75" s="105"/>
     </row>
     <row r="76" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A76" s="153"/>
+      <c r="A76" s="157"/>
       <c r="B76" s="100"/>
       <c r="C76" s="101"/>
       <c r="D76" s="101"/>
@@ -3845,7 +3920,7 @@
       <c r="F76" s="105"/>
     </row>
     <row r="77" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A77" s="153"/>
+      <c r="A77" s="157"/>
       <c r="B77" s="100"/>
       <c r="C77" s="101"/>
       <c r="D77" s="101"/>
@@ -3856,7 +3931,7 @@
       <c r="F77" s="105"/>
     </row>
     <row r="78" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A78" s="153"/>
+      <c r="A78" s="157"/>
       <c r="B78" s="100"/>
       <c r="C78" s="101"/>
       <c r="D78" s="101"/>
@@ -3867,7 +3942,7 @@
       <c r="F78" s="105"/>
     </row>
     <row r="79" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A79" s="153"/>
+      <c r="A79" s="157"/>
       <c r="B79" s="100"/>
       <c r="C79" s="101"/>
       <c r="D79" s="101"/>
@@ -3878,7 +3953,7 @@
       <c r="F79" s="105"/>
     </row>
     <row r="80" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A80" s="153"/>
+      <c r="A80" s="157"/>
       <c r="B80" s="100"/>
       <c r="C80" s="101"/>
       <c r="D80" s="101"/>
@@ -3889,7 +3964,7 @@
       <c r="F80" s="105"/>
     </row>
     <row r="81" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A81" s="153"/>
+      <c r="A81" s="157"/>
       <c r="B81" s="100"/>
       <c r="C81" s="101"/>
       <c r="D81" s="101"/>
@@ -3900,7 +3975,7 @@
       <c r="F81" s="105"/>
     </row>
     <row r="82" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A82" s="153"/>
+      <c r="A82" s="157"/>
       <c r="B82" s="100"/>
       <c r="C82" s="101"/>
       <c r="D82" s="101"/>
@@ -3911,7 +3986,7 @@
       <c r="F82" s="105"/>
     </row>
     <row r="83" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A83" s="153"/>
+      <c r="A83" s="157"/>
       <c r="B83" s="100"/>
       <c r="C83" s="101"/>
       <c r="D83" s="101"/>
@@ -3922,7 +3997,7 @@
       <c r="F83" s="105"/>
     </row>
     <row r="84" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A84" s="153"/>
+      <c r="A84" s="157"/>
       <c r="B84" s="100"/>
       <c r="C84" s="101"/>
       <c r="D84" s="101"/>
@@ -3933,7 +4008,7 @@
       <c r="F84" s="105"/>
     </row>
     <row r="85" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A85" s="153"/>
+      <c r="A85" s="157"/>
       <c r="B85" s="100"/>
       <c r="C85" s="101"/>
       <c r="D85" s="101"/>
@@ -3944,7 +4019,7 @@
       <c r="F85" s="105"/>
     </row>
     <row r="86" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A86" s="153"/>
+      <c r="A86" s="157"/>
       <c r="B86" s="100"/>
       <c r="C86" s="101"/>
       <c r="D86" s="101"/>
@@ -3955,7 +4030,7 @@
       <c r="F86" s="105"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A87" s="153"/>
+      <c r="A87" s="157"/>
       <c r="B87" s="98" t="s">
         <v>186</v>
       </c>
@@ -3994,7 +4069,7 @@
     </row>
     <row r="89" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="90" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A90" s="154" t="s">
+      <c r="A90" s="158" t="s">
         <v>172</v>
       </c>
       <c r="B90" s="109" t="s">
@@ -4014,7 +4089,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A91" s="153"/>
+      <c r="A91" s="157"/>
       <c r="B91" s="98" t="s">
         <v>183</v>
       </c>
@@ -4027,7 +4102,7 @@
       <c r="F91" s="104"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A92" s="153"/>
+      <c r="A92" s="157"/>
       <c r="B92" s="100"/>
       <c r="C92" s="101"/>
       <c r="D92" s="101"/>
@@ -4038,7 +4113,7 @@
       <c r="F92" s="105"/>
     </row>
     <row r="93" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A93" s="153"/>
+      <c r="A93" s="157"/>
       <c r="B93" s="100"/>
       <c r="C93" s="101"/>
       <c r="D93" s="101"/>
@@ -4049,7 +4124,7 @@
       <c r="F93" s="105"/>
     </row>
     <row r="94" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A94" s="153"/>
+      <c r="A94" s="157"/>
       <c r="B94" s="100"/>
       <c r="C94" s="101"/>
       <c r="D94" s="101"/>
@@ -4060,7 +4135,7 @@
       <c r="F94" s="105"/>
     </row>
     <row r="95" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A95" s="153"/>
+      <c r="A95" s="157"/>
       <c r="B95" s="100"/>
       <c r="C95" s="101"/>
       <c r="D95" s="101"/>
@@ -4071,7 +4146,7 @@
       <c r="F95" s="105"/>
     </row>
     <row r="96" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A96" s="153"/>
+      <c r="A96" s="157"/>
       <c r="B96" s="100"/>
       <c r="C96" s="101"/>
       <c r="D96" s="101"/>
@@ -4082,7 +4157,7 @@
       <c r="F96" s="105"/>
     </row>
     <row r="97" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A97" s="153"/>
+      <c r="A97" s="157"/>
       <c r="B97" s="100"/>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
@@ -4093,7 +4168,7 @@
       <c r="F97" s="105"/>
     </row>
     <row r="98" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A98" s="153"/>
+      <c r="A98" s="157"/>
       <c r="B98" s="100"/>
       <c r="C98" s="101"/>
       <c r="D98" s="101"/>
@@ -4104,7 +4179,7 @@
       <c r="F98" s="105"/>
     </row>
     <row r="99" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A99" s="153"/>
+      <c r="A99" s="157"/>
       <c r="B99" s="100"/>
       <c r="C99" s="101"/>
       <c r="D99" s="101"/>
@@ -4115,7 +4190,7 @@
       <c r="F99" s="105"/>
     </row>
     <row r="100" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A100" s="153"/>
+      <c r="A100" s="157"/>
       <c r="B100" s="100"/>
       <c r="C100" s="101"/>
       <c r="D100" s="101"/>
@@ -4126,7 +4201,7 @@
       <c r="F100" s="105"/>
     </row>
     <row r="101" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A101" s="153"/>
+      <c r="A101" s="157"/>
       <c r="B101" s="100"/>
       <c r="C101" s="101"/>
       <c r="D101" s="101"/>
@@ -4137,7 +4212,7 @@
       <c r="F101" s="105"/>
     </row>
     <row r="102" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A102" s="153"/>
+      <c r="A102" s="157"/>
       <c r="B102" s="100"/>
       <c r="C102" s="101"/>
       <c r="D102" s="101"/>
@@ -4148,7 +4223,7 @@
       <c r="F102" s="105"/>
     </row>
     <row r="103" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A103" s="153"/>
+      <c r="A103" s="157"/>
       <c r="B103" s="100"/>
       <c r="C103" s="101"/>
       <c r="D103" s="101"/>
@@ -4159,7 +4234,7 @@
       <c r="F103" s="105"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A104" s="153"/>
+      <c r="A104" s="157"/>
       <c r="B104" s="98" t="s">
         <v>186</v>
       </c>
@@ -4197,7 +4272,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A107" s="152" t="s">
+      <c r="A107" s="156" t="s">
         <v>173</v>
       </c>
       <c r="B107" s="113" t="s">
@@ -4217,7 +4292,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A108" s="153"/>
+      <c r="A108" s="157"/>
       <c r="B108" s="98" t="s">
         <v>183</v>
       </c>
@@ -4230,7 +4305,7 @@
       <c r="F108" s="104"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A109" s="153"/>
+      <c r="A109" s="157"/>
       <c r="B109" s="100"/>
       <c r="C109" s="101"/>
       <c r="D109" s="101"/>
@@ -4241,7 +4316,7 @@
       <c r="F109" s="105"/>
     </row>
     <row r="110" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A110" s="153"/>
+      <c r="A110" s="157"/>
       <c r="B110" s="100"/>
       <c r="C110" s="101"/>
       <c r="D110" s="101"/>
@@ -4252,7 +4327,7 @@
       <c r="F110" s="105"/>
     </row>
     <row r="111" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A111" s="153"/>
+      <c r="A111" s="157"/>
       <c r="B111" s="100"/>
       <c r="C111" s="101"/>
       <c r="D111" s="101"/>
@@ -4263,7 +4338,7 @@
       <c r="F111" s="105"/>
     </row>
     <row r="112" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A112" s="153"/>
+      <c r="A112" s="157"/>
       <c r="B112" s="100"/>
       <c r="C112" s="101"/>
       <c r="D112" s="101"/>
@@ -4274,7 +4349,7 @@
       <c r="F112" s="105"/>
     </row>
     <row r="113" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A113" s="153"/>
+      <c r="A113" s="157"/>
       <c r="B113" s="100"/>
       <c r="C113" s="101"/>
       <c r="D113" s="101"/>
@@ -4285,7 +4360,7 @@
       <c r="F113" s="105"/>
     </row>
     <row r="114" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A114" s="153"/>
+      <c r="A114" s="157"/>
       <c r="B114" s="100"/>
       <c r="C114" s="101"/>
       <c r="D114" s="101"/>
@@ -4296,7 +4371,7 @@
       <c r="F114" s="105"/>
     </row>
     <row r="115" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A115" s="153"/>
+      <c r="A115" s="157"/>
       <c r="B115" s="100"/>
       <c r="C115" s="101"/>
       <c r="D115" s="101"/>
@@ -4307,7 +4382,7 @@
       <c r="F115" s="105"/>
     </row>
     <row r="116" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A116" s="153"/>
+      <c r="A116" s="157"/>
       <c r="B116" s="100"/>
       <c r="C116" s="101"/>
       <c r="D116" s="101"/>
@@ -4318,7 +4393,7 @@
       <c r="F116" s="105"/>
     </row>
     <row r="117" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A117" s="153"/>
+      <c r="A117" s="157"/>
       <c r="B117" s="100"/>
       <c r="C117" s="101"/>
       <c r="D117" s="101"/>
@@ -4329,7 +4404,7 @@
       <c r="F117" s="105"/>
     </row>
     <row r="118" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A118" s="153"/>
+      <c r="A118" s="157"/>
       <c r="B118" s="100"/>
       <c r="C118" s="101"/>
       <c r="D118" s="101"/>
@@ -4340,7 +4415,7 @@
       <c r="F118" s="105"/>
     </row>
     <row r="119" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A119" s="153"/>
+      <c r="A119" s="157"/>
       <c r="B119" s="100"/>
       <c r="C119" s="101"/>
       <c r="D119" s="101"/>
@@ -4351,7 +4426,7 @@
       <c r="F119" s="105"/>
     </row>
     <row r="120" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A120" s="153"/>
+      <c r="A120" s="157"/>
       <c r="B120" s="100"/>
       <c r="C120" s="101"/>
       <c r="D120" s="101"/>
@@ -4362,7 +4437,7 @@
       <c r="F120" s="105"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A121" s="153"/>
+      <c r="A121" s="157"/>
       <c r="B121" s="98" t="s">
         <v>186</v>
       </c>
@@ -4400,7 +4475,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A124" s="154" t="s">
+      <c r="A124" s="158" t="s">
         <v>174</v>
       </c>
       <c r="B124" s="109" t="s">
@@ -4420,7 +4495,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A125" s="153"/>
+      <c r="A125" s="157"/>
       <c r="B125" s="98" t="s">
         <v>183</v>
       </c>
@@ -4433,7 +4508,7 @@
       <c r="F125" s="104"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickTop="1">
-      <c r="A126" s="153"/>
+      <c r="A126" s="157"/>
       <c r="B126" s="100"/>
       <c r="C126" s="101"/>
       <c r="D126" s="101"/>
@@ -4444,7 +4519,7 @@
       <c r="F126" s="105"/>
     </row>
     <row r="127" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A127" s="153"/>
+      <c r="A127" s="157"/>
       <c r="B127" s="100"/>
       <c r="C127" s="101"/>
       <c r="D127" s="101"/>
@@ -4455,7 +4530,7 @@
       <c r="F127" s="105"/>
     </row>
     <row r="128" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A128" s="153"/>
+      <c r="A128" s="157"/>
       <c r="B128" s="100"/>
       <c r="C128" s="101"/>
       <c r="D128" s="101"/>
@@ -4466,7 +4541,7 @@
       <c r="F128" s="105"/>
     </row>
     <row r="129" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A129" s="153"/>
+      <c r="A129" s="157"/>
       <c r="B129" s="100"/>
       <c r="C129" s="101"/>
       <c r="D129" s="101"/>
@@ -4477,7 +4552,7 @@
       <c r="F129" s="105"/>
     </row>
     <row r="130" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A130" s="153"/>
+      <c r="A130" s="157"/>
       <c r="B130" s="100"/>
       <c r="C130" s="101"/>
       <c r="D130" s="101"/>
@@ -4488,7 +4563,7 @@
       <c r="F130" s="105"/>
     </row>
     <row r="131" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A131" s="153"/>
+      <c r="A131" s="157"/>
       <c r="B131" s="100"/>
       <c r="C131" s="101"/>
       <c r="D131" s="101"/>
@@ -4499,7 +4574,7 @@
       <c r="F131" s="105"/>
     </row>
     <row r="132" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A132" s="153"/>
+      <c r="A132" s="157"/>
       <c r="B132" s="100"/>
       <c r="C132" s="101"/>
       <c r="D132" s="101"/>
@@ -4510,7 +4585,7 @@
       <c r="F132" s="105"/>
     </row>
     <row r="133" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A133" s="153"/>
+      <c r="A133" s="157"/>
       <c r="B133" s="100"/>
       <c r="C133" s="101"/>
       <c r="D133" s="101"/>
@@ -4521,7 +4596,7 @@
       <c r="F133" s="105"/>
     </row>
     <row r="134" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A134" s="153"/>
+      <c r="A134" s="157"/>
       <c r="B134" s="100"/>
       <c r="C134" s="101"/>
       <c r="D134" s="101"/>
@@ -4532,7 +4607,7 @@
       <c r="F134" s="105"/>
     </row>
     <row r="135" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A135" s="153"/>
+      <c r="A135" s="157"/>
       <c r="B135" s="100"/>
       <c r="C135" s="101"/>
       <c r="D135" s="101"/>
@@ -4543,7 +4618,7 @@
       <c r="F135" s="105"/>
     </row>
     <row r="136" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A136" s="153"/>
+      <c r="A136" s="157"/>
       <c r="B136" s="100"/>
       <c r="C136" s="101"/>
       <c r="D136" s="101"/>
@@ -4554,7 +4629,7 @@
       <c r="F136" s="105"/>
     </row>
     <row r="137" spans="1:7" ht="15" hidden="1" outlineLevel="1">
-      <c r="A137" s="153"/>
+      <c r="A137" s="157"/>
       <c r="B137" s="100"/>
       <c r="C137" s="101"/>
       <c r="D137" s="101"/>
@@ -4565,7 +4640,7 @@
       <c r="F137" s="105"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A138" s="153"/>
+      <c r="A138" s="157"/>
       <c r="B138" s="98" t="s">
         <v>186</v>
       </c>
@@ -4603,7 +4678,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A141" s="152" t="s">
+      <c r="A141" s="156" t="s">
         <v>175</v>
       </c>
       <c r="B141" s="113" t="s">
@@ -4623,7 +4698,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A142" s="153"/>
+      <c r="A142" s="157"/>
       <c r="B142" s="98" t="s">
         <v>183</v>
       </c>
@@ -4636,7 +4711,7 @@
       <c r="F142" s="104"/>
     </row>
     <row r="143" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickTop="1">
-      <c r="A143" s="153"/>
+      <c r="A143" s="157"/>
       <c r="B143" s="100"/>
       <c r="C143" s="101"/>
       <c r="D143" s="101"/>
@@ -4647,7 +4722,7 @@
       <c r="F143" s="105"/>
     </row>
     <row r="144" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A144" s="153"/>
+      <c r="A144" s="157"/>
       <c r="B144" s="100"/>
       <c r="C144" s="101"/>
       <c r="D144" s="101"/>
@@ -4658,7 +4733,7 @@
       <c r="F144" s="105"/>
     </row>
     <row r="145" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A145" s="153"/>
+      <c r="A145" s="157"/>
       <c r="B145" s="100"/>
       <c r="C145" s="101"/>
       <c r="D145" s="101"/>
@@ -4669,7 +4744,7 @@
       <c r="F145" s="105"/>
     </row>
     <row r="146" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A146" s="153"/>
+      <c r="A146" s="157"/>
       <c r="B146" s="100"/>
       <c r="C146" s="101"/>
       <c r="D146" s="101"/>
@@ -4680,7 +4755,7 @@
       <c r="F146" s="105"/>
     </row>
     <row r="147" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A147" s="153"/>
+      <c r="A147" s="157"/>
       <c r="B147" s="100"/>
       <c r="C147" s="101"/>
       <c r="D147" s="101"/>
@@ -4691,7 +4766,7 @@
       <c r="F147" s="105"/>
     </row>
     <row r="148" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A148" s="153"/>
+      <c r="A148" s="157"/>
       <c r="B148" s="100"/>
       <c r="C148" s="101"/>
       <c r="D148" s="101"/>
@@ -4702,7 +4777,7 @@
       <c r="F148" s="105"/>
     </row>
     <row r="149" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A149" s="153"/>
+      <c r="A149" s="157"/>
       <c r="B149" s="100"/>
       <c r="C149" s="101"/>
       <c r="D149" s="101"/>
@@ -4713,7 +4788,7 @@
       <c r="F149" s="105"/>
     </row>
     <row r="150" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A150" s="153"/>
+      <c r="A150" s="157"/>
       <c r="B150" s="100"/>
       <c r="C150" s="101"/>
       <c r="D150" s="101"/>
@@ -4724,7 +4799,7 @@
       <c r="F150" s="105"/>
     </row>
     <row r="151" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A151" s="153"/>
+      <c r="A151" s="157"/>
       <c r="B151" s="100"/>
       <c r="C151" s="101"/>
       <c r="D151" s="101"/>
@@ -4735,7 +4810,7 @@
       <c r="F151" s="105"/>
     </row>
     <row r="152" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A152" s="153"/>
+      <c r="A152" s="157"/>
       <c r="B152" s="100"/>
       <c r="C152" s="101"/>
       <c r="D152" s="101"/>
@@ -4746,7 +4821,7 @@
       <c r="F152" s="105"/>
     </row>
     <row r="153" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A153" s="153"/>
+      <c r="A153" s="157"/>
       <c r="B153" s="100"/>
       <c r="C153" s="101"/>
       <c r="D153" s="101"/>
@@ -4757,7 +4832,7 @@
       <c r="F153" s="105"/>
     </row>
     <row r="154" spans="1:7" ht="15" hidden="1" outlineLevel="2">
-      <c r="A154" s="153"/>
+      <c r="A154" s="157"/>
       <c r="B154" s="100"/>
       <c r="C154" s="101"/>
       <c r="D154" s="101"/>
@@ -4768,7 +4843,7 @@
       <c r="F154" s="105"/>
     </row>
     <row r="155" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
-      <c r="A155" s="153"/>
+      <c r="A155" s="157"/>
       <c r="B155" s="98" t="s">
         <v>186</v>
       </c>
@@ -4807,11 +4882,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A141:A155"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A73:A87"/>
-    <mergeCell ref="A124:A138"/>
-    <mergeCell ref="A90:A104"/>
     <mergeCell ref="A39:A53"/>
     <mergeCell ref="A56:A70"/>
     <mergeCell ref="C5:D5"/>
@@ -4820,6 +4890,11 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A19:A36"/>
+    <mergeCell ref="A141:A155"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A73:A87"/>
+    <mergeCell ref="A124:A138"/>
+    <mergeCell ref="A90:A104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4835,8 +4910,8 @@
   <dimension ref="A1:H2186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1419" sqref="D1419"/>
+      <pane ySplit="2" topLeftCell="A1641" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1924" sqref="D1924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -4851,13 +4926,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4887,18 +4962,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
     </row>
     <row r="4" spans="1:8" ht="18" outlineLevel="1" collapsed="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2">
@@ -5050,9 +5125,9 @@
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="168"/>
     </row>
     <row r="22" spans="1:5" outlineLevel="2">
       <c r="A22" s="47">
@@ -5166,12 +5241,12 @@
       <c r="A34" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="217" t="s">
-        <v>257</v>
+      <c r="B34" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C34" s="33"/>
-      <c r="D34" s="216" t="s">
-        <v>295</v>
+      <c r="D34" s="152" t="s">
+        <v>294</v>
       </c>
       <c r="E34" s="15"/>
     </row>
@@ -5207,9 +5282,9 @@
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="164"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A39" s="47">
@@ -5360,9 +5435,9 @@
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="166"/>
+      <c r="E55" s="166"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A56" s="47">
@@ -5513,9 +5588,9 @@
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="164"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="165"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="166"/>
+      <c r="E72" s="166"/>
     </row>
     <row r="73" spans="1:5" outlineLevel="2">
       <c r="A73" s="47">
@@ -5666,9 +5741,9 @@
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="164"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="165"/>
+      <c r="C89" s="165"/>
+      <c r="D89" s="166"/>
+      <c r="E89" s="166"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A90" s="47">
@@ -5819,9 +5894,9 @@
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="164"/>
-      <c r="D106" s="165"/>
-      <c r="E106" s="165"/>
+      <c r="C106" s="165"/>
+      <c r="D106" s="166"/>
+      <c r="E106" s="166"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A107" s="47">
@@ -5972,9 +6047,9 @@
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="164"/>
-      <c r="D123" s="165"/>
-      <c r="E123" s="165"/>
+      <c r="C123" s="165"/>
+      <c r="D123" s="166"/>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A124" s="47">
@@ -6125,9 +6200,9 @@
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="164"/>
-      <c r="D140" s="165"/>
-      <c r="E140" s="165"/>
+      <c r="C140" s="165"/>
+      <c r="D140" s="166"/>
+      <c r="E140" s="166"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A141" s="47">
@@ -6278,9 +6353,9 @@
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="164"/>
-      <c r="D157" s="165"/>
-      <c r="E157" s="165"/>
+      <c r="C157" s="165"/>
+      <c r="D157" s="166"/>
+      <c r="E157" s="166"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A158" s="47">
@@ -6431,9 +6506,9 @@
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="164"/>
-      <c r="D174" s="165"/>
-      <c r="E174" s="165"/>
+      <c r="C174" s="165"/>
+      <c r="D174" s="166"/>
+      <c r="E174" s="166"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A175" s="47">
@@ -6475,12 +6550,12 @@
       <c r="A179" s="47">
         <v>4</v>
       </c>
-      <c r="B179" s="217" t="s">
-        <v>257</v>
+      <c r="B179" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C179" s="33"/>
-      <c r="D179" s="216" t="s">
-        <v>295</v>
+      <c r="D179" s="152" t="s">
+        <v>294</v>
       </c>
       <c r="E179" s="15"/>
     </row>
@@ -6588,9 +6663,9 @@
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="164"/>
-      <c r="D191" s="165"/>
-      <c r="E191" s="165"/>
+      <c r="C191" s="165"/>
+      <c r="D191" s="166"/>
+      <c r="E191" s="166"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A192" s="47">
@@ -6741,9 +6816,9 @@
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="164"/>
-      <c r="D208" s="165"/>
-      <c r="E208" s="165"/>
+      <c r="C208" s="165"/>
+      <c r="D208" s="166"/>
+      <c r="E208" s="166"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A209" s="47">
@@ -6894,9 +6969,9 @@
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="164"/>
-      <c r="D225" s="165"/>
-      <c r="E225" s="165"/>
+      <c r="C225" s="165"/>
+      <c r="D225" s="166"/>
+      <c r="E225" s="166"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A226" s="47">
@@ -7047,9 +7122,9 @@
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="164"/>
-      <c r="D242" s="165"/>
-      <c r="E242" s="165"/>
+      <c r="C242" s="165"/>
+      <c r="D242" s="166"/>
+      <c r="E242" s="166"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A243" s="47">
@@ -7200,9 +7275,9 @@
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="164"/>
-      <c r="D259" s="165"/>
-      <c r="E259" s="165"/>
+      <c r="C259" s="165"/>
+      <c r="D259" s="166"/>
+      <c r="E259" s="166"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A260" s="47">
@@ -7353,18 +7428,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="168"/>
-      <c r="D276" s="169"/>
-      <c r="E276" s="169"/>
+      <c r="C276" s="181"/>
+      <c r="D276" s="182"/>
+      <c r="E276" s="182"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="164"/>
-      <c r="D277" s="165"/>
-      <c r="E277" s="165"/>
+      <c r="C277" s="165"/>
+      <c r="D277" s="166"/>
+      <c r="E277" s="166"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A278" s="52">
@@ -7515,9 +7590,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="166"/>
-      <c r="D294" s="167"/>
-      <c r="E294" s="167"/>
+      <c r="C294" s="167"/>
+      <c r="D294" s="168"/>
+      <c r="E294" s="168"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A295" s="52">
@@ -7668,9 +7743,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="164"/>
-      <c r="D311" s="165"/>
-      <c r="E311" s="165"/>
+      <c r="C311" s="165"/>
+      <c r="D311" s="166"/>
+      <c r="E311" s="166"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A312" s="52">
@@ -7821,9 +7896,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="164"/>
-      <c r="D328" s="165"/>
-      <c r="E328" s="165"/>
+      <c r="C328" s="165"/>
+      <c r="D328" s="166"/>
+      <c r="E328" s="166"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A329" s="52">
@@ -7974,9 +8049,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="164"/>
-      <c r="D345" s="165"/>
-      <c r="E345" s="165"/>
+      <c r="C345" s="165"/>
+      <c r="D345" s="166"/>
+      <c r="E345" s="166"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A346" s="52">
@@ -8127,9 +8202,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="164"/>
-      <c r="D362" s="165"/>
-      <c r="E362" s="165"/>
+      <c r="C362" s="165"/>
+      <c r="D362" s="166"/>
+      <c r="E362" s="166"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A363" s="52">
@@ -8280,9 +8355,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="164"/>
-      <c r="D379" s="165"/>
-      <c r="E379" s="165"/>
+      <c r="C379" s="165"/>
+      <c r="D379" s="166"/>
+      <c r="E379" s="166"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A380" s="52">
@@ -8433,9 +8508,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="164"/>
-      <c r="D396" s="165"/>
-      <c r="E396" s="165"/>
+      <c r="C396" s="165"/>
+      <c r="D396" s="166"/>
+      <c r="E396" s="166"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A397" s="52">
@@ -8586,9 +8661,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="164"/>
-      <c r="D413" s="165"/>
-      <c r="E413" s="165"/>
+      <c r="C413" s="165"/>
+      <c r="D413" s="166"/>
+      <c r="E413" s="166"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A414" s="52">
@@ -8739,9 +8814,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="164"/>
-      <c r="D430" s="165"/>
-      <c r="E430" s="165"/>
+      <c r="C430" s="165"/>
+      <c r="D430" s="166"/>
+      <c r="E430" s="166"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A431" s="52">
@@ -8892,9 +8967,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="164"/>
-      <c r="D447" s="165"/>
-      <c r="E447" s="165"/>
+      <c r="C447" s="165"/>
+      <c r="D447" s="166"/>
+      <c r="E447" s="166"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A448" s="52">
@@ -9045,9 +9120,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="164"/>
-      <c r="D464" s="165"/>
-      <c r="E464" s="165"/>
+      <c r="C464" s="165"/>
+      <c r="D464" s="166"/>
+      <c r="E464" s="166"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A465" s="52">
@@ -9198,9 +9273,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="164"/>
-      <c r="D481" s="165"/>
-      <c r="E481" s="165"/>
+      <c r="C481" s="165"/>
+      <c r="D481" s="166"/>
+      <c r="E481" s="166"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A482" s="52">
@@ -9351,9 +9426,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="164"/>
-      <c r="D498" s="165"/>
-      <c r="E498" s="165"/>
+      <c r="C498" s="165"/>
+      <c r="D498" s="166"/>
+      <c r="E498" s="166"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A499" s="52">
@@ -9504,9 +9579,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="164"/>
-      <c r="D515" s="165"/>
-      <c r="E515" s="165"/>
+      <c r="C515" s="165"/>
+      <c r="D515" s="166"/>
+      <c r="E515" s="166"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A516" s="52">
@@ -9657,9 +9732,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="164"/>
-      <c r="D532" s="165"/>
-      <c r="E532" s="165"/>
+      <c r="C532" s="165"/>
+      <c r="D532" s="166"/>
+      <c r="E532" s="166"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A533" s="55">
@@ -9810,18 +9885,18 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="170"/>
-      <c r="D549" s="171"/>
-      <c r="E549" s="171"/>
+      <c r="C549" s="179"/>
+      <c r="D549" s="180"/>
+      <c r="E549" s="180"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A550" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="164"/>
-      <c r="D550" s="165"/>
-      <c r="E550" s="165"/>
+      <c r="C550" s="165"/>
+      <c r="D550" s="166"/>
+      <c r="E550" s="166"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -9972,9 +10047,9 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="166"/>
-      <c r="D567" s="167"/>
-      <c r="E567" s="167"/>
+      <c r="C567" s="167"/>
+      <c r="D567" s="168"/>
+      <c r="E567" s="168"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A568" s="59">
@@ -10125,9 +10200,9 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="164"/>
-      <c r="D584" s="165"/>
-      <c r="E584" s="165"/>
+      <c r="C584" s="165"/>
+      <c r="D584" s="166"/>
+      <c r="E584" s="166"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -10278,9 +10353,9 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="164"/>
-      <c r="D601" s="165"/>
-      <c r="E601" s="165"/>
+      <c r="C601" s="165"/>
+      <c r="D601" s="166"/>
+      <c r="E601" s="166"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -10431,9 +10506,9 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="164"/>
-      <c r="D618" s="165"/>
-      <c r="E618" s="165"/>
+      <c r="C618" s="165"/>
+      <c r="D618" s="166"/>
+      <c r="E618" s="166"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -10584,9 +10659,9 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="164"/>
-      <c r="D635" s="165"/>
-      <c r="E635" s="165"/>
+      <c r="C635" s="165"/>
+      <c r="D635" s="166"/>
+      <c r="E635" s="166"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -10737,9 +10812,9 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="164"/>
-      <c r="D652" s="165"/>
-      <c r="E652" s="165"/>
+      <c r="C652" s="165"/>
+      <c r="D652" s="166"/>
+      <c r="E652" s="166"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -10890,9 +10965,9 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="164"/>
-      <c r="D669" s="165"/>
-      <c r="E669" s="165"/>
+      <c r="C669" s="165"/>
+      <c r="D669" s="166"/>
+      <c r="E669" s="166"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -11043,9 +11118,9 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="164"/>
-      <c r="D686" s="165"/>
-      <c r="E686" s="165"/>
+      <c r="C686" s="165"/>
+      <c r="D686" s="166"/>
+      <c r="E686" s="166"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -11196,9 +11271,9 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="164"/>
-      <c r="D703" s="165"/>
-      <c r="E703" s="165"/>
+      <c r="C703" s="165"/>
+      <c r="D703" s="166"/>
+      <c r="E703" s="166"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -11349,9 +11424,9 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="164"/>
-      <c r="D720" s="165"/>
-      <c r="E720" s="165"/>
+      <c r="C720" s="165"/>
+      <c r="D720" s="166"/>
+      <c r="E720" s="166"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -11502,9 +11577,9 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="164"/>
-      <c r="D737" s="165"/>
-      <c r="E737" s="165"/>
+      <c r="C737" s="165"/>
+      <c r="D737" s="166"/>
+      <c r="E737" s="166"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -11655,9 +11730,9 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="164"/>
-      <c r="D754" s="165"/>
-      <c r="E754" s="165"/>
+      <c r="C754" s="165"/>
+      <c r="D754" s="166"/>
+      <c r="E754" s="166"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -11808,9 +11883,9 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="164"/>
-      <c r="D771" s="165"/>
-      <c r="E771" s="165"/>
+      <c r="C771" s="165"/>
+      <c r="D771" s="166"/>
+      <c r="E771" s="166"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -11961,9 +12036,9 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="164"/>
-      <c r="D788" s="165"/>
-      <c r="E788" s="165"/>
+      <c r="C788" s="165"/>
+      <c r="D788" s="166"/>
+      <c r="E788" s="166"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -12114,9 +12189,9 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="164"/>
-      <c r="D805" s="165"/>
-      <c r="E805" s="165"/>
+      <c r="C805" s="165"/>
+      <c r="D805" s="166"/>
+      <c r="E805" s="166"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -12267,18 +12342,18 @@
         <v>67</v>
       </c>
       <c r="B822" s="39"/>
-      <c r="C822" s="172"/>
-      <c r="D822" s="173"/>
-      <c r="E822" s="173"/>
+      <c r="C822" s="177"/>
+      <c r="D822" s="178"/>
+      <c r="E822" s="178"/>
     </row>
     <row r="823" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A823" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="164"/>
-      <c r="D823" s="165"/>
-      <c r="E823" s="165"/>
+      <c r="C823" s="165"/>
+      <c r="D823" s="166"/>
+      <c r="E823" s="166"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A824" s="64">
@@ -12429,9 +12504,9 @@
         <v>69</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="166"/>
-      <c r="D840" s="167"/>
-      <c r="E840" s="167"/>
+      <c r="C840" s="167"/>
+      <c r="D840" s="168"/>
+      <c r="E840" s="168"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A841" s="64">
@@ -12582,9 +12657,9 @@
         <v>70</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="164"/>
-      <c r="D857" s="165"/>
-      <c r="E857" s="165"/>
+      <c r="C857" s="165"/>
+      <c r="D857" s="166"/>
+      <c r="E857" s="166"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A858" s="64">
@@ -12735,9 +12810,9 @@
         <v>71</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="164"/>
-      <c r="D874" s="165"/>
-      <c r="E874" s="165"/>
+      <c r="C874" s="165"/>
+      <c r="D874" s="166"/>
+      <c r="E874" s="166"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A875" s="64">
@@ -12888,9 +12963,9 @@
         <v>72</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="164"/>
-      <c r="D891" s="165"/>
-      <c r="E891" s="165"/>
+      <c r="C891" s="165"/>
+      <c r="D891" s="166"/>
+      <c r="E891" s="166"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A892" s="64">
@@ -13041,9 +13116,9 @@
         <v>73</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="164"/>
-      <c r="D908" s="165"/>
-      <c r="E908" s="165"/>
+      <c r="C908" s="165"/>
+      <c r="D908" s="166"/>
+      <c r="E908" s="166"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A909" s="64">
@@ -13194,9 +13269,9 @@
         <v>74</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="164"/>
-      <c r="D925" s="165"/>
-      <c r="E925" s="165"/>
+      <c r="C925" s="165"/>
+      <c r="D925" s="166"/>
+      <c r="E925" s="166"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A926" s="64">
@@ -13347,9 +13422,9 @@
         <v>75</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="164"/>
-      <c r="D942" s="165"/>
-      <c r="E942" s="165"/>
+      <c r="C942" s="165"/>
+      <c r="D942" s="166"/>
+      <c r="E942" s="166"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A943" s="64">
@@ -13500,9 +13575,9 @@
         <v>76</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="164"/>
-      <c r="D959" s="165"/>
-      <c r="E959" s="165"/>
+      <c r="C959" s="165"/>
+      <c r="D959" s="166"/>
+      <c r="E959" s="166"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A960" s="64">
@@ -13653,9 +13728,9 @@
         <v>77</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="164"/>
-      <c r="D976" s="165"/>
-      <c r="E976" s="165"/>
+      <c r="C976" s="165"/>
+      <c r="D976" s="166"/>
+      <c r="E976" s="166"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A977" s="64">
@@ -13806,9 +13881,9 @@
         <v>78</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="164"/>
-      <c r="D993" s="165"/>
-      <c r="E993" s="165"/>
+      <c r="C993" s="165"/>
+      <c r="D993" s="166"/>
+      <c r="E993" s="166"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A994" s="64">
@@ -13959,9 +14034,9 @@
         <v>79</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="164"/>
-      <c r="D1010" s="165"/>
-      <c r="E1010" s="165"/>
+      <c r="C1010" s="165"/>
+      <c r="D1010" s="166"/>
+      <c r="E1010" s="166"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1011" s="64">
@@ -14112,9 +14187,9 @@
         <v>80</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="164"/>
-      <c r="D1027" s="165"/>
-      <c r="E1027" s="165"/>
+      <c r="C1027" s="165"/>
+      <c r="D1027" s="166"/>
+      <c r="E1027" s="166"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1028" s="64">
@@ -14265,9 +14340,9 @@
         <v>83</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="164"/>
-      <c r="D1044" s="165"/>
-      <c r="E1044" s="165"/>
+      <c r="C1044" s="165"/>
+      <c r="D1044" s="166"/>
+      <c r="E1044" s="166"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1045" s="64">
@@ -14418,9 +14493,9 @@
         <v>82</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="164"/>
-      <c r="D1061" s="165"/>
-      <c r="E1061" s="165"/>
+      <c r="C1061" s="165"/>
+      <c r="D1061" s="166"/>
+      <c r="E1061" s="166"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1062" s="64">
@@ -14571,9 +14646,9 @@
         <v>84</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="164"/>
-      <c r="D1078" s="165"/>
-      <c r="E1078" s="165"/>
+      <c r="C1078" s="165"/>
+      <c r="D1078" s="166"/>
+      <c r="E1078" s="166"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1079" s="64">
@@ -14724,18 +14799,18 @@
         <v>104</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="174"/>
-      <c r="D1095" s="175"/>
-      <c r="E1095" s="175"/>
+      <c r="C1095" s="175"/>
+      <c r="D1095" s="176"/>
+      <c r="E1095" s="176"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1096" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="164"/>
-      <c r="D1096" s="165"/>
-      <c r="E1096" s="165"/>
+      <c r="C1096" s="165"/>
+      <c r="D1096" s="166"/>
+      <c r="E1096" s="166"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1097" s="69">
@@ -14886,9 +14961,9 @@
         <v>86</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="166"/>
-      <c r="D1113" s="167"/>
-      <c r="E1113" s="167"/>
+      <c r="C1113" s="167"/>
+      <c r="D1113" s="168"/>
+      <c r="E1113" s="168"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1114" s="69">
@@ -15039,9 +15114,9 @@
         <v>87</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="164"/>
-      <c r="D1130" s="165"/>
-      <c r="E1130" s="165"/>
+      <c r="C1130" s="165"/>
+      <c r="D1130" s="166"/>
+      <c r="E1130" s="166"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1131" s="69">
@@ -15192,9 +15267,9 @@
         <v>88</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="164"/>
-      <c r="D1147" s="165"/>
-      <c r="E1147" s="165"/>
+      <c r="C1147" s="165"/>
+      <c r="D1147" s="166"/>
+      <c r="E1147" s="166"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1148" s="69">
@@ -15345,9 +15420,9 @@
         <v>89</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="164"/>
-      <c r="D1164" s="165"/>
-      <c r="E1164" s="165"/>
+      <c r="C1164" s="165"/>
+      <c r="D1164" s="166"/>
+      <c r="E1164" s="166"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1165" s="69">
@@ -15498,9 +15573,9 @@
         <v>90</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="164"/>
-      <c r="D1181" s="165"/>
-      <c r="E1181" s="165"/>
+      <c r="C1181" s="165"/>
+      <c r="D1181" s="166"/>
+      <c r="E1181" s="166"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3">
       <c r="A1182" s="69">
@@ -15651,9 +15726,9 @@
         <v>91</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="164"/>
-      <c r="D1198" s="165"/>
-      <c r="E1198" s="165"/>
+      <c r="C1198" s="165"/>
+      <c r="D1198" s="166"/>
+      <c r="E1198" s="166"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1199" s="69">
@@ -15804,9 +15879,9 @@
         <v>92</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="164"/>
-      <c r="D1215" s="165"/>
-      <c r="E1215" s="165"/>
+      <c r="C1215" s="165"/>
+      <c r="D1215" s="166"/>
+      <c r="E1215" s="166"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1216" s="69">
@@ -15957,9 +16032,9 @@
         <v>93</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="164"/>
-      <c r="D1232" s="165"/>
-      <c r="E1232" s="165"/>
+      <c r="C1232" s="165"/>
+      <c r="D1232" s="166"/>
+      <c r="E1232" s="166"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1233" s="69">
@@ -16110,9 +16185,9 @@
         <v>94</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="164"/>
-      <c r="D1249" s="165"/>
-      <c r="E1249" s="165"/>
+      <c r="C1249" s="165"/>
+      <c r="D1249" s="166"/>
+      <c r="E1249" s="166"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1250" s="69">
@@ -16263,9 +16338,9 @@
         <v>99</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="164"/>
-      <c r="D1266" s="165"/>
-      <c r="E1266" s="165"/>
+      <c r="C1266" s="165"/>
+      <c r="D1266" s="166"/>
+      <c r="E1266" s="166"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1267" s="69">
@@ -16416,9 +16491,9 @@
         <v>100</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="164"/>
-      <c r="D1283" s="165"/>
-      <c r="E1283" s="165"/>
+      <c r="C1283" s="165"/>
+      <c r="D1283" s="166"/>
+      <c r="E1283" s="166"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1284" s="69">
@@ -16569,9 +16644,9 @@
         <v>101</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="164"/>
-      <c r="D1300" s="165"/>
-      <c r="E1300" s="165"/>
+      <c r="C1300" s="165"/>
+      <c r="D1300" s="166"/>
+      <c r="E1300" s="166"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1301" s="69">
@@ -16722,9 +16797,9 @@
         <v>81</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="164"/>
-      <c r="D1317" s="165"/>
-      <c r="E1317" s="165"/>
+      <c r="C1317" s="165"/>
+      <c r="D1317" s="166"/>
+      <c r="E1317" s="166"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1318" s="69">
@@ -16875,9 +16950,9 @@
         <v>102</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="164"/>
-      <c r="D1334" s="165"/>
-      <c r="E1334" s="165"/>
+      <c r="C1334" s="165"/>
+      <c r="D1334" s="166"/>
+      <c r="E1334" s="166"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1335" s="69">
@@ -17028,9 +17103,9 @@
         <v>98</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="164"/>
-      <c r="D1351" s="165"/>
-      <c r="E1351" s="165"/>
+      <c r="C1351" s="165"/>
+      <c r="D1351" s="166"/>
+      <c r="E1351" s="166"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1352" s="69">
@@ -17181,899 +17256,899 @@
         <v>103</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="176"/>
-      <c r="D1368" s="177"/>
-      <c r="E1368" s="177"/>
-    </row>
-    <row r="1369" spans="1:5" ht="18" outlineLevel="1">
+      <c r="C1368" s="173"/>
+      <c r="D1368" s="174"/>
+      <c r="E1368" s="174"/>
+    </row>
+    <row r="1369" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1369" s="73" t="s">
         <v>105</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="164" t="s">
-        <v>306</v>
-      </c>
-      <c r="D1369" s="165"/>
-      <c r="E1369" s="165"/>
-    </row>
-    <row r="1370" spans="1:5" outlineLevel="2">
+      <c r="C1369" s="165" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1369" s="166"/>
+      <c r="E1369" s="166"/>
+    </row>
+    <row r="1370" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1370" s="74">
         <v>0</v>
       </c>
-      <c r="B1370" s="217" t="s">
+      <c r="B1370" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1370" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1370" s="218" t="s">
+      <c r="D1370" s="152" t="s">
         <v>297</v>
       </c>
-      <c r="D1370" s="216" t="s">
-        <v>298</v>
-      </c>
       <c r="E1370" s="15"/>
     </row>
-    <row r="1371" spans="1:5" outlineLevel="2">
+    <row r="1371" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1371" s="74">
         <v>1</v>
       </c>
-      <c r="B1371" s="217" t="s">
+      <c r="B1371" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1371" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1371" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1371" s="216" t="s">
+      <c r="D1371" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1371" s="15"/>
     </row>
-    <row r="1372" spans="1:5" outlineLevel="2">
+    <row r="1372" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1372" s="74">
         <v>2</v>
       </c>
-      <c r="B1372" s="217" t="s">
+      <c r="B1372" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1372" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1372" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1372" s="216" t="s">
-        <v>299</v>
+      <c r="D1372" s="152" t="s">
+        <v>298</v>
       </c>
       <c r="E1372" s="15"/>
     </row>
-    <row r="1373" spans="1:5" outlineLevel="2">
+    <row r="1373" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1373" s="74">
         <v>3</v>
       </c>
-      <c r="B1373" s="217" t="s">
+      <c r="B1373" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1373" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1373" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1373" s="216" t="s">
+      <c r="D1373" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1373" s="15"/>
     </row>
-    <row r="1374" spans="1:5" outlineLevel="2">
+    <row r="1374" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1374" s="74">
         <v>4</v>
       </c>
-      <c r="B1374" s="217" t="s">
+      <c r="B1374" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1374" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1374" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1374" s="216" t="s">
-        <v>300</v>
+      <c r="D1374" s="152" t="s">
+        <v>299</v>
       </c>
       <c r="E1374" s="15"/>
     </row>
-    <row r="1375" spans="1:5" outlineLevel="2">
+    <row r="1375" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1375" s="74">
         <v>5</v>
       </c>
-      <c r="B1375" s="217" t="s">
+      <c r="B1375" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1375" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1375" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1375" s="216" t="s">
+      <c r="D1375" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1375" s="15"/>
     </row>
-    <row r="1376" spans="1:5" outlineLevel="2">
+    <row r="1376" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1376" s="74">
         <v>6</v>
       </c>
-      <c r="B1376" s="217" t="s">
+      <c r="B1376" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1376" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1376" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1376" s="216" t="s">
-        <v>301</v>
+      <c r="D1376" s="152" t="s">
+        <v>300</v>
       </c>
       <c r="E1376" s="15"/>
     </row>
-    <row r="1377" spans="1:5" outlineLevel="2">
+    <row r="1377" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1377" s="74">
         <v>7</v>
       </c>
-      <c r="B1377" s="217" t="s">
+      <c r="B1377" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1377" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1377" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1377" s="216" t="s">
+      <c r="D1377" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1377" s="15"/>
     </row>
-    <row r="1378" spans="1:5" outlineLevel="2">
+    <row r="1378" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1378" s="74">
         <v>8</v>
       </c>
-      <c r="B1378" s="217" t="s">
+      <c r="B1378" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1378" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1378" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1378" s="216" t="s">
-        <v>302</v>
+      <c r="D1378" s="152" t="s">
+        <v>301</v>
       </c>
       <c r="E1378" s="15"/>
     </row>
-    <row r="1379" spans="1:5" outlineLevel="2">
+    <row r="1379" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1379" s="74">
         <v>9</v>
       </c>
-      <c r="B1379" s="217" t="s">
+      <c r="B1379" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1379" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1379" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1379" s="216" t="s">
+      <c r="D1379" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1379" s="15"/>
     </row>
-    <row r="1380" spans="1:5" outlineLevel="2">
+    <row r="1380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1380" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1380" s="217" t="s">
+      <c r="B1380" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1380" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1380" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1380" s="216" t="s">
-        <v>303</v>
+      <c r="D1380" s="152" t="s">
+        <v>302</v>
       </c>
       <c r="E1380" s="15"/>
     </row>
-    <row r="1381" spans="1:5" outlineLevel="2">
+    <row r="1381" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1381" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B1381" s="217" t="s">
+      <c r="B1381" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1381" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1381" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1381" s="216" t="s">
+      <c r="D1381" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1381" s="15"/>
     </row>
-    <row r="1382" spans="1:5" outlineLevel="2">
+    <row r="1382" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1382" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1382" s="217" t="s">
+      <c r="B1382" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1382" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1382" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1382" s="216" t="s">
-        <v>304</v>
+      <c r="D1382" s="152" t="s">
+        <v>303</v>
       </c>
       <c r="E1382" s="15"/>
     </row>
-    <row r="1383" spans="1:5" outlineLevel="2">
+    <row r="1383" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1383" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1383" s="217" t="s">
+      <c r="B1383" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1383" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1383" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1383" s="216" t="s">
+      <c r="D1383" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1383" s="15"/>
     </row>
-    <row r="1384" spans="1:5" outlineLevel="2">
+    <row r="1384" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1384" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1384" s="217" t="s">
+      <c r="B1384" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1384" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1384" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1384" s="216" t="s">
-        <v>305</v>
+      <c r="D1384" s="152" t="s">
+        <v>304</v>
       </c>
       <c r="E1384" s="15"/>
     </row>
-    <row r="1385" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="1385" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A1385" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B1385" s="217" t="s">
+      <c r="B1385" s="153" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1385" s="154" t="s">
         <v>296</v>
       </c>
-      <c r="C1385" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1385" s="219" t="s">
+      <c r="D1385" s="155" t="s">
         <v>237</v>
       </c>
       <c r="E1385" s="16"/>
     </row>
-    <row r="1386" spans="1:5" ht="18" outlineLevel="1">
+    <row r="1386" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1386" s="76" t="s">
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="166" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1386" s="167"/>
-      <c r="E1386" s="167"/>
-    </row>
-    <row r="1387" spans="1:5" outlineLevel="2">
+      <c r="C1386" s="167" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1386" s="168"/>
+      <c r="E1386" s="168"/>
+    </row>
+    <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1387" s="74">
         <v>0</v>
       </c>
-      <c r="B1387" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1387" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1387" s="216" t="s">
-        <v>307</v>
+      <c r="B1387" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1387" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1387" s="152" t="s">
+        <v>306</v>
       </c>
       <c r="E1387" s="15"/>
     </row>
-    <row r="1388" spans="1:5" outlineLevel="2">
+    <row r="1388" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1388" s="74">
         <v>1</v>
       </c>
-      <c r="B1388" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1388" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1388" s="216" t="s">
-        <v>308</v>
+      <c r="B1388" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1388" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1388" s="152" t="s">
+        <v>307</v>
       </c>
       <c r="E1388" s="15"/>
     </row>
-    <row r="1389" spans="1:5" outlineLevel="2">
+    <row r="1389" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1389" s="74">
         <v>2</v>
       </c>
-      <c r="B1389" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1389" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1389" s="216" t="s">
-        <v>309</v>
+      <c r="B1389" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1389" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1389" s="152" t="s">
+        <v>308</v>
       </c>
       <c r="E1389" s="15"/>
     </row>
-    <row r="1390" spans="1:5" outlineLevel="2">
+    <row r="1390" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1390" s="74">
         <v>3</v>
       </c>
-      <c r="B1390" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1390" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1390" s="216" t="s">
-        <v>310</v>
+      <c r="B1390" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1390" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1390" s="152" t="s">
+        <v>309</v>
       </c>
       <c r="E1390" s="15"/>
     </row>
-    <row r="1391" spans="1:5" outlineLevel="2">
+    <row r="1391" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1391" s="74">
         <v>4</v>
       </c>
-      <c r="B1391" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1391" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1391" s="216" t="s">
-        <v>311</v>
+      <c r="B1391" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1391" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1391" s="152" t="s">
+        <v>310</v>
       </c>
       <c r="E1391" s="15"/>
     </row>
-    <row r="1392" spans="1:5" outlineLevel="2">
+    <row r="1392" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1392" s="74">
         <v>5</v>
       </c>
-      <c r="B1392" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1392" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1392" s="216" t="s">
-        <v>312</v>
+      <c r="B1392" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1392" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1392" s="152" t="s">
+        <v>311</v>
       </c>
       <c r="E1392" s="15"/>
     </row>
-    <row r="1393" spans="1:5" outlineLevel="2">
+    <row r="1393" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1393" s="74">
         <v>6</v>
       </c>
-      <c r="B1393" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1393" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1393" s="216" t="s">
-        <v>313</v>
+      <c r="B1393" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1393" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1393" s="152" t="s">
+        <v>312</v>
       </c>
       <c r="E1393" s="15"/>
     </row>
-    <row r="1394" spans="1:5" outlineLevel="2">
+    <row r="1394" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1394" s="74">
         <v>7</v>
       </c>
-      <c r="B1394" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1394" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1394" s="216" t="s">
-        <v>314</v>
+      <c r="B1394" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1394" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1394" s="152" t="s">
+        <v>313</v>
       </c>
       <c r="E1394" s="15"/>
     </row>
-    <row r="1395" spans="1:5" outlineLevel="2">
+    <row r="1395" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1395" s="74">
         <v>8</v>
       </c>
-      <c r="B1395" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1395" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1395" s="216" t="s">
-        <v>315</v>
+      <c r="B1395" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1395" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1395" s="152" t="s">
+        <v>314</v>
       </c>
       <c r="E1395" s="15"/>
     </row>
-    <row r="1396" spans="1:5" outlineLevel="2">
+    <row r="1396" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1396" s="74">
         <v>9</v>
       </c>
-      <c r="B1396" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1396" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1396" s="216" t="s">
-        <v>317</v>
+      <c r="B1396" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1396" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1396" s="152" t="s">
+        <v>316</v>
       </c>
       <c r="E1396" s="15"/>
     </row>
-    <row r="1397" spans="1:5" outlineLevel="2">
+    <row r="1397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1397" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1397" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1397" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1397" s="216" t="s">
-        <v>318</v>
+      <c r="B1397" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1397" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1397" s="152" t="s">
+        <v>317</v>
       </c>
       <c r="E1397" s="15"/>
     </row>
-    <row r="1398" spans="1:5" outlineLevel="2">
+    <row r="1398" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1398" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B1398" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1398" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1398" s="216" t="s">
-        <v>319</v>
+      <c r="B1398" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1398" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1398" s="152" t="s">
+        <v>318</v>
       </c>
       <c r="E1398" s="15"/>
     </row>
-    <row r="1399" spans="1:5" outlineLevel="2">
+    <row r="1399" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1399" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1399" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1399" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1399" s="216" t="s">
-        <v>320</v>
+      <c r="B1399" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1399" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1399" s="152" t="s">
+        <v>319</v>
       </c>
       <c r="E1399" s="15"/>
     </row>
-    <row r="1400" spans="1:5" outlineLevel="2">
+    <row r="1400" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1400" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1400" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1400" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1400" s="216" t="s">
-        <v>321</v>
+      <c r="B1400" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1400" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1400" s="152" t="s">
+        <v>320</v>
       </c>
       <c r="E1400" s="15"/>
     </row>
-    <row r="1401" spans="1:5" outlineLevel="2">
+    <row r="1401" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1401" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1401" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1401" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1401" s="216" t="s">
-        <v>322</v>
+      <c r="B1401" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1401" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1401" s="152" t="s">
+        <v>321</v>
       </c>
       <c r="E1401" s="15"/>
     </row>
-    <row r="1402" spans="1:5" outlineLevel="2">
+    <row r="1402" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1402" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B1402" s="217" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1402" s="218" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1402" s="216" t="s">
-        <v>323</v>
+      <c r="B1402" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1402" s="154" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1402" s="152" t="s">
+        <v>322</v>
       </c>
       <c r="E1402" s="15"/>
     </row>
-    <row r="1403" spans="1:5" ht="18" outlineLevel="1">
+    <row r="1403" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1403" s="73" t="s">
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="164" t="s">
-        <v>326</v>
-      </c>
-      <c r="D1403" s="165"/>
-      <c r="E1403" s="165"/>
-    </row>
-    <row r="1404" spans="1:5" outlineLevel="2">
+      <c r="C1403" s="165" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1403" s="166"/>
+      <c r="E1403" s="166"/>
+    </row>
+    <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1404" s="74">
         <v>0</v>
       </c>
-      <c r="B1404" s="217" t="s">
-        <v>296</v>
+      <c r="B1404" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1404" s="33"/>
-      <c r="D1404" s="216" t="s">
-        <v>327</v>
+      <c r="D1404" s="152" t="s">
+        <v>326</v>
       </c>
       <c r="E1404" s="15"/>
     </row>
-    <row r="1405" spans="1:5" outlineLevel="2">
+    <row r="1405" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1405" s="74">
         <v>1</v>
       </c>
       <c r="B1405" s="88"/>
       <c r="C1405" s="33"/>
-      <c r="D1405" s="216" t="s">
+      <c r="D1405" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1405" s="15"/>
     </row>
-    <row r="1406" spans="1:5" outlineLevel="2">
+    <row r="1406" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1406" s="74">
         <v>2</v>
       </c>
-      <c r="B1406" s="217" t="s">
-        <v>296</v>
+      <c r="B1406" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1406" s="33"/>
-      <c r="D1406" s="216" t="s">
-        <v>328</v>
+      <c r="D1406" s="152" t="s">
+        <v>327</v>
       </c>
       <c r="E1406" s="15"/>
     </row>
-    <row r="1407" spans="1:5" outlineLevel="2">
+    <row r="1407" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1407" s="74">
         <v>3</v>
       </c>
       <c r="B1407" s="88"/>
       <c r="C1407" s="33"/>
-      <c r="D1407" s="216" t="s">
+      <c r="D1407" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1407" s="15"/>
     </row>
-    <row r="1408" spans="1:5" outlineLevel="2">
+    <row r="1408" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1408" s="74">
         <v>4</v>
       </c>
-      <c r="B1408" s="217" t="s">
-        <v>296</v>
+      <c r="B1408" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1408" s="33"/>
-      <c r="D1408" s="216" t="s">
-        <v>328</v>
+      <c r="D1408" s="152" t="s">
+        <v>327</v>
       </c>
       <c r="E1408" s="15"/>
     </row>
-    <row r="1409" spans="1:5" outlineLevel="2">
+    <row r="1409" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1409" s="74">
         <v>5</v>
       </c>
       <c r="B1409" s="88"/>
       <c r="C1409" s="33"/>
-      <c r="D1409" s="216" t="s">
+      <c r="D1409" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1409" s="15"/>
     </row>
-    <row r="1410" spans="1:5" outlineLevel="2">
+    <row r="1410" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1410" s="74">
         <v>6</v>
       </c>
-      <c r="B1410" s="217" t="s">
-        <v>296</v>
+      <c r="B1410" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1410" s="33"/>
-      <c r="D1410" s="216" t="s">
-        <v>328</v>
+      <c r="D1410" s="152" t="s">
+        <v>327</v>
       </c>
       <c r="E1410" s="15"/>
     </row>
-    <row r="1411" spans="1:5" outlineLevel="2">
+    <row r="1411" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1411" s="74">
         <v>7</v>
       </c>
       <c r="B1411" s="88"/>
       <c r="C1411" s="33"/>
-      <c r="D1411" s="216" t="s">
+      <c r="D1411" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1411" s="15"/>
     </row>
-    <row r="1412" spans="1:5" outlineLevel="2">
+    <row r="1412" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1412" s="74">
         <v>8</v>
       </c>
-      <c r="B1412" s="217" t="s">
-        <v>296</v>
+      <c r="B1412" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1412" s="33"/>
-      <c r="D1412" s="216" t="s">
-        <v>328</v>
+      <c r="D1412" s="152" t="s">
+        <v>327</v>
       </c>
       <c r="E1412" s="15"/>
     </row>
-    <row r="1413" spans="1:5" outlineLevel="2">
+    <row r="1413" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1413" s="74">
         <v>9</v>
       </c>
       <c r="B1413" s="88"/>
       <c r="C1413" s="33"/>
-      <c r="D1413" s="216" t="s">
+      <c r="D1413" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1413" s="15"/>
     </row>
-    <row r="1414" spans="1:5" outlineLevel="2">
+    <row r="1414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1414" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1414" s="217" t="s">
-        <v>296</v>
+      <c r="B1414" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1414" s="33"/>
-      <c r="D1414" s="216" t="s">
-        <v>328</v>
+      <c r="D1414" s="152" t="s">
+        <v>327</v>
       </c>
       <c r="E1414" s="15"/>
     </row>
-    <row r="1415" spans="1:5" outlineLevel="2">
+    <row r="1415" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1415" s="74" t="s">
         <v>3</v>
       </c>
       <c r="B1415" s="88"/>
       <c r="C1415" s="33"/>
-      <c r="D1415" s="216" t="s">
+      <c r="D1415" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1415" s="15"/>
     </row>
-    <row r="1416" spans="1:5" outlineLevel="2">
+    <row r="1416" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1416" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1416" s="217" t="s">
-        <v>296</v>
+      <c r="B1416" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1416" s="33"/>
-      <c r="D1416" s="216" t="s">
-        <v>328</v>
+      <c r="D1416" s="152" t="s">
+        <v>327</v>
       </c>
       <c r="E1416" s="15"/>
     </row>
-    <row r="1417" spans="1:5" outlineLevel="2">
+    <row r="1417" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1417" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B1417" s="88"/>
       <c r="C1417" s="33"/>
-      <c r="D1417" s="216" t="s">
+      <c r="D1417" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1417" s="15"/>
     </row>
-    <row r="1418" spans="1:5" outlineLevel="2">
+    <row r="1418" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1418" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1418" s="217" t="s">
-        <v>296</v>
+      <c r="B1418" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1418" s="33"/>
-      <c r="D1418" s="216" t="s">
-        <v>328</v>
+      <c r="D1418" s="152" t="s">
+        <v>327</v>
       </c>
       <c r="E1418" s="15"/>
     </row>
-    <row r="1419" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="1419" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A1419" s="75" t="s">
         <v>7</v>
       </c>
       <c r="B1419" s="89"/>
       <c r="C1419" s="34"/>
-      <c r="D1419" s="216" t="s">
+      <c r="D1419" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1419" s="16"/>
     </row>
-    <row r="1420" spans="1:5" ht="18" outlineLevel="1">
+    <row r="1420" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1420" s="73" t="s">
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="164" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1420" s="165"/>
-      <c r="E1420" s="165"/>
-    </row>
-    <row r="1421" spans="1:5" outlineLevel="2">
+      <c r="C1420" s="165" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1420" s="166"/>
+      <c r="E1420" s="166"/>
+    </row>
+    <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1421" s="74">
         <v>0</v>
       </c>
-      <c r="B1421" s="217" t="s">
-        <v>296</v>
+      <c r="B1421" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1421" s="33"/>
-      <c r="D1421" s="216" t="s">
-        <v>325</v>
+      <c r="D1421" s="152" t="s">
+        <v>324</v>
       </c>
       <c r="E1421" s="15"/>
     </row>
-    <row r="1422" spans="1:5" outlineLevel="2">
+    <row r="1422" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1422" s="74">
         <v>1</v>
       </c>
-      <c r="B1422" s="217" t="s">
-        <v>296</v>
+      <c r="B1422" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1422" s="33"/>
       <c r="D1422" s="15"/>
       <c r="E1422" s="15"/>
     </row>
-    <row r="1423" spans="1:5" outlineLevel="2">
+    <row r="1423" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1423" s="74">
         <v>2</v>
       </c>
-      <c r="B1423" s="217" t="s">
-        <v>296</v>
+      <c r="B1423" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1423" s="33"/>
       <c r="D1423" s="15"/>
       <c r="E1423" s="15"/>
     </row>
-    <row r="1424" spans="1:5" outlineLevel="2">
+    <row r="1424" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1424" s="74">
         <v>3</v>
       </c>
-      <c r="B1424" s="217" t="s">
-        <v>296</v>
+      <c r="B1424" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1424" s="33"/>
       <c r="D1424" s="15"/>
       <c r="E1424" s="15"/>
     </row>
-    <row r="1425" spans="1:5" outlineLevel="2">
+    <row r="1425" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1425" s="74">
         <v>4</v>
       </c>
-      <c r="B1425" s="217" t="s">
-        <v>296</v>
+      <c r="B1425" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1425" s="33"/>
       <c r="D1425" s="15"/>
       <c r="E1425" s="15"/>
     </row>
-    <row r="1426" spans="1:5" outlineLevel="2">
+    <row r="1426" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1426" s="74">
         <v>5</v>
       </c>
-      <c r="B1426" s="217" t="s">
-        <v>296</v>
+      <c r="B1426" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1426" s="33"/>
       <c r="D1426" s="15"/>
       <c r="E1426" s="15"/>
     </row>
-    <row r="1427" spans="1:5" outlineLevel="2">
+    <row r="1427" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1427" s="74">
         <v>6</v>
       </c>
-      <c r="B1427" s="217" t="s">
-        <v>296</v>
+      <c r="B1427" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1427" s="33"/>
       <c r="D1427" s="15"/>
       <c r="E1427" s="15"/>
     </row>
-    <row r="1428" spans="1:5" outlineLevel="2">
+    <row r="1428" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1428" s="74">
         <v>7</v>
       </c>
-      <c r="B1428" s="217" t="s">
-        <v>296</v>
+      <c r="B1428" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1428" s="33"/>
       <c r="D1428" s="15"/>
       <c r="E1428" s="15"/>
     </row>
-    <row r="1429" spans="1:5" outlineLevel="2">
+    <row r="1429" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1429" s="74">
         <v>8</v>
       </c>
-      <c r="B1429" s="217" t="s">
-        <v>296</v>
+      <c r="B1429" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1429" s="33"/>
       <c r="D1429" s="15"/>
       <c r="E1429" s="15"/>
     </row>
-    <row r="1430" spans="1:5" outlineLevel="2">
+    <row r="1430" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1430" s="74">
         <v>9</v>
       </c>
-      <c r="B1430" s="217" t="s">
-        <v>296</v>
+      <c r="B1430" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1430" s="33"/>
       <c r="D1430" s="15"/>
       <c r="E1430" s="15"/>
     </row>
-    <row r="1431" spans="1:5" outlineLevel="2">
+    <row r="1431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1431" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B1431" s="217" t="s">
-        <v>296</v>
+      <c r="B1431" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1431" s="33"/>
       <c r="D1431" s="15"/>
       <c r="E1431" s="15"/>
     </row>
-    <row r="1432" spans="1:5" outlineLevel="2">
+    <row r="1432" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1432" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B1432" s="217" t="s">
-        <v>296</v>
+      <c r="B1432" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1432" s="33"/>
       <c r="D1432" s="15"/>
       <c r="E1432" s="15"/>
     </row>
-    <row r="1433" spans="1:5" outlineLevel="2">
+    <row r="1433" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1433" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1433" s="217" t="s">
-        <v>296</v>
+      <c r="B1433" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1433" s="33"/>
       <c r="D1433" s="15"/>
       <c r="E1433" s="15"/>
     </row>
-    <row r="1434" spans="1:5" outlineLevel="2">
+    <row r="1434" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1434" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1434" s="217" t="s">
-        <v>296</v>
+      <c r="B1434" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1434" s="33"/>
       <c r="D1434" s="15"/>
       <c r="E1434" s="15"/>
     </row>
-    <row r="1435" spans="1:5" outlineLevel="2">
+    <row r="1435" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1435" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1435" s="217" t="s">
-        <v>296</v>
+      <c r="B1435" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1435" s="33"/>
       <c r="D1435" s="15"/>
       <c r="E1435" s="15"/>
     </row>
-    <row r="1436" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="1436" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A1436" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B1436" s="217" t="s">
-        <v>296</v>
+      <c r="B1436" s="153" t="s">
+        <v>295</v>
       </c>
       <c r="C1436" s="34"/>
       <c r="D1436" s="16"/>
@@ -18084,9 +18159,9 @@
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="164"/>
-      <c r="D1437" s="165"/>
-      <c r="E1437" s="165"/>
+      <c r="C1437" s="165"/>
+      <c r="D1437" s="166"/>
+      <c r="E1437" s="166"/>
     </row>
     <row r="1438" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1438" s="74">
@@ -18237,9 +18312,9 @@
         <v>110</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="164"/>
-      <c r="D1454" s="165"/>
-      <c r="E1454" s="165"/>
+      <c r="C1454" s="165"/>
+      <c r="D1454" s="166"/>
+      <c r="E1454" s="166"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1455" s="74">
@@ -18390,9 +18465,9 @@
         <v>111</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="164"/>
-      <c r="D1471" s="165"/>
-      <c r="E1471" s="165"/>
+      <c r="C1471" s="165"/>
+      <c r="D1471" s="166"/>
+      <c r="E1471" s="166"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1472" s="74">
@@ -18543,9 +18618,9 @@
         <v>112</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="164"/>
-      <c r="D1488" s="165"/>
-      <c r="E1488" s="165"/>
+      <c r="C1488" s="165"/>
+      <c r="D1488" s="166"/>
+      <c r="E1488" s="166"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1489" s="74">
@@ -18696,9 +18771,9 @@
         <v>113</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="164"/>
-      <c r="D1505" s="165"/>
-      <c r="E1505" s="165"/>
+      <c r="C1505" s="165"/>
+      <c r="D1505" s="166"/>
+      <c r="E1505" s="166"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1506" s="74">
@@ -18849,9 +18924,9 @@
         <v>114</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="164"/>
-      <c r="D1522" s="165"/>
-      <c r="E1522" s="165"/>
+      <c r="C1522" s="165"/>
+      <c r="D1522" s="166"/>
+      <c r="E1522" s="166"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1523" s="74">
@@ -19002,9 +19077,9 @@
         <v>95</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="164"/>
-      <c r="D1539" s="165"/>
-      <c r="E1539" s="165"/>
+      <c r="C1539" s="165"/>
+      <c r="D1539" s="166"/>
+      <c r="E1539" s="166"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1540" s="74">
@@ -19155,9 +19230,9 @@
         <v>115</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="164"/>
-      <c r="D1556" s="165"/>
-      <c r="E1556" s="165"/>
+      <c r="C1556" s="165"/>
+      <c r="D1556" s="166"/>
+      <c r="E1556" s="166"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1557" s="74">
@@ -19308,9 +19383,9 @@
         <v>116</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="164"/>
-      <c r="D1573" s="165"/>
-      <c r="E1573" s="165"/>
+      <c r="C1573" s="165"/>
+      <c r="D1573" s="166"/>
+      <c r="E1573" s="166"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1574" s="74">
@@ -19461,9 +19536,9 @@
         <v>117</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="164"/>
-      <c r="D1590" s="165"/>
-      <c r="E1590" s="165"/>
+      <c r="C1590" s="165"/>
+      <c r="D1590" s="166"/>
+      <c r="E1590" s="166"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1591" s="74">
@@ -19614,9 +19689,9 @@
         <v>118</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="164"/>
-      <c r="D1607" s="165"/>
-      <c r="E1607" s="165"/>
+      <c r="C1607" s="165"/>
+      <c r="D1607" s="166"/>
+      <c r="E1607" s="166"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1608" s="74">
@@ -19767,9 +19842,9 @@
         <v>119</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="164"/>
-      <c r="D1624" s="165"/>
-      <c r="E1624" s="165"/>
+      <c r="C1624" s="165"/>
+      <c r="D1624" s="166"/>
+      <c r="E1624" s="166"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1625" s="74">
@@ -19920,18 +19995,18 @@
         <v>120</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="178"/>
-      <c r="D1641" s="179"/>
-      <c r="E1641" s="179"/>
+      <c r="C1641" s="171"/>
+      <c r="D1641" s="172"/>
+      <c r="E1641" s="172"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1642" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="164"/>
-      <c r="D1642" s="165"/>
-      <c r="E1642" s="165"/>
+      <c r="C1642" s="165"/>
+      <c r="D1642" s="166"/>
+      <c r="E1642" s="166"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1643" s="79">
@@ -20082,9 +20157,9 @@
         <v>122</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="166"/>
-      <c r="D1659" s="167"/>
-      <c r="E1659" s="167"/>
+      <c r="C1659" s="167"/>
+      <c r="D1659" s="168"/>
+      <c r="E1659" s="168"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1660" s="79">
@@ -20235,9 +20310,9 @@
         <v>123</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="164"/>
-      <c r="D1676" s="165"/>
-      <c r="E1676" s="165"/>
+      <c r="C1676" s="165"/>
+      <c r="D1676" s="166"/>
+      <c r="E1676" s="166"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1677" s="79">
@@ -20388,9 +20463,9 @@
         <v>124</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="164"/>
-      <c r="D1693" s="165"/>
-      <c r="E1693" s="165"/>
+      <c r="C1693" s="165"/>
+      <c r="D1693" s="166"/>
+      <c r="E1693" s="166"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1694" s="79">
@@ -20541,9 +20616,9 @@
         <v>125</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="164"/>
-      <c r="D1710" s="165"/>
-      <c r="E1710" s="165"/>
+      <c r="C1710" s="165"/>
+      <c r="D1710" s="166"/>
+      <c r="E1710" s="166"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1711" s="79">
@@ -20694,9 +20769,9 @@
         <v>126</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="164"/>
-      <c r="D1727" s="165"/>
-      <c r="E1727" s="165"/>
+      <c r="C1727" s="165"/>
+      <c r="D1727" s="166"/>
+      <c r="E1727" s="166"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1728" s="79">
@@ -20847,9 +20922,9 @@
         <v>127</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="164"/>
-      <c r="D1744" s="165"/>
-      <c r="E1744" s="165"/>
+      <c r="C1744" s="165"/>
+      <c r="D1744" s="166"/>
+      <c r="E1744" s="166"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1745" s="79">
@@ -21000,9 +21075,9 @@
         <v>128</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="164"/>
-      <c r="D1761" s="165"/>
-      <c r="E1761" s="165"/>
+      <c r="C1761" s="165"/>
+      <c r="D1761" s="166"/>
+      <c r="E1761" s="166"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1762" s="79">
@@ -21153,9 +21228,9 @@
         <v>129</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="164"/>
-      <c r="D1778" s="165"/>
-      <c r="E1778" s="165"/>
+      <c r="C1778" s="165"/>
+      <c r="D1778" s="166"/>
+      <c r="E1778" s="166"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1779" s="79">
@@ -21306,9 +21381,9 @@
         <v>130</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="164"/>
-      <c r="D1795" s="165"/>
-      <c r="E1795" s="165"/>
+      <c r="C1795" s="165"/>
+      <c r="D1795" s="166"/>
+      <c r="E1795" s="166"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1796" s="79">
@@ -21459,9 +21534,9 @@
         <v>131</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="164"/>
-      <c r="D1812" s="165"/>
-      <c r="E1812" s="165"/>
+      <c r="C1812" s="165"/>
+      <c r="D1812" s="166"/>
+      <c r="E1812" s="166"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1813" s="79">
@@ -21612,9 +21687,9 @@
         <v>96</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="164"/>
-      <c r="D1829" s="165"/>
-      <c r="E1829" s="165"/>
+      <c r="C1829" s="165"/>
+      <c r="D1829" s="166"/>
+      <c r="E1829" s="166"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1830" s="79">
@@ -21765,9 +21840,9 @@
         <v>132</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="164"/>
-      <c r="D1846" s="165"/>
-      <c r="E1846" s="165"/>
+      <c r="C1846" s="165"/>
+      <c r="D1846" s="166"/>
+      <c r="E1846" s="166"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1847" s="79">
@@ -21918,9 +21993,9 @@
         <v>133</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="164"/>
-      <c r="D1863" s="165"/>
-      <c r="E1863" s="165"/>
+      <c r="C1863" s="165"/>
+      <c r="D1863" s="166"/>
+      <c r="E1863" s="166"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1864" s="79">
@@ -22071,9 +22146,9 @@
         <v>134</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="164"/>
-      <c r="D1880" s="165"/>
-      <c r="E1880" s="165"/>
+      <c r="C1880" s="165"/>
+      <c r="D1880" s="166"/>
+      <c r="E1880" s="166"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1881" s="79">
@@ -22224,9 +22299,9 @@
         <v>135</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="164"/>
-      <c r="D1897" s="165"/>
-      <c r="E1897" s="165"/>
+      <c r="C1897" s="165"/>
+      <c r="D1897" s="166"/>
+      <c r="E1897" s="166"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1898" s="79">
@@ -22377,20 +22452,20 @@
         <v>136</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="180"/>
-      <c r="D1914" s="181"/>
-      <c r="E1914" s="181"/>
-    </row>
-    <row r="1915" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
+      <c r="C1914" s="169"/>
+      <c r="D1914" s="170"/>
+      <c r="E1914" s="170"/>
+    </row>
+    <row r="1915" spans="1:5" ht="18" outlineLevel="1">
       <c r="A1915" s="83" t="s">
         <v>137</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="164"/>
-      <c r="D1915" s="165"/>
-      <c r="E1915" s="165"/>
-    </row>
-    <row r="1916" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C1915" s="165"/>
+      <c r="D1915" s="166"/>
+      <c r="E1915" s="166"/>
+    </row>
+    <row r="1916" spans="1:5" outlineLevel="2">
       <c r="A1916" s="84">
         <v>0</v>
       </c>
@@ -22399,7 +22474,7 @@
       <c r="D1916" s="15"/>
       <c r="E1916" s="15"/>
     </row>
-    <row r="1917" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1917" spans="1:5" outlineLevel="2">
       <c r="A1917" s="84">
         <v>1</v>
       </c>
@@ -22408,7 +22483,7 @@
       <c r="D1917" s="15"/>
       <c r="E1917" s="15"/>
     </row>
-    <row r="1918" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1918" spans="1:5" outlineLevel="2">
       <c r="A1918" s="84">
         <v>2</v>
       </c>
@@ -22417,7 +22492,7 @@
       <c r="D1918" s="15"/>
       <c r="E1918" s="15"/>
     </row>
-    <row r="1919" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1919" spans="1:5" outlineLevel="2">
       <c r="A1919" s="84">
         <v>3</v>
       </c>
@@ -22426,112 +22501,140 @@
       <c r="D1919" s="15"/>
       <c r="E1919" s="15"/>
     </row>
-    <row r="1920" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1920" spans="1:5" outlineLevel="2">
       <c r="A1920" s="84">
         <v>4</v>
       </c>
       <c r="B1920" s="88"/>
       <c r="C1920" s="33"/>
-      <c r="D1920" s="15"/>
+      <c r="D1920" s="152" t="s">
+        <v>350</v>
+      </c>
       <c r="E1920" s="15"/>
     </row>
-    <row r="1921" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1921" spans="1:5" outlineLevel="2">
       <c r="A1921" s="84">
         <v>5</v>
       </c>
       <c r="B1921" s="88"/>
       <c r="C1921" s="33"/>
-      <c r="D1921" s="15"/>
+      <c r="D1921" s="152" t="s">
+        <v>351</v>
+      </c>
       <c r="E1921" s="15"/>
     </row>
-    <row r="1922" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1922" spans="1:5" outlineLevel="2">
       <c r="A1922" s="84">
         <v>6</v>
       </c>
       <c r="B1922" s="88"/>
       <c r="C1922" s="33"/>
-      <c r="D1922" s="15"/>
+      <c r="D1922" s="152" t="s">
+        <v>352</v>
+      </c>
       <c r="E1922" s="15"/>
     </row>
-    <row r="1923" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1923" spans="1:5" outlineLevel="2">
       <c r="A1923" s="84">
         <v>7</v>
       </c>
       <c r="B1923" s="88"/>
       <c r="C1923" s="33"/>
-      <c r="D1923" s="15"/>
+      <c r="D1923" s="152" t="s">
+        <v>353</v>
+      </c>
       <c r="E1923" s="15"/>
     </row>
-    <row r="1924" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1924" spans="1:5" outlineLevel="2">
       <c r="A1924" s="84">
         <v>8</v>
       </c>
-      <c r="B1924" s="88"/>
-      <c r="C1924" s="33"/>
-      <c r="D1924" s="15"/>
+      <c r="B1924" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1924" s="154" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1924" s="152" t="s">
+        <v>328</v>
+      </c>
       <c r="E1924" s="15"/>
     </row>
-    <row r="1925" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1925" spans="1:5" outlineLevel="2">
       <c r="A1925" s="84">
         <v>9</v>
       </c>
       <c r="B1925" s="88"/>
       <c r="C1925" s="33"/>
-      <c r="D1925" s="15"/>
+      <c r="D1925" s="152" t="s">
+        <v>332</v>
+      </c>
       <c r="E1925" s="15"/>
     </row>
-    <row r="1926" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1926" spans="1:5" outlineLevel="2">
       <c r="A1926" s="84" t="s">
         <v>2</v>
       </c>
       <c r="B1926" s="88"/>
       <c r="C1926" s="33"/>
-      <c r="D1926" s="15"/>
+      <c r="D1926" s="152" t="s">
+        <v>330</v>
+      </c>
       <c r="E1926" s="15"/>
     </row>
-    <row r="1927" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1927" spans="1:5" outlineLevel="2">
       <c r="A1927" s="84" t="s">
         <v>3</v>
       </c>
       <c r="B1927" s="88"/>
       <c r="C1927" s="33"/>
-      <c r="D1927" s="15"/>
+      <c r="D1927" s="152" t="s">
+        <v>331</v>
+      </c>
       <c r="E1927" s="15"/>
     </row>
-    <row r="1928" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1928" spans="1:5" outlineLevel="2">
       <c r="A1928" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B1928" s="88"/>
       <c r="C1928" s="33"/>
-      <c r="D1928" s="15"/>
+      <c r="D1928" s="152" t="s">
+        <v>333</v>
+      </c>
       <c r="E1928" s="15"/>
     </row>
-    <row r="1929" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1929" spans="1:5" outlineLevel="2">
       <c r="A1929" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B1929" s="88"/>
       <c r="C1929" s="33"/>
-      <c r="D1929" s="15"/>
+      <c r="D1929" s="152" t="s">
+        <v>334</v>
+      </c>
       <c r="E1929" s="15"/>
     </row>
-    <row r="1930" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1930" spans="1:5" outlineLevel="2">
       <c r="A1930" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B1930" s="88"/>
       <c r="C1930" s="33"/>
-      <c r="D1930" s="15"/>
+      <c r="D1930" s="152" t="s">
+        <v>335</v>
+      </c>
       <c r="E1930" s="15"/>
     </row>
-    <row r="1931" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="1931" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A1931" s="85" t="s">
         <v>7</v>
       </c>
       <c r="B1931" s="89"/>
       <c r="C1931" s="34"/>
-      <c r="D1931" s="16"/>
+      <c r="D1931" s="155" t="s">
+        <v>336</v>
+      </c>
       <c r="E1931" s="16"/>
     </row>
     <row r="1932" spans="1:5" ht="18" outlineLevel="1">
@@ -22539,11 +22642,11 @@
         <v>138</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="166" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1932" s="167"/>
-      <c r="E1932" s="167"/>
+      <c r="C1932" s="167" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1932" s="168"/>
+      <c r="E1932" s="168"/>
     </row>
     <row r="1933" spans="1:5" outlineLevel="2">
       <c r="A1933" s="84">
@@ -22551,7 +22654,9 @@
       </c>
       <c r="B1933" s="88"/>
       <c r="C1933" s="33"/>
-      <c r="D1933" s="15"/>
+      <c r="D1933" s="152" t="s">
+        <v>337</v>
+      </c>
       <c r="E1933" s="15"/>
     </row>
     <row r="1934" spans="1:5" outlineLevel="2">
@@ -22560,7 +22665,9 @@
       </c>
       <c r="B1934" s="88"/>
       <c r="C1934" s="33"/>
-      <c r="D1934" s="15"/>
+      <c r="D1934" s="152" t="s">
+        <v>338</v>
+      </c>
       <c r="E1934" s="15"/>
     </row>
     <row r="1935" spans="1:5" outlineLevel="2">
@@ -22569,7 +22676,9 @@
       </c>
       <c r="B1935" s="88"/>
       <c r="C1935" s="33"/>
-      <c r="D1935" s="15"/>
+      <c r="D1935" s="152" t="s">
+        <v>339</v>
+      </c>
       <c r="E1935" s="15"/>
     </row>
     <row r="1936" spans="1:5" outlineLevel="2">
@@ -22578,7 +22687,9 @@
       </c>
       <c r="B1936" s="88"/>
       <c r="C1936" s="33"/>
-      <c r="D1936" s="15"/>
+      <c r="D1936" s="152" t="s">
+        <v>340</v>
+      </c>
       <c r="E1936" s="15"/>
     </row>
     <row r="1937" spans="1:5" outlineLevel="2">
@@ -22587,7 +22698,9 @@
       </c>
       <c r="B1937" s="88"/>
       <c r="C1937" s="33"/>
-      <c r="D1937" s="15"/>
+      <c r="D1937" s="152" t="s">
+        <v>341</v>
+      </c>
       <c r="E1937" s="15"/>
     </row>
     <row r="1938" spans="1:5" outlineLevel="2">
@@ -22596,7 +22709,9 @@
       </c>
       <c r="B1938" s="88"/>
       <c r="C1938" s="33"/>
-      <c r="D1938" s="15"/>
+      <c r="D1938" s="152" t="s">
+        <v>342</v>
+      </c>
       <c r="E1938" s="15"/>
     </row>
     <row r="1939" spans="1:5" outlineLevel="2">
@@ -22605,7 +22720,9 @@
       </c>
       <c r="B1939" s="88"/>
       <c r="C1939" s="33"/>
-      <c r="D1939" s="15"/>
+      <c r="D1939" s="152" t="s">
+        <v>343</v>
+      </c>
       <c r="E1939" s="15"/>
     </row>
     <row r="1940" spans="1:5" outlineLevel="2">
@@ -22614,7 +22731,9 @@
       </c>
       <c r="B1940" s="88"/>
       <c r="C1940" s="33"/>
-      <c r="D1940" s="15"/>
+      <c r="D1940" s="152" t="s">
+        <v>344</v>
+      </c>
       <c r="E1940" s="15"/>
     </row>
     <row r="1941" spans="1:5" outlineLevel="2">
@@ -22623,7 +22742,9 @@
       </c>
       <c r="B1941" s="88"/>
       <c r="C1941" s="33"/>
-      <c r="D1941" s="15"/>
+      <c r="D1941" s="152" t="s">
+        <v>346</v>
+      </c>
       <c r="E1941" s="15"/>
     </row>
     <row r="1942" spans="1:5" outlineLevel="2">
@@ -22632,7 +22753,9 @@
       </c>
       <c r="B1942" s="88"/>
       <c r="C1942" s="33"/>
-      <c r="D1942" s="15"/>
+      <c r="D1942" s="152" t="s">
+        <v>345</v>
+      </c>
       <c r="E1942" s="15"/>
     </row>
     <row r="1943" spans="1:5" outlineLevel="2">
@@ -22641,7 +22764,9 @@
       </c>
       <c r="B1943" s="88"/>
       <c r="C1943" s="33"/>
-      <c r="D1943" s="15"/>
+      <c r="D1943" s="152" t="s">
+        <v>347</v>
+      </c>
       <c r="E1943" s="15"/>
     </row>
     <row r="1944" spans="1:5" outlineLevel="2">
@@ -22650,18 +22775,20 @@
       </c>
       <c r="B1944" s="88"/>
       <c r="C1944" s="33"/>
-      <c r="D1944" s="15"/>
+      <c r="D1944" s="152" t="s">
+        <v>348</v>
+      </c>
       <c r="E1944" s="15"/>
     </row>
     <row r="1945" spans="1:5" outlineLevel="2">
       <c r="A1945" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1945" s="217" t="s">
+      <c r="B1945" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1945" s="33"/>
-      <c r="D1945" s="216" t="s">
+      <c r="D1945" s="152" t="s">
         <v>235</v>
       </c>
       <c r="E1945" s="15"/>
@@ -22672,7 +22799,7 @@
       </c>
       <c r="B1946" s="88"/>
       <c r="C1946" s="33"/>
-      <c r="D1946" s="216" t="s">
+      <c r="D1946" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1946" s="15"/>
@@ -22681,11 +22808,11 @@
       <c r="A1947" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1947" s="217" t="s">
+      <c r="B1947" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1947" s="33"/>
-      <c r="D1947" s="216" t="s">
+      <c r="D1947" s="152" t="s">
         <v>238</v>
       </c>
       <c r="E1947" s="15"/>
@@ -22696,7 +22823,7 @@
       </c>
       <c r="B1948" s="88"/>
       <c r="C1948" s="33"/>
-      <c r="D1948" s="216" t="s">
+      <c r="D1948" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1948" s="15"/>
@@ -22706,21 +22833,21 @@
         <v>139</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="164" t="s">
+      <c r="C1949" s="165" t="s">
         <v>245</v>
       </c>
-      <c r="D1949" s="165"/>
-      <c r="E1949" s="165"/>
+      <c r="D1949" s="166"/>
+      <c r="E1949" s="166"/>
     </row>
     <row r="1950" spans="1:5" outlineLevel="2">
       <c r="A1950" s="84">
         <v>0</v>
       </c>
-      <c r="B1950" s="217" t="s">
+      <c r="B1950" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1950" s="33"/>
-      <c r="D1950" s="216" t="s">
+      <c r="D1950" s="152" t="s">
         <v>239</v>
       </c>
       <c r="E1950" s="15"/>
@@ -22731,7 +22858,7 @@
       </c>
       <c r="B1951" s="88"/>
       <c r="C1951" s="33"/>
-      <c r="D1951" s="216" t="s">
+      <c r="D1951" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1951" s="15"/>
@@ -22740,11 +22867,11 @@
       <c r="A1952" s="84">
         <v>2</v>
       </c>
-      <c r="B1952" s="217" t="s">
+      <c r="B1952" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1952" s="33"/>
-      <c r="D1952" s="216" t="s">
+      <c r="D1952" s="152" t="s">
         <v>240</v>
       </c>
       <c r="E1952" s="15"/>
@@ -22755,7 +22882,7 @@
       </c>
       <c r="B1953" s="88"/>
       <c r="C1953" s="33"/>
-      <c r="D1953" s="216" t="s">
+      <c r="D1953" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1953" s="15"/>
@@ -22764,11 +22891,11 @@
       <c r="A1954" s="84">
         <v>4</v>
       </c>
-      <c r="B1954" s="217" t="s">
+      <c r="B1954" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1954" s="33"/>
-      <c r="D1954" s="216" t="s">
+      <c r="D1954" s="152" t="s">
         <v>241</v>
       </c>
       <c r="E1954" s="15"/>
@@ -22779,7 +22906,7 @@
       </c>
       <c r="B1955" s="88"/>
       <c r="C1955" s="33"/>
-      <c r="D1955" s="216" t="s">
+      <c r="D1955" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1955" s="15"/>
@@ -22788,11 +22915,11 @@
       <c r="A1956" s="84">
         <v>6</v>
       </c>
-      <c r="B1956" s="217" t="s">
+      <c r="B1956" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1956" s="33"/>
-      <c r="D1956" s="216" t="s">
+      <c r="D1956" s="152" t="s">
         <v>242</v>
       </c>
       <c r="E1956" s="15"/>
@@ -22803,7 +22930,7 @@
       </c>
       <c r="B1957" s="88"/>
       <c r="C1957" s="33"/>
-      <c r="D1957" s="216" t="s">
+      <c r="D1957" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1957" s="15"/>
@@ -22812,11 +22939,11 @@
       <c r="A1958" s="84">
         <v>8</v>
       </c>
-      <c r="B1958" s="217" t="s">
+      <c r="B1958" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1958" s="33"/>
-      <c r="D1958" s="216" t="s">
+      <c r="D1958" s="152" t="s">
         <v>243</v>
       </c>
       <c r="E1958" s="15"/>
@@ -22827,7 +22954,7 @@
       </c>
       <c r="B1959" s="88"/>
       <c r="C1959" s="33"/>
-      <c r="D1959" s="216" t="s">
+      <c r="D1959" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1959" s="15"/>
@@ -22836,11 +22963,11 @@
       <c r="A1960" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B1960" s="217" t="s">
+      <c r="B1960" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1960" s="33"/>
-      <c r="D1960" s="216" t="s">
+      <c r="D1960" s="152" t="s">
         <v>244</v>
       </c>
       <c r="E1960" s="15"/>
@@ -22849,9 +22976,9 @@
       <c r="A1961" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1961" s="217"/>
+      <c r="B1961" s="153"/>
       <c r="C1961" s="33"/>
-      <c r="D1961" s="216" t="s">
+      <c r="D1961" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1961" s="15"/>
@@ -22860,11 +22987,11 @@
       <c r="A1962" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1962" s="217" t="s">
+      <c r="B1962" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1962" s="33"/>
-      <c r="D1962" s="216" t="s">
+      <c r="D1962" s="152" t="s">
         <v>246</v>
       </c>
       <c r="E1962" s="15"/>
@@ -22875,7 +23002,7 @@
       </c>
       <c r="B1963" s="88"/>
       <c r="C1963" s="33"/>
-      <c r="D1963" s="216" t="s">
+      <c r="D1963" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1963" s="15"/>
@@ -22884,11 +23011,11 @@
       <c r="A1964" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1964" s="217" t="s">
+      <c r="B1964" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1964" s="33"/>
-      <c r="D1964" s="216" t="s">
+      <c r="D1964" s="152" t="s">
         <v>247</v>
       </c>
       <c r="E1964" s="15"/>
@@ -22899,7 +23026,7 @@
       </c>
       <c r="B1965" s="88"/>
       <c r="C1965" s="33"/>
-      <c r="D1965" s="216" t="s">
+      <c r="D1965" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1965" s="16"/>
@@ -22909,21 +23036,21 @@
         <v>140</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="164" t="s">
+      <c r="C1966" s="165" t="s">
         <v>254</v>
       </c>
-      <c r="D1966" s="165"/>
-      <c r="E1966" s="165"/>
+      <c r="D1966" s="166"/>
+      <c r="E1966" s="166"/>
     </row>
     <row r="1967" spans="1:5" outlineLevel="2">
       <c r="A1967" s="84">
         <v>0</v>
       </c>
-      <c r="B1967" s="217" t="s">
+      <c r="B1967" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1967" s="33"/>
-      <c r="D1967" s="216" t="s">
+      <c r="D1967" s="152" t="s">
         <v>248</v>
       </c>
       <c r="E1967" s="15"/>
@@ -22934,7 +23061,7 @@
       </c>
       <c r="B1968" s="88"/>
       <c r="C1968" s="33"/>
-      <c r="D1968" s="216" t="s">
+      <c r="D1968" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1968" s="15"/>
@@ -22943,11 +23070,11 @@
       <c r="A1969" s="84">
         <v>2</v>
       </c>
-      <c r="B1969" s="217" t="s">
+      <c r="B1969" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1969" s="33"/>
-      <c r="D1969" s="216" t="s">
+      <c r="D1969" s="152" t="s">
         <v>249</v>
       </c>
       <c r="E1969" s="15"/>
@@ -22958,7 +23085,7 @@
       </c>
       <c r="B1970" s="88"/>
       <c r="C1970" s="33"/>
-      <c r="D1970" s="216" t="s">
+      <c r="D1970" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1970" s="15"/>
@@ -22967,11 +23094,11 @@
       <c r="A1971" s="84">
         <v>4</v>
       </c>
-      <c r="B1971" s="217" t="s">
+      <c r="B1971" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1971" s="33"/>
-      <c r="D1971" s="216" t="s">
+      <c r="D1971" s="152" t="s">
         <v>250</v>
       </c>
       <c r="E1971" s="15"/>
@@ -22982,7 +23109,7 @@
       </c>
       <c r="B1972" s="88"/>
       <c r="C1972" s="33"/>
-      <c r="D1972" s="216" t="s">
+      <c r="D1972" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1972" s="15"/>
@@ -22991,11 +23118,11 @@
       <c r="A1973" s="84">
         <v>6</v>
       </c>
-      <c r="B1973" s="217" t="s">
+      <c r="B1973" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1973" s="33"/>
-      <c r="D1973" s="216" t="s">
+      <c r="D1973" s="152" t="s">
         <v>251</v>
       </c>
       <c r="E1973" s="15"/>
@@ -23006,7 +23133,7 @@
       </c>
       <c r="B1974" s="88"/>
       <c r="C1974" s="33"/>
-      <c r="D1974" s="216" t="s">
+      <c r="D1974" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1974" s="15"/>
@@ -23015,11 +23142,11 @@
       <c r="A1975" s="84">
         <v>8</v>
       </c>
-      <c r="B1975" s="217" t="s">
+      <c r="B1975" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1975" s="33"/>
-      <c r="D1975" s="216" t="s">
+      <c r="D1975" s="152" t="s">
         <v>252</v>
       </c>
       <c r="E1975" s="15"/>
@@ -23030,7 +23157,7 @@
       </c>
       <c r="B1976" s="88"/>
       <c r="C1976" s="33"/>
-      <c r="D1976" s="216" t="s">
+      <c r="D1976" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1976" s="15"/>
@@ -23039,11 +23166,11 @@
       <c r="A1977" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B1977" s="217" t="s">
+      <c r="B1977" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C1977" s="33"/>
-      <c r="D1977" s="216" t="s">
+      <c r="D1977" s="152" t="s">
         <v>253</v>
       </c>
       <c r="E1977" s="15"/>
@@ -23052,9 +23179,9 @@
       <c r="A1978" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1978" s="217"/>
+      <c r="B1978" s="153"/>
       <c r="C1978" s="33"/>
-      <c r="D1978" s="216" t="s">
+      <c r="D1978" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E1978" s="15"/>
@@ -23100,9 +23227,9 @@
         <v>141</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="164"/>
-      <c r="D1983" s="165"/>
-      <c r="E1983" s="165"/>
+      <c r="C1983" s="165"/>
+      <c r="D1983" s="166"/>
+      <c r="E1983" s="166"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1984" s="84">
@@ -23253,9 +23380,9 @@
         <v>142</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="164"/>
-      <c r="D2000" s="165"/>
-      <c r="E2000" s="165"/>
+      <c r="C2000" s="165"/>
+      <c r="D2000" s="166"/>
+      <c r="E2000" s="166"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2001" s="84">
@@ -23406,9 +23533,9 @@
         <v>143</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="164"/>
-      <c r="D2017" s="165"/>
-      <c r="E2017" s="165"/>
+      <c r="C2017" s="165"/>
+      <c r="D2017" s="166"/>
+      <c r="E2017" s="166"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2018" s="84">
@@ -23559,11 +23686,11 @@
         <v>144</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="164" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2034" s="165"/>
-      <c r="E2034" s="165"/>
+      <c r="C2034" s="165" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2034" s="166"/>
+      <c r="E2034" s="166"/>
     </row>
     <row r="2035" spans="1:5" outlineLevel="2">
       <c r="A2035" s="84">
@@ -23677,27 +23804,27 @@
       <c r="A2047" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2047" s="217" t="s">
+      <c r="B2047" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2047" s="33"/>
+      <c r="D2047" s="152" t="s">
         <v>257</v>
       </c>
-      <c r="C2047" s="33"/>
-      <c r="D2047" s="216" t="s">
+      <c r="E2047" s="152" t="s">
         <v>258</v>
-      </c>
-      <c r="E2047" s="216" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2048" spans="1:5" outlineLevel="2">
       <c r="A2048" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B2048" s="217" t="s">
-        <v>257</v>
+      <c r="B2048" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2048" s="33"/>
-      <c r="D2048" s="216" t="s">
-        <v>260</v>
+      <c r="D2048" s="152" t="s">
+        <v>259</v>
       </c>
       <c r="E2048" s="15"/>
     </row>
@@ -23705,12 +23832,12 @@
       <c r="A2049" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B2049" s="217" t="s">
-        <v>257</v>
+      <c r="B2049" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2049" s="33"/>
-      <c r="D2049" s="216" t="s">
-        <v>261</v>
+      <c r="D2049" s="152" t="s">
+        <v>260</v>
       </c>
       <c r="E2049" s="15"/>
     </row>
@@ -23718,12 +23845,12 @@
       <c r="A2050" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B2050" s="217" t="s">
-        <v>257</v>
+      <c r="B2050" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2050" s="34"/>
-      <c r="D2050" s="216" t="s">
-        <v>262</v>
+      <c r="D2050" s="152" t="s">
+        <v>261</v>
       </c>
       <c r="E2050" s="16"/>
     </row>
@@ -23732,22 +23859,22 @@
         <v>145</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="164" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2051" s="165"/>
-      <c r="E2051" s="165"/>
+      <c r="C2051" s="165" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2051" s="166"/>
+      <c r="E2051" s="166"/>
     </row>
     <row r="2052" spans="1:5" outlineLevel="2">
       <c r="A2052" s="84">
         <v>0</v>
       </c>
-      <c r="B2052" s="217" t="s">
-        <v>257</v>
+      <c r="B2052" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2052" s="33"/>
-      <c r="D2052" s="216" t="s">
-        <v>264</v>
+      <c r="D2052" s="152" t="s">
+        <v>263</v>
       </c>
       <c r="E2052" s="15"/>
     </row>
@@ -23755,12 +23882,12 @@
       <c r="A2053" s="84">
         <v>1</v>
       </c>
-      <c r="B2053" s="217" t="s">
-        <v>257</v>
+      <c r="B2053" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2053" s="33"/>
-      <c r="D2053" s="216" t="s">
-        <v>265</v>
+      <c r="D2053" s="152" t="s">
+        <v>264</v>
       </c>
       <c r="E2053" s="15"/>
     </row>
@@ -23768,12 +23895,12 @@
       <c r="A2054" s="84">
         <v>2</v>
       </c>
-      <c r="B2054" s="217" t="s">
-        <v>257</v>
+      <c r="B2054" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2054" s="33"/>
-      <c r="D2054" s="216" t="s">
-        <v>266</v>
+      <c r="D2054" s="152" t="s">
+        <v>265</v>
       </c>
       <c r="E2054" s="15"/>
     </row>
@@ -23781,12 +23908,12 @@
       <c r="A2055" s="84">
         <v>3</v>
       </c>
-      <c r="B2055" s="217" t="s">
-        <v>257</v>
+      <c r="B2055" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2055" s="33"/>
-      <c r="D2055" s="216" t="s">
-        <v>267</v>
+      <c r="D2055" s="152" t="s">
+        <v>266</v>
       </c>
       <c r="E2055" s="15"/>
     </row>
@@ -23794,12 +23921,12 @@
       <c r="A2056" s="84">
         <v>4</v>
       </c>
-      <c r="B2056" s="217" t="s">
-        <v>257</v>
+      <c r="B2056" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2056" s="33"/>
-      <c r="D2056" s="216" t="s">
-        <v>268</v>
+      <c r="D2056" s="152" t="s">
+        <v>267</v>
       </c>
       <c r="E2056" s="15"/>
     </row>
@@ -23807,12 +23934,12 @@
       <c r="A2057" s="84">
         <v>5</v>
       </c>
-      <c r="B2057" s="217" t="s">
-        <v>257</v>
+      <c r="B2057" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2057" s="33"/>
-      <c r="D2057" s="216" t="s">
-        <v>269</v>
+      <c r="D2057" s="152" t="s">
+        <v>268</v>
       </c>
       <c r="E2057" s="15"/>
     </row>
@@ -23820,12 +23947,12 @@
       <c r="A2058" s="84">
         <v>6</v>
       </c>
-      <c r="B2058" s="217" t="s">
-        <v>257</v>
+      <c r="B2058" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2058" s="33"/>
-      <c r="D2058" s="216" t="s">
-        <v>270</v>
+      <c r="D2058" s="152" t="s">
+        <v>269</v>
       </c>
       <c r="E2058" s="15"/>
     </row>
@@ -23833,12 +23960,12 @@
       <c r="A2059" s="84">
         <v>7</v>
       </c>
-      <c r="B2059" s="217" t="s">
-        <v>257</v>
+      <c r="B2059" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2059" s="33"/>
-      <c r="D2059" s="216" t="s">
-        <v>271</v>
+      <c r="D2059" s="152" t="s">
+        <v>270</v>
       </c>
       <c r="E2059" s="15"/>
     </row>
@@ -23846,12 +23973,12 @@
       <c r="A2060" s="84">
         <v>8</v>
       </c>
-      <c r="B2060" s="217" t="s">
-        <v>257</v>
+      <c r="B2060" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2060" s="33"/>
-      <c r="D2060" s="216" t="s">
-        <v>272</v>
+      <c r="D2060" s="152" t="s">
+        <v>271</v>
       </c>
       <c r="E2060" s="15"/>
     </row>
@@ -23859,12 +23986,12 @@
       <c r="A2061" s="84">
         <v>9</v>
       </c>
-      <c r="B2061" s="217" t="s">
-        <v>257</v>
+      <c r="B2061" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2061" s="33"/>
-      <c r="D2061" s="216" t="s">
-        <v>273</v>
+      <c r="D2061" s="152" t="s">
+        <v>272</v>
       </c>
       <c r="E2061" s="15"/>
     </row>
@@ -23872,12 +23999,12 @@
       <c r="A2062" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2062" s="217" t="s">
-        <v>257</v>
+      <c r="B2062" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2062" s="33"/>
-      <c r="D2062" s="216" t="s">
-        <v>274</v>
+      <c r="D2062" s="152" t="s">
+        <v>273</v>
       </c>
       <c r="E2062" s="15"/>
     </row>
@@ -23885,12 +24012,12 @@
       <c r="A2063" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B2063" s="217" t="s">
-        <v>257</v>
+      <c r="B2063" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2063" s="33"/>
-      <c r="D2063" s="216" t="s">
-        <v>275</v>
+      <c r="D2063" s="152" t="s">
+        <v>274</v>
       </c>
       <c r="E2063" s="15"/>
     </row>
@@ -23898,12 +24025,12 @@
       <c r="A2064" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2064" s="217" t="s">
-        <v>257</v>
+      <c r="B2064" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2064" s="33"/>
-      <c r="D2064" s="216" t="s">
-        <v>276</v>
+      <c r="D2064" s="152" t="s">
+        <v>275</v>
       </c>
       <c r="E2064" s="15"/>
     </row>
@@ -23911,12 +24038,12 @@
       <c r="A2065" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B2065" s="217" t="s">
-        <v>257</v>
+      <c r="B2065" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2065" s="33"/>
-      <c r="D2065" s="216" t="s">
-        <v>277</v>
+      <c r="D2065" s="152" t="s">
+        <v>276</v>
       </c>
       <c r="E2065" s="15"/>
     </row>
@@ -23924,12 +24051,12 @@
       <c r="A2066" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B2066" s="217" t="s">
-        <v>257</v>
+      <c r="B2066" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2066" s="33"/>
-      <c r="D2066" s="216" t="s">
-        <v>278</v>
+      <c r="D2066" s="152" t="s">
+        <v>277</v>
       </c>
       <c r="E2066" s="15"/>
     </row>
@@ -23937,12 +24064,12 @@
       <c r="A2067" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B2067" s="217" t="s">
-        <v>257</v>
+      <c r="B2067" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2067" s="34"/>
-      <c r="D2067" s="216" t="s">
-        <v>279</v>
+      <c r="D2067" s="152" t="s">
+        <v>278</v>
       </c>
       <c r="E2067" s="16"/>
     </row>
@@ -23951,22 +24078,22 @@
         <v>146</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="164" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2068" s="165"/>
-      <c r="E2068" s="165"/>
+      <c r="C2068" s="165" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2068" s="166"/>
+      <c r="E2068" s="166"/>
     </row>
     <row r="2069" spans="1:5" outlineLevel="2">
       <c r="A2069" s="84">
         <v>0</v>
       </c>
-      <c r="B2069" s="217" t="s">
-        <v>257</v>
+      <c r="B2069" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2069" s="33"/>
-      <c r="D2069" s="216" t="s">
-        <v>280</v>
+      <c r="D2069" s="152" t="s">
+        <v>279</v>
       </c>
       <c r="E2069" s="15"/>
     </row>
@@ -23974,12 +24101,12 @@
       <c r="A2070" s="84">
         <v>1</v>
       </c>
-      <c r="B2070" s="217" t="s">
-        <v>257</v>
+      <c r="B2070" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2070" s="33"/>
-      <c r="D2070" s="216" t="s">
-        <v>281</v>
+      <c r="D2070" s="152" t="s">
+        <v>280</v>
       </c>
       <c r="E2070" s="15"/>
     </row>
@@ -23987,12 +24114,12 @@
       <c r="A2071" s="84">
         <v>2</v>
       </c>
-      <c r="B2071" s="217" t="s">
-        <v>257</v>
+      <c r="B2071" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2071" s="33"/>
-      <c r="D2071" s="216" t="s">
-        <v>282</v>
+      <c r="D2071" s="152" t="s">
+        <v>281</v>
       </c>
       <c r="E2071" s="15"/>
     </row>
@@ -24000,12 +24127,12 @@
       <c r="A2072" s="84">
         <v>3</v>
       </c>
-      <c r="B2072" s="217" t="s">
-        <v>257</v>
+      <c r="B2072" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2072" s="33"/>
-      <c r="D2072" s="216" t="s">
-        <v>283</v>
+      <c r="D2072" s="152" t="s">
+        <v>282</v>
       </c>
       <c r="E2072" s="15"/>
     </row>
@@ -24013,12 +24140,12 @@
       <c r="A2073" s="84">
         <v>4</v>
       </c>
-      <c r="B2073" s="217" t="s">
-        <v>257</v>
+      <c r="B2073" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2073" s="33"/>
-      <c r="D2073" s="216" t="s">
-        <v>284</v>
+      <c r="D2073" s="152" t="s">
+        <v>283</v>
       </c>
       <c r="E2073" s="15"/>
     </row>
@@ -24026,12 +24153,12 @@
       <c r="A2074" s="84">
         <v>5</v>
       </c>
-      <c r="B2074" s="217" t="s">
-        <v>257</v>
+      <c r="B2074" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2074" s="33"/>
-      <c r="D2074" s="216" t="s">
-        <v>285</v>
+      <c r="D2074" s="152" t="s">
+        <v>284</v>
       </c>
       <c r="E2074" s="15"/>
     </row>
@@ -24039,12 +24166,12 @@
       <c r="A2075" s="84">
         <v>6</v>
       </c>
-      <c r="B2075" s="217" t="s">
-        <v>257</v>
+      <c r="B2075" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2075" s="33"/>
-      <c r="D2075" s="216" t="s">
-        <v>286</v>
+      <c r="D2075" s="152" t="s">
+        <v>285</v>
       </c>
       <c r="E2075" s="15"/>
     </row>
@@ -24052,12 +24179,12 @@
       <c r="A2076" s="84">
         <v>7</v>
       </c>
-      <c r="B2076" s="217" t="s">
-        <v>257</v>
+      <c r="B2076" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2076" s="33"/>
-      <c r="D2076" s="216" t="s">
-        <v>287</v>
+      <c r="D2076" s="152" t="s">
+        <v>286</v>
       </c>
       <c r="E2076" s="15"/>
     </row>
@@ -24065,12 +24192,12 @@
       <c r="A2077" s="84">
         <v>8</v>
       </c>
-      <c r="B2077" s="217" t="s">
-        <v>257</v>
+      <c r="B2077" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2077" s="33"/>
-      <c r="D2077" s="216" t="s">
-        <v>288</v>
+      <c r="D2077" s="152" t="s">
+        <v>287</v>
       </c>
       <c r="E2077" s="15"/>
     </row>
@@ -24078,12 +24205,12 @@
       <c r="A2078" s="84">
         <v>9</v>
       </c>
-      <c r="B2078" s="217" t="s">
-        <v>257</v>
+      <c r="B2078" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2078" s="33"/>
-      <c r="D2078" s="216" t="s">
-        <v>289</v>
+      <c r="D2078" s="152" t="s">
+        <v>288</v>
       </c>
       <c r="E2078" s="15"/>
     </row>
@@ -24091,12 +24218,12 @@
       <c r="A2079" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2079" s="217" t="s">
-        <v>257</v>
+      <c r="B2079" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2079" s="33"/>
-      <c r="D2079" s="216" t="s">
-        <v>290</v>
+      <c r="D2079" s="152" t="s">
+        <v>289</v>
       </c>
       <c r="E2079" s="15"/>
     </row>
@@ -24104,12 +24231,12 @@
       <c r="A2080" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B2080" s="217" t="s">
-        <v>257</v>
+      <c r="B2080" s="153" t="s">
+        <v>256</v>
       </c>
       <c r="C2080" s="33"/>
-      <c r="D2080" s="216" t="s">
-        <v>291</v>
+      <c r="D2080" s="152" t="s">
+        <v>290</v>
       </c>
       <c r="E2080" s="15"/>
     </row>
@@ -24154,9 +24281,9 @@
         <v>147</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="164"/>
-      <c r="D2085" s="165"/>
-      <c r="E2085" s="165"/>
+      <c r="C2085" s="165"/>
+      <c r="D2085" s="166"/>
+      <c r="E2085" s="166"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2086" s="84">
@@ -24307,9 +24434,9 @@
         <v>148</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="164"/>
-      <c r="D2102" s="165"/>
-      <c r="E2102" s="165"/>
+      <c r="C2102" s="165"/>
+      <c r="D2102" s="166"/>
+      <c r="E2102" s="166"/>
     </row>
     <row r="2103" spans="1:5" outlineLevel="2">
       <c r="A2103" s="84">
@@ -24423,12 +24550,12 @@
       <c r="A2115" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2115" s="217" t="s">
-        <v>293</v>
+      <c r="B2115" s="153" t="s">
+        <v>292</v>
       </c>
       <c r="C2115" s="33"/>
-      <c r="D2115" s="216" t="s">
-        <v>292</v>
+      <c r="D2115" s="152" t="s">
+        <v>291</v>
       </c>
       <c r="E2115" s="15"/>
     </row>
@@ -24438,7 +24565,7 @@
       </c>
       <c r="B2116" s="88"/>
       <c r="C2116" s="33"/>
-      <c r="D2116" s="216" t="s">
+      <c r="D2116" s="152" t="s">
         <v>237</v>
       </c>
       <c r="E2116" s="15"/>
@@ -24449,8 +24576,8 @@
       </c>
       <c r="B2117" s="88"/>
       <c r="C2117" s="33"/>
-      <c r="D2117" s="216" t="s">
-        <v>294</v>
+      <c r="D2117" s="152" t="s">
+        <v>293</v>
       </c>
       <c r="E2117" s="15"/>
     </row>
@@ -24468,9 +24595,9 @@
         <v>97</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="164"/>
-      <c r="D2119" s="165"/>
-      <c r="E2119" s="165"/>
+      <c r="C2119" s="165"/>
+      <c r="D2119" s="166"/>
+      <c r="E2119" s="166"/>
     </row>
     <row r="2120" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2120" s="84">
@@ -24621,9 +24748,9 @@
         <v>149</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="164"/>
-      <c r="D2136" s="165"/>
-      <c r="E2136" s="165"/>
+      <c r="C2136" s="165"/>
+      <c r="D2136" s="166"/>
+      <c r="E2136" s="166"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2137" s="84">
@@ -24774,9 +24901,9 @@
         <v>150</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="164"/>
-      <c r="D2153" s="165"/>
-      <c r="E2153" s="165"/>
+      <c r="C2153" s="165"/>
+      <c r="D2153" s="166"/>
+      <c r="E2153" s="166"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2154" s="84">
@@ -24927,9 +25054,9 @@
         <v>151</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="164"/>
-      <c r="D2170" s="165"/>
-      <c r="E2170" s="165"/>
+      <c r="C2170" s="165"/>
+      <c r="D2170" s="166"/>
+      <c r="E2170" s="166"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2171" s="84">
@@ -25077,15 +25204,122 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C396:E396"/>
+    <mergeCell ref="C413:E413"/>
+    <mergeCell ref="C430:E430"/>
+    <mergeCell ref="C447:E447"/>
+    <mergeCell ref="C464:E464"/>
+    <mergeCell ref="C481:E481"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C328:E328"/>
+    <mergeCell ref="C345:E345"/>
+    <mergeCell ref="C362:E362"/>
+    <mergeCell ref="C379:E379"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
     <mergeCell ref="C1932:E1932"/>
     <mergeCell ref="C1949:E1949"/>
     <mergeCell ref="C1966:E1966"/>
@@ -25098,122 +25332,15 @@
     <mergeCell ref="C1897:E1897"/>
     <mergeCell ref="C1914:E1914"/>
     <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C396:E396"/>
-    <mergeCell ref="C413:E413"/>
-    <mergeCell ref="C430:E430"/>
-    <mergeCell ref="C447:E447"/>
-    <mergeCell ref="C464:E464"/>
-    <mergeCell ref="C481:E481"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C328:E328"/>
-    <mergeCell ref="C345:E345"/>
-    <mergeCell ref="C362:E362"/>
-    <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25240,51 +25367,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="192" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="189" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="187"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="191"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="186" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="184"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="188"/>
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1">
       <c r="A4" s="28" t="s">
@@ -25501,19 +25628,19 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="182" t="s">
+      <c r="A20" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="183"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="188"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28" t="s">
@@ -25730,19 +25857,19 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="186" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="184"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="187"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="187"/>
+      <c r="K37" s="188"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
@@ -26000,28 +26127,28 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="189"/>
+      <c r="A3" s="193"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="190"/>
+      <c r="A4" s="194"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="190"/>
+      <c r="A5" s="194"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="190"/>
+      <c r="A6" s="194"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="190"/>
+      <c r="A7" s="194"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="190"/>
+      <c r="A8" s="194"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="190"/>
+      <c r="A9" s="194"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" thickBot="1">
-      <c r="A10" s="191"/>
+      <c r="A10" s="195"/>
     </row>
     <row r="11" spans="1:1" ht="27" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -26204,10 +26331,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B1" s="192" t="s">
+      <c r="B1" s="196" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="193"/>
+      <c r="C1" s="197"/>
       <c r="D1" s="92"/>
       <c r="E1" s="32"/>
     </row>
@@ -26218,7 +26345,7 @@
       <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="198" t="s">
         <v>208</v>
       </c>
       <c r="B3" s="131" t="s">
@@ -26232,7 +26359,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="195"/>
+      <c r="A4" s="199"/>
       <c r="B4" s="128" t="s">
         <v>159</v>
       </c>
@@ -26244,7 +26371,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="195"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="128" t="s">
         <v>160</v>
       </c>
@@ -26253,7 +26380,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="195"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="139" t="s">
         <v>210</v>
       </c>
@@ -26265,7 +26392,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="195"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="128" t="s">
         <v>177</v>
       </c>
@@ -26277,7 +26404,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="195"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="128" t="s">
         <v>178</v>
       </c>
@@ -26286,7 +26413,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A9" s="196"/>
+      <c r="A9" s="200"/>
       <c r="B9" s="136" t="s">
         <v>161</v>
       </c>
@@ -26301,7 +26428,7 @@
       <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="198" t="s">
         <v>209</v>
       </c>
       <c r="B11" s="131" t="s">
@@ -26315,7 +26442,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="195"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="128" t="s">
         <v>159</v>
       </c>
@@ -26327,7 +26454,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="195"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="128" t="s">
         <v>160</v>
       </c>
@@ -26336,7 +26463,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="195"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="139" t="s">
         <v>210</v>
       </c>
@@ -26348,7 +26475,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="195"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="128" t="s">
         <v>177</v>
       </c>
@@ -26360,7 +26487,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="195"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="128" t="s">
         <v>178</v>
       </c>
@@ -26369,7 +26496,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A17" s="196"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="136" t="s">
         <v>161</v>
       </c>
@@ -26384,7 +26511,7 @@
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" collapsed="1">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="198" t="s">
         <v>209</v>
       </c>
       <c r="B19" s="131" t="s">
@@ -26393,7 +26520,7 @@
       <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A20" s="195"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="128" t="s">
         <v>159</v>
       </c>
@@ -26403,14 +26530,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A21" s="195"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="128" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A22" s="195"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="139" t="s">
         <v>210</v>
       </c>
@@ -26420,7 +26547,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A23" s="195"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="128" t="s">
         <v>177</v>
       </c>
@@ -26430,14 +26557,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A24" s="195"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="128" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A25" s="196"/>
+      <c r="A25" s="200"/>
       <c r="B25" s="136" t="s">
         <v>161</v>
       </c>
@@ -26472,150 +26599,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="208"/>
+      <c r="B1" s="211"/>
       <c r="C1" s="118"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="207" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="214"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="209" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="214"/>
+      <c r="B3" s="208"/>
       <c r="C3" s="120"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="211"/>
-      <c r="B4" s="212"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="215"/>
       <c r="C4" s="120"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="209" t="s">
+      <c r="A5" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="210"/>
+      <c r="B5" s="213"/>
       <c r="C5" s="120"/>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="201" t="s">
+      <c r="A7" s="218" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="202"/>
+      <c r="B7" s="219"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="120"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="216" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="204"/>
+      <c r="B9" s="217"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="205"/>
-      <c r="B10" s="206"/>
+      <c r="A10" s="203"/>
+      <c r="B10" s="204"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="205" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="198"/>
+      <c r="B11" s="206"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="205" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="198"/>
+      <c r="B12" s="206"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="197" t="s">
+      <c r="A13" s="205" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="198"/>
+      <c r="B13" s="206"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A14" s="197" t="s">
+      <c r="A14" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="198"/>
+      <c r="B14" s="206"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="205" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="198"/>
+      <c r="B15" s="206"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="205" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="198"/>
+      <c r="B16" s="206"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="199" t="s">
+      <c r="A17" s="201" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="200"/>
+      <c r="B17" s="202"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="201" t="s">
+      <c r="A19" s="218" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="202"/>
+      <c r="B19" s="219"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="120"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="203" t="s">
+      <c r="A21" s="216" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="204"/>
+      <c r="B21" s="217"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="205"/>
-      <c r="B22" s="206"/>
+      <c r="A22" s="203"/>
+      <c r="B22" s="204"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="197" t="s">
+      <c r="A23" s="205" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="198"/>
+      <c r="B23" s="206"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="197"/>
-      <c r="B24" s="198"/>
+      <c r="A24" s="205"/>
+      <c r="B24" s="206"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="197" t="s">
+      <c r="A25" s="205" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="198"/>
+      <c r="B25" s="206"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="197" t="s">
+      <c r="A26" s="205" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="198"/>
+      <c r="B26" s="206"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="199"/>
-      <c r="B27" s="200"/>
+      <c r="A27" s="201"/>
+      <c r="B27" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -26626,19 +26766,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/DW3/DQ3.xlsx
+++ b/DW3/DQ3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="407">
   <si>
     <t>Notes</t>
   </si>
@@ -823,12 +823,6 @@
     <t>4th Party Member - Max MP</t>
   </si>
   <si>
-    <t>Current &amp; Max MP of current party</t>
-  </si>
-  <si>
-    <t>&amp; Party Items</t>
-  </si>
-  <si>
     <t>byte</t>
   </si>
   <si>
@@ -1121,6 +1115,171 @@
   </si>
   <si>
     <t>4th Party Member Strength</t>
+  </si>
+  <si>
+    <t>1st Party Member Level</t>
+  </si>
+  <si>
+    <t>2nd Party Member Level</t>
+  </si>
+  <si>
+    <t>3rd Party Member Level</t>
+  </si>
+  <si>
+    <t>4th Party Member Level</t>
+  </si>
+  <si>
+    <t>Current Party Level, Stats</t>
+  </si>
+  <si>
+    <t>1st Party Member Experience</t>
+  </si>
+  <si>
+    <t>3rd Party Member Experience</t>
+  </si>
+  <si>
+    <t>2nd Party Member Experience</t>
+  </si>
+  <si>
+    <t>4thParty Member Experience</t>
+  </si>
+  <si>
+    <t>1st Party Member Name Letter 1</t>
+  </si>
+  <si>
+    <t>Letter 2</t>
+  </si>
+  <si>
+    <t>Letter 3</t>
+  </si>
+  <si>
+    <t>Letter 4</t>
+  </si>
+  <si>
+    <t>1st Party Member Name Letter 5</t>
+  </si>
+  <si>
+    <t>Letter 6</t>
+  </si>
+  <si>
+    <t>Letter 7</t>
+  </si>
+  <si>
+    <t>Letter 8</t>
+  </si>
+  <si>
+    <t>2nd Party Member Name Letter 1</t>
+  </si>
+  <si>
+    <t>Letter 5</t>
+  </si>
+  <si>
+    <t>3rd Party Member Name Letter 1</t>
+  </si>
+  <si>
+    <t>Current Party Names</t>
+  </si>
+  <si>
+    <t>4th Party Member Name Letter 1</t>
+  </si>
+  <si>
+    <t>Current Party Names &amp; Items</t>
+  </si>
+  <si>
+    <t>3byte</t>
+  </si>
+  <si>
+    <t>1st Party Member Return List</t>
+  </si>
+  <si>
+    <t>2nd Party Member Return List</t>
+  </si>
+  <si>
+    <t>3rd party member Return list</t>
+  </si>
+  <si>
+    <t>4th Party member Return list</t>
+  </si>
+  <si>
+    <t>Current Party Return Lists &amp; Names</t>
+  </si>
+  <si>
+    <t>Current Party Spell Lists</t>
+  </si>
+  <si>
+    <t>8 bytes</t>
+  </si>
+  <si>
+    <t>1st Party Member Spell Lists</t>
+  </si>
+  <si>
+    <t>8 spells per byte</t>
+  </si>
+  <si>
+    <t>4th byte</t>
+  </si>
+  <si>
+    <t>1st Party Member Spell Lists 5th byte</t>
+  </si>
+  <si>
+    <t>6th byte</t>
+  </si>
+  <si>
+    <t>7th byte</t>
+  </si>
+  <si>
+    <t>8th byte</t>
+  </si>
+  <si>
+    <t>2nd Party Member Spell Lists 1st byte</t>
+  </si>
+  <si>
+    <t>5th byte</t>
+  </si>
+  <si>
+    <t>3rd Party Member Spell Lists 1st byte</t>
+  </si>
+  <si>
+    <t>Current Party Items &amp; Spell Lists</t>
+  </si>
+  <si>
+    <t>Current Party Spell Lists &amp; Gold</t>
+  </si>
+  <si>
+    <t>3rd Party Member Spell Lists 5th byte</t>
+  </si>
+  <si>
+    <t>4th party Member Spell Lists 1st byte</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>1st Party Member Status</t>
+  </si>
+  <si>
+    <t>2nd Party Member Status</t>
+  </si>
+  <si>
+    <t>2nd Party member Status</t>
+  </si>
+  <si>
+    <t>3rd Party Member Status</t>
+  </si>
+  <si>
+    <t>3rd Party Mamber Status</t>
+  </si>
+  <si>
+    <t>4th Party Member Status</t>
+  </si>
+  <si>
+    <t>Current &amp; Max MP of current party &amp; Party status</t>
+  </si>
+  <si>
+    <t>Party Status &amp; Current Party Experience</t>
+  </si>
+  <si>
+    <t>Party Info See http://www.gamefaqs.com/nes/587249-dragon-warrior-iii/faqs/2999 for details on meaning of values</t>
   </si>
 </sst>
 </file>
@@ -2386,29 +2545,29 @@
     <xf numFmtId="0" fontId="33" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2444,20 +2603,34 @@
     <xf numFmtId="0" fontId="47" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
@@ -2467,20 +2640,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -4882,6 +5041,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A141:A155"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A73:A87"/>
+    <mergeCell ref="A124:A138"/>
+    <mergeCell ref="A90:A104"/>
     <mergeCell ref="A39:A53"/>
     <mergeCell ref="A56:A70"/>
     <mergeCell ref="C5:D5"/>
@@ -4890,11 +5054,6 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A19:A36"/>
-    <mergeCell ref="A141:A155"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A73:A87"/>
-    <mergeCell ref="A124:A138"/>
-    <mergeCell ref="A90:A104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4910,8 +5069,8 @@
   <dimension ref="A1:H2186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1641" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1924" sqref="D1924"/>
+      <pane ySplit="2" topLeftCell="A1556" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2102" sqref="C2102:E2102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -4926,13 +5085,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4962,18 +5121,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
     </row>
     <row r="4" spans="1:8" ht="18" outlineLevel="1" collapsed="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2">
@@ -5125,9 +5284,9 @@
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
     </row>
     <row r="22" spans="1:5" outlineLevel="2">
       <c r="A22" s="47">
@@ -5242,11 +5401,11 @@
         <v>4</v>
       </c>
       <c r="B34" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E34" s="15"/>
     </row>
@@ -5282,9 +5441,9 @@
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="165"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="169"/>
+      <c r="E38" s="169"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A39" s="47">
@@ -5435,9 +5594,9 @@
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="166"/>
-      <c r="E55" s="166"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A56" s="47">
@@ -5588,9 +5747,9 @@
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="165"/>
-      <c r="D72" s="166"/>
-      <c r="E72" s="166"/>
+      <c r="C72" s="168"/>
+      <c r="D72" s="169"/>
+      <c r="E72" s="169"/>
     </row>
     <row r="73" spans="1:5" outlineLevel="2">
       <c r="A73" s="47">
@@ -5741,9 +5900,9 @@
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="166"/>
-      <c r="E89" s="166"/>
+      <c r="C89" s="168"/>
+      <c r="D89" s="169"/>
+      <c r="E89" s="169"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A90" s="47">
@@ -5894,9 +6053,9 @@
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="165"/>
-      <c r="D106" s="166"/>
-      <c r="E106" s="166"/>
+      <c r="C106" s="168"/>
+      <c r="D106" s="169"/>
+      <c r="E106" s="169"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A107" s="47">
@@ -6047,9 +6206,9 @@
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="165"/>
-      <c r="D123" s="166"/>
-      <c r="E123" s="166"/>
+      <c r="C123" s="168"/>
+      <c r="D123" s="169"/>
+      <c r="E123" s="169"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A124" s="47">
@@ -6200,9 +6359,9 @@
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="165"/>
-      <c r="D140" s="166"/>
-      <c r="E140" s="166"/>
+      <c r="C140" s="168"/>
+      <c r="D140" s="169"/>
+      <c r="E140" s="169"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A141" s="47">
@@ -6353,9 +6512,9 @@
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="165"/>
-      <c r="D157" s="166"/>
-      <c r="E157" s="166"/>
+      <c r="C157" s="168"/>
+      <c r="D157" s="169"/>
+      <c r="E157" s="169"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A158" s="47">
@@ -6506,9 +6665,9 @@
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="165"/>
-      <c r="D174" s="166"/>
-      <c r="E174" s="166"/>
+      <c r="C174" s="168"/>
+      <c r="D174" s="169"/>
+      <c r="E174" s="169"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A175" s="47">
@@ -6551,11 +6710,11 @@
         <v>4</v>
       </c>
       <c r="B179" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C179" s="33"/>
       <c r="D179" s="152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E179" s="15"/>
     </row>
@@ -6663,9 +6822,9 @@
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="165"/>
-      <c r="D191" s="166"/>
-      <c r="E191" s="166"/>
+      <c r="C191" s="168"/>
+      <c r="D191" s="169"/>
+      <c r="E191" s="169"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A192" s="47">
@@ -6816,9 +6975,9 @@
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="165"/>
-      <c r="D208" s="166"/>
-      <c r="E208" s="166"/>
+      <c r="C208" s="168"/>
+      <c r="D208" s="169"/>
+      <c r="E208" s="169"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A209" s="47">
@@ -6969,9 +7128,9 @@
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="165"/>
-      <c r="D225" s="166"/>
-      <c r="E225" s="166"/>
+      <c r="C225" s="168"/>
+      <c r="D225" s="169"/>
+      <c r="E225" s="169"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A226" s="47">
@@ -7122,9 +7281,9 @@
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="165"/>
-      <c r="D242" s="166"/>
-      <c r="E242" s="166"/>
+      <c r="C242" s="168"/>
+      <c r="D242" s="169"/>
+      <c r="E242" s="169"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A243" s="47">
@@ -7275,9 +7434,9 @@
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="165"/>
-      <c r="D259" s="166"/>
-      <c r="E259" s="166"/>
+      <c r="C259" s="168"/>
+      <c r="D259" s="169"/>
+      <c r="E259" s="169"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A260" s="47">
@@ -7428,18 +7587,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="181"/>
-      <c r="D276" s="182"/>
-      <c r="E276" s="182"/>
+      <c r="C276" s="172"/>
+      <c r="D276" s="173"/>
+      <c r="E276" s="173"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="165"/>
-      <c r="D277" s="166"/>
-      <c r="E277" s="166"/>
+      <c r="C277" s="168"/>
+      <c r="D277" s="169"/>
+      <c r="E277" s="169"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A278" s="52">
@@ -7590,9 +7749,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="167"/>
-      <c r="D294" s="168"/>
-      <c r="E294" s="168"/>
+      <c r="C294" s="170"/>
+      <c r="D294" s="171"/>
+      <c r="E294" s="171"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A295" s="52">
@@ -7743,9 +7902,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="165"/>
-      <c r="D311" s="166"/>
-      <c r="E311" s="166"/>
+      <c r="C311" s="168"/>
+      <c r="D311" s="169"/>
+      <c r="E311" s="169"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A312" s="52">
@@ -7896,9 +8055,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="165"/>
-      <c r="D328" s="166"/>
-      <c r="E328" s="166"/>
+      <c r="C328" s="168"/>
+      <c r="D328" s="169"/>
+      <c r="E328" s="169"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A329" s="52">
@@ -8049,9 +8208,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="165"/>
-      <c r="D345" s="166"/>
-      <c r="E345" s="166"/>
+      <c r="C345" s="168"/>
+      <c r="D345" s="169"/>
+      <c r="E345" s="169"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A346" s="52">
@@ -8202,9 +8361,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="165"/>
-      <c r="D362" s="166"/>
-      <c r="E362" s="166"/>
+      <c r="C362" s="168"/>
+      <c r="D362" s="169"/>
+      <c r="E362" s="169"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A363" s="52">
@@ -8355,9 +8514,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="165"/>
-      <c r="D379" s="166"/>
-      <c r="E379" s="166"/>
+      <c r="C379" s="168"/>
+      <c r="D379" s="169"/>
+      <c r="E379" s="169"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A380" s="52">
@@ -8508,9 +8667,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="165"/>
-      <c r="D396" s="166"/>
-      <c r="E396" s="166"/>
+      <c r="C396" s="168"/>
+      <c r="D396" s="169"/>
+      <c r="E396" s="169"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A397" s="52">
@@ -8661,9 +8820,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="165"/>
-      <c r="D413" s="166"/>
-      <c r="E413" s="166"/>
+      <c r="C413" s="168"/>
+      <c r="D413" s="169"/>
+      <c r="E413" s="169"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A414" s="52">
@@ -8814,9 +8973,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="165"/>
-      <c r="D430" s="166"/>
-      <c r="E430" s="166"/>
+      <c r="C430" s="168"/>
+      <c r="D430" s="169"/>
+      <c r="E430" s="169"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A431" s="52">
@@ -8967,9 +9126,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="165"/>
-      <c r="D447" s="166"/>
-      <c r="E447" s="166"/>
+      <c r="C447" s="168"/>
+      <c r="D447" s="169"/>
+      <c r="E447" s="169"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A448" s="52">
@@ -9120,9 +9279,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="165"/>
-      <c r="D464" s="166"/>
-      <c r="E464" s="166"/>
+      <c r="C464" s="168"/>
+      <c r="D464" s="169"/>
+      <c r="E464" s="169"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A465" s="52">
@@ -9273,9 +9432,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="165"/>
-      <c r="D481" s="166"/>
-      <c r="E481" s="166"/>
+      <c r="C481" s="168"/>
+      <c r="D481" s="169"/>
+      <c r="E481" s="169"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A482" s="52">
@@ -9426,9 +9585,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="165"/>
-      <c r="D498" s="166"/>
-      <c r="E498" s="166"/>
+      <c r="C498" s="168"/>
+      <c r="D498" s="169"/>
+      <c r="E498" s="169"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A499" s="52">
@@ -9579,9 +9738,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="165"/>
-      <c r="D515" s="166"/>
-      <c r="E515" s="166"/>
+      <c r="C515" s="168"/>
+      <c r="D515" s="169"/>
+      <c r="E515" s="169"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A516" s="52">
@@ -9732,9 +9891,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="165"/>
-      <c r="D532" s="166"/>
-      <c r="E532" s="166"/>
+      <c r="C532" s="168"/>
+      <c r="D532" s="169"/>
+      <c r="E532" s="169"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A533" s="55">
@@ -9885,18 +10044,18 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="179"/>
-      <c r="D549" s="180"/>
-      <c r="E549" s="180"/>
+      <c r="C549" s="174"/>
+      <c r="D549" s="175"/>
+      <c r="E549" s="175"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A550" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="165"/>
-      <c r="D550" s="166"/>
-      <c r="E550" s="166"/>
+      <c r="C550" s="168"/>
+      <c r="D550" s="169"/>
+      <c r="E550" s="169"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -10047,9 +10206,9 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="167"/>
-      <c r="D567" s="168"/>
-      <c r="E567" s="168"/>
+      <c r="C567" s="170"/>
+      <c r="D567" s="171"/>
+      <c r="E567" s="171"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A568" s="59">
@@ -10200,9 +10359,9 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="165"/>
-      <c r="D584" s="166"/>
-      <c r="E584" s="166"/>
+      <c r="C584" s="168"/>
+      <c r="D584" s="169"/>
+      <c r="E584" s="169"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -10353,9 +10512,9 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="165"/>
-      <c r="D601" s="166"/>
-      <c r="E601" s="166"/>
+      <c r="C601" s="168"/>
+      <c r="D601" s="169"/>
+      <c r="E601" s="169"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -10506,9 +10665,9 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="165"/>
-      <c r="D618" s="166"/>
-      <c r="E618" s="166"/>
+      <c r="C618" s="168"/>
+      <c r="D618" s="169"/>
+      <c r="E618" s="169"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -10659,9 +10818,9 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="165"/>
-      <c r="D635" s="166"/>
-      <c r="E635" s="166"/>
+      <c r="C635" s="168"/>
+      <c r="D635" s="169"/>
+      <c r="E635" s="169"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -10812,9 +10971,9 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="165"/>
-      <c r="D652" s="166"/>
-      <c r="E652" s="166"/>
+      <c r="C652" s="168"/>
+      <c r="D652" s="169"/>
+      <c r="E652" s="169"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -10965,9 +11124,9 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="165"/>
-      <c r="D669" s="166"/>
-      <c r="E669" s="166"/>
+      <c r="C669" s="168"/>
+      <c r="D669" s="169"/>
+      <c r="E669" s="169"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -11118,9 +11277,9 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="165"/>
-      <c r="D686" s="166"/>
-      <c r="E686" s="166"/>
+      <c r="C686" s="168"/>
+      <c r="D686" s="169"/>
+      <c r="E686" s="169"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -11271,9 +11430,9 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="165"/>
-      <c r="D703" s="166"/>
-      <c r="E703" s="166"/>
+      <c r="C703" s="168"/>
+      <c r="D703" s="169"/>
+      <c r="E703" s="169"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -11424,9 +11583,9 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="165"/>
-      <c r="D720" s="166"/>
-      <c r="E720" s="166"/>
+      <c r="C720" s="168"/>
+      <c r="D720" s="169"/>
+      <c r="E720" s="169"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -11577,9 +11736,9 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="165"/>
-      <c r="D737" s="166"/>
-      <c r="E737" s="166"/>
+      <c r="C737" s="168"/>
+      <c r="D737" s="169"/>
+      <c r="E737" s="169"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -11730,9 +11889,9 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="165"/>
-      <c r="D754" s="166"/>
-      <c r="E754" s="166"/>
+      <c r="C754" s="168"/>
+      <c r="D754" s="169"/>
+      <c r="E754" s="169"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -11883,9 +12042,9 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="165"/>
-      <c r="D771" s="166"/>
-      <c r="E771" s="166"/>
+      <c r="C771" s="168"/>
+      <c r="D771" s="169"/>
+      <c r="E771" s="169"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -12036,9 +12195,9 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="165"/>
-      <c r="D788" s="166"/>
-      <c r="E788" s="166"/>
+      <c r="C788" s="168"/>
+      <c r="D788" s="169"/>
+      <c r="E788" s="169"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -12189,9 +12348,9 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="165"/>
-      <c r="D805" s="166"/>
-      <c r="E805" s="166"/>
+      <c r="C805" s="168"/>
+      <c r="D805" s="169"/>
+      <c r="E805" s="169"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -12342,18 +12501,18 @@
         <v>67</v>
       </c>
       <c r="B822" s="39"/>
-      <c r="C822" s="177"/>
-      <c r="D822" s="178"/>
-      <c r="E822" s="178"/>
+      <c r="C822" s="176"/>
+      <c r="D822" s="177"/>
+      <c r="E822" s="177"/>
     </row>
     <row r="823" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A823" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="165"/>
-      <c r="D823" s="166"/>
-      <c r="E823" s="166"/>
+      <c r="C823" s="168"/>
+      <c r="D823" s="169"/>
+      <c r="E823" s="169"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A824" s="64">
@@ -12504,9 +12663,9 @@
         <v>69</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="167"/>
-      <c r="D840" s="168"/>
-      <c r="E840" s="168"/>
+      <c r="C840" s="170"/>
+      <c r="D840" s="171"/>
+      <c r="E840" s="171"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A841" s="64">
@@ -12657,9 +12816,9 @@
         <v>70</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="165"/>
-      <c r="D857" s="166"/>
-      <c r="E857" s="166"/>
+      <c r="C857" s="168"/>
+      <c r="D857" s="169"/>
+      <c r="E857" s="169"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A858" s="64">
@@ -12810,9 +12969,9 @@
         <v>71</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="165"/>
-      <c r="D874" s="166"/>
-      <c r="E874" s="166"/>
+      <c r="C874" s="168"/>
+      <c r="D874" s="169"/>
+      <c r="E874" s="169"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A875" s="64">
@@ -12963,9 +13122,9 @@
         <v>72</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="165"/>
-      <c r="D891" s="166"/>
-      <c r="E891" s="166"/>
+      <c r="C891" s="168"/>
+      <c r="D891" s="169"/>
+      <c r="E891" s="169"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A892" s="64">
@@ -13116,9 +13275,9 @@
         <v>73</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="165"/>
-      <c r="D908" s="166"/>
-      <c r="E908" s="166"/>
+      <c r="C908" s="168"/>
+      <c r="D908" s="169"/>
+      <c r="E908" s="169"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A909" s="64">
@@ -13269,9 +13428,9 @@
         <v>74</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="165"/>
-      <c r="D925" s="166"/>
-      <c r="E925" s="166"/>
+      <c r="C925" s="168"/>
+      <c r="D925" s="169"/>
+      <c r="E925" s="169"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A926" s="64">
@@ -13422,9 +13581,9 @@
         <v>75</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="165"/>
-      <c r="D942" s="166"/>
-      <c r="E942" s="166"/>
+      <c r="C942" s="168"/>
+      <c r="D942" s="169"/>
+      <c r="E942" s="169"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A943" s="64">
@@ -13575,9 +13734,9 @@
         <v>76</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="165"/>
-      <c r="D959" s="166"/>
-      <c r="E959" s="166"/>
+      <c r="C959" s="168"/>
+      <c r="D959" s="169"/>
+      <c r="E959" s="169"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A960" s="64">
@@ -13728,9 +13887,9 @@
         <v>77</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="165"/>
-      <c r="D976" s="166"/>
-      <c r="E976" s="166"/>
+      <c r="C976" s="168"/>
+      <c r="D976" s="169"/>
+      <c r="E976" s="169"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A977" s="64">
@@ -13881,9 +14040,9 @@
         <v>78</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="165"/>
-      <c r="D993" s="166"/>
-      <c r="E993" s="166"/>
+      <c r="C993" s="168"/>
+      <c r="D993" s="169"/>
+      <c r="E993" s="169"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A994" s="64">
@@ -14034,9 +14193,9 @@
         <v>79</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="165"/>
-      <c r="D1010" s="166"/>
-      <c r="E1010" s="166"/>
+      <c r="C1010" s="168"/>
+      <c r="D1010" s="169"/>
+      <c r="E1010" s="169"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1011" s="64">
@@ -14187,9 +14346,9 @@
         <v>80</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="165"/>
-      <c r="D1027" s="166"/>
-      <c r="E1027" s="166"/>
+      <c r="C1027" s="168"/>
+      <c r="D1027" s="169"/>
+      <c r="E1027" s="169"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1028" s="64">
@@ -14340,9 +14499,9 @@
         <v>83</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="165"/>
-      <c r="D1044" s="166"/>
-      <c r="E1044" s="166"/>
+      <c r="C1044" s="168"/>
+      <c r="D1044" s="169"/>
+      <c r="E1044" s="169"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1045" s="64">
@@ -14493,9 +14652,9 @@
         <v>82</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="165"/>
-      <c r="D1061" s="166"/>
-      <c r="E1061" s="166"/>
+      <c r="C1061" s="168"/>
+      <c r="D1061" s="169"/>
+      <c r="E1061" s="169"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1062" s="64">
@@ -14646,9 +14805,9 @@
         <v>84</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="165"/>
-      <c r="D1078" s="166"/>
-      <c r="E1078" s="166"/>
+      <c r="C1078" s="168"/>
+      <c r="D1078" s="169"/>
+      <c r="E1078" s="169"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1079" s="64">
@@ -14799,18 +14958,18 @@
         <v>104</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="175"/>
-      <c r="D1095" s="176"/>
-      <c r="E1095" s="176"/>
+      <c r="C1095" s="178"/>
+      <c r="D1095" s="179"/>
+      <c r="E1095" s="179"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1096" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="165"/>
-      <c r="D1096" s="166"/>
-      <c r="E1096" s="166"/>
+      <c r="C1096" s="168"/>
+      <c r="D1096" s="169"/>
+      <c r="E1096" s="169"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1097" s="69">
@@ -14961,9 +15120,9 @@
         <v>86</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="167"/>
-      <c r="D1113" s="168"/>
-      <c r="E1113" s="168"/>
+      <c r="C1113" s="170"/>
+      <c r="D1113" s="171"/>
+      <c r="E1113" s="171"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1114" s="69">
@@ -15114,9 +15273,9 @@
         <v>87</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="165"/>
-      <c r="D1130" s="166"/>
-      <c r="E1130" s="166"/>
+      <c r="C1130" s="168"/>
+      <c r="D1130" s="169"/>
+      <c r="E1130" s="169"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1131" s="69">
@@ -15267,9 +15426,9 @@
         <v>88</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="165"/>
-      <c r="D1147" s="166"/>
-      <c r="E1147" s="166"/>
+      <c r="C1147" s="168"/>
+      <c r="D1147" s="169"/>
+      <c r="E1147" s="169"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1148" s="69">
@@ -15420,9 +15579,9 @@
         <v>89</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="165"/>
-      <c r="D1164" s="166"/>
-      <c r="E1164" s="166"/>
+      <c r="C1164" s="168"/>
+      <c r="D1164" s="169"/>
+      <c r="E1164" s="169"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1165" s="69">
@@ -15573,9 +15732,9 @@
         <v>90</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="165"/>
-      <c r="D1181" s="166"/>
-      <c r="E1181" s="166"/>
+      <c r="C1181" s="168"/>
+      <c r="D1181" s="169"/>
+      <c r="E1181" s="169"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3">
       <c r="A1182" s="69">
@@ -15726,9 +15885,9 @@
         <v>91</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="165"/>
-      <c r="D1198" s="166"/>
-      <c r="E1198" s="166"/>
+      <c r="C1198" s="168"/>
+      <c r="D1198" s="169"/>
+      <c r="E1198" s="169"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1199" s="69">
@@ -15879,9 +16038,9 @@
         <v>92</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="165"/>
-      <c r="D1215" s="166"/>
-      <c r="E1215" s="166"/>
+      <c r="C1215" s="168"/>
+      <c r="D1215" s="169"/>
+      <c r="E1215" s="169"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1216" s="69">
@@ -16032,9 +16191,9 @@
         <v>93</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="165"/>
-      <c r="D1232" s="166"/>
-      <c r="E1232" s="166"/>
+      <c r="C1232" s="168"/>
+      <c r="D1232" s="169"/>
+      <c r="E1232" s="169"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1233" s="69">
@@ -16185,9 +16344,9 @@
         <v>94</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="165"/>
-      <c r="D1249" s="166"/>
-      <c r="E1249" s="166"/>
+      <c r="C1249" s="168"/>
+      <c r="D1249" s="169"/>
+      <c r="E1249" s="169"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1250" s="69">
@@ -16338,9 +16497,9 @@
         <v>99</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="165"/>
-      <c r="D1266" s="166"/>
-      <c r="E1266" s="166"/>
+      <c r="C1266" s="168"/>
+      <c r="D1266" s="169"/>
+      <c r="E1266" s="169"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1267" s="69">
@@ -16491,9 +16650,9 @@
         <v>100</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="165"/>
-      <c r="D1283" s="166"/>
-      <c r="E1283" s="166"/>
+      <c r="C1283" s="168"/>
+      <c r="D1283" s="169"/>
+      <c r="E1283" s="169"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1284" s="69">
@@ -16644,9 +16803,9 @@
         <v>101</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="165"/>
-      <c r="D1300" s="166"/>
-      <c r="E1300" s="166"/>
+      <c r="C1300" s="168"/>
+      <c r="D1300" s="169"/>
+      <c r="E1300" s="169"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1301" s="69">
@@ -16797,9 +16956,9 @@
         <v>81</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="165"/>
-      <c r="D1317" s="166"/>
-      <c r="E1317" s="166"/>
+      <c r="C1317" s="168"/>
+      <c r="D1317" s="169"/>
+      <c r="E1317" s="169"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1318" s="69">
@@ -16950,9 +17109,9 @@
         <v>102</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="165"/>
-      <c r="D1334" s="166"/>
-      <c r="E1334" s="166"/>
+      <c r="C1334" s="168"/>
+      <c r="D1334" s="169"/>
+      <c r="E1334" s="169"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1335" s="69">
@@ -17103,9 +17262,9 @@
         <v>98</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="165"/>
-      <c r="D1351" s="166"/>
-      <c r="E1351" s="166"/>
+      <c r="C1351" s="168"/>
+      <c r="D1351" s="169"/>
+      <c r="E1351" s="169"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1352" s="69">
@@ -17256,33 +17415,33 @@
         <v>103</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="173"/>
-      <c r="D1368" s="174"/>
-      <c r="E1368" s="174"/>
+      <c r="C1368" s="180"/>
+      <c r="D1368" s="181"/>
+      <c r="E1368" s="181"/>
     </row>
     <row r="1369" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1369" s="73" t="s">
         <v>105</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="165" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1369" s="166"/>
-      <c r="E1369" s="166"/>
+      <c r="C1369" s="168" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1369" s="169"/>
+      <c r="E1369" s="169"/>
     </row>
     <row r="1370" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1370" s="74">
         <v>0</v>
       </c>
       <c r="B1370" s="153" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1370" s="154" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1370" s="152" t="s">
         <v>295</v>
-      </c>
-      <c r="C1370" s="154" t="s">
-        <v>296</v>
-      </c>
-      <c r="D1370" s="152" t="s">
-        <v>297</v>
       </c>
       <c r="E1370" s="15"/>
     </row>
@@ -17291,10 +17450,10 @@
         <v>1</v>
       </c>
       <c r="B1371" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1371" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1371" s="152" t="s">
         <v>237</v>
@@ -17306,13 +17465,13 @@
         <v>2</v>
       </c>
       <c r="B1372" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1372" s="154" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1372" s="152" t="s">
         <v>296</v>
-      </c>
-      <c r="D1372" s="152" t="s">
-        <v>298</v>
       </c>
       <c r="E1372" s="15"/>
     </row>
@@ -17321,10 +17480,10 @@
         <v>3</v>
       </c>
       <c r="B1373" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1373" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1373" s="152" t="s">
         <v>237</v>
@@ -17336,13 +17495,13 @@
         <v>4</v>
       </c>
       <c r="B1374" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1374" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1374" s="152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E1374" s="15"/>
     </row>
@@ -17351,10 +17510,10 @@
         <v>5</v>
       </c>
       <c r="B1375" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1375" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1375" s="152" t="s">
         <v>237</v>
@@ -17366,13 +17525,13 @@
         <v>6</v>
       </c>
       <c r="B1376" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1376" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1376" s="152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E1376" s="15"/>
     </row>
@@ -17381,10 +17540,10 @@
         <v>7</v>
       </c>
       <c r="B1377" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1377" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1377" s="152" t="s">
         <v>237</v>
@@ -17396,13 +17555,13 @@
         <v>8</v>
       </c>
       <c r="B1378" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1378" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1378" s="152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E1378" s="15"/>
     </row>
@@ -17411,10 +17570,10 @@
         <v>9</v>
       </c>
       <c r="B1379" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1379" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1379" s="152" t="s">
         <v>237</v>
@@ -17426,13 +17585,13 @@
         <v>2</v>
       </c>
       <c r="B1380" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1380" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1380" s="152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E1380" s="15"/>
     </row>
@@ -17441,10 +17600,10 @@
         <v>3</v>
       </c>
       <c r="B1381" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1381" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1381" s="152" t="s">
         <v>237</v>
@@ -17456,13 +17615,13 @@
         <v>4</v>
       </c>
       <c r="B1382" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1382" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1382" s="152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E1382" s="15"/>
     </row>
@@ -17471,10 +17630,10 @@
         <v>5</v>
       </c>
       <c r="B1383" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1383" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1383" s="152" t="s">
         <v>237</v>
@@ -17486,13 +17645,13 @@
         <v>6</v>
       </c>
       <c r="B1384" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1384" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1384" s="152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E1384" s="15"/>
     </row>
@@ -17501,10 +17660,10 @@
         <v>7</v>
       </c>
       <c r="B1385" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1385" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1385" s="155" t="s">
         <v>237</v>
@@ -17516,24 +17675,24 @@
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="167" t="s">
-        <v>315</v>
-      </c>
-      <c r="D1386" s="168"/>
-      <c r="E1386" s="168"/>
+      <c r="C1386" s="170" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1386" s="171"/>
+      <c r="E1386" s="171"/>
     </row>
     <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1387" s="74">
         <v>0</v>
       </c>
       <c r="B1387" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1387" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1387" s="152" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E1387" s="15"/>
     </row>
@@ -17542,13 +17701,13 @@
         <v>1</v>
       </c>
       <c r="B1388" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1388" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1388" s="152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E1388" s="15"/>
     </row>
@@ -17557,13 +17716,13 @@
         <v>2</v>
       </c>
       <c r="B1389" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1389" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1389" s="152" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E1389" s="15"/>
     </row>
@@ -17572,13 +17731,13 @@
         <v>3</v>
       </c>
       <c r="B1390" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1390" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1390" s="152" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E1390" s="15"/>
     </row>
@@ -17587,13 +17746,13 @@
         <v>4</v>
       </c>
       <c r="B1391" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1391" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1391" s="152" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E1391" s="15"/>
     </row>
@@ -17602,13 +17761,13 @@
         <v>5</v>
       </c>
       <c r="B1392" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1392" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1392" s="152" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E1392" s="15"/>
     </row>
@@ -17617,13 +17776,13 @@
         <v>6</v>
       </c>
       <c r="B1393" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1393" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1393" s="152" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E1393" s="15"/>
     </row>
@@ -17632,13 +17791,13 @@
         <v>7</v>
       </c>
       <c r="B1394" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1394" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1394" s="152" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E1394" s="15"/>
     </row>
@@ -17647,13 +17806,13 @@
         <v>8</v>
       </c>
       <c r="B1395" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1395" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1395" s="152" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E1395" s="15"/>
     </row>
@@ -17662,13 +17821,13 @@
         <v>9</v>
       </c>
       <c r="B1396" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1396" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1396" s="152" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E1396" s="15"/>
     </row>
@@ -17677,13 +17836,13 @@
         <v>2</v>
       </c>
       <c r="B1397" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1397" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1397" s="152" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E1397" s="15"/>
     </row>
@@ -17692,13 +17851,13 @@
         <v>3</v>
       </c>
       <c r="B1398" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1398" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1398" s="152" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E1398" s="15"/>
     </row>
@@ -17707,13 +17866,13 @@
         <v>4</v>
       </c>
       <c r="B1399" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1399" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1399" s="152" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E1399" s="15"/>
     </row>
@@ -17722,13 +17881,13 @@
         <v>5</v>
       </c>
       <c r="B1400" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1400" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1400" s="152" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E1400" s="15"/>
     </row>
@@ -17737,13 +17896,13 @@
         <v>6</v>
       </c>
       <c r="B1401" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1401" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1401" s="152" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E1401" s="15"/>
     </row>
@@ -17752,13 +17911,13 @@
         <v>7</v>
       </c>
       <c r="B1402" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1402" s="154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D1402" s="152" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E1402" s="15"/>
     </row>
@@ -17767,22 +17926,22 @@
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="165" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1403" s="166"/>
-      <c r="E1403" s="166"/>
+      <c r="C1403" s="168" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1403" s="169"/>
+      <c r="E1403" s="169"/>
     </row>
     <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1404" s="74">
         <v>0</v>
       </c>
       <c r="B1404" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1404" s="33"/>
       <c r="D1404" s="152" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E1404" s="15"/>
     </row>
@@ -17802,11 +17961,11 @@
         <v>2</v>
       </c>
       <c r="B1406" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1406" s="33"/>
       <c r="D1406" s="152" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E1406" s="15"/>
     </row>
@@ -17826,11 +17985,11 @@
         <v>4</v>
       </c>
       <c r="B1408" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1408" s="33"/>
       <c r="D1408" s="152" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E1408" s="15"/>
     </row>
@@ -17850,11 +18009,11 @@
         <v>6</v>
       </c>
       <c r="B1410" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1410" s="33"/>
       <c r="D1410" s="152" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E1410" s="15"/>
     </row>
@@ -17874,11 +18033,11 @@
         <v>8</v>
       </c>
       <c r="B1412" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1412" s="33"/>
       <c r="D1412" s="152" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E1412" s="15"/>
     </row>
@@ -17898,11 +18057,11 @@
         <v>2</v>
       </c>
       <c r="B1414" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1414" s="33"/>
       <c r="D1414" s="152" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E1414" s="15"/>
     </row>
@@ -17922,11 +18081,11 @@
         <v>4</v>
       </c>
       <c r="B1416" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1416" s="33"/>
       <c r="D1416" s="152" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E1416" s="15"/>
     </row>
@@ -17946,11 +18105,11 @@
         <v>6</v>
       </c>
       <c r="B1418" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1418" s="33"/>
       <c r="D1418" s="152" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E1418" s="15"/>
     </row>
@@ -17970,22 +18129,22 @@
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="165" t="s">
-        <v>323</v>
-      </c>
-      <c r="D1420" s="166"/>
-      <c r="E1420" s="166"/>
+      <c r="C1420" s="168" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1420" s="169"/>
+      <c r="E1420" s="169"/>
     </row>
     <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1421" s="74">
         <v>0</v>
       </c>
       <c r="B1421" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1421" s="33"/>
       <c r="D1421" s="152" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E1421" s="15"/>
     </row>
@@ -17994,7 +18153,7 @@
         <v>1</v>
       </c>
       <c r="B1422" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1422" s="33"/>
       <c r="D1422" s="15"/>
@@ -18005,7 +18164,7 @@
         <v>2</v>
       </c>
       <c r="B1423" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1423" s="33"/>
       <c r="D1423" s="15"/>
@@ -18016,7 +18175,7 @@
         <v>3</v>
       </c>
       <c r="B1424" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1424" s="33"/>
       <c r="D1424" s="15"/>
@@ -18027,7 +18186,7 @@
         <v>4</v>
       </c>
       <c r="B1425" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1425" s="33"/>
       <c r="D1425" s="15"/>
@@ -18038,7 +18197,7 @@
         <v>5</v>
       </c>
       <c r="B1426" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1426" s="33"/>
       <c r="D1426" s="15"/>
@@ -18049,7 +18208,7 @@
         <v>6</v>
       </c>
       <c r="B1427" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1427" s="33"/>
       <c r="D1427" s="15"/>
@@ -18060,7 +18219,7 @@
         <v>7</v>
       </c>
       <c r="B1428" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1428" s="33"/>
       <c r="D1428" s="15"/>
@@ -18071,7 +18230,7 @@
         <v>8</v>
       </c>
       <c r="B1429" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1429" s="33"/>
       <c r="D1429" s="15"/>
@@ -18082,7 +18241,7 @@
         <v>9</v>
       </c>
       <c r="B1430" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1430" s="33"/>
       <c r="D1430" s="15"/>
@@ -18093,7 +18252,7 @@
         <v>2</v>
       </c>
       <c r="B1431" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1431" s="33"/>
       <c r="D1431" s="15"/>
@@ -18104,7 +18263,7 @@
         <v>3</v>
       </c>
       <c r="B1432" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1432" s="33"/>
       <c r="D1432" s="15"/>
@@ -18115,7 +18274,7 @@
         <v>4</v>
       </c>
       <c r="B1433" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1433" s="33"/>
       <c r="D1433" s="15"/>
@@ -18126,7 +18285,7 @@
         <v>5</v>
       </c>
       <c r="B1434" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1434" s="33"/>
       <c r="D1434" s="15"/>
@@ -18137,7 +18296,7 @@
         <v>6</v>
       </c>
       <c r="B1435" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1435" s="33"/>
       <c r="D1435" s="15"/>
@@ -18148,7 +18307,7 @@
         <v>7</v>
       </c>
       <c r="B1436" s="153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1436" s="34"/>
       <c r="D1436" s="16"/>
@@ -18159,9 +18318,9 @@
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="165"/>
-      <c r="D1437" s="166"/>
-      <c r="E1437" s="166"/>
+      <c r="C1437" s="168"/>
+      <c r="D1437" s="169"/>
+      <c r="E1437" s="169"/>
     </row>
     <row r="1438" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1438" s="74">
@@ -18312,9 +18471,9 @@
         <v>110</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="165"/>
-      <c r="D1454" s="166"/>
-      <c r="E1454" s="166"/>
+      <c r="C1454" s="168"/>
+      <c r="D1454" s="169"/>
+      <c r="E1454" s="169"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1455" s="74">
@@ -18465,9 +18624,9 @@
         <v>111</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="165"/>
-      <c r="D1471" s="166"/>
-      <c r="E1471" s="166"/>
+      <c r="C1471" s="168"/>
+      <c r="D1471" s="169"/>
+      <c r="E1471" s="169"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1472" s="74">
@@ -18618,9 +18777,9 @@
         <v>112</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="165"/>
-      <c r="D1488" s="166"/>
-      <c r="E1488" s="166"/>
+      <c r="C1488" s="168"/>
+      <c r="D1488" s="169"/>
+      <c r="E1488" s="169"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1489" s="74">
@@ -18771,9 +18930,9 @@
         <v>113</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="165"/>
-      <c r="D1505" s="166"/>
-      <c r="E1505" s="166"/>
+      <c r="C1505" s="168"/>
+      <c r="D1505" s="169"/>
+      <c r="E1505" s="169"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1506" s="74">
@@ -18924,9 +19083,9 @@
         <v>114</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="165"/>
-      <c r="D1522" s="166"/>
-      <c r="E1522" s="166"/>
+      <c r="C1522" s="168"/>
+      <c r="D1522" s="169"/>
+      <c r="E1522" s="169"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1523" s="74">
@@ -19077,9 +19236,9 @@
         <v>95</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="165"/>
-      <c r="D1539" s="166"/>
-      <c r="E1539" s="166"/>
+      <c r="C1539" s="168"/>
+      <c r="D1539" s="169"/>
+      <c r="E1539" s="169"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1540" s="74">
@@ -19230,9 +19389,9 @@
         <v>115</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="165"/>
-      <c r="D1556" s="166"/>
-      <c r="E1556" s="166"/>
+      <c r="C1556" s="168"/>
+      <c r="D1556" s="169"/>
+      <c r="E1556" s="169"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1557" s="74">
@@ -19383,9 +19542,9 @@
         <v>116</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="165"/>
-      <c r="D1573" s="166"/>
-      <c r="E1573" s="166"/>
+      <c r="C1573" s="168"/>
+      <c r="D1573" s="169"/>
+      <c r="E1573" s="169"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1574" s="74">
@@ -19536,9 +19695,9 @@
         <v>117</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="165"/>
-      <c r="D1590" s="166"/>
-      <c r="E1590" s="166"/>
+      <c r="C1590" s="168"/>
+      <c r="D1590" s="169"/>
+      <c r="E1590" s="169"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1591" s="74">
@@ -19689,9 +19848,9 @@
         <v>118</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="165"/>
-      <c r="D1607" s="166"/>
-      <c r="E1607" s="166"/>
+      <c r="C1607" s="168"/>
+      <c r="D1607" s="169"/>
+      <c r="E1607" s="169"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1608" s="74">
@@ -19842,9 +20001,9 @@
         <v>119</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="165"/>
-      <c r="D1624" s="166"/>
-      <c r="E1624" s="166"/>
+      <c r="C1624" s="168"/>
+      <c r="D1624" s="169"/>
+      <c r="E1624" s="169"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1625" s="74">
@@ -19995,18 +20154,18 @@
         <v>120</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="171"/>
-      <c r="D1641" s="172"/>
-      <c r="E1641" s="172"/>
+      <c r="C1641" s="182"/>
+      <c r="D1641" s="183"/>
+      <c r="E1641" s="183"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1642" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="165"/>
-      <c r="D1642" s="166"/>
-      <c r="E1642" s="166"/>
+      <c r="C1642" s="168"/>
+      <c r="D1642" s="169"/>
+      <c r="E1642" s="169"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1643" s="79">
@@ -20157,9 +20316,9 @@
         <v>122</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="167"/>
-      <c r="D1659" s="168"/>
-      <c r="E1659" s="168"/>
+      <c r="C1659" s="170"/>
+      <c r="D1659" s="171"/>
+      <c r="E1659" s="171"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1660" s="79">
@@ -20310,9 +20469,9 @@
         <v>123</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="165"/>
-      <c r="D1676" s="166"/>
-      <c r="E1676" s="166"/>
+      <c r="C1676" s="168"/>
+      <c r="D1676" s="169"/>
+      <c r="E1676" s="169"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1677" s="79">
@@ -20463,9 +20622,9 @@
         <v>124</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="165"/>
-      <c r="D1693" s="166"/>
-      <c r="E1693" s="166"/>
+      <c r="C1693" s="168"/>
+      <c r="D1693" s="169"/>
+      <c r="E1693" s="169"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1694" s="79">
@@ -20616,9 +20775,9 @@
         <v>125</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="165"/>
-      <c r="D1710" s="166"/>
-      <c r="E1710" s="166"/>
+      <c r="C1710" s="168"/>
+      <c r="D1710" s="169"/>
+      <c r="E1710" s="169"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1711" s="79">
@@ -20769,9 +20928,9 @@
         <v>126</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="165"/>
-      <c r="D1727" s="166"/>
-      <c r="E1727" s="166"/>
+      <c r="C1727" s="168"/>
+      <c r="D1727" s="169"/>
+      <c r="E1727" s="169"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1728" s="79">
@@ -20922,9 +21081,9 @@
         <v>127</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="165"/>
-      <c r="D1744" s="166"/>
-      <c r="E1744" s="166"/>
+      <c r="C1744" s="168"/>
+      <c r="D1744" s="169"/>
+      <c r="E1744" s="169"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1745" s="79">
@@ -21075,9 +21234,9 @@
         <v>128</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="165"/>
-      <c r="D1761" s="166"/>
-      <c r="E1761" s="166"/>
+      <c r="C1761" s="168"/>
+      <c r="D1761" s="169"/>
+      <c r="E1761" s="169"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1762" s="79">
@@ -21228,9 +21387,9 @@
         <v>129</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="165"/>
-      <c r="D1778" s="166"/>
-      <c r="E1778" s="166"/>
+      <c r="C1778" s="168"/>
+      <c r="D1778" s="169"/>
+      <c r="E1778" s="169"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1779" s="79">
@@ -21381,9 +21540,9 @@
         <v>130</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="165"/>
-      <c r="D1795" s="166"/>
-      <c r="E1795" s="166"/>
+      <c r="C1795" s="168"/>
+      <c r="D1795" s="169"/>
+      <c r="E1795" s="169"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1796" s="79">
@@ -21534,9 +21693,9 @@
         <v>131</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="165"/>
-      <c r="D1812" s="166"/>
-      <c r="E1812" s="166"/>
+      <c r="C1812" s="168"/>
+      <c r="D1812" s="169"/>
+      <c r="E1812" s="169"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1813" s="79">
@@ -21687,9 +21846,9 @@
         <v>96</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="165"/>
-      <c r="D1829" s="166"/>
-      <c r="E1829" s="166"/>
+      <c r="C1829" s="168"/>
+      <c r="D1829" s="169"/>
+      <c r="E1829" s="169"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1830" s="79">
@@ -21840,9 +21999,9 @@
         <v>132</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="165"/>
-      <c r="D1846" s="166"/>
-      <c r="E1846" s="166"/>
+      <c r="C1846" s="168"/>
+      <c r="D1846" s="169"/>
+      <c r="E1846" s="169"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1847" s="79">
@@ -21993,9 +22152,9 @@
         <v>133</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="165"/>
-      <c r="D1863" s="166"/>
-      <c r="E1863" s="166"/>
+      <c r="C1863" s="168"/>
+      <c r="D1863" s="169"/>
+      <c r="E1863" s="169"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1864" s="79">
@@ -22146,9 +22305,9 @@
         <v>134</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="165"/>
-      <c r="D1880" s="166"/>
-      <c r="E1880" s="166"/>
+      <c r="C1880" s="168"/>
+      <c r="D1880" s="169"/>
+      <c r="E1880" s="169"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1881" s="79">
@@ -22299,9 +22458,9 @@
         <v>135</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="165"/>
-      <c r="D1897" s="166"/>
-      <c r="E1897" s="166"/>
+      <c r="C1897" s="168"/>
+      <c r="D1897" s="169"/>
+      <c r="E1897" s="169"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1898" s="79">
@@ -22452,335 +22611,407 @@
         <v>136</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="169"/>
-      <c r="D1914" s="170"/>
-      <c r="E1914" s="170"/>
-    </row>
-    <row r="1915" spans="1:5" ht="18" outlineLevel="1">
+      <c r="C1914" s="184" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1914" s="185"/>
+      <c r="E1914" s="185"/>
+    </row>
+    <row r="1915" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1915" s="83" t="s">
         <v>137</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="165"/>
-      <c r="D1915" s="166"/>
-      <c r="E1915" s="166"/>
-    </row>
-    <row r="1916" spans="1:5" outlineLevel="2">
+      <c r="C1915" s="168" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1915" s="169"/>
+      <c r="E1915" s="169"/>
+    </row>
+    <row r="1916" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1916" s="84">
         <v>0</v>
       </c>
-      <c r="B1916" s="88"/>
-      <c r="C1916" s="33"/>
-      <c r="D1916" s="15"/>
+      <c r="B1916" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1916" s="154" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1916" s="152" t="s">
+        <v>352</v>
+      </c>
       <c r="E1916" s="15"/>
     </row>
-    <row r="1917" spans="1:5" outlineLevel="2">
+    <row r="1917" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1917" s="84">
         <v>1</v>
       </c>
-      <c r="B1917" s="88"/>
-      <c r="C1917" s="33"/>
-      <c r="D1917" s="15"/>
+      <c r="B1917" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1917" s="154" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1917" s="152" t="s">
+        <v>353</v>
+      </c>
       <c r="E1917" s="15"/>
     </row>
-    <row r="1918" spans="1:5" outlineLevel="2">
+    <row r="1918" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1918" s="84">
         <v>2</v>
       </c>
-      <c r="B1918" s="88"/>
-      <c r="C1918" s="33"/>
-      <c r="D1918" s="15"/>
+      <c r="B1918" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1918" s="154" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1918" s="152" t="s">
+        <v>354</v>
+      </c>
       <c r="E1918" s="15"/>
     </row>
-    <row r="1919" spans="1:5" outlineLevel="2">
+    <row r="1919" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1919" s="84">
         <v>3</v>
       </c>
-      <c r="B1919" s="88"/>
-      <c r="C1919" s="33"/>
-      <c r="D1919" s="15"/>
+      <c r="B1919" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1919" s="154" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1919" s="152" t="s">
+        <v>355</v>
+      </c>
       <c r="E1919" s="15"/>
     </row>
-    <row r="1920" spans="1:5" outlineLevel="2">
+    <row r="1920" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1920" s="84">
         <v>4</v>
       </c>
-      <c r="B1920" s="88"/>
-      <c r="C1920" s="33"/>
+      <c r="B1920" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1920" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1920" s="152" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E1920" s="15"/>
     </row>
-    <row r="1921" spans="1:5" outlineLevel="2">
+    <row r="1921" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1921" s="84">
         <v>5</v>
       </c>
-      <c r="B1921" s="88"/>
-      <c r="C1921" s="33"/>
+      <c r="B1921" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1921" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1921" s="152" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E1921" s="15"/>
     </row>
-    <row r="1922" spans="1:5" outlineLevel="2">
+    <row r="1922" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1922" s="84">
         <v>6</v>
       </c>
-      <c r="B1922" s="88"/>
-      <c r="C1922" s="33"/>
+      <c r="B1922" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1922" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1922" s="152" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E1922" s="15"/>
     </row>
-    <row r="1923" spans="1:5" outlineLevel="2">
+    <row r="1923" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1923" s="84">
         <v>7</v>
       </c>
-      <c r="B1923" s="88"/>
-      <c r="C1923" s="33"/>
+      <c r="B1923" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1923" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1923" s="152" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E1923" s="15"/>
     </row>
-    <row r="1924" spans="1:5" outlineLevel="2">
+    <row r="1924" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1924" s="84">
         <v>8</v>
       </c>
       <c r="B1924" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C1924" s="154" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D1924" s="152" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E1924" s="15"/>
     </row>
-    <row r="1925" spans="1:5" outlineLevel="2">
+    <row r="1925" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1925" s="84">
         <v>9</v>
       </c>
-      <c r="B1925" s="88"/>
-      <c r="C1925" s="33"/>
+      <c r="B1925" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1925" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1925" s="152" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E1925" s="15"/>
     </row>
-    <row r="1926" spans="1:5" outlineLevel="2">
+    <row r="1926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1926" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B1926" s="88"/>
-      <c r="C1926" s="33"/>
+      <c r="B1926" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1926" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1926" s="152" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E1926" s="15"/>
     </row>
-    <row r="1927" spans="1:5" outlineLevel="2">
+    <row r="1927" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1927" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1927" s="88"/>
-      <c r="C1927" s="33"/>
+      <c r="B1927" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1927" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1927" s="152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E1927" s="15"/>
     </row>
-    <row r="1928" spans="1:5" outlineLevel="2">
+    <row r="1928" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1928" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1928" s="88"/>
-      <c r="C1928" s="33"/>
+      <c r="B1928" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1928" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1928" s="152" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E1928" s="15"/>
     </row>
-    <row r="1929" spans="1:5" outlineLevel="2">
+    <row r="1929" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1929" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B1929" s="88"/>
-      <c r="C1929" s="33"/>
+      <c r="B1929" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1929" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1929" s="152" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E1929" s="15"/>
     </row>
-    <row r="1930" spans="1:5" outlineLevel="2">
+    <row r="1930" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1930" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1930" s="88"/>
-      <c r="C1930" s="33"/>
+      <c r="B1930" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1930" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1930" s="152" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E1930" s="15"/>
     </row>
-    <row r="1931" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="1931" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A1931" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B1931" s="89"/>
-      <c r="C1931" s="34"/>
+      <c r="B1931" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1931" s="154" t="s">
+        <v>327</v>
+      </c>
       <c r="D1931" s="155" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E1931" s="16"/>
     </row>
-    <row r="1932" spans="1:5" ht="18" outlineLevel="1">
+    <row r="1932" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1932" s="86" t="s">
         <v>138</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="167" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1932" s="168"/>
-      <c r="E1932" s="168"/>
-    </row>
-    <row r="1933" spans="1:5" outlineLevel="2">
+      <c r="C1932" s="170" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1932" s="171"/>
+      <c r="E1932" s="171"/>
+    </row>
+    <row r="1933" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1933" s="84">
         <v>0</v>
       </c>
       <c r="B1933" s="88"/>
       <c r="C1933" s="33"/>
       <c r="D1933" s="152" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E1933" s="15"/>
     </row>
-    <row r="1934" spans="1:5" outlineLevel="2">
+    <row r="1934" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1934" s="84">
         <v>1</v>
       </c>
       <c r="B1934" s="88"/>
       <c r="C1934" s="33"/>
       <c r="D1934" s="152" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E1934" s="15"/>
     </row>
-    <row r="1935" spans="1:5" outlineLevel="2">
+    <row r="1935" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1935" s="84">
         <v>2</v>
       </c>
       <c r="B1935" s="88"/>
       <c r="C1935" s="33"/>
       <c r="D1935" s="152" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E1935" s="15"/>
     </row>
-    <row r="1936" spans="1:5" outlineLevel="2">
+    <row r="1936" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1936" s="84">
         <v>3</v>
       </c>
       <c r="B1936" s="88"/>
       <c r="C1936" s="33"/>
       <c r="D1936" s="152" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E1936" s="15"/>
     </row>
-    <row r="1937" spans="1:5" outlineLevel="2">
+    <row r="1937" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1937" s="84">
         <v>4</v>
       </c>
       <c r="B1937" s="88"/>
       <c r="C1937" s="33"/>
       <c r="D1937" s="152" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E1937" s="15"/>
     </row>
-    <row r="1938" spans="1:5" outlineLevel="2">
+    <row r="1938" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1938" s="84">
         <v>5</v>
       </c>
       <c r="B1938" s="88"/>
       <c r="C1938" s="33"/>
       <c r="D1938" s="152" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E1938" s="15"/>
     </row>
-    <row r="1939" spans="1:5" outlineLevel="2">
+    <row r="1939" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1939" s="84">
         <v>6</v>
       </c>
       <c r="B1939" s="88"/>
       <c r="C1939" s="33"/>
       <c r="D1939" s="152" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E1939" s="15"/>
     </row>
-    <row r="1940" spans="1:5" outlineLevel="2">
+    <row r="1940" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1940" s="84">
         <v>7</v>
       </c>
       <c r="B1940" s="88"/>
       <c r="C1940" s="33"/>
       <c r="D1940" s="152" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E1940" s="15"/>
     </row>
-    <row r="1941" spans="1:5" outlineLevel="2">
+    <row r="1941" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1941" s="84">
         <v>8</v>
       </c>
       <c r="B1941" s="88"/>
       <c r="C1941" s="33"/>
       <c r="D1941" s="152" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E1941" s="15"/>
     </row>
-    <row r="1942" spans="1:5" outlineLevel="2">
+    <row r="1942" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1942" s="84">
         <v>9</v>
       </c>
       <c r="B1942" s="88"/>
       <c r="C1942" s="33"/>
       <c r="D1942" s="152" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E1942" s="15"/>
     </row>
-    <row r="1943" spans="1:5" outlineLevel="2">
+    <row r="1943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1943" s="84" t="s">
         <v>2</v>
       </c>
       <c r="B1943" s="88"/>
       <c r="C1943" s="33"/>
       <c r="D1943" s="152" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E1943" s="15"/>
     </row>
-    <row r="1944" spans="1:5" outlineLevel="2">
+    <row r="1944" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1944" s="84" t="s">
         <v>3</v>
       </c>
       <c r="B1944" s="88"/>
       <c r="C1944" s="33"/>
       <c r="D1944" s="152" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E1944" s="15"/>
     </row>
-    <row r="1945" spans="1:5" outlineLevel="2">
+    <row r="1945" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1945" s="84" t="s">
         <v>4</v>
       </c>
@@ -22793,7 +23024,7 @@
       </c>
       <c r="E1945" s="15"/>
     </row>
-    <row r="1946" spans="1:5" outlineLevel="2">
+    <row r="1946" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1946" s="84" t="s">
         <v>5</v>
       </c>
@@ -22804,7 +23035,7 @@
       </c>
       <c r="E1946" s="15"/>
     </row>
-    <row r="1947" spans="1:5" outlineLevel="2">
+    <row r="1947" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1947" s="84" t="s">
         <v>6</v>
       </c>
@@ -22817,7 +23048,7 @@
       </c>
       <c r="E1947" s="15"/>
     </row>
-    <row r="1948" spans="1:5" outlineLevel="2">
+    <row r="1948" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1948" s="84" t="s">
         <v>7</v>
       </c>
@@ -22828,18 +23059,18 @@
       </c>
       <c r="E1948" s="15"/>
     </row>
-    <row r="1949" spans="1:5" ht="18" outlineLevel="1">
+    <row r="1949" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1949" s="83" t="s">
         <v>139</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="165" t="s">
+      <c r="C1949" s="168" t="s">
         <v>245</v>
       </c>
-      <c r="D1949" s="166"/>
-      <c r="E1949" s="166"/>
-    </row>
-    <row r="1950" spans="1:5" outlineLevel="2">
+      <c r="D1949" s="169"/>
+      <c r="E1949" s="169"/>
+    </row>
+    <row r="1950" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1950" s="84">
         <v>0</v>
       </c>
@@ -22852,7 +23083,7 @@
       </c>
       <c r="E1950" s="15"/>
     </row>
-    <row r="1951" spans="1:5" outlineLevel="2">
+    <row r="1951" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1951" s="84">
         <v>1</v>
       </c>
@@ -22863,7 +23094,7 @@
       </c>
       <c r="E1951" s="15"/>
     </row>
-    <row r="1952" spans="1:5" outlineLevel="2">
+    <row r="1952" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1952" s="84">
         <v>2</v>
       </c>
@@ -22876,7 +23107,7 @@
       </c>
       <c r="E1952" s="15"/>
     </row>
-    <row r="1953" spans="1:5" outlineLevel="2">
+    <row r="1953" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1953" s="84">
         <v>3</v>
       </c>
@@ -22887,7 +23118,7 @@
       </c>
       <c r="E1953" s="15"/>
     </row>
-    <row r="1954" spans="1:5" outlineLevel="2">
+    <row r="1954" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1954" s="84">
         <v>4</v>
       </c>
@@ -22900,7 +23131,7 @@
       </c>
       <c r="E1954" s="15"/>
     </row>
-    <row r="1955" spans="1:5" outlineLevel="2">
+    <row r="1955" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1955" s="84">
         <v>5</v>
       </c>
@@ -22911,7 +23142,7 @@
       </c>
       <c r="E1955" s="15"/>
     </row>
-    <row r="1956" spans="1:5" outlineLevel="2">
+    <row r="1956" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1956" s="84">
         <v>6</v>
       </c>
@@ -22924,7 +23155,7 @@
       </c>
       <c r="E1956" s="15"/>
     </row>
-    <row r="1957" spans="1:5" outlineLevel="2">
+    <row r="1957" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1957" s="84">
         <v>7</v>
       </c>
@@ -22935,7 +23166,7 @@
       </c>
       <c r="E1957" s="15"/>
     </row>
-    <row r="1958" spans="1:5" outlineLevel="2">
+    <row r="1958" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1958" s="84">
         <v>8</v>
       </c>
@@ -22948,7 +23179,7 @@
       </c>
       <c r="E1958" s="15"/>
     </row>
-    <row r="1959" spans="1:5" outlineLevel="2">
+    <row r="1959" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1959" s="84">
         <v>9</v>
       </c>
@@ -22959,7 +23190,7 @@
       </c>
       <c r="E1959" s="15"/>
     </row>
-    <row r="1960" spans="1:5" outlineLevel="2">
+    <row r="1960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1960" s="84" t="s">
         <v>2</v>
       </c>
@@ -22972,7 +23203,7 @@
       </c>
       <c r="E1960" s="15"/>
     </row>
-    <row r="1961" spans="1:5" outlineLevel="2">
+    <row r="1961" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1961" s="84" t="s">
         <v>3</v>
       </c>
@@ -22983,7 +23214,7 @@
       </c>
       <c r="E1961" s="15"/>
     </row>
-    <row r="1962" spans="1:5" outlineLevel="2">
+    <row r="1962" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1962" s="84" t="s">
         <v>4</v>
       </c>
@@ -22996,7 +23227,7 @@
       </c>
       <c r="E1962" s="15"/>
     </row>
-    <row r="1963" spans="1:5" outlineLevel="2">
+    <row r="1963" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1963" s="84" t="s">
         <v>5</v>
       </c>
@@ -23007,7 +23238,7 @@
       </c>
       <c r="E1963" s="15"/>
     </row>
-    <row r="1964" spans="1:5" outlineLevel="2">
+    <row r="1964" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1964" s="84" t="s">
         <v>6</v>
       </c>
@@ -23020,7 +23251,7 @@
       </c>
       <c r="E1964" s="15"/>
     </row>
-    <row r="1965" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="1965" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A1965" s="85" t="s">
         <v>7</v>
       </c>
@@ -23031,18 +23262,18 @@
       </c>
       <c r="E1965" s="16"/>
     </row>
-    <row r="1966" spans="1:5" ht="18" outlineLevel="1">
+    <row r="1966" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1966" s="83" t="s">
         <v>140</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="165" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1966" s="166"/>
-      <c r="E1966" s="166"/>
-    </row>
-    <row r="1967" spans="1:5" outlineLevel="2">
+      <c r="C1966" s="168" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1966" s="169"/>
+      <c r="E1966" s="169"/>
+    </row>
+    <row r="1967" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1967" s="84">
         <v>0</v>
       </c>
@@ -23055,7 +23286,7 @@
       </c>
       <c r="E1967" s="15"/>
     </row>
-    <row r="1968" spans="1:5" outlineLevel="2">
+    <row r="1968" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1968" s="84">
         <v>1</v>
       </c>
@@ -23066,7 +23297,7 @@
       </c>
       <c r="E1968" s="15"/>
     </row>
-    <row r="1969" spans="1:5" outlineLevel="2">
+    <row r="1969" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1969" s="84">
         <v>2</v>
       </c>
@@ -23079,7 +23310,7 @@
       </c>
       <c r="E1969" s="15"/>
     </row>
-    <row r="1970" spans="1:5" outlineLevel="2">
+    <row r="1970" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1970" s="84">
         <v>3</v>
       </c>
@@ -23090,7 +23321,7 @@
       </c>
       <c r="E1970" s="15"/>
     </row>
-    <row r="1971" spans="1:5" outlineLevel="2">
+    <row r="1971" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1971" s="84">
         <v>4</v>
       </c>
@@ -23103,7 +23334,7 @@
       </c>
       <c r="E1971" s="15"/>
     </row>
-    <row r="1972" spans="1:5" outlineLevel="2">
+    <row r="1972" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1972" s="84">
         <v>5</v>
       </c>
@@ -23114,7 +23345,7 @@
       </c>
       <c r="E1972" s="15"/>
     </row>
-    <row r="1973" spans="1:5" outlineLevel="2">
+    <row r="1973" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1973" s="84">
         <v>6</v>
       </c>
@@ -23127,7 +23358,7 @@
       </c>
       <c r="E1973" s="15"/>
     </row>
-    <row r="1974" spans="1:5" outlineLevel="2">
+    <row r="1974" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1974" s="84">
         <v>7</v>
       </c>
@@ -23138,7 +23369,7 @@
       </c>
       <c r="E1974" s="15"/>
     </row>
-    <row r="1975" spans="1:5" outlineLevel="2">
+    <row r="1975" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1975" s="84">
         <v>8</v>
       </c>
@@ -23151,7 +23382,7 @@
       </c>
       <c r="E1975" s="15"/>
     </row>
-    <row r="1976" spans="1:5" outlineLevel="2">
+    <row r="1976" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1976" s="84">
         <v>9</v>
       </c>
@@ -23162,7 +23393,7 @@
       </c>
       <c r="E1976" s="15"/>
     </row>
-    <row r="1977" spans="1:5" outlineLevel="2">
+    <row r="1977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1977" s="84" t="s">
         <v>2</v>
       </c>
@@ -23175,7 +23406,7 @@
       </c>
       <c r="E1977" s="15"/>
     </row>
-    <row r="1978" spans="1:5" outlineLevel="2">
+    <row r="1978" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1978" s="84" t="s">
         <v>3</v>
       </c>
@@ -23186,40 +23417,48 @@
       </c>
       <c r="E1978" s="15"/>
     </row>
-    <row r="1979" spans="1:5" outlineLevel="2">
+    <row r="1979" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1979" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1979" s="88"/>
-      <c r="C1979" s="33"/>
-      <c r="D1979" s="15"/>
+      <c r="B1979" s="153"/>
+      <c r="C1979" s="154"/>
+      <c r="D1979" s="152" t="s">
+        <v>398</v>
+      </c>
       <c r="E1979" s="15"/>
     </row>
-    <row r="1980" spans="1:5" outlineLevel="2">
+    <row r="1980" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1980" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B1980" s="88"/>
       <c r="C1980" s="33"/>
-      <c r="D1980" s="15"/>
+      <c r="D1980" s="152" t="s">
+        <v>398</v>
+      </c>
       <c r="E1980" s="15"/>
     </row>
-    <row r="1981" spans="1:5" outlineLevel="2">
+    <row r="1981" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1981" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B1981" s="88"/>
       <c r="C1981" s="33"/>
-      <c r="D1981" s="15"/>
+      <c r="D1981" s="152" t="s">
+        <v>399</v>
+      </c>
       <c r="E1981" s="15"/>
     </row>
-    <row r="1982" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="1982" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A1982" s="85" t="s">
         <v>7</v>
       </c>
       <c r="B1982" s="89"/>
       <c r="C1982" s="34"/>
-      <c r="D1982" s="16"/>
+      <c r="D1982" s="155" t="s">
+        <v>400</v>
+      </c>
       <c r="E1982" s="16"/>
     </row>
     <row r="1983" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
@@ -23227,9 +23466,11 @@
         <v>141</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="165"/>
-      <c r="D1983" s="166"/>
-      <c r="E1983" s="166"/>
+      <c r="C1983" s="168" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1983" s="169"/>
+      <c r="E1983" s="169"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1984" s="84">
@@ -23237,7 +23478,9 @@
       </c>
       <c r="B1984" s="88"/>
       <c r="C1984" s="33"/>
-      <c r="D1984" s="15"/>
+      <c r="D1984" s="152" t="s">
+        <v>401</v>
+      </c>
       <c r="E1984" s="15"/>
     </row>
     <row r="1985" spans="1:5" hidden="1" outlineLevel="2">
@@ -23246,7 +23489,9 @@
       </c>
       <c r="B1985" s="88"/>
       <c r="C1985" s="33"/>
-      <c r="D1985" s="15"/>
+      <c r="D1985" s="152" t="s">
+        <v>402</v>
+      </c>
       <c r="E1985" s="15"/>
     </row>
     <row r="1986" spans="1:5" hidden="1" outlineLevel="2">
@@ -23255,7 +23500,9 @@
       </c>
       <c r="B1986" s="88"/>
       <c r="C1986" s="33"/>
-      <c r="D1986" s="15"/>
+      <c r="D1986" s="152" t="s">
+        <v>403</v>
+      </c>
       <c r="E1986" s="15"/>
     </row>
     <row r="1987" spans="1:5" hidden="1" outlineLevel="2">
@@ -23264,16 +23511,24 @@
       </c>
       <c r="B1987" s="88"/>
       <c r="C1987" s="33"/>
-      <c r="D1987" s="15"/>
+      <c r="D1987" s="152" t="s">
+        <v>403</v>
+      </c>
       <c r="E1987" s="15"/>
     </row>
     <row r="1988" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1988" s="84">
         <v>4</v>
       </c>
-      <c r="B1988" s="88"/>
-      <c r="C1988" s="33"/>
-      <c r="D1988" s="15"/>
+      <c r="B1988" s="153" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1988" s="154" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1988" s="152" t="s">
+        <v>357</v>
+      </c>
       <c r="E1988" s="15"/>
     </row>
     <row r="1989" spans="1:5" hidden="1" outlineLevel="2">
@@ -23282,7 +23537,9 @@
       </c>
       <c r="B1989" s="88"/>
       <c r="C1989" s="33"/>
-      <c r="D1989" s="15"/>
+      <c r="D1989" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E1989" s="15"/>
     </row>
     <row r="1990" spans="1:5" hidden="1" outlineLevel="2">
@@ -23291,16 +23548,24 @@
       </c>
       <c r="B1990" s="88"/>
       <c r="C1990" s="33"/>
-      <c r="D1990" s="15"/>
+      <c r="D1990" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E1990" s="15"/>
     </row>
     <row r="1991" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1991" s="84">
         <v>7</v>
       </c>
-      <c r="B1991" s="88"/>
-      <c r="C1991" s="33"/>
-      <c r="D1991" s="15"/>
+      <c r="B1991" s="153" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1991" s="154" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1991" s="152" t="s">
+        <v>359</v>
+      </c>
       <c r="E1991" s="15"/>
     </row>
     <row r="1992" spans="1:5" hidden="1" outlineLevel="2">
@@ -23309,7 +23574,9 @@
       </c>
       <c r="B1992" s="88"/>
       <c r="C1992" s="33"/>
-      <c r="D1992" s="15"/>
+      <c r="D1992" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E1992" s="15"/>
     </row>
     <row r="1993" spans="1:5" hidden="1" outlineLevel="2">
@@ -23318,16 +23585,24 @@
       </c>
       <c r="B1993" s="88"/>
       <c r="C1993" s="33"/>
-      <c r="D1993" s="15"/>
+      <c r="D1993" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E1993" s="15"/>
     </row>
     <row r="1994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1994" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B1994" s="88"/>
-      <c r="C1994" s="33"/>
-      <c r="D1994" s="15"/>
+      <c r="B1994" s="153" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1994" s="154" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1994" s="152" t="s">
+        <v>358</v>
+      </c>
       <c r="E1994" s="15"/>
     </row>
     <row r="1995" spans="1:5" hidden="1" outlineLevel="2">
@@ -23336,7 +23611,9 @@
       </c>
       <c r="B1995" s="88"/>
       <c r="C1995" s="33"/>
-      <c r="D1995" s="15"/>
+      <c r="D1995" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E1995" s="15"/>
     </row>
     <row r="1996" spans="1:5" hidden="1" outlineLevel="2">
@@ -23345,16 +23622,24 @@
       </c>
       <c r="B1996" s="88"/>
       <c r="C1996" s="33"/>
-      <c r="D1996" s="15"/>
+      <c r="D1996" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E1996" s="15"/>
     </row>
     <row r="1997" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1997" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B1997" s="88"/>
-      <c r="C1997" s="33"/>
-      <c r="D1997" s="15"/>
+      <c r="B1997" s="153" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1997" s="154" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1997" s="152" t="s">
+        <v>360</v>
+      </c>
       <c r="E1997" s="15"/>
     </row>
     <row r="1998" spans="1:5" hidden="1" outlineLevel="2">
@@ -23363,16 +23648,20 @@
       </c>
       <c r="B1998" s="88"/>
       <c r="C1998" s="33"/>
-      <c r="D1998" s="15"/>
+      <c r="D1998" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E1998" s="15"/>
     </row>
     <row r="1999" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A1999" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B1999" s="89"/>
-      <c r="C1999" s="34"/>
-      <c r="D1999" s="16"/>
+      <c r="B1999" s="88"/>
+      <c r="C1999" s="33"/>
+      <c r="D1999" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E1999" s="16"/>
     </row>
     <row r="2000" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
@@ -23380,17 +23669,23 @@
         <v>142</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="165"/>
-      <c r="D2000" s="166"/>
-      <c r="E2000" s="166"/>
+      <c r="C2000" s="168" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2000" s="169"/>
+      <c r="E2000" s="169"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2001" s="84">
         <v>0</v>
       </c>
-      <c r="B2001" s="88"/>
+      <c r="B2001" s="153" t="s">
+        <v>290</v>
+      </c>
       <c r="C2001" s="33"/>
-      <c r="D2001" s="15"/>
+      <c r="D2001" s="152" t="s">
+        <v>376</v>
+      </c>
       <c r="E2001" s="15"/>
     </row>
     <row r="2002" spans="1:5" hidden="1" outlineLevel="2">
@@ -23399,7 +23694,9 @@
       </c>
       <c r="B2002" s="88"/>
       <c r="C2002" s="33"/>
-      <c r="D2002" s="15"/>
+      <c r="D2002" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E2002" s="15"/>
     </row>
     <row r="2003" spans="1:5" hidden="1" outlineLevel="2">
@@ -23408,16 +23705,22 @@
       </c>
       <c r="B2003" s="88"/>
       <c r="C2003" s="33"/>
-      <c r="D2003" s="15"/>
+      <c r="D2003" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E2003" s="15"/>
     </row>
     <row r="2004" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2004" s="84">
         <v>3</v>
       </c>
-      <c r="B2004" s="88"/>
+      <c r="B2004" s="153" t="s">
+        <v>375</v>
+      </c>
       <c r="C2004" s="33"/>
-      <c r="D2004" s="15"/>
+      <c r="D2004" s="152" t="s">
+        <v>377</v>
+      </c>
       <c r="E2004" s="15"/>
     </row>
     <row r="2005" spans="1:5" hidden="1" outlineLevel="2">
@@ -23426,7 +23729,9 @@
       </c>
       <c r="B2005" s="88"/>
       <c r="C2005" s="33"/>
-      <c r="D2005" s="15"/>
+      <c r="D2005" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E2005" s="15"/>
     </row>
     <row r="2006" spans="1:5" hidden="1" outlineLevel="2">
@@ -23435,16 +23740,22 @@
       </c>
       <c r="B2006" s="88"/>
       <c r="C2006" s="33"/>
-      <c r="D2006" s="15"/>
+      <c r="D2006" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E2006" s="15"/>
     </row>
     <row r="2007" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2007" s="84">
         <v>6</v>
       </c>
-      <c r="B2007" s="88"/>
+      <c r="B2007" s="153" t="s">
+        <v>290</v>
+      </c>
       <c r="C2007" s="33"/>
-      <c r="D2007" s="15"/>
+      <c r="D2007" s="152" t="s">
+        <v>378</v>
+      </c>
       <c r="E2007" s="15"/>
     </row>
     <row r="2008" spans="1:5" hidden="1" outlineLevel="2">
@@ -23453,7 +23764,9 @@
       </c>
       <c r="B2008" s="88"/>
       <c r="C2008" s="33"/>
-      <c r="D2008" s="15"/>
+      <c r="D2008" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E2008" s="15"/>
     </row>
     <row r="2009" spans="1:5" hidden="1" outlineLevel="2">
@@ -23462,16 +23775,22 @@
       </c>
       <c r="B2009" s="88"/>
       <c r="C2009" s="33"/>
-      <c r="D2009" s="15"/>
+      <c r="D2009" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E2009" s="15"/>
     </row>
     <row r="2010" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2010" s="84">
         <v>9</v>
       </c>
-      <c r="B2010" s="88"/>
+      <c r="B2010" s="153" t="s">
+        <v>290</v>
+      </c>
       <c r="C2010" s="33"/>
-      <c r="D2010" s="15"/>
+      <c r="D2010" s="152" t="s">
+        <v>379</v>
+      </c>
       <c r="E2010" s="15"/>
     </row>
     <row r="2011" spans="1:5" hidden="1" outlineLevel="2">
@@ -23480,7 +23799,9 @@
       </c>
       <c r="B2011" s="88"/>
       <c r="C2011" s="33"/>
-      <c r="D2011" s="15"/>
+      <c r="D2011" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E2011" s="15"/>
     </row>
     <row r="2012" spans="1:5" hidden="1" outlineLevel="2">
@@ -23489,7 +23810,9 @@
       </c>
       <c r="B2012" s="88"/>
       <c r="C2012" s="33"/>
-      <c r="D2012" s="15"/>
+      <c r="D2012" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E2012" s="15"/>
     </row>
     <row r="2013" spans="1:5" hidden="1" outlineLevel="2">
@@ -23498,7 +23821,9 @@
       </c>
       <c r="B2013" s="88"/>
       <c r="C2013" s="33"/>
-      <c r="D2013" s="15"/>
+      <c r="D2013" s="152" t="s">
+        <v>361</v>
+      </c>
       <c r="E2013" s="15"/>
     </row>
     <row r="2014" spans="1:5" hidden="1" outlineLevel="2">
@@ -23507,7 +23832,9 @@
       </c>
       <c r="B2014" s="88"/>
       <c r="C2014" s="33"/>
-      <c r="D2014" s="15"/>
+      <c r="D2014" s="152" t="s">
+        <v>362</v>
+      </c>
       <c r="E2014" s="15"/>
     </row>
     <row r="2015" spans="1:5" hidden="1" outlineLevel="2">
@@ -23516,7 +23843,9 @@
       </c>
       <c r="B2015" s="88"/>
       <c r="C2015" s="33"/>
-      <c r="D2015" s="15"/>
+      <c r="D2015" s="152" t="s">
+        <v>363</v>
+      </c>
       <c r="E2015" s="15"/>
     </row>
     <row r="2016" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
@@ -23525,7 +23854,9 @@
       </c>
       <c r="B2016" s="89"/>
       <c r="C2016" s="34"/>
-      <c r="D2016" s="16"/>
+      <c r="D2016" s="155" t="s">
+        <v>364</v>
+      </c>
       <c r="E2016" s="16"/>
     </row>
     <row r="2017" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
@@ -23533,9 +23864,11 @@
         <v>143</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="165"/>
-      <c r="D2017" s="166"/>
-      <c r="E2017" s="166"/>
+      <c r="C2017" s="168" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2017" s="169"/>
+      <c r="E2017" s="169"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2018" s="84">
@@ -23543,7 +23876,9 @@
       </c>
       <c r="B2018" s="88"/>
       <c r="C2018" s="33"/>
-      <c r="D2018" s="15"/>
+      <c r="D2018" s="152" t="s">
+        <v>365</v>
+      </c>
       <c r="E2018" s="15"/>
     </row>
     <row r="2019" spans="1:5" hidden="1" outlineLevel="2">
@@ -23552,7 +23887,9 @@
       </c>
       <c r="B2019" s="88"/>
       <c r="C2019" s="33"/>
-      <c r="D2019" s="15"/>
+      <c r="D2019" s="152" t="s">
+        <v>366</v>
+      </c>
       <c r="E2019" s="15"/>
     </row>
     <row r="2020" spans="1:5" hidden="1" outlineLevel="2">
@@ -23561,7 +23898,9 @@
       </c>
       <c r="B2020" s="88"/>
       <c r="C2020" s="33"/>
-      <c r="D2020" s="15"/>
+      <c r="D2020" s="152" t="s">
+        <v>367</v>
+      </c>
       <c r="E2020" s="15"/>
     </row>
     <row r="2021" spans="1:5" hidden="1" outlineLevel="2">
@@ -23570,7 +23909,9 @@
       </c>
       <c r="B2021" s="88"/>
       <c r="C2021" s="33"/>
-      <c r="D2021" s="15"/>
+      <c r="D2021" s="152" t="s">
+        <v>368</v>
+      </c>
       <c r="E2021" s="15"/>
     </row>
     <row r="2022" spans="1:5" hidden="1" outlineLevel="2">
@@ -23579,7 +23920,9 @@
       </c>
       <c r="B2022" s="88"/>
       <c r="C2022" s="33"/>
-      <c r="D2022" s="15"/>
+      <c r="D2022" s="152" t="s">
+        <v>369</v>
+      </c>
       <c r="E2022" s="15"/>
     </row>
     <row r="2023" spans="1:5" hidden="1" outlineLevel="2">
@@ -23588,7 +23931,9 @@
       </c>
       <c r="B2023" s="88"/>
       <c r="C2023" s="33"/>
-      <c r="D2023" s="15"/>
+      <c r="D2023" s="152" t="s">
+        <v>362</v>
+      </c>
       <c r="E2023" s="15"/>
     </row>
     <row r="2024" spans="1:5" hidden="1" outlineLevel="2">
@@ -23597,7 +23942,9 @@
       </c>
       <c r="B2024" s="88"/>
       <c r="C2024" s="33"/>
-      <c r="D2024" s="15"/>
+      <c r="D2024" s="152" t="s">
+        <v>363</v>
+      </c>
       <c r="E2024" s="15"/>
     </row>
     <row r="2025" spans="1:5" hidden="1" outlineLevel="2">
@@ -23606,7 +23953,9 @@
       </c>
       <c r="B2025" s="88"/>
       <c r="C2025" s="33"/>
-      <c r="D2025" s="15"/>
+      <c r="D2025" s="152" t="s">
+        <v>364</v>
+      </c>
       <c r="E2025" s="15"/>
     </row>
     <row r="2026" spans="1:5" hidden="1" outlineLevel="2">
@@ -23615,7 +23964,9 @@
       </c>
       <c r="B2026" s="88"/>
       <c r="C2026" s="33"/>
-      <c r="D2026" s="15"/>
+      <c r="D2026" s="152" t="s">
+        <v>370</v>
+      </c>
       <c r="E2026" s="15"/>
     </row>
     <row r="2027" spans="1:5" hidden="1" outlineLevel="2">
@@ -23624,7 +23975,9 @@
       </c>
       <c r="B2027" s="88"/>
       <c r="C2027" s="33"/>
-      <c r="D2027" s="15"/>
+      <c r="D2027" s="152" t="s">
+        <v>366</v>
+      </c>
       <c r="E2027" s="15"/>
     </row>
     <row r="2028" spans="1:5" hidden="1" outlineLevel="2">
@@ -23633,7 +23986,9 @@
       </c>
       <c r="B2028" s="88"/>
       <c r="C2028" s="33"/>
-      <c r="D2028" s="15"/>
+      <c r="D2028" s="152" t="s">
+        <v>367</v>
+      </c>
       <c r="E2028" s="15"/>
     </row>
     <row r="2029" spans="1:5" hidden="1" outlineLevel="2">
@@ -23642,7 +23997,9 @@
       </c>
       <c r="B2029" s="88"/>
       <c r="C2029" s="33"/>
-      <c r="D2029" s="15"/>
+      <c r="D2029" s="152" t="s">
+        <v>368</v>
+      </c>
       <c r="E2029" s="15"/>
     </row>
     <row r="2030" spans="1:5" hidden="1" outlineLevel="2">
@@ -23651,7 +24008,9 @@
       </c>
       <c r="B2030" s="88"/>
       <c r="C2030" s="33"/>
-      <c r="D2030" s="15"/>
+      <c r="D2030" s="152" t="s">
+        <v>371</v>
+      </c>
       <c r="E2030" s="15"/>
     </row>
     <row r="2031" spans="1:5" hidden="1" outlineLevel="2">
@@ -23660,7 +24019,9 @@
       </c>
       <c r="B2031" s="88"/>
       <c r="C2031" s="33"/>
-      <c r="D2031" s="15"/>
+      <c r="D2031" s="152" t="s">
+        <v>362</v>
+      </c>
       <c r="E2031" s="15"/>
     </row>
     <row r="2032" spans="1:5" hidden="1" outlineLevel="2">
@@ -23669,7 +24030,9 @@
       </c>
       <c r="B2032" s="88"/>
       <c r="C2032" s="33"/>
-      <c r="D2032" s="15"/>
+      <c r="D2032" s="152" t="s">
+        <v>363</v>
+      </c>
       <c r="E2032" s="15"/>
     </row>
     <row r="2033" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
@@ -23678,602 +24041,640 @@
       </c>
       <c r="B2033" s="89"/>
       <c r="C2033" s="34"/>
-      <c r="D2033" s="16"/>
+      <c r="D2033" s="152" t="s">
+        <v>364</v>
+      </c>
       <c r="E2033" s="16"/>
     </row>
-    <row r="2034" spans="1:5" ht="18" outlineLevel="1">
+    <row r="2034" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2034" s="83" t="s">
         <v>144</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="165" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2034" s="166"/>
-      <c r="E2034" s="166"/>
-    </row>
-    <row r="2035" spans="1:5" outlineLevel="2">
+      <c r="C2034" s="168" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2034" s="169"/>
+      <c r="E2034" s="169"/>
+    </row>
+    <row r="2035" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2035" s="84">
         <v>0</v>
       </c>
       <c r="B2035" s="88"/>
       <c r="C2035" s="33"/>
-      <c r="D2035" s="15"/>
+      <c r="D2035" s="152" t="s">
+        <v>370</v>
+      </c>
       <c r="E2035" s="15"/>
     </row>
-    <row r="2036" spans="1:5" outlineLevel="2">
+    <row r="2036" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2036" s="84">
         <v>1</v>
       </c>
       <c r="B2036" s="88"/>
       <c r="C2036" s="33"/>
-      <c r="D2036" s="15"/>
+      <c r="D2036" s="152" t="s">
+        <v>366</v>
+      </c>
       <c r="E2036" s="15"/>
     </row>
-    <row r="2037" spans="1:5" outlineLevel="2">
+    <row r="2037" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2037" s="84">
         <v>2</v>
       </c>
       <c r="B2037" s="88"/>
       <c r="C2037" s="33"/>
-      <c r="D2037" s="15"/>
+      <c r="D2037" s="152" t="s">
+        <v>367</v>
+      </c>
       <c r="E2037" s="15"/>
     </row>
-    <row r="2038" spans="1:5" outlineLevel="2">
+    <row r="2038" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2038" s="84">
         <v>3</v>
       </c>
       <c r="B2038" s="88"/>
       <c r="C2038" s="33"/>
-      <c r="D2038" s="15"/>
+      <c r="D2038" s="152" t="s">
+        <v>368</v>
+      </c>
       <c r="E2038" s="15"/>
     </row>
-    <row r="2039" spans="1:5" outlineLevel="2">
+    <row r="2039" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2039" s="84">
         <v>4</v>
       </c>
       <c r="B2039" s="88"/>
       <c r="C2039" s="33"/>
-      <c r="D2039" s="15"/>
+      <c r="D2039" s="152" t="s">
+        <v>373</v>
+      </c>
       <c r="E2039" s="15"/>
     </row>
-    <row r="2040" spans="1:5" outlineLevel="2">
+    <row r="2040" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2040" s="84">
         <v>5</v>
       </c>
       <c r="B2040" s="88"/>
       <c r="C2040" s="33"/>
-      <c r="D2040" s="15"/>
+      <c r="D2040" s="152" t="s">
+        <v>362</v>
+      </c>
       <c r="E2040" s="15"/>
     </row>
-    <row r="2041" spans="1:5" outlineLevel="2">
+    <row r="2041" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2041" s="84">
         <v>6</v>
       </c>
       <c r="B2041" s="88"/>
       <c r="C2041" s="33"/>
-      <c r="D2041" s="15"/>
+      <c r="D2041" s="152" t="s">
+        <v>363</v>
+      </c>
       <c r="E2041" s="15"/>
     </row>
-    <row r="2042" spans="1:5" outlineLevel="2">
+    <row r="2042" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2042" s="84">
         <v>7</v>
       </c>
       <c r="B2042" s="88"/>
       <c r="C2042" s="33"/>
-      <c r="D2042" s="15"/>
+      <c r="D2042" s="152" t="s">
+        <v>364</v>
+      </c>
       <c r="E2042" s="15"/>
     </row>
-    <row r="2043" spans="1:5" outlineLevel="2">
+    <row r="2043" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2043" s="84">
         <v>8</v>
       </c>
       <c r="B2043" s="88"/>
       <c r="C2043" s="33"/>
-      <c r="D2043" s="15"/>
+      <c r="D2043" s="152" t="s">
+        <v>370</v>
+      </c>
       <c r="E2043" s="15"/>
     </row>
-    <row r="2044" spans="1:5" outlineLevel="2">
+    <row r="2044" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2044" s="84">
         <v>9</v>
       </c>
       <c r="B2044" s="88"/>
       <c r="C2044" s="33"/>
-      <c r="D2044" s="15"/>
+      <c r="D2044" s="152" t="s">
+        <v>366</v>
+      </c>
       <c r="E2044" s="15"/>
     </row>
-    <row r="2045" spans="1:5" outlineLevel="2">
+    <row r="2045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2045" s="84" t="s">
         <v>2</v>
       </c>
       <c r="B2045" s="88"/>
       <c r="C2045" s="33"/>
-      <c r="D2045" s="15"/>
+      <c r="D2045" s="152" t="s">
+        <v>367</v>
+      </c>
       <c r="E2045" s="15"/>
     </row>
-    <row r="2046" spans="1:5" outlineLevel="2">
+    <row r="2046" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2046" s="84" t="s">
         <v>3</v>
       </c>
       <c r="B2046" s="88"/>
       <c r="C2046" s="33"/>
-      <c r="D2046" s="15"/>
+      <c r="D2046" s="152" t="s">
+        <v>368</v>
+      </c>
       <c r="E2046" s="15"/>
     </row>
-    <row r="2047" spans="1:5" outlineLevel="2">
+    <row r="2047" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2047" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B2047" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2047" s="33"/>
       <c r="D2047" s="152" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E2047" s="152" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2048" spans="1:5" outlineLevel="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2048" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B2048" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2048" s="33"/>
       <c r="D2048" s="152" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E2048" s="15"/>
     </row>
-    <row r="2049" spans="1:5" outlineLevel="2">
+    <row r="2049" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2049" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B2049" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2049" s="33"/>
       <c r="D2049" s="152" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E2049" s="15"/>
     </row>
-    <row r="2050" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="2050" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A2050" s="85" t="s">
         <v>7</v>
       </c>
       <c r="B2050" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2050" s="34"/>
       <c r="D2050" s="152" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E2050" s="16"/>
     </row>
-    <row r="2051" spans="1:5" ht="18" outlineLevel="1">
+    <row r="2051" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2051" s="83" t="s">
         <v>145</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2051" s="166"/>
-      <c r="E2051" s="166"/>
-    </row>
-    <row r="2052" spans="1:5" outlineLevel="2">
+      <c r="C2051" s="168" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2051" s="169"/>
+      <c r="E2051" s="169"/>
+    </row>
+    <row r="2052" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2052" s="84">
         <v>0</v>
       </c>
       <c r="B2052" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2052" s="33"/>
       <c r="D2052" s="152" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E2052" s="15"/>
     </row>
-    <row r="2053" spans="1:5" outlineLevel="2">
+    <row r="2053" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2053" s="84">
         <v>1</v>
       </c>
       <c r="B2053" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2053" s="33"/>
       <c r="D2053" s="152" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E2053" s="15"/>
     </row>
-    <row r="2054" spans="1:5" outlineLevel="2">
+    <row r="2054" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2054" s="84">
         <v>2</v>
       </c>
       <c r="B2054" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2054" s="33"/>
       <c r="D2054" s="152" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E2054" s="15"/>
     </row>
-    <row r="2055" spans="1:5" outlineLevel="2">
+    <row r="2055" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2055" s="84">
         <v>3</v>
       </c>
       <c r="B2055" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2055" s="33"/>
       <c r="D2055" s="152" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E2055" s="15"/>
     </row>
-    <row r="2056" spans="1:5" outlineLevel="2">
+    <row r="2056" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2056" s="84">
         <v>4</v>
       </c>
       <c r="B2056" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2056" s="33"/>
       <c r="D2056" s="152" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E2056" s="15"/>
     </row>
-    <row r="2057" spans="1:5" outlineLevel="2">
+    <row r="2057" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2057" s="84">
         <v>5</v>
       </c>
       <c r="B2057" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2057" s="33"/>
       <c r="D2057" s="152" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E2057" s="15"/>
     </row>
-    <row r="2058" spans="1:5" outlineLevel="2">
+    <row r="2058" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2058" s="84">
         <v>6</v>
       </c>
       <c r="B2058" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2058" s="33"/>
       <c r="D2058" s="152" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E2058" s="15"/>
     </row>
-    <row r="2059" spans="1:5" outlineLevel="2">
+    <row r="2059" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2059" s="84">
         <v>7</v>
       </c>
       <c r="B2059" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2059" s="33"/>
       <c r="D2059" s="152" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E2059" s="15"/>
     </row>
-    <row r="2060" spans="1:5" outlineLevel="2">
+    <row r="2060" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2060" s="84">
         <v>8</v>
       </c>
       <c r="B2060" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2060" s="33"/>
       <c r="D2060" s="152" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E2060" s="15"/>
     </row>
-    <row r="2061" spans="1:5" outlineLevel="2">
+    <row r="2061" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2061" s="84">
         <v>9</v>
       </c>
       <c r="B2061" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2061" s="33"/>
       <c r="D2061" s="152" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E2061" s="15"/>
     </row>
-    <row r="2062" spans="1:5" outlineLevel="2">
+    <row r="2062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2062" s="84" t="s">
         <v>2</v>
       </c>
       <c r="B2062" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2062" s="33"/>
       <c r="D2062" s="152" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E2062" s="15"/>
     </row>
-    <row r="2063" spans="1:5" outlineLevel="2">
+    <row r="2063" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2063" s="84" t="s">
         <v>3</v>
       </c>
       <c r="B2063" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2063" s="33"/>
       <c r="D2063" s="152" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E2063" s="15"/>
     </row>
-    <row r="2064" spans="1:5" outlineLevel="2">
+    <row r="2064" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2064" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B2064" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2064" s="33"/>
       <c r="D2064" s="152" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E2064" s="15"/>
     </row>
-    <row r="2065" spans="1:5" outlineLevel="2">
+    <row r="2065" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2065" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B2065" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2065" s="33"/>
       <c r="D2065" s="152" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E2065" s="15"/>
     </row>
-    <row r="2066" spans="1:5" outlineLevel="2">
+    <row r="2066" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2066" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B2066" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2066" s="33"/>
       <c r="D2066" s="152" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E2066" s="15"/>
     </row>
-    <row r="2067" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="2067" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A2067" s="85" t="s">
         <v>7</v>
       </c>
       <c r="B2067" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2067" s="34"/>
       <c r="D2067" s="152" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E2067" s="16"/>
     </row>
-    <row r="2068" spans="1:5" ht="18" outlineLevel="1">
+    <row r="2068" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2068" s="83" t="s">
         <v>146</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2068" s="166"/>
-      <c r="E2068" s="166"/>
-    </row>
-    <row r="2069" spans="1:5" outlineLevel="2">
+      <c r="C2068" s="168" t="s">
+        <v>393</v>
+      </c>
+      <c r="D2068" s="169"/>
+      <c r="E2068" s="169"/>
+    </row>
+    <row r="2069" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2069" s="84">
         <v>0</v>
       </c>
       <c r="B2069" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2069" s="33"/>
       <c r="D2069" s="152" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E2069" s="15"/>
     </row>
-    <row r="2070" spans="1:5" outlineLevel="2">
+    <row r="2070" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2070" s="84">
         <v>1</v>
       </c>
       <c r="B2070" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2070" s="33"/>
       <c r="D2070" s="152" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E2070" s="15"/>
     </row>
-    <row r="2071" spans="1:5" outlineLevel="2">
+    <row r="2071" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2071" s="84">
         <v>2</v>
       </c>
       <c r="B2071" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2071" s="33"/>
       <c r="D2071" s="152" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E2071" s="15"/>
     </row>
-    <row r="2072" spans="1:5" outlineLevel="2">
+    <row r="2072" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2072" s="84">
         <v>3</v>
       </c>
       <c r="B2072" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2072" s="33"/>
       <c r="D2072" s="152" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E2072" s="15"/>
     </row>
-    <row r="2073" spans="1:5" outlineLevel="2">
+    <row r="2073" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2073" s="84">
         <v>4</v>
       </c>
       <c r="B2073" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2073" s="33"/>
       <c r="D2073" s="152" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E2073" s="15"/>
     </row>
-    <row r="2074" spans="1:5" outlineLevel="2">
+    <row r="2074" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2074" s="84">
         <v>5</v>
       </c>
       <c r="B2074" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2074" s="33"/>
       <c r="D2074" s="152" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E2074" s="15"/>
     </row>
-    <row r="2075" spans="1:5" outlineLevel="2">
+    <row r="2075" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2075" s="84">
         <v>6</v>
       </c>
       <c r="B2075" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2075" s="33"/>
       <c r="D2075" s="152" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E2075" s="15"/>
     </row>
-    <row r="2076" spans="1:5" outlineLevel="2">
+    <row r="2076" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2076" s="84">
         <v>7</v>
       </c>
       <c r="B2076" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2076" s="33"/>
       <c r="D2076" s="152" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E2076" s="15"/>
     </row>
-    <row r="2077" spans="1:5" outlineLevel="2">
+    <row r="2077" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2077" s="84">
         <v>8</v>
       </c>
       <c r="B2077" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2077" s="33"/>
       <c r="D2077" s="152" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E2077" s="15"/>
     </row>
-    <row r="2078" spans="1:5" outlineLevel="2">
+    <row r="2078" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2078" s="84">
         <v>9</v>
       </c>
       <c r="B2078" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2078" s="33"/>
       <c r="D2078" s="152" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E2078" s="15"/>
     </row>
-    <row r="2079" spans="1:5" outlineLevel="2">
+    <row r="2079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2079" s="84" t="s">
         <v>2</v>
       </c>
       <c r="B2079" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2079" s="33"/>
       <c r="D2079" s="152" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E2079" s="15"/>
     </row>
-    <row r="2080" spans="1:5" outlineLevel="2">
+    <row r="2080" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2080" s="84" t="s">
         <v>3</v>
       </c>
       <c r="B2080" s="153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2080" s="33"/>
       <c r="D2080" s="152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E2080" s="15"/>
     </row>
-    <row r="2081" spans="1:5" outlineLevel="2">
+    <row r="2081" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2081" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2081" s="88"/>
-      <c r="C2081" s="33"/>
-      <c r="D2081" s="15"/>
-      <c r="E2081" s="15"/>
-    </row>
-    <row r="2082" spans="1:5" outlineLevel="2">
+      <c r="B2081" s="153" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2081" s="154"/>
+      <c r="D2081" s="152" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2081" s="152" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2082" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B2082" s="88"/>
       <c r="C2082" s="33"/>
-      <c r="D2082" s="15"/>
+      <c r="D2082" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E2082" s="15"/>
     </row>
-    <row r="2083" spans="1:5" outlineLevel="2">
+    <row r="2083" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2083" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B2083" s="88"/>
       <c r="C2083" s="33"/>
-      <c r="D2083" s="15"/>
+      <c r="D2083" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E2083" s="15"/>
     </row>
-    <row r="2084" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="2084" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A2084" s="85" t="s">
         <v>7</v>
       </c>
       <c r="B2084" s="89"/>
       <c r="C2084" s="34"/>
-      <c r="D2084" s="16"/>
+      <c r="D2084" s="155" t="s">
+        <v>385</v>
+      </c>
       <c r="E2084" s="16"/>
     </row>
     <row r="2085" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
@@ -24281,17 +24682,23 @@
         <v>147</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="165"/>
-      <c r="D2085" s="166"/>
-      <c r="E2085" s="166"/>
+      <c r="C2085" s="168" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2085" s="169"/>
+      <c r="E2085" s="169"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2086" s="84">
         <v>0</v>
       </c>
-      <c r="B2086" s="88"/>
+      <c r="B2086" s="153" t="s">
+        <v>382</v>
+      </c>
       <c r="C2086" s="33"/>
-      <c r="D2086" s="15"/>
+      <c r="D2086" s="152" t="s">
+        <v>386</v>
+      </c>
       <c r="E2086" s="15"/>
     </row>
     <row r="2087" spans="1:5" hidden="1" outlineLevel="2">
@@ -24300,7 +24707,9 @@
       </c>
       <c r="B2087" s="88"/>
       <c r="C2087" s="33"/>
-      <c r="D2087" s="15"/>
+      <c r="D2087" s="152" t="s">
+        <v>387</v>
+      </c>
       <c r="E2087" s="15"/>
     </row>
     <row r="2088" spans="1:5" hidden="1" outlineLevel="2">
@@ -24309,7 +24718,9 @@
       </c>
       <c r="B2088" s="88"/>
       <c r="C2088" s="33"/>
-      <c r="D2088" s="15"/>
+      <c r="D2088" s="152" t="s">
+        <v>388</v>
+      </c>
       <c r="E2088" s="15"/>
     </row>
     <row r="2089" spans="1:5" hidden="1" outlineLevel="2">
@@ -24318,7 +24729,9 @@
       </c>
       <c r="B2089" s="88"/>
       <c r="C2089" s="33"/>
-      <c r="D2089" s="15"/>
+      <c r="D2089" s="152" t="s">
+        <v>389</v>
+      </c>
       <c r="E2089" s="15"/>
     </row>
     <row r="2090" spans="1:5" hidden="1" outlineLevel="2">
@@ -24327,7 +24740,9 @@
       </c>
       <c r="B2090" s="88"/>
       <c r="C2090" s="33"/>
-      <c r="D2090" s="15"/>
+      <c r="D2090" s="152" t="s">
+        <v>390</v>
+      </c>
       <c r="E2090" s="15"/>
     </row>
     <row r="2091" spans="1:5" hidden="1" outlineLevel="2">
@@ -24336,7 +24751,9 @@
       </c>
       <c r="B2091" s="88"/>
       <c r="C2091" s="33"/>
-      <c r="D2091" s="15"/>
+      <c r="D2091" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E2091" s="15"/>
     </row>
     <row r="2092" spans="1:5" hidden="1" outlineLevel="2">
@@ -24345,7 +24762,9 @@
       </c>
       <c r="B2092" s="88"/>
       <c r="C2092" s="33"/>
-      <c r="D2092" s="15"/>
+      <c r="D2092" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E2092" s="15"/>
     </row>
     <row r="2093" spans="1:5" hidden="1" outlineLevel="2">
@@ -24354,7 +24773,9 @@
       </c>
       <c r="B2093" s="88"/>
       <c r="C2093" s="33"/>
-      <c r="D2093" s="15"/>
+      <c r="D2093" s="152" t="s">
+        <v>385</v>
+      </c>
       <c r="E2093" s="15"/>
     </row>
     <row r="2094" spans="1:5" hidden="1" outlineLevel="2">
@@ -24363,7 +24784,9 @@
       </c>
       <c r="B2094" s="88"/>
       <c r="C2094" s="33"/>
-      <c r="D2094" s="15"/>
+      <c r="D2094" s="152" t="s">
+        <v>391</v>
+      </c>
       <c r="E2094" s="15"/>
     </row>
     <row r="2095" spans="1:5" hidden="1" outlineLevel="2">
@@ -24372,7 +24795,9 @@
       </c>
       <c r="B2095" s="88"/>
       <c r="C2095" s="33"/>
-      <c r="D2095" s="15"/>
+      <c r="D2095" s="152" t="s">
+        <v>387</v>
+      </c>
       <c r="E2095" s="15"/>
     </row>
     <row r="2096" spans="1:5" hidden="1" outlineLevel="2">
@@ -24381,7 +24806,9 @@
       </c>
       <c r="B2096" s="88"/>
       <c r="C2096" s="33"/>
-      <c r="D2096" s="15"/>
+      <c r="D2096" s="152" t="s">
+        <v>388</v>
+      </c>
       <c r="E2096" s="15"/>
     </row>
     <row r="2097" spans="1:5" hidden="1" outlineLevel="2">
@@ -24390,7 +24817,9 @@
       </c>
       <c r="B2097" s="88"/>
       <c r="C2097" s="33"/>
-      <c r="D2097" s="15"/>
+      <c r="D2097" s="152" t="s">
+        <v>389</v>
+      </c>
       <c r="E2097" s="15"/>
     </row>
     <row r="2098" spans="1:5" hidden="1" outlineLevel="2">
@@ -24399,7 +24828,9 @@
       </c>
       <c r="B2098" s="88"/>
       <c r="C2098" s="33"/>
-      <c r="D2098" s="15"/>
+      <c r="D2098" s="152" t="s">
+        <v>392</v>
+      </c>
       <c r="E2098" s="15"/>
     </row>
     <row r="2099" spans="1:5" hidden="1" outlineLevel="2">
@@ -24408,7 +24839,9 @@
       </c>
       <c r="B2099" s="88"/>
       <c r="C2099" s="33"/>
-      <c r="D2099" s="15"/>
+      <c r="D2099" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E2099" s="15"/>
     </row>
     <row r="2100" spans="1:5" hidden="1" outlineLevel="2">
@@ -24417,7 +24850,9 @@
       </c>
       <c r="B2100" s="88"/>
       <c r="C2100" s="33"/>
-      <c r="D2100" s="15"/>
+      <c r="D2100" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E2100" s="15"/>
     </row>
     <row r="2101" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
@@ -24426,140 +24861,172 @@
       </c>
       <c r="B2101" s="89"/>
       <c r="C2101" s="34"/>
-      <c r="D2101" s="16"/>
+      <c r="D2101" s="155" t="s">
+        <v>385</v>
+      </c>
       <c r="E2101" s="16"/>
     </row>
-    <row r="2102" spans="1:5" ht="18" outlineLevel="1">
+    <row r="2102" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A2102" s="83" t="s">
         <v>148</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="165"/>
-      <c r="D2102" s="166"/>
-      <c r="E2102" s="166"/>
-    </row>
-    <row r="2103" spans="1:5" outlineLevel="2">
+      <c r="C2102" s="168" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2102" s="169"/>
+      <c r="E2102" s="169"/>
+    </row>
+    <row r="2103" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2103" s="84">
         <v>0</v>
       </c>
-      <c r="B2103" s="88"/>
+      <c r="B2103" s="153" t="s">
+        <v>382</v>
+      </c>
       <c r="C2103" s="33"/>
-      <c r="D2103" s="15"/>
+      <c r="D2103" s="152" t="s">
+        <v>395</v>
+      </c>
       <c r="E2103" s="15"/>
     </row>
-    <row r="2104" spans="1:5" outlineLevel="2">
+    <row r="2104" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2104" s="84">
         <v>1</v>
       </c>
       <c r="B2104" s="88"/>
       <c r="C2104" s="33"/>
-      <c r="D2104" s="15"/>
+      <c r="D2104" s="152" t="s">
+        <v>387</v>
+      </c>
       <c r="E2104" s="15"/>
     </row>
-    <row r="2105" spans="1:5" outlineLevel="2">
+    <row r="2105" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2105" s="84">
         <v>2</v>
       </c>
       <c r="B2105" s="88"/>
       <c r="C2105" s="33"/>
-      <c r="D2105" s="15"/>
+      <c r="D2105" s="152" t="s">
+        <v>388</v>
+      </c>
       <c r="E2105" s="15"/>
     </row>
-    <row r="2106" spans="1:5" outlineLevel="2">
+    <row r="2106" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2106" s="84">
         <v>3</v>
       </c>
       <c r="B2106" s="88"/>
       <c r="C2106" s="33"/>
-      <c r="D2106" s="15"/>
+      <c r="D2106" s="152" t="s">
+        <v>389</v>
+      </c>
       <c r="E2106" s="15"/>
     </row>
-    <row r="2107" spans="1:5" outlineLevel="2">
+    <row r="2107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2107" s="84">
         <v>4</v>
       </c>
-      <c r="B2107" s="88"/>
+      <c r="B2107" s="153" t="s">
+        <v>382</v>
+      </c>
       <c r="C2107" s="33"/>
-      <c r="D2107" s="15"/>
+      <c r="D2107" s="152" t="s">
+        <v>396</v>
+      </c>
       <c r="E2107" s="15"/>
     </row>
-    <row r="2108" spans="1:5" outlineLevel="2">
+    <row r="2108" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2108" s="84">
         <v>5</v>
       </c>
       <c r="B2108" s="88"/>
       <c r="C2108" s="33"/>
-      <c r="D2108" s="15"/>
+      <c r="D2108" s="152" t="s">
+        <v>237</v>
+      </c>
       <c r="E2108" s="15"/>
     </row>
-    <row r="2109" spans="1:5" outlineLevel="2">
+    <row r="2109" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2109" s="84">
         <v>6</v>
       </c>
       <c r="B2109" s="88"/>
       <c r="C2109" s="33"/>
-      <c r="D2109" s="15"/>
+      <c r="D2109" s="152" t="s">
+        <v>291</v>
+      </c>
       <c r="E2109" s="15"/>
     </row>
-    <row r="2110" spans="1:5" outlineLevel="2">
+    <row r="2110" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2110" s="84">
         <v>7</v>
       </c>
       <c r="B2110" s="88"/>
       <c r="C2110" s="33"/>
-      <c r="D2110" s="15"/>
+      <c r="D2110" s="152" t="s">
+        <v>385</v>
+      </c>
       <c r="E2110" s="15"/>
     </row>
-    <row r="2111" spans="1:5" outlineLevel="2">
+    <row r="2111" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2111" s="84">
         <v>8</v>
       </c>
       <c r="B2111" s="88"/>
       <c r="C2111" s="33"/>
-      <c r="D2111" s="15"/>
+      <c r="D2111" s="152" t="s">
+        <v>391</v>
+      </c>
       <c r="E2111" s="15"/>
     </row>
-    <row r="2112" spans="1:5" outlineLevel="2">
+    <row r="2112" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2112" s="84">
         <v>9</v>
       </c>
       <c r="B2112" s="88"/>
       <c r="C2112" s="33"/>
-      <c r="D2112" s="15"/>
+      <c r="D2112" s="152" t="s">
+        <v>387</v>
+      </c>
       <c r="E2112" s="15"/>
     </row>
-    <row r="2113" spans="1:5" outlineLevel="2">
+    <row r="2113" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2113" s="84" t="s">
         <v>2</v>
       </c>
       <c r="B2113" s="88"/>
       <c r="C2113" s="33"/>
-      <c r="D2113" s="15"/>
+      <c r="D2113" s="152" t="s">
+        <v>388</v>
+      </c>
       <c r="E2113" s="15"/>
     </row>
-    <row r="2114" spans="1:5" outlineLevel="2">
+    <row r="2114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2114" s="84" t="s">
         <v>3</v>
       </c>
       <c r="B2114" s="88"/>
       <c r="C2114" s="33"/>
-      <c r="D2114" s="15"/>
+      <c r="D2114" s="152" t="s">
+        <v>389</v>
+      </c>
       <c r="E2114" s="15"/>
     </row>
-    <row r="2115" spans="1:5" outlineLevel="2">
+    <row r="2115" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2115" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B2115" s="153" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2115" s="33"/>
       <c r="D2115" s="152" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E2115" s="15"/>
     </row>
-    <row r="2116" spans="1:5" outlineLevel="2">
+    <row r="2116" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2116" s="84" t="s">
         <v>5</v>
       </c>
@@ -24570,36 +25037,38 @@
       </c>
       <c r="E2116" s="15"/>
     </row>
-    <row r="2117" spans="1:5" outlineLevel="2">
+    <row r="2117" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2117" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B2117" s="88"/>
       <c r="C2117" s="33"/>
       <c r="D2117" s="152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E2117" s="15"/>
     </row>
-    <row r="2118" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="2118" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A2118" s="85" t="s">
         <v>7</v>
       </c>
       <c r="B2118" s="89"/>
       <c r="C2118" s="34"/>
-      <c r="D2118" s="16"/>
+      <c r="D2118" s="155" t="s">
+        <v>397</v>
+      </c>
       <c r="E2118" s="16"/>
     </row>
-    <row r="2119" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
+    <row r="2119" spans="1:5" ht="18" outlineLevel="1">
       <c r="A2119" s="83" t="s">
         <v>97</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="165"/>
-      <c r="D2119" s="166"/>
-      <c r="E2119" s="166"/>
-    </row>
-    <row r="2120" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="C2119" s="168"/>
+      <c r="D2119" s="169"/>
+      <c r="E2119" s="169"/>
+    </row>
+    <row r="2120" spans="1:5" outlineLevel="2">
       <c r="A2120" s="84">
         <v>0</v>
       </c>
@@ -24608,7 +25077,7 @@
       <c r="D2120" s="15"/>
       <c r="E2120" s="15"/>
     </row>
-    <row r="2121" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2121" spans="1:5" outlineLevel="2">
       <c r="A2121" s="84">
         <v>1</v>
       </c>
@@ -24617,7 +25086,7 @@
       <c r="D2121" s="15"/>
       <c r="E2121" s="15"/>
     </row>
-    <row r="2122" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2122" spans="1:5" outlineLevel="2">
       <c r="A2122" s="84">
         <v>2</v>
       </c>
@@ -24626,7 +25095,7 @@
       <c r="D2122" s="15"/>
       <c r="E2122" s="15"/>
     </row>
-    <row r="2123" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2123" spans="1:5" outlineLevel="2">
       <c r="A2123" s="84">
         <v>3</v>
       </c>
@@ -24635,7 +25104,7 @@
       <c r="D2123" s="15"/>
       <c r="E2123" s="15"/>
     </row>
-    <row r="2124" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2124" spans="1:5" outlineLevel="2">
       <c r="A2124" s="84">
         <v>4</v>
       </c>
@@ -24644,7 +25113,7 @@
       <c r="D2124" s="15"/>
       <c r="E2124" s="15"/>
     </row>
-    <row r="2125" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2125" spans="1:5" outlineLevel="2">
       <c r="A2125" s="84">
         <v>5</v>
       </c>
@@ -24653,7 +25122,7 @@
       <c r="D2125" s="15"/>
       <c r="E2125" s="15"/>
     </row>
-    <row r="2126" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2126" spans="1:5" outlineLevel="2">
       <c r="A2126" s="84">
         <v>6</v>
       </c>
@@ -24662,7 +25131,7 @@
       <c r="D2126" s="15"/>
       <c r="E2126" s="15"/>
     </row>
-    <row r="2127" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2127" spans="1:5" outlineLevel="2">
       <c r="A2127" s="84">
         <v>7</v>
       </c>
@@ -24671,7 +25140,7 @@
       <c r="D2127" s="15"/>
       <c r="E2127" s="15"/>
     </row>
-    <row r="2128" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2128" spans="1:5" outlineLevel="2">
       <c r="A2128" s="84">
         <v>8</v>
       </c>
@@ -24680,7 +25149,7 @@
       <c r="D2128" s="15"/>
       <c r="E2128" s="15"/>
     </row>
-    <row r="2129" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2129" spans="1:5" outlineLevel="2">
       <c r="A2129" s="84">
         <v>9</v>
       </c>
@@ -24689,7 +25158,7 @@
       <c r="D2129" s="15"/>
       <c r="E2129" s="15"/>
     </row>
-    <row r="2130" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2130" spans="1:5" outlineLevel="2">
       <c r="A2130" s="84" t="s">
         <v>2</v>
       </c>
@@ -24698,7 +25167,7 @@
       <c r="D2130" s="15"/>
       <c r="E2130" s="15"/>
     </row>
-    <row r="2131" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2131" spans="1:5" outlineLevel="2">
       <c r="A2131" s="84" t="s">
         <v>3</v>
       </c>
@@ -24707,7 +25176,7 @@
       <c r="D2131" s="15"/>
       <c r="E2131" s="15"/>
     </row>
-    <row r="2132" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2132" spans="1:5" outlineLevel="2">
       <c r="A2132" s="84" t="s">
         <v>4</v>
       </c>
@@ -24716,7 +25185,7 @@
       <c r="D2132" s="15"/>
       <c r="E2132" s="15"/>
     </row>
-    <row r="2133" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2133" spans="1:5" outlineLevel="2">
       <c r="A2133" s="84" t="s">
         <v>5</v>
       </c>
@@ -24725,7 +25194,7 @@
       <c r="D2133" s="15"/>
       <c r="E2133" s="15"/>
     </row>
-    <row r="2134" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="2134" spans="1:5" outlineLevel="2">
       <c r="A2134" s="84" t="s">
         <v>6</v>
       </c>
@@ -24734,7 +25203,7 @@
       <c r="D2134" s="15"/>
       <c r="E2134" s="15"/>
     </row>
-    <row r="2135" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="2135" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A2135" s="85" t="s">
         <v>7</v>
       </c>
@@ -24748,9 +25217,9 @@
         <v>149</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="165"/>
-      <c r="D2136" s="166"/>
-      <c r="E2136" s="166"/>
+      <c r="C2136" s="168"/>
+      <c r="D2136" s="169"/>
+      <c r="E2136" s="169"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2137" s="84">
@@ -24901,9 +25370,9 @@
         <v>150</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="165"/>
-      <c r="D2153" s="166"/>
-      <c r="E2153" s="166"/>
+      <c r="C2153" s="168"/>
+      <c r="D2153" s="169"/>
+      <c r="E2153" s="169"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2154" s="84">
@@ -25054,9 +25523,9 @@
         <v>151</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="165"/>
-      <c r="D2170" s="166"/>
-      <c r="E2170" s="166"/>
+      <c r="C2170" s="168"/>
+      <c r="D2170" s="169"/>
+      <c r="E2170" s="169"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2171" s="84">
@@ -25204,26 +25673,111 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="C1932:E1932"/>
+    <mergeCell ref="C1949:E1949"/>
+    <mergeCell ref="C1966:E1966"/>
+    <mergeCell ref="C1983:E1983"/>
+    <mergeCell ref="C2000:E2000"/>
+    <mergeCell ref="C2017:E2017"/>
+    <mergeCell ref="C1846:E1846"/>
+    <mergeCell ref="C1863:E1863"/>
+    <mergeCell ref="C1880:E1880"/>
+    <mergeCell ref="C1897:E1897"/>
+    <mergeCell ref="C1914:E1914"/>
+    <mergeCell ref="C1915:E1915"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
     <mergeCell ref="C396:E396"/>
     <mergeCell ref="C413:E413"/>
     <mergeCell ref="C430:E430"/>
@@ -25236,111 +25790,26 @@
     <mergeCell ref="C345:E345"/>
     <mergeCell ref="C362:E362"/>
     <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1932:E1932"/>
-    <mergeCell ref="C1949:E1949"/>
-    <mergeCell ref="C1966:E1966"/>
-    <mergeCell ref="C1983:E1983"/>
-    <mergeCell ref="C2000:E2000"/>
-    <mergeCell ref="C2017:E2017"/>
-    <mergeCell ref="C1846:E1846"/>
-    <mergeCell ref="C1863:E1863"/>
-    <mergeCell ref="C1880:E1880"/>
-    <mergeCell ref="C1897:E1897"/>
-    <mergeCell ref="C1914:E1914"/>
-    <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26599,163 +27068,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="211" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="211"/>
+      <c r="B1" s="212"/>
       <c r="C1" s="118"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="217" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="218"/>
       <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="219" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="208"/>
+      <c r="B3" s="218"/>
       <c r="C3" s="120"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="214"/>
-      <c r="B4" s="215"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="216"/>
       <c r="C4" s="120"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="212" t="s">
+      <c r="A5" s="213" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="213"/>
+      <c r="B5" s="214"/>
       <c r="C5" s="120"/>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="219"/>
+      <c r="B7" s="206"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="120"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1">
-      <c r="A9" s="216" t="s">
+      <c r="A9" s="207" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="217"/>
+      <c r="B9" s="208"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="203"/>
-      <c r="B10" s="204"/>
+      <c r="A10" s="209"/>
+      <c r="B10" s="210"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="201" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="206"/>
+      <c r="B11" s="202"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="206"/>
+      <c r="B12" s="202"/>
     </row>
     <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="205" t="s">
+      <c r="A13" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="206"/>
+      <c r="B13" s="202"/>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A14" s="205" t="s">
+      <c r="A14" s="201" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="206"/>
+      <c r="B14" s="202"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="205" t="s">
+      <c r="A15" s="201" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="206"/>
+      <c r="B15" s="202"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="205" t="s">
+      <c r="A16" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="206"/>
+      <c r="B16" s="202"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="201" t="s">
+      <c r="A17" s="203" t="s">
         <v>201</v>
       </c>
-      <c r="B17" s="202"/>
+      <c r="B17" s="204"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="218" t="s">
+      <c r="A19" s="205" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="219"/>
+      <c r="B19" s="206"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="120"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="216" t="s">
+      <c r="A21" s="207" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="217"/>
+      <c r="B21" s="208"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="203"/>
-      <c r="B22" s="204"/>
+      <c r="A22" s="209"/>
+      <c r="B22" s="210"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="205" t="s">
+      <c r="A23" s="201" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="206"/>
+      <c r="B23" s="202"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="205"/>
-      <c r="B24" s="206"/>
+      <c r="A24" s="201"/>
+      <c r="B24" s="202"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="205" t="s">
+      <c r="A25" s="201" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="206"/>
+      <c r="B25" s="202"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="205" t="s">
+      <c r="A26" s="201" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="206"/>
+      <c r="B26" s="202"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="201"/>
-      <c r="B27" s="202"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -26766,6 +27222,19 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>

--- a/DW3/DQ3.xlsx
+++ b/DW3/DQ3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="414">
   <si>
     <t>Notes</t>
   </si>
@@ -1030,9 +1030,6 @@
     <t>This 16 block is 2 byte values that relate to enemy initilized values and what group number they are in</t>
   </si>
   <si>
-    <t>Enemey Defense</t>
-  </si>
-  <si>
     <t>Enemy 1 Defense</t>
   </si>
   <si>
@@ -1280,6 +1277,30 @@
   </si>
   <si>
     <t>Party Info See http://www.gamefaqs.com/nes/587249-dragon-warrior-iii/faqs/2999 for details on meaning of values</t>
+  </si>
+  <si>
+    <t>Enemy Defense</t>
+  </si>
+  <si>
+    <t>Party Member 1 Battle Round decision</t>
+  </si>
+  <si>
+    <t>Party Member 2 Battle Round decision</t>
+  </si>
+  <si>
+    <t>Party Member 3 Battle Round decision</t>
+  </si>
+  <si>
+    <t>Party Member 4 Battle Round decision</t>
+  </si>
+  <si>
+    <t>80 = Attack, 90 = Use Spell, 21 = Parry</t>
+  </si>
+  <si>
+    <t>Party Battle decision</t>
+  </si>
+  <si>
+    <t>Sprite Memory (DMA)</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2223,6 +2244,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2233,7 +2265,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2640,6 +2672,9 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -5069,8 +5104,8 @@
   <dimension ref="A1:H2186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1556" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2102" sqref="C2102:E2102"/>
+      <pane ySplit="2" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C242" sqref="C242:E242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="3"/>
@@ -5742,7 +5777,7 @@
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
     </row>
-    <row r="72" spans="1:5" ht="18" outlineLevel="1">
+    <row r="72" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A72" s="46" t="s">
         <v>12</v>
       </c>
@@ -5751,7 +5786,7 @@
       <c r="D72" s="169"/>
       <c r="E72" s="169"/>
     </row>
-    <row r="73" spans="1:5" outlineLevel="2">
+    <row r="73" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A73" s="47">
         <v>0</v>
       </c>
@@ -5760,7 +5795,7 @@
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5" outlineLevel="2">
+    <row r="74" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A74" s="47">
         <v>1</v>
       </c>
@@ -5769,7 +5804,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
     </row>
-    <row r="75" spans="1:5" outlineLevel="2">
+    <row r="75" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A75" s="47">
         <v>2</v>
       </c>
@@ -5778,7 +5813,7 @@
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5" outlineLevel="2">
+    <row r="76" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A76" s="47">
         <v>3</v>
       </c>
@@ -5787,7 +5822,7 @@
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
     </row>
-    <row r="77" spans="1:5" outlineLevel="2">
+    <row r="77" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A77" s="47">
         <v>4</v>
       </c>
@@ -5796,7 +5831,7 @@
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="1:5" outlineLevel="2">
+    <row r="78" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A78" s="47">
         <v>5</v>
       </c>
@@ -5805,7 +5840,7 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
     </row>
-    <row r="79" spans="1:5" outlineLevel="2">
+    <row r="79" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A79" s="47">
         <v>6</v>
       </c>
@@ -5814,7 +5849,7 @@
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" outlineLevel="2">
+    <row r="80" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A80" s="47">
         <v>7</v>
       </c>
@@ -5823,7 +5858,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
     </row>
-    <row r="81" spans="1:5" outlineLevel="2">
+    <row r="81" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A81" s="47">
         <v>8</v>
       </c>
@@ -5832,7 +5867,7 @@
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="1:5" outlineLevel="2">
+    <row r="82" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A82" s="47">
         <v>9</v>
       </c>
@@ -5841,7 +5876,7 @@
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
     </row>
-    <row r="83" spans="1:5" outlineLevel="2">
+    <row r="83" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A83" s="47" t="s">
         <v>2</v>
       </c>
@@ -5850,7 +5885,7 @@
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
     </row>
-    <row r="84" spans="1:5" outlineLevel="2">
+    <row r="84" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A84" s="47" t="s">
         <v>3</v>
       </c>
@@ -5859,7 +5894,7 @@
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
     </row>
-    <row r="85" spans="1:5" outlineLevel="2">
+    <row r="85" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A85" s="47" t="s">
         <v>4</v>
       </c>
@@ -5868,7 +5903,7 @@
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
     </row>
-    <row r="86" spans="1:5" outlineLevel="2">
+    <row r="86" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A86" s="47" t="s">
         <v>5</v>
       </c>
@@ -5877,7 +5912,7 @@
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
     </row>
-    <row r="87" spans="1:5" outlineLevel="2">
+    <row r="87" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A87" s="47" t="s">
         <v>6</v>
       </c>
@@ -5886,7 +5921,7 @@
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
     </row>
-    <row r="88" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
+    <row r="88" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A88" s="48" t="s">
         <v>7</v>
       </c>
@@ -10044,7 +10079,9 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="174"/>
+      <c r="C549" s="174" t="s">
+        <v>413</v>
+      </c>
       <c r="D549" s="175"/>
       <c r="E549" s="175"/>
     </row>
@@ -10053,9 +10090,11 @@
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="168"/>
-      <c r="D550" s="169"/>
-      <c r="E550" s="169"/>
+      <c r="C550" s="220" t="s">
+        <v>413</v>
+      </c>
+      <c r="D550" s="221"/>
+      <c r="E550" s="222"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -10206,7 +10245,9 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="170"/>
+      <c r="C567" s="170" t="s">
+        <v>413</v>
+      </c>
       <c r="D567" s="171"/>
       <c r="E567" s="171"/>
     </row>
@@ -10359,9 +10400,11 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="168"/>
-      <c r="D584" s="169"/>
-      <c r="E584" s="169"/>
+      <c r="C584" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D584" s="171"/>
+      <c r="E584" s="171"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -10512,9 +10555,11 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="168"/>
-      <c r="D601" s="169"/>
-      <c r="E601" s="169"/>
+      <c r="C601" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D601" s="171"/>
+      <c r="E601" s="171"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -10665,9 +10710,11 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="168"/>
-      <c r="D618" s="169"/>
-      <c r="E618" s="169"/>
+      <c r="C618" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D618" s="171"/>
+      <c r="E618" s="171"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -10818,9 +10865,11 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="168"/>
-      <c r="D635" s="169"/>
-      <c r="E635" s="169"/>
+      <c r="C635" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D635" s="171"/>
+      <c r="E635" s="171"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -10971,9 +11020,11 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="168"/>
-      <c r="D652" s="169"/>
-      <c r="E652" s="169"/>
+      <c r="C652" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D652" s="171"/>
+      <c r="E652" s="171"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -11124,9 +11175,11 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="168"/>
-      <c r="D669" s="169"/>
-      <c r="E669" s="169"/>
+      <c r="C669" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D669" s="171"/>
+      <c r="E669" s="171"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -11277,9 +11330,11 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="168"/>
-      <c r="D686" s="169"/>
-      <c r="E686" s="169"/>
+      <c r="C686" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D686" s="171"/>
+      <c r="E686" s="171"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -11430,9 +11485,11 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="168"/>
-      <c r="D703" s="169"/>
-      <c r="E703" s="169"/>
+      <c r="C703" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D703" s="171"/>
+      <c r="E703" s="171"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -11583,9 +11640,11 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="168"/>
-      <c r="D720" s="169"/>
-      <c r="E720" s="169"/>
+      <c r="C720" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D720" s="171"/>
+      <c r="E720" s="171"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -11736,9 +11795,11 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="168"/>
-      <c r="D737" s="169"/>
-      <c r="E737" s="169"/>
+      <c r="C737" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D737" s="171"/>
+      <c r="E737" s="171"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -11889,9 +11950,11 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="168"/>
-      <c r="D754" s="169"/>
-      <c r="E754" s="169"/>
+      <c r="C754" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D754" s="171"/>
+      <c r="E754" s="171"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -12042,9 +12105,11 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="168"/>
-      <c r="D771" s="169"/>
-      <c r="E771" s="169"/>
+      <c r="C771" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D771" s="171"/>
+      <c r="E771" s="171"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -12195,9 +12260,11 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="168"/>
-      <c r="D788" s="169"/>
-      <c r="E788" s="169"/>
+      <c r="C788" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D788" s="171"/>
+      <c r="E788" s="171"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -12348,9 +12415,11 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="168"/>
-      <c r="D805" s="169"/>
-      <c r="E805" s="169"/>
+      <c r="C805" s="170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D805" s="171"/>
+      <c r="E805" s="171"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -17927,7 +17996,7 @@
       </c>
       <c r="B1403" s="87"/>
       <c r="C1403" s="168" t="s">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="D1403" s="169"/>
       <c r="E1403" s="169"/>
@@ -17941,7 +18010,7 @@
       </c>
       <c r="C1404" s="33"/>
       <c r="D1404" s="152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1404" s="15"/>
     </row>
@@ -17965,7 +18034,7 @@
       </c>
       <c r="C1406" s="33"/>
       <c r="D1406" s="152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1406" s="15"/>
     </row>
@@ -17989,7 +18058,7 @@
       </c>
       <c r="C1408" s="33"/>
       <c r="D1408" s="152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1408" s="15"/>
     </row>
@@ -18013,7 +18082,7 @@
       </c>
       <c r="C1410" s="33"/>
       <c r="D1410" s="152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1410" s="15"/>
     </row>
@@ -18037,7 +18106,7 @@
       </c>
       <c r="C1412" s="33"/>
       <c r="D1412" s="152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1412" s="15"/>
     </row>
@@ -18061,7 +18130,7 @@
       </c>
       <c r="C1414" s="33"/>
       <c r="D1414" s="152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1414" s="15"/>
     </row>
@@ -18085,7 +18154,7 @@
       </c>
       <c r="C1416" s="33"/>
       <c r="D1416" s="152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1416" s="15"/>
     </row>
@@ -18109,7 +18178,7 @@
       </c>
       <c r="C1418" s="33"/>
       <c r="D1418" s="152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1418" s="15"/>
     </row>
@@ -18313,16 +18382,18 @@
       <c r="D1436" s="16"/>
       <c r="E1436" s="16"/>
     </row>
-    <row r="1437" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
+    <row r="1437" spans="1:5" ht="18" outlineLevel="1">
       <c r="A1437" s="73" t="s">
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="168"/>
+      <c r="C1437" s="168" t="s">
+        <v>412</v>
+      </c>
       <c r="D1437" s="169"/>
       <c r="E1437" s="169"/>
     </row>
-    <row r="1438" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1438" spans="1:5" outlineLevel="2">
       <c r="A1438" s="74">
         <v>0</v>
       </c>
@@ -18331,7 +18402,7 @@
       <c r="D1438" s="15"/>
       <c r="E1438" s="15"/>
     </row>
-    <row r="1439" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1439" spans="1:5" outlineLevel="2">
       <c r="A1439" s="74">
         <v>1</v>
       </c>
@@ -18340,7 +18411,7 @@
       <c r="D1439" s="15"/>
       <c r="E1439" s="15"/>
     </row>
-    <row r="1440" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1440" spans="1:5" outlineLevel="2">
       <c r="A1440" s="74">
         <v>2</v>
       </c>
@@ -18349,7 +18420,7 @@
       <c r="D1440" s="15"/>
       <c r="E1440" s="15"/>
     </row>
-    <row r="1441" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1441" spans="1:5" outlineLevel="2">
       <c r="A1441" s="74">
         <v>3</v>
       </c>
@@ -18358,7 +18429,7 @@
       <c r="D1441" s="15"/>
       <c r="E1441" s="15"/>
     </row>
-    <row r="1442" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1442" spans="1:5" outlineLevel="2">
       <c r="A1442" s="74">
         <v>4</v>
       </c>
@@ -18367,7 +18438,7 @@
       <c r="D1442" s="15"/>
       <c r="E1442" s="15"/>
     </row>
-    <row r="1443" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1443" spans="1:5" outlineLevel="2">
       <c r="A1443" s="74">
         <v>5</v>
       </c>
@@ -18376,7 +18447,7 @@
       <c r="D1443" s="15"/>
       <c r="E1443" s="15"/>
     </row>
-    <row r="1444" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1444" spans="1:5" outlineLevel="2">
       <c r="A1444" s="74">
         <v>6</v>
       </c>
@@ -18385,7 +18456,7 @@
       <c r="D1444" s="15"/>
       <c r="E1444" s="15"/>
     </row>
-    <row r="1445" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1445" spans="1:5" outlineLevel="2">
       <c r="A1445" s="74">
         <v>7</v>
       </c>
@@ -18394,7 +18465,7 @@
       <c r="D1445" s="15"/>
       <c r="E1445" s="15"/>
     </row>
-    <row r="1446" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1446" spans="1:5" outlineLevel="2">
       <c r="A1446" s="74">
         <v>8</v>
       </c>
@@ -18403,7 +18474,7 @@
       <c r="D1446" s="15"/>
       <c r="E1446" s="15"/>
     </row>
-    <row r="1447" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1447" spans="1:5" outlineLevel="2">
       <c r="A1447" s="74">
         <v>9</v>
       </c>
@@ -18412,7 +18483,7 @@
       <c r="D1447" s="15"/>
       <c r="E1447" s="15"/>
     </row>
-    <row r="1448" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1448" spans="1:5" outlineLevel="2">
       <c r="A1448" s="74" t="s">
         <v>2</v>
       </c>
@@ -18421,7 +18492,7 @@
       <c r="D1448" s="15"/>
       <c r="E1448" s="15"/>
     </row>
-    <row r="1449" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1449" spans="1:5" outlineLevel="2">
       <c r="A1449" s="74" t="s">
         <v>3</v>
       </c>
@@ -18430,40 +18501,50 @@
       <c r="D1449" s="15"/>
       <c r="E1449" s="15"/>
     </row>
-    <row r="1450" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1450" spans="1:5" outlineLevel="2">
       <c r="A1450" s="74" t="s">
         <v>4</v>
       </c>
       <c r="B1450" s="88"/>
       <c r="C1450" s="33"/>
-      <c r="D1450" s="15"/>
-      <c r="E1450" s="15"/>
-    </row>
-    <row r="1451" spans="1:5" hidden="1" outlineLevel="2">
+      <c r="D1450" s="152" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1450" s="152" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" outlineLevel="2">
       <c r="A1451" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B1451" s="88"/>
       <c r="C1451" s="33"/>
-      <c r="D1451" s="15"/>
+      <c r="D1451" s="152" t="s">
+        <v>408</v>
+      </c>
       <c r="E1451" s="15"/>
     </row>
-    <row r="1452" spans="1:5" hidden="1" outlineLevel="2">
+    <row r="1452" spans="1:5" outlineLevel="2">
       <c r="A1452" s="74" t="s">
         <v>6</v>
       </c>
       <c r="B1452" s="88"/>
       <c r="C1452" s="33"/>
-      <c r="D1452" s="15"/>
+      <c r="D1452" s="152" t="s">
+        <v>409</v>
+      </c>
       <c r="E1452" s="15"/>
     </row>
-    <row r="1453" spans="1:5" ht="13.5" hidden="1" outlineLevel="2" thickBot="1">
+    <row r="1453" spans="1:5" ht="13.5" outlineLevel="2" thickBot="1">
       <c r="A1453" s="75" t="s">
         <v>7</v>
       </c>
       <c r="B1453" s="89"/>
       <c r="C1453" s="34"/>
-      <c r="D1453" s="16"/>
+      <c r="D1453" s="155" t="s">
+        <v>410</v>
+      </c>
       <c r="E1453" s="16"/>
     </row>
     <row r="1454" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
@@ -22612,7 +22693,7 @@
       </c>
       <c r="B1914" s="43"/>
       <c r="C1914" s="184" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D1914" s="185"/>
       <c r="E1914" s="185"/>
@@ -22623,7 +22704,7 @@
       </c>
       <c r="B1915" s="87"/>
       <c r="C1915" s="168" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D1915" s="169"/>
       <c r="E1915" s="169"/>
@@ -22636,10 +22717,10 @@
         <v>254</v>
       </c>
       <c r="C1916" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1916" s="152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E1916" s="15"/>
     </row>
@@ -22651,10 +22732,10 @@
         <v>254</v>
       </c>
       <c r="C1917" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1917" s="152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E1917" s="15"/>
     </row>
@@ -22666,10 +22747,10 @@
         <v>254</v>
       </c>
       <c r="C1918" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1918" s="152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1918" s="15"/>
     </row>
@@ -22681,10 +22762,10 @@
         <v>254</v>
       </c>
       <c r="C1919" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1919" s="152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1919" s="15"/>
     </row>
@@ -22696,10 +22777,10 @@
         <v>254</v>
       </c>
       <c r="C1920" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1920" s="152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E1920" s="15"/>
     </row>
@@ -22711,10 +22792,10 @@
         <v>254</v>
       </c>
       <c r="C1921" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1921" s="152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E1921" s="15"/>
     </row>
@@ -22726,10 +22807,10 @@
         <v>254</v>
       </c>
       <c r="C1922" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1922" s="152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E1922" s="15"/>
     </row>
@@ -22741,10 +22822,10 @@
         <v>254</v>
       </c>
       <c r="C1923" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1923" s="152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E1923" s="15"/>
     </row>
@@ -22756,10 +22837,10 @@
         <v>254</v>
       </c>
       <c r="C1924" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1924" s="152" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E1924" s="15"/>
     </row>
@@ -22771,10 +22852,10 @@
         <v>254</v>
       </c>
       <c r="C1925" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1925" s="152" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E1925" s="15"/>
     </row>
@@ -22786,10 +22867,10 @@
         <v>254</v>
       </c>
       <c r="C1926" s="154" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1926" s="152" t="s">
         <v>327</v>
-      </c>
-      <c r="D1926" s="152" t="s">
-        <v>328</v>
       </c>
       <c r="E1926" s="15"/>
     </row>
@@ -22801,10 +22882,10 @@
         <v>254</v>
       </c>
       <c r="C1927" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1927" s="152" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E1927" s="15"/>
     </row>
@@ -22816,10 +22897,10 @@
         <v>254</v>
       </c>
       <c r="C1928" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1928" s="152" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E1928" s="15"/>
     </row>
@@ -22831,10 +22912,10 @@
         <v>254</v>
       </c>
       <c r="C1929" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1929" s="152" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E1929" s="15"/>
     </row>
@@ -22846,10 +22927,10 @@
         <v>254</v>
       </c>
       <c r="C1930" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1930" s="152" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E1930" s="15"/>
     </row>
@@ -22861,10 +22942,10 @@
         <v>254</v>
       </c>
       <c r="C1931" s="154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D1931" s="155" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E1931" s="16"/>
     </row>
@@ -22874,7 +22955,7 @@
       </c>
       <c r="B1932" s="90"/>
       <c r="C1932" s="170" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D1932" s="171"/>
       <c r="E1932" s="171"/>
@@ -22886,7 +22967,7 @@
       <c r="B1933" s="88"/>
       <c r="C1933" s="33"/>
       <c r="D1933" s="152" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E1933" s="15"/>
     </row>
@@ -22897,7 +22978,7 @@
       <c r="B1934" s="88"/>
       <c r="C1934" s="33"/>
       <c r="D1934" s="152" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E1934" s="15"/>
     </row>
@@ -22908,7 +22989,7 @@
       <c r="B1935" s="88"/>
       <c r="C1935" s="33"/>
       <c r="D1935" s="152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E1935" s="15"/>
     </row>
@@ -22919,7 +23000,7 @@
       <c r="B1936" s="88"/>
       <c r="C1936" s="33"/>
       <c r="D1936" s="152" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E1936" s="15"/>
     </row>
@@ -22930,7 +23011,7 @@
       <c r="B1937" s="88"/>
       <c r="C1937" s="33"/>
       <c r="D1937" s="152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E1937" s="15"/>
     </row>
@@ -22941,7 +23022,7 @@
       <c r="B1938" s="88"/>
       <c r="C1938" s="33"/>
       <c r="D1938" s="152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E1938" s="15"/>
     </row>
@@ -22952,7 +23033,7 @@
       <c r="B1939" s="88"/>
       <c r="C1939" s="33"/>
       <c r="D1939" s="152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E1939" s="15"/>
     </row>
@@ -22963,7 +23044,7 @@
       <c r="B1940" s="88"/>
       <c r="C1940" s="33"/>
       <c r="D1940" s="152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E1940" s="15"/>
     </row>
@@ -22974,7 +23055,7 @@
       <c r="B1941" s="88"/>
       <c r="C1941" s="33"/>
       <c r="D1941" s="152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E1941" s="15"/>
     </row>
@@ -22985,7 +23066,7 @@
       <c r="B1942" s="88"/>
       <c r="C1942" s="33"/>
       <c r="D1942" s="152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E1942" s="15"/>
     </row>
@@ -22996,7 +23077,7 @@
       <c r="B1943" s="88"/>
       <c r="C1943" s="33"/>
       <c r="D1943" s="152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E1943" s="15"/>
     </row>
@@ -23007,7 +23088,7 @@
       <c r="B1944" s="88"/>
       <c r="C1944" s="33"/>
       <c r="D1944" s="152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E1944" s="15"/>
     </row>
@@ -23268,7 +23349,7 @@
       </c>
       <c r="B1966" s="87"/>
       <c r="C1966" s="168" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D1966" s="169"/>
       <c r="E1966" s="169"/>
@@ -23424,7 +23505,7 @@
       <c r="B1979" s="153"/>
       <c r="C1979" s="154"/>
       <c r="D1979" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E1979" s="15"/>
     </row>
@@ -23435,7 +23516,7 @@
       <c r="B1980" s="88"/>
       <c r="C1980" s="33"/>
       <c r="D1980" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E1980" s="15"/>
     </row>
@@ -23446,7 +23527,7 @@
       <c r="B1981" s="88"/>
       <c r="C1981" s="33"/>
       <c r="D1981" s="152" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E1981" s="15"/>
     </row>
@@ -23457,7 +23538,7 @@
       <c r="B1982" s="89"/>
       <c r="C1982" s="34"/>
       <c r="D1982" s="155" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E1982" s="16"/>
     </row>
@@ -23467,7 +23548,7 @@
       </c>
       <c r="B1983" s="87"/>
       <c r="C1983" s="168" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D1983" s="169"/>
       <c r="E1983" s="169"/>
@@ -23479,7 +23560,7 @@
       <c r="B1984" s="88"/>
       <c r="C1984" s="33"/>
       <c r="D1984" s="152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E1984" s="15"/>
     </row>
@@ -23490,7 +23571,7 @@
       <c r="B1985" s="88"/>
       <c r="C1985" s="33"/>
       <c r="D1985" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E1985" s="15"/>
     </row>
@@ -23501,7 +23582,7 @@
       <c r="B1986" s="88"/>
       <c r="C1986" s="33"/>
       <c r="D1986" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E1986" s="15"/>
     </row>
@@ -23512,7 +23593,7 @@
       <c r="B1987" s="88"/>
       <c r="C1987" s="33"/>
       <c r="D1987" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E1987" s="15"/>
     </row>
@@ -23527,7 +23608,7 @@
         <v>294</v>
       </c>
       <c r="D1988" s="152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1988" s="15"/>
     </row>
@@ -23564,7 +23645,7 @@
         <v>294</v>
       </c>
       <c r="D1991" s="152" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E1991" s="15"/>
     </row>
@@ -23601,7 +23682,7 @@
         <v>294</v>
       </c>
       <c r="D1994" s="152" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E1994" s="15"/>
     </row>
@@ -23638,7 +23719,7 @@
         <v>294</v>
       </c>
       <c r="D1997" s="152" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E1997" s="15"/>
     </row>
@@ -23670,7 +23751,7 @@
       </c>
       <c r="B2000" s="87"/>
       <c r="C2000" s="168" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D2000" s="169"/>
       <c r="E2000" s="169"/>
@@ -23684,7 +23765,7 @@
       </c>
       <c r="C2001" s="33"/>
       <c r="D2001" s="152" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E2001" s="15"/>
     </row>
@@ -23715,11 +23796,11 @@
         <v>3</v>
       </c>
       <c r="B2004" s="153" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C2004" s="33"/>
       <c r="D2004" s="152" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2004" s="15"/>
     </row>
@@ -23754,7 +23835,7 @@
       </c>
       <c r="C2007" s="33"/>
       <c r="D2007" s="152" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2007" s="15"/>
     </row>
@@ -23789,7 +23870,7 @@
       </c>
       <c r="C2010" s="33"/>
       <c r="D2010" s="152" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E2010" s="15"/>
     </row>
@@ -23822,7 +23903,7 @@
       <c r="B2013" s="88"/>
       <c r="C2013" s="33"/>
       <c r="D2013" s="152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2013" s="15"/>
     </row>
@@ -23833,7 +23914,7 @@
       <c r="B2014" s="88"/>
       <c r="C2014" s="33"/>
       <c r="D2014" s="152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2014" s="15"/>
     </row>
@@ -23844,7 +23925,7 @@
       <c r="B2015" s="88"/>
       <c r="C2015" s="33"/>
       <c r="D2015" s="152" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2015" s="15"/>
     </row>
@@ -23855,7 +23936,7 @@
       <c r="B2016" s="89"/>
       <c r="C2016" s="34"/>
       <c r="D2016" s="155" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2016" s="16"/>
     </row>
@@ -23865,7 +23946,7 @@
       </c>
       <c r="B2017" s="87"/>
       <c r="C2017" s="168" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D2017" s="169"/>
       <c r="E2017" s="169"/>
@@ -23877,7 +23958,7 @@
       <c r="B2018" s="88"/>
       <c r="C2018" s="33"/>
       <c r="D2018" s="152" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E2018" s="15"/>
     </row>
@@ -23888,7 +23969,7 @@
       <c r="B2019" s="88"/>
       <c r="C2019" s="33"/>
       <c r="D2019" s="152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2019" s="15"/>
     </row>
@@ -23899,7 +23980,7 @@
       <c r="B2020" s="88"/>
       <c r="C2020" s="33"/>
       <c r="D2020" s="152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2020" s="15"/>
     </row>
@@ -23910,7 +23991,7 @@
       <c r="B2021" s="88"/>
       <c r="C2021" s="33"/>
       <c r="D2021" s="152" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E2021" s="15"/>
     </row>
@@ -23921,7 +24002,7 @@
       <c r="B2022" s="88"/>
       <c r="C2022" s="33"/>
       <c r="D2022" s="152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E2022" s="15"/>
     </row>
@@ -23932,7 +24013,7 @@
       <c r="B2023" s="88"/>
       <c r="C2023" s="33"/>
       <c r="D2023" s="152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2023" s="15"/>
     </row>
@@ -23943,7 +24024,7 @@
       <c r="B2024" s="88"/>
       <c r="C2024" s="33"/>
       <c r="D2024" s="152" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2024" s="15"/>
     </row>
@@ -23954,7 +24035,7 @@
       <c r="B2025" s="88"/>
       <c r="C2025" s="33"/>
       <c r="D2025" s="152" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2025" s="15"/>
     </row>
@@ -23965,7 +24046,7 @@
       <c r="B2026" s="88"/>
       <c r="C2026" s="33"/>
       <c r="D2026" s="152" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E2026" s="15"/>
     </row>
@@ -23976,7 +24057,7 @@
       <c r="B2027" s="88"/>
       <c r="C2027" s="33"/>
       <c r="D2027" s="152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2027" s="15"/>
     </row>
@@ -23987,7 +24068,7 @@
       <c r="B2028" s="88"/>
       <c r="C2028" s="33"/>
       <c r="D2028" s="152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2028" s="15"/>
     </row>
@@ -23998,7 +24079,7 @@
       <c r="B2029" s="88"/>
       <c r="C2029" s="33"/>
       <c r="D2029" s="152" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E2029" s="15"/>
     </row>
@@ -24009,7 +24090,7 @@
       <c r="B2030" s="88"/>
       <c r="C2030" s="33"/>
       <c r="D2030" s="152" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E2030" s="15"/>
     </row>
@@ -24020,7 +24101,7 @@
       <c r="B2031" s="88"/>
       <c r="C2031" s="33"/>
       <c r="D2031" s="152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2031" s="15"/>
     </row>
@@ -24031,7 +24112,7 @@
       <c r="B2032" s="88"/>
       <c r="C2032" s="33"/>
       <c r="D2032" s="152" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2032" s="15"/>
     </row>
@@ -24042,7 +24123,7 @@
       <c r="B2033" s="89"/>
       <c r="C2033" s="34"/>
       <c r="D2033" s="152" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2033" s="16"/>
     </row>
@@ -24052,7 +24133,7 @@
       </c>
       <c r="B2034" s="87"/>
       <c r="C2034" s="168" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D2034" s="169"/>
       <c r="E2034" s="169"/>
@@ -24064,7 +24145,7 @@
       <c r="B2035" s="88"/>
       <c r="C2035" s="33"/>
       <c r="D2035" s="152" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E2035" s="15"/>
     </row>
@@ -24075,7 +24156,7 @@
       <c r="B2036" s="88"/>
       <c r="C2036" s="33"/>
       <c r="D2036" s="152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2036" s="15"/>
     </row>
@@ -24086,7 +24167,7 @@
       <c r="B2037" s="88"/>
       <c r="C2037" s="33"/>
       <c r="D2037" s="152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2037" s="15"/>
     </row>
@@ -24097,7 +24178,7 @@
       <c r="B2038" s="88"/>
       <c r="C2038" s="33"/>
       <c r="D2038" s="152" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E2038" s="15"/>
     </row>
@@ -24108,7 +24189,7 @@
       <c r="B2039" s="88"/>
       <c r="C2039" s="33"/>
       <c r="D2039" s="152" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E2039" s="15"/>
     </row>
@@ -24119,7 +24200,7 @@
       <c r="B2040" s="88"/>
       <c r="C2040" s="33"/>
       <c r="D2040" s="152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2040" s="15"/>
     </row>
@@ -24130,7 +24211,7 @@
       <c r="B2041" s="88"/>
       <c r="C2041" s="33"/>
       <c r="D2041" s="152" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2041" s="15"/>
     </row>
@@ -24141,7 +24222,7 @@
       <c r="B2042" s="88"/>
       <c r="C2042" s="33"/>
       <c r="D2042" s="152" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2042" s="15"/>
     </row>
@@ -24152,7 +24233,7 @@
       <c r="B2043" s="88"/>
       <c r="C2043" s="33"/>
       <c r="D2043" s="152" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E2043" s="15"/>
     </row>
@@ -24163,7 +24244,7 @@
       <c r="B2044" s="88"/>
       <c r="C2044" s="33"/>
       <c r="D2044" s="152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2044" s="15"/>
     </row>
@@ -24174,7 +24255,7 @@
       <c r="B2045" s="88"/>
       <c r="C2045" s="33"/>
       <c r="D2045" s="152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2045" s="15"/>
     </row>
@@ -24185,7 +24266,7 @@
       <c r="B2046" s="88"/>
       <c r="C2046" s="33"/>
       <c r="D2046" s="152" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E2046" s="15"/>
     </row>
@@ -24468,7 +24549,7 @@
       </c>
       <c r="B2068" s="87"/>
       <c r="C2068" s="168" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D2068" s="169"/>
       <c r="E2068" s="169"/>
@@ -24634,14 +24715,14 @@
         <v>4</v>
       </c>
       <c r="B2081" s="153" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2081" s="154"/>
       <c r="D2081" s="152" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2081" s="152" t="s">
         <v>383</v>
-      </c>
-      <c r="E2081" s="152" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="2082" spans="1:5" hidden="1" outlineLevel="2">
@@ -24673,7 +24754,7 @@
       <c r="B2084" s="89"/>
       <c r="C2084" s="34"/>
       <c r="D2084" s="155" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2084" s="16"/>
     </row>
@@ -24683,7 +24764,7 @@
       </c>
       <c r="B2085" s="87"/>
       <c r="C2085" s="168" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D2085" s="169"/>
       <c r="E2085" s="169"/>
@@ -24693,11 +24774,11 @@
         <v>0</v>
       </c>
       <c r="B2086" s="153" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2086" s="33"/>
       <c r="D2086" s="152" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2086" s="15"/>
     </row>
@@ -24708,7 +24789,7 @@
       <c r="B2087" s="88"/>
       <c r="C2087" s="33"/>
       <c r="D2087" s="152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2087" s="15"/>
     </row>
@@ -24719,7 +24800,7 @@
       <c r="B2088" s="88"/>
       <c r="C2088" s="33"/>
       <c r="D2088" s="152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2088" s="15"/>
     </row>
@@ -24730,7 +24811,7 @@
       <c r="B2089" s="88"/>
       <c r="C2089" s="33"/>
       <c r="D2089" s="152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E2089" s="15"/>
     </row>
@@ -24741,7 +24822,7 @@
       <c r="B2090" s="88"/>
       <c r="C2090" s="33"/>
       <c r="D2090" s="152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E2090" s="15"/>
     </row>
@@ -24774,7 +24855,7 @@
       <c r="B2093" s="88"/>
       <c r="C2093" s="33"/>
       <c r="D2093" s="152" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2093" s="15"/>
     </row>
@@ -24785,7 +24866,7 @@
       <c r="B2094" s="88"/>
       <c r="C2094" s="33"/>
       <c r="D2094" s="152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E2094" s="15"/>
     </row>
@@ -24796,7 +24877,7 @@
       <c r="B2095" s="88"/>
       <c r="C2095" s="33"/>
       <c r="D2095" s="152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2095" s="15"/>
     </row>
@@ -24807,7 +24888,7 @@
       <c r="B2096" s="88"/>
       <c r="C2096" s="33"/>
       <c r="D2096" s="152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2096" s="15"/>
     </row>
@@ -24818,7 +24899,7 @@
       <c r="B2097" s="88"/>
       <c r="C2097" s="33"/>
       <c r="D2097" s="152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E2097" s="15"/>
     </row>
@@ -24829,7 +24910,7 @@
       <c r="B2098" s="88"/>
       <c r="C2098" s="33"/>
       <c r="D2098" s="152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E2098" s="15"/>
     </row>
@@ -24862,7 +24943,7 @@
       <c r="B2101" s="89"/>
       <c r="C2101" s="34"/>
       <c r="D2101" s="155" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2101" s="16"/>
     </row>
@@ -24872,7 +24953,7 @@
       </c>
       <c r="B2102" s="87"/>
       <c r="C2102" s="168" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D2102" s="169"/>
       <c r="E2102" s="169"/>
@@ -24882,11 +24963,11 @@
         <v>0</v>
       </c>
       <c r="B2103" s="153" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2103" s="33"/>
       <c r="D2103" s="152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E2103" s="15"/>
     </row>
@@ -24897,7 +24978,7 @@
       <c r="B2104" s="88"/>
       <c r="C2104" s="33"/>
       <c r="D2104" s="152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2104" s="15"/>
     </row>
@@ -24908,7 +24989,7 @@
       <c r="B2105" s="88"/>
       <c r="C2105" s="33"/>
       <c r="D2105" s="152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2105" s="15"/>
     </row>
@@ -24919,7 +25000,7 @@
       <c r="B2106" s="88"/>
       <c r="C2106" s="33"/>
       <c r="D2106" s="152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E2106" s="15"/>
     </row>
@@ -24928,11 +25009,11 @@
         <v>4</v>
       </c>
       <c r="B2107" s="153" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2107" s="33"/>
       <c r="D2107" s="152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E2107" s="15"/>
     </row>
@@ -24965,7 +25046,7 @@
       <c r="B2110" s="88"/>
       <c r="C2110" s="33"/>
       <c r="D2110" s="152" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2110" s="15"/>
     </row>
@@ -24976,7 +25057,7 @@
       <c r="B2111" s="88"/>
       <c r="C2111" s="33"/>
       <c r="D2111" s="152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E2111" s="15"/>
     </row>
@@ -24987,7 +25068,7 @@
       <c r="B2112" s="88"/>
       <c r="C2112" s="33"/>
       <c r="D2112" s="152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2112" s="15"/>
     </row>
@@ -24998,7 +25079,7 @@
       <c r="B2113" s="88"/>
       <c r="C2113" s="33"/>
       <c r="D2113" s="152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2113" s="15"/>
     </row>
@@ -25009,7 +25090,7 @@
       <c r="B2114" s="88"/>
       <c r="C2114" s="33"/>
       <c r="D2114" s="152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E2114" s="15"/>
     </row>
@@ -25055,7 +25136,7 @@
       <c r="B2118" s="89"/>
       <c r="C2118" s="34"/>
       <c r="D2118" s="155" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E2118" s="16"/>
     </row>

--- a/DW3/DQ3.xlsx
+++ b/DW3/DQ3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="11340" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="FrameCounts" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="417">
   <si>
     <t>Notes</t>
   </si>
@@ -526,9 +526,6 @@
   </si>
   <si>
     <t>Black screen</t>
-  </si>
-  <si>
-    <t>Level 2</t>
   </si>
   <si>
     <t>Level 3</t>
@@ -1302,6 +1299,18 @@
   <si>
     <t>Sprite Memory (DMA)</t>
   </si>
+  <si>
+    <t>Get Ship</t>
+  </si>
+  <si>
+    <t>Enter Baharata</t>
+  </si>
+  <si>
+    <t>Enter Kandar II cave</t>
+  </si>
+  <si>
+    <t>Kandar Henchmen appear</t>
+  </si>
 </sst>
 </file>
 
@@ -1311,10 +1320,17 @@
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2258,34 +2274,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2293,208 +2309,208 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="22" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="17" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="19" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2504,10 +2520,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2528,18 +2544,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2549,132 +2568,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="33" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -2984,9 +3003,9 @@
   </sheetPr>
   <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="2"/>
@@ -3003,11 +3022,11 @@
   <sheetData>
     <row r="1" spans="1:11" ht="33">
       <c r="A1" s="161" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="160"/>
       <c r="C1" s="162" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D1" s="162"/>
       <c r="E1" s="162"/>
@@ -3018,17 +3037,17 @@
         <v>2126</v>
       </c>
       <c r="I1" s="141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J1" s="140"/>
       <c r="K1" s="140"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
       <c r="A2" s="142" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="143"/>
       <c r="D2" s="143"/>
@@ -3057,7 +3076,7 @@
         <v>159</v>
       </c>
       <c r="B3" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="143"/>
       <c r="D3" s="143"/>
@@ -3084,13 +3103,13 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="147" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="159" t="s">
         <v>184</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="159" t="s">
-        <v>185</v>
       </c>
       <c r="D5" s="159"/>
       <c r="E5" s="147"/>
@@ -3103,10 +3122,10 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="159" t="s">
         <v>168</v>
@@ -3130,28 +3149,28 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" outlineLevel="1">
       <c r="A8" s="164" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="96" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E8" s="96" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A9" s="157"/>
       <c r="B9" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="99">
         <v>0</v>
@@ -3165,7 +3184,7 @@
     <row r="10" spans="1:11" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A10" s="157"/>
       <c r="B10" s="148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="101">
         <v>466</v>
@@ -3182,7 +3201,7 @@
     <row r="11" spans="1:11" ht="15" outlineLevel="1">
       <c r="A11" s="157"/>
       <c r="B11" s="148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="101">
         <v>2886</v>
@@ -3199,7 +3218,7 @@
     <row r="12" spans="1:11" ht="15" outlineLevel="1">
       <c r="A12" s="157"/>
       <c r="B12" s="148" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="101">
         <v>4972</v>
@@ -3216,7 +3235,7 @@
     <row r="13" spans="1:11" ht="15" outlineLevel="1">
       <c r="A13" s="157"/>
       <c r="B13" s="148" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="101">
         <v>6709</v>
@@ -3233,7 +3252,7 @@
     <row r="14" spans="1:11" ht="15" outlineLevel="1">
       <c r="A14" s="157"/>
       <c r="B14" s="148" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="101">
         <v>8110</v>
@@ -3261,7 +3280,7 @@
     <row r="16" spans="1:11" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A16" s="157"/>
       <c r="B16" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="99">
         <v>8110</v>
@@ -3277,10 +3296,10 @@
     </row>
     <row r="17" spans="1:7" ht="17.25" thickTop="1" thickBot="1">
       <c r="A17" s="116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="103">
         <f>C16-C9</f>
@@ -3303,10 +3322,10 @@
     <row r="18" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="19" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
       <c r="A19" s="158" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="110" t="s">
         <v>42</v>
@@ -3318,13 +3337,13 @@
         <v>43</v>
       </c>
       <c r="F19" s="111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A20" s="157"/>
       <c r="B20" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="99">
         <v>8110</v>
@@ -3341,7 +3360,7 @@
     <row r="21" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A21" s="157"/>
       <c r="B21" s="148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="101">
         <v>9264</v>
@@ -3358,7 +3377,7 @@
     <row r="22" spans="1:7" ht="15" outlineLevel="1">
       <c r="A22" s="157"/>
       <c r="B22" s="148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="101">
         <v>10006</v>
@@ -3375,7 +3394,7 @@
     <row r="23" spans="1:7" ht="15" outlineLevel="1">
       <c r="A23" s="157"/>
       <c r="B23" s="148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="101">
         <v>11009</v>
@@ -3392,7 +3411,7 @@
     <row r="24" spans="1:7" ht="15" outlineLevel="1">
       <c r="A24" s="157"/>
       <c r="B24" s="148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C24" s="101">
         <v>12082</v>
@@ -3409,7 +3428,7 @@
     <row r="25" spans="1:7" ht="15" outlineLevel="1">
       <c r="A25" s="157"/>
       <c r="B25" s="148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C25" s="101">
         <v>13338</v>
@@ -3426,7 +3445,7 @@
     <row r="26" spans="1:7" ht="15" outlineLevel="1">
       <c r="A26" s="157"/>
       <c r="B26" s="148" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C26" s="101">
         <v>16018</v>
@@ -3443,7 +3462,7 @@
     <row r="27" spans="1:7" ht="15" outlineLevel="1">
       <c r="A27" s="157"/>
       <c r="B27" s="148" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27" s="101">
         <v>17678</v>
@@ -3460,7 +3479,7 @@
     <row r="28" spans="1:7" ht="15" outlineLevel="1">
       <c r="A28" s="157"/>
       <c r="B28" s="148" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="101">
         <v>20692</v>
@@ -3477,7 +3496,7 @@
     <row r="29" spans="1:7" ht="15" outlineLevel="1">
       <c r="A29" s="157"/>
       <c r="B29" s="148" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29" s="101">
         <v>23167</v>
@@ -3494,7 +3513,7 @@
     <row r="30" spans="1:7" ht="15" outlineLevel="1">
       <c r="A30" s="157"/>
       <c r="B30" s="148" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C30" s="101">
         <v>24630</v>
@@ -3511,7 +3530,7 @@
     <row r="31" spans="1:7" ht="15" outlineLevel="1">
       <c r="A31" s="157"/>
       <c r="B31" s="148" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31" s="101"/>
       <c r="D31" s="101">
@@ -3526,7 +3545,7 @@
     <row r="32" spans="1:7" ht="15" outlineLevel="1">
       <c r="A32" s="157"/>
       <c r="B32" s="149" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C32" s="101">
         <v>27502</v>
@@ -3543,7 +3562,7 @@
     <row r="33" spans="1:7" ht="15" outlineLevel="1">
       <c r="A33" s="157"/>
       <c r="B33" s="149" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C33" s="101">
         <v>29241</v>
@@ -3560,7 +3579,7 @@
     <row r="34" spans="1:7" ht="15" outlineLevel="1">
       <c r="A34" s="157"/>
       <c r="B34" s="149" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C34" s="101">
         <v>30054</v>
@@ -3577,7 +3596,7 @@
     <row r="35" spans="1:7" ht="15" outlineLevel="1">
       <c r="A35" s="157"/>
       <c r="B35" s="149" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="101">
         <v>34644</v>
@@ -3594,7 +3613,7 @@
     <row r="36" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A36" s="157"/>
       <c r="B36" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" s="99">
         <v>34644</v>
@@ -3613,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C37" s="103">
         <f>C36-C20</f>
@@ -3636,10 +3655,10 @@
     <row r="38" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="39" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
       <c r="A39" s="156" t="s">
-        <v>169</v>
+        <v>413</v>
       </c>
       <c r="B39" s="113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C39" s="114" t="s">
         <v>42</v>
@@ -3651,13 +3670,13 @@
         <v>43</v>
       </c>
       <c r="F39" s="115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A40" s="157"/>
       <c r="B40" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C40" s="99">
         <v>26534</v>
@@ -3674,7 +3693,7 @@
     <row r="41" spans="1:7" ht="15.75" outlineLevel="1" thickTop="1">
       <c r="A41" s="157"/>
       <c r="B41" s="150" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C41" s="101">
         <v>36263</v>
@@ -3691,7 +3710,7 @@
     <row r="42" spans="1:7" ht="15" outlineLevel="1">
       <c r="A42" s="157"/>
       <c r="B42" s="151" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C42" s="101">
         <v>41709</v>
@@ -3718,34 +3737,52 @@
     </row>
     <row r="44" spans="1:7" ht="15" outlineLevel="1">
       <c r="A44" s="157"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
+      <c r="B44" s="223" t="s">
+        <v>414</v>
+      </c>
+      <c r="C44" s="101">
+        <v>67035</v>
+      </c>
+      <c r="D44" s="101">
+        <v>95134</v>
+      </c>
       <c r="E44" s="123">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28099</v>
       </c>
       <c r="F44" s="105"/>
     </row>
     <row r="45" spans="1:7" ht="15" outlineLevel="1">
       <c r="A45" s="157"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
+      <c r="B45" s="223" t="s">
+        <v>415</v>
+      </c>
+      <c r="C45" s="101">
+        <v>69131</v>
+      </c>
+      <c r="D45" s="101">
+        <v>113830</v>
+      </c>
       <c r="E45" s="123">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>44699</v>
       </c>
       <c r="F45" s="105"/>
     </row>
     <row r="46" spans="1:7" ht="15" outlineLevel="1">
       <c r="A46" s="157"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
+      <c r="B46" s="223" t="s">
+        <v>416</v>
+      </c>
+      <c r="C46" s="101">
+        <v>71736</v>
+      </c>
+      <c r="D46" s="101">
+        <v>118489</v>
+      </c>
       <c r="E46" s="123">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>46753</v>
       </c>
       <c r="F46" s="105"/>
     </row>
@@ -3818,7 +3855,7 @@
     <row r="53" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A53" s="157"/>
       <c r="B53" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C53" s="99"/>
       <c r="D53" s="99"/>
@@ -3833,7 +3870,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" s="103">
         <f>C53-C40</f>
@@ -3856,10 +3893,10 @@
     <row r="55" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="56" spans="1:7" ht="15" customHeight="1" outlineLevel="1">
       <c r="A56" s="158" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C56" s="110" t="s">
         <v>42</v>
@@ -3871,13 +3908,13 @@
         <v>43</v>
       </c>
       <c r="F56" s="111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A57" s="157"/>
       <c r="B57" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" s="99"/>
       <c r="D57" s="99"/>
@@ -4022,7 +4059,7 @@
     <row r="70" spans="1:7" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A70" s="157"/>
       <c r="B70" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C70" s="99"/>
       <c r="D70" s="99"/>
@@ -4037,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" s="103">
         <f>C70-C57</f>
@@ -4060,10 +4097,10 @@
     <row r="72" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="73" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A73" s="156" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B73" s="113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C73" s="114" t="s">
         <v>42</v>
@@ -4075,13 +4112,13 @@
         <v>43</v>
       </c>
       <c r="F73" s="115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A74" s="157"/>
       <c r="B74" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C74" s="99"/>
       <c r="D74" s="99"/>
@@ -4226,7 +4263,7 @@
     <row r="87" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A87" s="157"/>
       <c r="B87" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" s="99"/>
       <c r="D87" s="99"/>
@@ -4241,7 +4278,7 @@
         <v>4</v>
       </c>
       <c r="B88" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C88" s="103">
         <f>C87-C74</f>
@@ -4264,10 +4301,10 @@
     <row r="89" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="90" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A90" s="158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" s="110" t="s">
         <v>42</v>
@@ -4279,13 +4316,13 @@
         <v>43</v>
       </c>
       <c r="F90" s="111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A91" s="157"/>
       <c r="B91" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C91" s="99"/>
       <c r="D91" s="99"/>
@@ -4430,7 +4467,7 @@
     <row r="104" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A104" s="157"/>
       <c r="B104" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C104" s="99"/>
       <c r="D104" s="99"/>
@@ -4445,7 +4482,7 @@
         <v>5</v>
       </c>
       <c r="B105" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C105" s="103">
         <f>C104-C91</f>
@@ -4467,10 +4504,10 @@
     </row>
     <row r="107" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A107" s="156" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B107" s="113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C107" s="114" t="s">
         <v>42</v>
@@ -4482,13 +4519,13 @@
         <v>43</v>
       </c>
       <c r="F107" s="115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A108" s="157"/>
       <c r="B108" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108" s="99"/>
       <c r="D108" s="99"/>
@@ -4633,7 +4670,7 @@
     <row r="121" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A121" s="157"/>
       <c r="B121" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C121" s="99"/>
       <c r="D121" s="99"/>
@@ -4648,7 +4685,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C122" s="103">
         <f>C121-C108</f>
@@ -4670,10 +4707,10 @@
     </row>
     <row r="124" spans="1:7" ht="15" hidden="1" outlineLevel="1">
       <c r="A124" s="158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B124" s="109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C124" s="110" t="s">
         <v>42</v>
@@ -4685,13 +4722,13 @@
         <v>43</v>
       </c>
       <c r="F124" s="111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A125" s="157"/>
       <c r="B125" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C125" s="99"/>
       <c r="D125" s="99"/>
@@ -4836,7 +4873,7 @@
     <row r="138" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A138" s="157"/>
       <c r="B138" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C138" s="99"/>
       <c r="D138" s="99"/>
@@ -4851,7 +4888,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C139" s="103">
         <f>C138-C125</f>
@@ -4873,10 +4910,10 @@
     </row>
     <row r="141" spans="1:7" ht="15" hidden="1" outlineLevel="2">
       <c r="A141" s="156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B141" s="113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C141" s="114" t="s">
         <v>42</v>
@@ -4888,13 +4925,13 @@
         <v>43</v>
       </c>
       <c r="F141" s="115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A142" s="157"/>
       <c r="B142" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C142" s="99"/>
       <c r="D142" s="99"/>
@@ -5039,7 +5076,7 @@
     <row r="155" spans="1:7" ht="15.75" hidden="1" outlineLevel="2" thickBot="1">
       <c r="A155" s="157"/>
       <c r="B155" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C155" s="99"/>
       <c r="D155" s="99"/>
@@ -5054,7 +5091,7 @@
         <v>8</v>
       </c>
       <c r="B156" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C156" s="103">
         <f>C155-C142</f>
@@ -5076,11 +5113,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A141:A155"/>
-    <mergeCell ref="A107:A121"/>
-    <mergeCell ref="A73:A87"/>
-    <mergeCell ref="A124:A138"/>
-    <mergeCell ref="A90:A104"/>
     <mergeCell ref="A39:A53"/>
     <mergeCell ref="A56:A70"/>
     <mergeCell ref="C5:D5"/>
@@ -5089,6 +5121,11 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A19:A36"/>
+    <mergeCell ref="A141:A155"/>
+    <mergeCell ref="A107:A121"/>
+    <mergeCell ref="A73:A87"/>
+    <mergeCell ref="A124:A138"/>
+    <mergeCell ref="A90:A104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5103,7 +5140,7 @@
   </sheetPr>
   <dimension ref="A1:H2186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C242" sqref="C242:E242"/>
     </sheetView>
@@ -5120,13 +5157,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -5156,18 +5193,18 @@
         <v>8</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
     </row>
     <row r="4" spans="1:8" ht="18" outlineLevel="1" collapsed="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="87"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" hidden="1" outlineLevel="2">
@@ -5319,9 +5356,9 @@
         <v>9</v>
       </c>
       <c r="B21" s="90"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="168"/>
     </row>
     <row r="22" spans="1:5" outlineLevel="2">
       <c r="A22" s="47">
@@ -5436,11 +5473,11 @@
         <v>4</v>
       </c>
       <c r="B34" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="152" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E34" s="15"/>
     </row>
@@ -5476,9 +5513,9 @@
         <v>10</v>
       </c>
       <c r="B38" s="87"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
     </row>
     <row r="39" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A39" s="47">
@@ -5629,9 +5666,9 @@
         <v>11</v>
       </c>
       <c r="B55" s="87"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="169"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="166"/>
+      <c r="E55" s="166"/>
     </row>
     <row r="56" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A56" s="47">
@@ -5782,9 +5819,9 @@
         <v>12</v>
       </c>
       <c r="B72" s="87"/>
-      <c r="C72" s="168"/>
-      <c r="D72" s="169"/>
-      <c r="E72" s="169"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="166"/>
+      <c r="E72" s="166"/>
     </row>
     <row r="73" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A73" s="47">
@@ -5935,9 +5972,9 @@
         <v>13</v>
       </c>
       <c r="B89" s="87"/>
-      <c r="C89" s="168"/>
-      <c r="D89" s="169"/>
-      <c r="E89" s="169"/>
+      <c r="C89" s="165"/>
+      <c r="D89" s="166"/>
+      <c r="E89" s="166"/>
     </row>
     <row r="90" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A90" s="47">
@@ -6088,9 +6125,9 @@
         <v>14</v>
       </c>
       <c r="B106" s="87"/>
-      <c r="C106" s="168"/>
-      <c r="D106" s="169"/>
-      <c r="E106" s="169"/>
+      <c r="C106" s="165"/>
+      <c r="D106" s="166"/>
+      <c r="E106" s="166"/>
     </row>
     <row r="107" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A107" s="47">
@@ -6241,9 +6278,9 @@
         <v>15</v>
       </c>
       <c r="B123" s="87"/>
-      <c r="C123" s="168"/>
-      <c r="D123" s="169"/>
-      <c r="E123" s="169"/>
+      <c r="C123" s="165"/>
+      <c r="D123" s="166"/>
+      <c r="E123" s="166"/>
     </row>
     <row r="124" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A124" s="47">
@@ -6394,9 +6431,9 @@
         <v>16</v>
       </c>
       <c r="B140" s="87"/>
-      <c r="C140" s="168"/>
-      <c r="D140" s="169"/>
-      <c r="E140" s="169"/>
+      <c r="C140" s="165"/>
+      <c r="D140" s="166"/>
+      <c r="E140" s="166"/>
     </row>
     <row r="141" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A141" s="47">
@@ -6547,9 +6584,9 @@
         <v>17</v>
       </c>
       <c r="B157" s="87"/>
-      <c r="C157" s="168"/>
-      <c r="D157" s="169"/>
-      <c r="E157" s="169"/>
+      <c r="C157" s="165"/>
+      <c r="D157" s="166"/>
+      <c r="E157" s="166"/>
     </row>
     <row r="158" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A158" s="47">
@@ -6700,9 +6737,9 @@
         <v>18</v>
       </c>
       <c r="B174" s="87"/>
-      <c r="C174" s="168"/>
-      <c r="D174" s="169"/>
-      <c r="E174" s="169"/>
+      <c r="C174" s="165"/>
+      <c r="D174" s="166"/>
+      <c r="E174" s="166"/>
     </row>
     <row r="175" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A175" s="47">
@@ -6745,11 +6782,11 @@
         <v>4</v>
       </c>
       <c r="B179" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C179" s="33"/>
       <c r="D179" s="152" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E179" s="15"/>
     </row>
@@ -6857,9 +6894,9 @@
         <v>19</v>
       </c>
       <c r="B191" s="87"/>
-      <c r="C191" s="168"/>
-      <c r="D191" s="169"/>
-      <c r="E191" s="169"/>
+      <c r="C191" s="165"/>
+      <c r="D191" s="166"/>
+      <c r="E191" s="166"/>
     </row>
     <row r="192" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A192" s="47">
@@ -7010,9 +7047,9 @@
         <v>20</v>
       </c>
       <c r="B208" s="87"/>
-      <c r="C208" s="168"/>
-      <c r="D208" s="169"/>
-      <c r="E208" s="169"/>
+      <c r="C208" s="165"/>
+      <c r="D208" s="166"/>
+      <c r="E208" s="166"/>
     </row>
     <row r="209" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A209" s="47">
@@ -7163,9 +7200,9 @@
         <v>21</v>
       </c>
       <c r="B225" s="87"/>
-      <c r="C225" s="168"/>
-      <c r="D225" s="169"/>
-      <c r="E225" s="169"/>
+      <c r="C225" s="165"/>
+      <c r="D225" s="166"/>
+      <c r="E225" s="166"/>
     </row>
     <row r="226" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A226" s="47">
@@ -7316,9 +7353,9 @@
         <v>22</v>
       </c>
       <c r="B242" s="87"/>
-      <c r="C242" s="168"/>
-      <c r="D242" s="169"/>
-      <c r="E242" s="169"/>
+      <c r="C242" s="165"/>
+      <c r="D242" s="166"/>
+      <c r="E242" s="166"/>
     </row>
     <row r="243" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A243" s="47">
@@ -7469,9 +7506,9 @@
         <v>23</v>
       </c>
       <c r="B259" s="87"/>
-      <c r="C259" s="168"/>
-      <c r="D259" s="169"/>
-      <c r="E259" s="169"/>
+      <c r="C259" s="165"/>
+      <c r="D259" s="166"/>
+      <c r="E259" s="166"/>
     </row>
     <row r="260" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A260" s="47">
@@ -7622,18 +7659,18 @@
         <v>24</v>
       </c>
       <c r="B276" s="37"/>
-      <c r="C276" s="172"/>
-      <c r="D276" s="173"/>
-      <c r="E276" s="173"/>
+      <c r="C276" s="184"/>
+      <c r="D276" s="185"/>
+      <c r="E276" s="185"/>
     </row>
     <row r="277" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A277" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B277" s="87"/>
-      <c r="C277" s="168"/>
-      <c r="D277" s="169"/>
-      <c r="E277" s="169"/>
+      <c r="C277" s="165"/>
+      <c r="D277" s="166"/>
+      <c r="E277" s="166"/>
     </row>
     <row r="278" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A278" s="52">
@@ -7784,9 +7821,9 @@
         <v>26</v>
       </c>
       <c r="B294" s="90"/>
-      <c r="C294" s="170"/>
-      <c r="D294" s="171"/>
-      <c r="E294" s="171"/>
+      <c r="C294" s="167"/>
+      <c r="D294" s="168"/>
+      <c r="E294" s="168"/>
     </row>
     <row r="295" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A295" s="52">
@@ -7937,9 +7974,9 @@
         <v>27</v>
       </c>
       <c r="B311" s="87"/>
-      <c r="C311" s="168"/>
-      <c r="D311" s="169"/>
-      <c r="E311" s="169"/>
+      <c r="C311" s="165"/>
+      <c r="D311" s="166"/>
+      <c r="E311" s="166"/>
     </row>
     <row r="312" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A312" s="52">
@@ -8090,9 +8127,9 @@
         <v>28</v>
       </c>
       <c r="B328" s="87"/>
-      <c r="C328" s="168"/>
-      <c r="D328" s="169"/>
-      <c r="E328" s="169"/>
+      <c r="C328" s="165"/>
+      <c r="D328" s="166"/>
+      <c r="E328" s="166"/>
     </row>
     <row r="329" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A329" s="52">
@@ -8243,9 +8280,9 @@
         <v>29</v>
       </c>
       <c r="B345" s="87"/>
-      <c r="C345" s="168"/>
-      <c r="D345" s="169"/>
-      <c r="E345" s="169"/>
+      <c r="C345" s="165"/>
+      <c r="D345" s="166"/>
+      <c r="E345" s="166"/>
     </row>
     <row r="346" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A346" s="52">
@@ -8396,9 +8433,9 @@
         <v>30</v>
       </c>
       <c r="B362" s="87"/>
-      <c r="C362" s="168"/>
-      <c r="D362" s="169"/>
-      <c r="E362" s="169"/>
+      <c r="C362" s="165"/>
+      <c r="D362" s="166"/>
+      <c r="E362" s="166"/>
     </row>
     <row r="363" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A363" s="52">
@@ -8549,9 +8586,9 @@
         <v>31</v>
       </c>
       <c r="B379" s="87"/>
-      <c r="C379" s="168"/>
-      <c r="D379" s="169"/>
-      <c r="E379" s="169"/>
+      <c r="C379" s="165"/>
+      <c r="D379" s="166"/>
+      <c r="E379" s="166"/>
     </row>
     <row r="380" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A380" s="52">
@@ -8702,9 +8739,9 @@
         <v>32</v>
       </c>
       <c r="B396" s="87"/>
-      <c r="C396" s="168"/>
-      <c r="D396" s="169"/>
-      <c r="E396" s="169"/>
+      <c r="C396" s="165"/>
+      <c r="D396" s="166"/>
+      <c r="E396" s="166"/>
     </row>
     <row r="397" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A397" s="52">
@@ -8855,9 +8892,9 @@
         <v>33</v>
       </c>
       <c r="B413" s="87"/>
-      <c r="C413" s="168"/>
-      <c r="D413" s="169"/>
-      <c r="E413" s="169"/>
+      <c r="C413" s="165"/>
+      <c r="D413" s="166"/>
+      <c r="E413" s="166"/>
     </row>
     <row r="414" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A414" s="52">
@@ -9008,9 +9045,9 @@
         <v>34</v>
       </c>
       <c r="B430" s="87"/>
-      <c r="C430" s="168"/>
-      <c r="D430" s="169"/>
-      <c r="E430" s="169"/>
+      <c r="C430" s="165"/>
+      <c r="D430" s="166"/>
+      <c r="E430" s="166"/>
     </row>
     <row r="431" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A431" s="52">
@@ -9161,9 +9198,9 @@
         <v>35</v>
       </c>
       <c r="B447" s="87"/>
-      <c r="C447" s="168"/>
-      <c r="D447" s="169"/>
-      <c r="E447" s="169"/>
+      <c r="C447" s="165"/>
+      <c r="D447" s="166"/>
+      <c r="E447" s="166"/>
     </row>
     <row r="448" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A448" s="52">
@@ -9314,9 +9351,9 @@
         <v>36</v>
       </c>
       <c r="B464" s="87"/>
-      <c r="C464" s="168"/>
-      <c r="D464" s="169"/>
-      <c r="E464" s="169"/>
+      <c r="C464" s="165"/>
+      <c r="D464" s="166"/>
+      <c r="E464" s="166"/>
     </row>
     <row r="465" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A465" s="52">
@@ -9467,9 +9504,9 @@
         <v>37</v>
       </c>
       <c r="B481" s="87"/>
-      <c r="C481" s="168"/>
-      <c r="D481" s="169"/>
-      <c r="E481" s="169"/>
+      <c r="C481" s="165"/>
+      <c r="D481" s="166"/>
+      <c r="E481" s="166"/>
     </row>
     <row r="482" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A482" s="52">
@@ -9620,9 +9657,9 @@
         <v>38</v>
       </c>
       <c r="B498" s="87"/>
-      <c r="C498" s="168"/>
-      <c r="D498" s="169"/>
-      <c r="E498" s="169"/>
+      <c r="C498" s="165"/>
+      <c r="D498" s="166"/>
+      <c r="E498" s="166"/>
     </row>
     <row r="499" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A499" s="52">
@@ -9773,9 +9810,9 @@
         <v>39</v>
       </c>
       <c r="B515" s="87"/>
-      <c r="C515" s="168"/>
-      <c r="D515" s="169"/>
-      <c r="E515" s="169"/>
+      <c r="C515" s="165"/>
+      <c r="D515" s="166"/>
+      <c r="E515" s="166"/>
     </row>
     <row r="516" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A516" s="52">
@@ -9926,9 +9963,9 @@
         <v>40</v>
       </c>
       <c r="B532" s="87"/>
-      <c r="C532" s="168"/>
-      <c r="D532" s="169"/>
-      <c r="E532" s="169"/>
+      <c r="C532" s="165"/>
+      <c r="D532" s="166"/>
+      <c r="E532" s="166"/>
     </row>
     <row r="533" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A533" s="55">
@@ -10079,22 +10116,22 @@
         <v>50</v>
       </c>
       <c r="B549" s="38"/>
-      <c r="C549" s="174" t="s">
-        <v>413</v>
-      </c>
-      <c r="D549" s="175"/>
-      <c r="E549" s="175"/>
+      <c r="C549" s="179" t="s">
+        <v>412</v>
+      </c>
+      <c r="D549" s="180"/>
+      <c r="E549" s="180"/>
     </row>
     <row r="550" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A550" s="58" t="s">
         <v>51</v>
       </c>
       <c r="B550" s="87"/>
-      <c r="C550" s="220" t="s">
-        <v>413</v>
-      </c>
-      <c r="D550" s="221"/>
-      <c r="E550" s="222"/>
+      <c r="C550" s="181" t="s">
+        <v>412</v>
+      </c>
+      <c r="D550" s="182"/>
+      <c r="E550" s="183"/>
     </row>
     <row r="551" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A551" s="59">
@@ -10245,11 +10282,11 @@
         <v>52</v>
       </c>
       <c r="B567" s="90"/>
-      <c r="C567" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D567" s="171"/>
-      <c r="E567" s="171"/>
+      <c r="C567" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D567" s="168"/>
+      <c r="E567" s="168"/>
     </row>
     <row r="568" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A568" s="59">
@@ -10400,11 +10437,11 @@
         <v>53</v>
       </c>
       <c r="B584" s="87"/>
-      <c r="C584" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D584" s="171"/>
-      <c r="E584" s="171"/>
+      <c r="C584" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D584" s="168"/>
+      <c r="E584" s="168"/>
     </row>
     <row r="585" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A585" s="59">
@@ -10555,11 +10592,11 @@
         <v>54</v>
       </c>
       <c r="B601" s="87"/>
-      <c r="C601" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D601" s="171"/>
-      <c r="E601" s="171"/>
+      <c r="C601" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D601" s="168"/>
+      <c r="E601" s="168"/>
     </row>
     <row r="602" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A602" s="59">
@@ -10710,11 +10747,11 @@
         <v>55</v>
       </c>
       <c r="B618" s="87"/>
-      <c r="C618" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D618" s="171"/>
-      <c r="E618" s="171"/>
+      <c r="C618" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D618" s="168"/>
+      <c r="E618" s="168"/>
     </row>
     <row r="619" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A619" s="59">
@@ -10865,11 +10902,11 @@
         <v>56</v>
       </c>
       <c r="B635" s="87"/>
-      <c r="C635" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D635" s="171"/>
-      <c r="E635" s="171"/>
+      <c r="C635" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D635" s="168"/>
+      <c r="E635" s="168"/>
     </row>
     <row r="636" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A636" s="59">
@@ -11020,11 +11057,11 @@
         <v>57</v>
       </c>
       <c r="B652" s="87"/>
-      <c r="C652" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D652" s="171"/>
-      <c r="E652" s="171"/>
+      <c r="C652" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D652" s="168"/>
+      <c r="E652" s="168"/>
     </row>
     <row r="653" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A653" s="59">
@@ -11175,11 +11212,11 @@
         <v>58</v>
       </c>
       <c r="B669" s="87"/>
-      <c r="C669" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D669" s="171"/>
-      <c r="E669" s="171"/>
+      <c r="C669" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D669" s="168"/>
+      <c r="E669" s="168"/>
     </row>
     <row r="670" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A670" s="59">
@@ -11330,11 +11367,11 @@
         <v>59</v>
       </c>
       <c r="B686" s="87"/>
-      <c r="C686" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D686" s="171"/>
-      <c r="E686" s="171"/>
+      <c r="C686" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D686" s="168"/>
+      <c r="E686" s="168"/>
     </row>
     <row r="687" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A687" s="59">
@@ -11485,11 +11522,11 @@
         <v>60</v>
       </c>
       <c r="B703" s="87"/>
-      <c r="C703" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D703" s="171"/>
-      <c r="E703" s="171"/>
+      <c r="C703" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D703" s="168"/>
+      <c r="E703" s="168"/>
     </row>
     <row r="704" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A704" s="59">
@@ -11640,11 +11677,11 @@
         <v>61</v>
       </c>
       <c r="B720" s="87"/>
-      <c r="C720" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D720" s="171"/>
-      <c r="E720" s="171"/>
+      <c r="C720" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D720" s="168"/>
+      <c r="E720" s="168"/>
     </row>
     <row r="721" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A721" s="59">
@@ -11795,11 +11832,11 @@
         <v>62</v>
       </c>
       <c r="B737" s="87"/>
-      <c r="C737" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D737" s="171"/>
-      <c r="E737" s="171"/>
+      <c r="C737" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D737" s="168"/>
+      <c r="E737" s="168"/>
     </row>
     <row r="738" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A738" s="59">
@@ -11950,11 +11987,11 @@
         <v>63</v>
       </c>
       <c r="B754" s="87"/>
-      <c r="C754" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D754" s="171"/>
-      <c r="E754" s="171"/>
+      <c r="C754" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D754" s="168"/>
+      <c r="E754" s="168"/>
     </row>
     <row r="755" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A755" s="59">
@@ -12105,11 +12142,11 @@
         <v>64</v>
       </c>
       <c r="B771" s="87"/>
-      <c r="C771" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D771" s="171"/>
-      <c r="E771" s="171"/>
+      <c r="C771" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D771" s="168"/>
+      <c r="E771" s="168"/>
     </row>
     <row r="772" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A772" s="59">
@@ -12260,11 +12297,11 @@
         <v>65</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D788" s="171"/>
-      <c r="E788" s="171"/>
+      <c r="C788" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D788" s="168"/>
+      <c r="E788" s="168"/>
     </row>
     <row r="789" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A789" s="59">
@@ -12415,11 +12452,11 @@
         <v>66</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="170" t="s">
-        <v>413</v>
-      </c>
-      <c r="D805" s="171"/>
-      <c r="E805" s="171"/>
+      <c r="C805" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="D805" s="168"/>
+      <c r="E805" s="168"/>
     </row>
     <row r="806" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A806" s="59">
@@ -12570,18 +12607,18 @@
         <v>67</v>
       </c>
       <c r="B822" s="39"/>
-      <c r="C822" s="176"/>
-      <c r="D822" s="177"/>
-      <c r="E822" s="177"/>
+      <c r="C822" s="177"/>
+      <c r="D822" s="178"/>
+      <c r="E822" s="178"/>
     </row>
     <row r="823" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A823" s="63" t="s">
         <v>68</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="168"/>
-      <c r="D823" s="169"/>
-      <c r="E823" s="169"/>
+      <c r="C823" s="165"/>
+      <c r="D823" s="166"/>
+      <c r="E823" s="166"/>
     </row>
     <row r="824" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A824" s="64">
@@ -12732,9 +12769,9 @@
         <v>69</v>
       </c>
       <c r="B840" s="90"/>
-      <c r="C840" s="170"/>
-      <c r="D840" s="171"/>
-      <c r="E840" s="171"/>
+      <c r="C840" s="167"/>
+      <c r="D840" s="168"/>
+      <c r="E840" s="168"/>
     </row>
     <row r="841" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A841" s="64">
@@ -12885,9 +12922,9 @@
         <v>70</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="168"/>
-      <c r="D857" s="169"/>
-      <c r="E857" s="169"/>
+      <c r="C857" s="165"/>
+      <c r="D857" s="166"/>
+      <c r="E857" s="166"/>
     </row>
     <row r="858" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A858" s="64">
@@ -13038,9 +13075,9 @@
         <v>71</v>
       </c>
       <c r="B874" s="87"/>
-      <c r="C874" s="168"/>
-      <c r="D874" s="169"/>
-      <c r="E874" s="169"/>
+      <c r="C874" s="165"/>
+      <c r="D874" s="166"/>
+      <c r="E874" s="166"/>
     </row>
     <row r="875" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A875" s="64">
@@ -13191,9 +13228,9 @@
         <v>72</v>
       </c>
       <c r="B891" s="87"/>
-      <c r="C891" s="168"/>
-      <c r="D891" s="169"/>
-      <c r="E891" s="169"/>
+      <c r="C891" s="165"/>
+      <c r="D891" s="166"/>
+      <c r="E891" s="166"/>
     </row>
     <row r="892" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A892" s="64">
@@ -13344,9 +13381,9 @@
         <v>73</v>
       </c>
       <c r="B908" s="87"/>
-      <c r="C908" s="168"/>
-      <c r="D908" s="169"/>
-      <c r="E908" s="169"/>
+      <c r="C908" s="165"/>
+      <c r="D908" s="166"/>
+      <c r="E908" s="166"/>
     </row>
     <row r="909" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A909" s="64">
@@ -13497,9 +13534,9 @@
         <v>74</v>
       </c>
       <c r="B925" s="87"/>
-      <c r="C925" s="168"/>
-      <c r="D925" s="169"/>
-      <c r="E925" s="169"/>
+      <c r="C925" s="165"/>
+      <c r="D925" s="166"/>
+      <c r="E925" s="166"/>
     </row>
     <row r="926" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A926" s="64">
@@ -13650,9 +13687,9 @@
         <v>75</v>
       </c>
       <c r="B942" s="87"/>
-      <c r="C942" s="168"/>
-      <c r="D942" s="169"/>
-      <c r="E942" s="169"/>
+      <c r="C942" s="165"/>
+      <c r="D942" s="166"/>
+      <c r="E942" s="166"/>
     </row>
     <row r="943" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A943" s="64">
@@ -13803,9 +13840,9 @@
         <v>76</v>
       </c>
       <c r="B959" s="87"/>
-      <c r="C959" s="168"/>
-      <c r="D959" s="169"/>
-      <c r="E959" s="169"/>
+      <c r="C959" s="165"/>
+      <c r="D959" s="166"/>
+      <c r="E959" s="166"/>
     </row>
     <row r="960" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A960" s="64">
@@ -13956,9 +13993,9 @@
         <v>77</v>
       </c>
       <c r="B976" s="87"/>
-      <c r="C976" s="168"/>
-      <c r="D976" s="169"/>
-      <c r="E976" s="169"/>
+      <c r="C976" s="165"/>
+      <c r="D976" s="166"/>
+      <c r="E976" s="166"/>
     </row>
     <row r="977" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A977" s="64">
@@ -14109,9 +14146,9 @@
         <v>78</v>
       </c>
       <c r="B993" s="87"/>
-      <c r="C993" s="168"/>
-      <c r="D993" s="169"/>
-      <c r="E993" s="169"/>
+      <c r="C993" s="165"/>
+      <c r="D993" s="166"/>
+      <c r="E993" s="166"/>
     </row>
     <row r="994" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A994" s="64">
@@ -14262,9 +14299,9 @@
         <v>79</v>
       </c>
       <c r="B1010" s="87"/>
-      <c r="C1010" s="168"/>
-      <c r="D1010" s="169"/>
-      <c r="E1010" s="169"/>
+      <c r="C1010" s="165"/>
+      <c r="D1010" s="166"/>
+      <c r="E1010" s="166"/>
     </row>
     <row r="1011" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1011" s="64">
@@ -14415,9 +14452,9 @@
         <v>80</v>
       </c>
       <c r="B1027" s="87"/>
-      <c r="C1027" s="168"/>
-      <c r="D1027" s="169"/>
-      <c r="E1027" s="169"/>
+      <c r="C1027" s="165"/>
+      <c r="D1027" s="166"/>
+      <c r="E1027" s="166"/>
     </row>
     <row r="1028" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1028" s="64">
@@ -14568,9 +14605,9 @@
         <v>83</v>
       </c>
       <c r="B1044" s="87"/>
-      <c r="C1044" s="168"/>
-      <c r="D1044" s="169"/>
-      <c r="E1044" s="169"/>
+      <c r="C1044" s="165"/>
+      <c r="D1044" s="166"/>
+      <c r="E1044" s="166"/>
     </row>
     <row r="1045" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1045" s="64">
@@ -14721,9 +14758,9 @@
         <v>82</v>
       </c>
       <c r="B1061" s="87"/>
-      <c r="C1061" s="168"/>
-      <c r="D1061" s="169"/>
-      <c r="E1061" s="169"/>
+      <c r="C1061" s="165"/>
+      <c r="D1061" s="166"/>
+      <c r="E1061" s="166"/>
     </row>
     <row r="1062" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1062" s="64">
@@ -14874,9 +14911,9 @@
         <v>84</v>
       </c>
       <c r="B1078" s="87"/>
-      <c r="C1078" s="168"/>
-      <c r="D1078" s="169"/>
-      <c r="E1078" s="169"/>
+      <c r="C1078" s="165"/>
+      <c r="D1078" s="166"/>
+      <c r="E1078" s="166"/>
     </row>
     <row r="1079" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1079" s="64">
@@ -15027,18 +15064,18 @@
         <v>104</v>
       </c>
       <c r="B1095" s="40"/>
-      <c r="C1095" s="178"/>
-      <c r="D1095" s="179"/>
-      <c r="E1095" s="179"/>
+      <c r="C1095" s="175"/>
+      <c r="D1095" s="176"/>
+      <c r="E1095" s="176"/>
     </row>
     <row r="1096" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1096" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B1096" s="87"/>
-      <c r="C1096" s="168"/>
-      <c r="D1096" s="169"/>
-      <c r="E1096" s="169"/>
+      <c r="C1096" s="165"/>
+      <c r="D1096" s="166"/>
+      <c r="E1096" s="166"/>
     </row>
     <row r="1097" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1097" s="69">
@@ -15189,9 +15226,9 @@
         <v>86</v>
       </c>
       <c r="B1113" s="90"/>
-      <c r="C1113" s="170"/>
-      <c r="D1113" s="171"/>
-      <c r="E1113" s="171"/>
+      <c r="C1113" s="167"/>
+      <c r="D1113" s="168"/>
+      <c r="E1113" s="168"/>
     </row>
     <row r="1114" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1114" s="69">
@@ -15342,9 +15379,9 @@
         <v>87</v>
       </c>
       <c r="B1130" s="87"/>
-      <c r="C1130" s="168"/>
-      <c r="D1130" s="169"/>
-      <c r="E1130" s="169"/>
+      <c r="C1130" s="165"/>
+      <c r="D1130" s="166"/>
+      <c r="E1130" s="166"/>
     </row>
     <row r="1131" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1131" s="69">
@@ -15495,9 +15532,9 @@
         <v>88</v>
       </c>
       <c r="B1147" s="87"/>
-      <c r="C1147" s="168"/>
-      <c r="D1147" s="169"/>
-      <c r="E1147" s="169"/>
+      <c r="C1147" s="165"/>
+      <c r="D1147" s="166"/>
+      <c r="E1147" s="166"/>
     </row>
     <row r="1148" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1148" s="69">
@@ -15648,9 +15685,9 @@
         <v>89</v>
       </c>
       <c r="B1164" s="87"/>
-      <c r="C1164" s="168"/>
-      <c r="D1164" s="169"/>
-      <c r="E1164" s="169"/>
+      <c r="C1164" s="165"/>
+      <c r="D1164" s="166"/>
+      <c r="E1164" s="166"/>
     </row>
     <row r="1165" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1165" s="69">
@@ -15801,9 +15838,9 @@
         <v>90</v>
       </c>
       <c r="B1181" s="87"/>
-      <c r="C1181" s="168"/>
-      <c r="D1181" s="169"/>
-      <c r="E1181" s="169"/>
+      <c r="C1181" s="165"/>
+      <c r="D1181" s="166"/>
+      <c r="E1181" s="166"/>
     </row>
     <row r="1182" spans="1:5" hidden="1" outlineLevel="3">
       <c r="A1182" s="69">
@@ -15954,9 +15991,9 @@
         <v>91</v>
       </c>
       <c r="B1198" s="87"/>
-      <c r="C1198" s="168"/>
-      <c r="D1198" s="169"/>
-      <c r="E1198" s="169"/>
+      <c r="C1198" s="165"/>
+      <c r="D1198" s="166"/>
+      <c r="E1198" s="166"/>
     </row>
     <row r="1199" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1199" s="69">
@@ -16107,9 +16144,9 @@
         <v>92</v>
       </c>
       <c r="B1215" s="87"/>
-      <c r="C1215" s="168"/>
-      <c r="D1215" s="169"/>
-      <c r="E1215" s="169"/>
+      <c r="C1215" s="165"/>
+      <c r="D1215" s="166"/>
+      <c r="E1215" s="166"/>
     </row>
     <row r="1216" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1216" s="69">
@@ -16260,9 +16297,9 @@
         <v>93</v>
       </c>
       <c r="B1232" s="87"/>
-      <c r="C1232" s="168"/>
-      <c r="D1232" s="169"/>
-      <c r="E1232" s="169"/>
+      <c r="C1232" s="165"/>
+      <c r="D1232" s="166"/>
+      <c r="E1232" s="166"/>
     </row>
     <row r="1233" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1233" s="69">
@@ -16413,9 +16450,9 @@
         <v>94</v>
       </c>
       <c r="B1249" s="87"/>
-      <c r="C1249" s="168"/>
-      <c r="D1249" s="169"/>
-      <c r="E1249" s="169"/>
+      <c r="C1249" s="165"/>
+      <c r="D1249" s="166"/>
+      <c r="E1249" s="166"/>
     </row>
     <row r="1250" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1250" s="69">
@@ -16566,9 +16603,9 @@
         <v>99</v>
       </c>
       <c r="B1266" s="87"/>
-      <c r="C1266" s="168"/>
-      <c r="D1266" s="169"/>
-      <c r="E1266" s="169"/>
+      <c r="C1266" s="165"/>
+      <c r="D1266" s="166"/>
+      <c r="E1266" s="166"/>
     </row>
     <row r="1267" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1267" s="69">
@@ -16719,9 +16756,9 @@
         <v>100</v>
       </c>
       <c r="B1283" s="87"/>
-      <c r="C1283" s="168"/>
-      <c r="D1283" s="169"/>
-      <c r="E1283" s="169"/>
+      <c r="C1283" s="165"/>
+      <c r="D1283" s="166"/>
+      <c r="E1283" s="166"/>
     </row>
     <row r="1284" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1284" s="69">
@@ -16872,9 +16909,9 @@
         <v>101</v>
       </c>
       <c r="B1300" s="87"/>
-      <c r="C1300" s="168"/>
-      <c r="D1300" s="169"/>
-      <c r="E1300" s="169"/>
+      <c r="C1300" s="165"/>
+      <c r="D1300" s="166"/>
+      <c r="E1300" s="166"/>
     </row>
     <row r="1301" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1301" s="69">
@@ -17025,9 +17062,9 @@
         <v>81</v>
       </c>
       <c r="B1317" s="87"/>
-      <c r="C1317" s="168"/>
-      <c r="D1317" s="169"/>
-      <c r="E1317" s="169"/>
+      <c r="C1317" s="165"/>
+      <c r="D1317" s="166"/>
+      <c r="E1317" s="166"/>
     </row>
     <row r="1318" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1318" s="69">
@@ -17178,9 +17215,9 @@
         <v>102</v>
       </c>
       <c r="B1334" s="87"/>
-      <c r="C1334" s="168"/>
-      <c r="D1334" s="169"/>
-      <c r="E1334" s="169"/>
+      <c r="C1334" s="165"/>
+      <c r="D1334" s="166"/>
+      <c r="E1334" s="166"/>
     </row>
     <row r="1335" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1335" s="69">
@@ -17331,9 +17368,9 @@
         <v>98</v>
       </c>
       <c r="B1351" s="87"/>
-      <c r="C1351" s="168"/>
-      <c r="D1351" s="169"/>
-      <c r="E1351" s="169"/>
+      <c r="C1351" s="165"/>
+      <c r="D1351" s="166"/>
+      <c r="E1351" s="166"/>
     </row>
     <row r="1352" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1352" s="69">
@@ -17484,33 +17521,33 @@
         <v>103</v>
       </c>
       <c r="B1368" s="41"/>
-      <c r="C1368" s="180"/>
-      <c r="D1368" s="181"/>
-      <c r="E1368" s="181"/>
+      <c r="C1368" s="173"/>
+      <c r="D1368" s="174"/>
+      <c r="E1368" s="174"/>
     </row>
     <row r="1369" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1369" s="73" t="s">
         <v>105</v>
       </c>
       <c r="B1369" s="87"/>
-      <c r="C1369" s="168" t="s">
-        <v>303</v>
-      </c>
-      <c r="D1369" s="169"/>
-      <c r="E1369" s="169"/>
+      <c r="C1369" s="165" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1369" s="166"/>
+      <c r="E1369" s="166"/>
     </row>
     <row r="1370" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1370" s="74">
         <v>0</v>
       </c>
       <c r="B1370" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1370" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1370" s="154" t="s">
+      <c r="D1370" s="152" t="s">
         <v>294</v>
-      </c>
-      <c r="D1370" s="152" t="s">
-        <v>295</v>
       </c>
       <c r="E1370" s="15"/>
     </row>
@@ -17519,13 +17556,13 @@
         <v>1</v>
       </c>
       <c r="B1371" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1371" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1371" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1371" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1371" s="15"/>
     </row>
@@ -17534,13 +17571,13 @@
         <v>2</v>
       </c>
       <c r="B1372" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1372" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1372" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1372" s="152" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1372" s="15"/>
     </row>
@@ -17549,13 +17586,13 @@
         <v>3</v>
       </c>
       <c r="B1373" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1373" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1373" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1373" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1373" s="15"/>
     </row>
@@ -17564,13 +17601,13 @@
         <v>4</v>
       </c>
       <c r="B1374" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1374" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1374" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1374" s="152" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1374" s="15"/>
     </row>
@@ -17579,13 +17616,13 @@
         <v>5</v>
       </c>
       <c r="B1375" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1375" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1375" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1375" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1375" s="15"/>
     </row>
@@ -17594,13 +17631,13 @@
         <v>6</v>
       </c>
       <c r="B1376" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1376" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1376" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1376" s="152" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E1376" s="15"/>
     </row>
@@ -17609,13 +17646,13 @@
         <v>7</v>
       </c>
       <c r="B1377" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1377" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1377" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1377" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1377" s="15"/>
     </row>
@@ -17624,13 +17661,13 @@
         <v>8</v>
       </c>
       <c r="B1378" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1378" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1378" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1378" s="152" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E1378" s="15"/>
     </row>
@@ -17639,13 +17676,13 @@
         <v>9</v>
       </c>
       <c r="B1379" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1379" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1379" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1379" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1379" s="15"/>
     </row>
@@ -17654,13 +17691,13 @@
         <v>2</v>
       </c>
       <c r="B1380" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1380" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1380" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1380" s="152" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E1380" s="15"/>
     </row>
@@ -17669,13 +17706,13 @@
         <v>3</v>
       </c>
       <c r="B1381" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1381" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1381" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1381" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1381" s="15"/>
     </row>
@@ -17684,13 +17721,13 @@
         <v>4</v>
       </c>
       <c r="B1382" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1382" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1382" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1382" s="152" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E1382" s="15"/>
     </row>
@@ -17699,13 +17736,13 @@
         <v>5</v>
       </c>
       <c r="B1383" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1383" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1383" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1383" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1383" s="15"/>
     </row>
@@ -17714,13 +17751,13 @@
         <v>6</v>
       </c>
       <c r="B1384" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1384" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1384" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1384" s="152" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E1384" s="15"/>
     </row>
@@ -17729,13 +17766,13 @@
         <v>7</v>
       </c>
       <c r="B1385" s="153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1385" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="C1385" s="154" t="s">
-        <v>294</v>
-      </c>
       <c r="D1385" s="155" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1385" s="16"/>
     </row>
@@ -17744,24 +17781,24 @@
         <v>106</v>
       </c>
       <c r="B1386" s="90"/>
-      <c r="C1386" s="170" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1386" s="171"/>
-      <c r="E1386" s="171"/>
+      <c r="C1386" s="167" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1386" s="168"/>
+      <c r="E1386" s="168"/>
     </row>
     <row r="1387" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1387" s="74">
         <v>0</v>
       </c>
       <c r="B1387" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1387" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1387" s="152" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E1387" s="15"/>
     </row>
@@ -17770,13 +17807,13 @@
         <v>1</v>
       </c>
       <c r="B1388" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1388" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1388" s="152" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E1388" s="15"/>
     </row>
@@ -17785,13 +17822,13 @@
         <v>2</v>
       </c>
       <c r="B1389" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1389" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1389" s="152" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E1389" s="15"/>
     </row>
@@ -17800,13 +17837,13 @@
         <v>3</v>
       </c>
       <c r="B1390" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1390" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1390" s="152" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1390" s="15"/>
     </row>
@@ -17815,13 +17852,13 @@
         <v>4</v>
       </c>
       <c r="B1391" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1391" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1391" s="152" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1391" s="15"/>
     </row>
@@ -17830,13 +17867,13 @@
         <v>5</v>
       </c>
       <c r="B1392" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1392" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1392" s="152" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1392" s="15"/>
     </row>
@@ -17845,13 +17882,13 @@
         <v>6</v>
       </c>
       <c r="B1393" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1393" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1393" s="152" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E1393" s="15"/>
     </row>
@@ -17860,13 +17897,13 @@
         <v>7</v>
       </c>
       <c r="B1394" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1394" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1394" s="152" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E1394" s="15"/>
     </row>
@@ -17875,13 +17912,13 @@
         <v>8</v>
       </c>
       <c r="B1395" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1395" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1395" s="152" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1395" s="15"/>
     </row>
@@ -17890,13 +17927,13 @@
         <v>9</v>
       </c>
       <c r="B1396" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1396" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1396" s="152" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E1396" s="15"/>
     </row>
@@ -17905,13 +17942,13 @@
         <v>2</v>
       </c>
       <c r="B1397" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1397" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1397" s="152" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E1397" s="15"/>
     </row>
@@ -17920,13 +17957,13 @@
         <v>3</v>
       </c>
       <c r="B1398" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1398" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1398" s="152" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E1398" s="15"/>
     </row>
@@ -17935,13 +17972,13 @@
         <v>4</v>
       </c>
       <c r="B1399" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1399" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1399" s="152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1399" s="15"/>
     </row>
@@ -17950,13 +17987,13 @@
         <v>5</v>
       </c>
       <c r="B1400" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1400" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1400" s="152" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E1400" s="15"/>
     </row>
@@ -17965,13 +18002,13 @@
         <v>6</v>
       </c>
       <c r="B1401" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1401" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1401" s="152" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1401" s="15"/>
     </row>
@@ -17980,13 +18017,13 @@
         <v>7</v>
       </c>
       <c r="B1402" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1402" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1402" s="152" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1402" s="15"/>
     </row>
@@ -17995,22 +18032,22 @@
         <v>107</v>
       </c>
       <c r="B1403" s="87"/>
-      <c r="C1403" s="168" t="s">
-        <v>406</v>
-      </c>
-      <c r="D1403" s="169"/>
-      <c r="E1403" s="169"/>
+      <c r="C1403" s="165" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1403" s="166"/>
+      <c r="E1403" s="166"/>
     </row>
     <row r="1404" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1404" s="74">
         <v>0</v>
       </c>
       <c r="B1404" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1404" s="33"/>
       <c r="D1404" s="152" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E1404" s="15"/>
     </row>
@@ -18021,7 +18058,7 @@
       <c r="B1405" s="88"/>
       <c r="C1405" s="33"/>
       <c r="D1405" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1405" s="15"/>
     </row>
@@ -18030,11 +18067,11 @@
         <v>2</v>
       </c>
       <c r="B1406" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1406" s="33"/>
       <c r="D1406" s="152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1406" s="15"/>
     </row>
@@ -18045,7 +18082,7 @@
       <c r="B1407" s="88"/>
       <c r="C1407" s="33"/>
       <c r="D1407" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1407" s="15"/>
     </row>
@@ -18054,11 +18091,11 @@
         <v>4</v>
       </c>
       <c r="B1408" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1408" s="33"/>
       <c r="D1408" s="152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1408" s="15"/>
     </row>
@@ -18069,7 +18106,7 @@
       <c r="B1409" s="88"/>
       <c r="C1409" s="33"/>
       <c r="D1409" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1409" s="15"/>
     </row>
@@ -18078,11 +18115,11 @@
         <v>6</v>
       </c>
       <c r="B1410" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1410" s="33"/>
       <c r="D1410" s="152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1410" s="15"/>
     </row>
@@ -18093,7 +18130,7 @@
       <c r="B1411" s="88"/>
       <c r="C1411" s="33"/>
       <c r="D1411" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1411" s="15"/>
     </row>
@@ -18102,11 +18139,11 @@
         <v>8</v>
       </c>
       <c r="B1412" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1412" s="33"/>
       <c r="D1412" s="152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1412" s="15"/>
     </row>
@@ -18117,7 +18154,7 @@
       <c r="B1413" s="88"/>
       <c r="C1413" s="33"/>
       <c r="D1413" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1413" s="15"/>
     </row>
@@ -18126,11 +18163,11 @@
         <v>2</v>
       </c>
       <c r="B1414" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1414" s="33"/>
       <c r="D1414" s="152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1414" s="15"/>
     </row>
@@ -18141,7 +18178,7 @@
       <c r="B1415" s="88"/>
       <c r="C1415" s="33"/>
       <c r="D1415" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1415" s="15"/>
     </row>
@@ -18150,11 +18187,11 @@
         <v>4</v>
       </c>
       <c r="B1416" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1416" s="33"/>
       <c r="D1416" s="152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1416" s="15"/>
     </row>
@@ -18165,7 +18202,7 @@
       <c r="B1417" s="88"/>
       <c r="C1417" s="33"/>
       <c r="D1417" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1417" s="15"/>
     </row>
@@ -18174,11 +18211,11 @@
         <v>6</v>
       </c>
       <c r="B1418" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1418" s="33"/>
       <c r="D1418" s="152" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1418" s="15"/>
     </row>
@@ -18189,7 +18226,7 @@
       <c r="B1419" s="89"/>
       <c r="C1419" s="34"/>
       <c r="D1419" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1419" s="16"/>
     </row>
@@ -18198,22 +18235,22 @@
         <v>108</v>
       </c>
       <c r="B1420" s="87"/>
-      <c r="C1420" s="168" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1420" s="169"/>
-      <c r="E1420" s="169"/>
+      <c r="C1420" s="165" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1420" s="166"/>
+      <c r="E1420" s="166"/>
     </row>
     <row r="1421" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1421" s="74">
         <v>0</v>
       </c>
       <c r="B1421" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1421" s="33"/>
       <c r="D1421" s="152" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E1421" s="15"/>
     </row>
@@ -18222,7 +18259,7 @@
         <v>1</v>
       </c>
       <c r="B1422" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1422" s="33"/>
       <c r="D1422" s="15"/>
@@ -18233,7 +18270,7 @@
         <v>2</v>
       </c>
       <c r="B1423" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1423" s="33"/>
       <c r="D1423" s="15"/>
@@ -18244,7 +18281,7 @@
         <v>3</v>
       </c>
       <c r="B1424" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1424" s="33"/>
       <c r="D1424" s="15"/>
@@ -18255,7 +18292,7 @@
         <v>4</v>
       </c>
       <c r="B1425" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1425" s="33"/>
       <c r="D1425" s="15"/>
@@ -18266,7 +18303,7 @@
         <v>5</v>
       </c>
       <c r="B1426" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1426" s="33"/>
       <c r="D1426" s="15"/>
@@ -18277,7 +18314,7 @@
         <v>6</v>
       </c>
       <c r="B1427" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1427" s="33"/>
       <c r="D1427" s="15"/>
@@ -18288,7 +18325,7 @@
         <v>7</v>
       </c>
       <c r="B1428" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1428" s="33"/>
       <c r="D1428" s="15"/>
@@ -18299,7 +18336,7 @@
         <v>8</v>
       </c>
       <c r="B1429" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1429" s="33"/>
       <c r="D1429" s="15"/>
@@ -18310,7 +18347,7 @@
         <v>9</v>
       </c>
       <c r="B1430" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1430" s="33"/>
       <c r="D1430" s="15"/>
@@ -18321,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="B1431" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1431" s="33"/>
       <c r="D1431" s="15"/>
@@ -18332,7 +18369,7 @@
         <v>3</v>
       </c>
       <c r="B1432" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1432" s="33"/>
       <c r="D1432" s="15"/>
@@ -18343,7 +18380,7 @@
         <v>4</v>
       </c>
       <c r="B1433" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1433" s="33"/>
       <c r="D1433" s="15"/>
@@ -18354,7 +18391,7 @@
         <v>5</v>
       </c>
       <c r="B1434" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1434" s="33"/>
       <c r="D1434" s="15"/>
@@ -18365,7 +18402,7 @@
         <v>6</v>
       </c>
       <c r="B1435" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1435" s="33"/>
       <c r="D1435" s="15"/>
@@ -18376,7 +18413,7 @@
         <v>7</v>
       </c>
       <c r="B1436" s="153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1436" s="34"/>
       <c r="D1436" s="16"/>
@@ -18387,11 +18424,11 @@
         <v>109</v>
       </c>
       <c r="B1437" s="87"/>
-      <c r="C1437" s="168" t="s">
-        <v>412</v>
-      </c>
-      <c r="D1437" s="169"/>
-      <c r="E1437" s="169"/>
+      <c r="C1437" s="165" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1437" s="166"/>
+      <c r="E1437" s="166"/>
     </row>
     <row r="1438" spans="1:5" outlineLevel="2">
       <c r="A1438" s="74">
@@ -18508,10 +18545,10 @@
       <c r="B1450" s="88"/>
       <c r="C1450" s="33"/>
       <c r="D1450" s="152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E1450" s="152" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1451" spans="1:5" outlineLevel="2">
@@ -18521,7 +18558,7 @@
       <c r="B1451" s="88"/>
       <c r="C1451" s="33"/>
       <c r="D1451" s="152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E1451" s="15"/>
     </row>
@@ -18532,7 +18569,7 @@
       <c r="B1452" s="88"/>
       <c r="C1452" s="33"/>
       <c r="D1452" s="152" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E1452" s="15"/>
     </row>
@@ -18543,7 +18580,7 @@
       <c r="B1453" s="89"/>
       <c r="C1453" s="34"/>
       <c r="D1453" s="155" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E1453" s="16"/>
     </row>
@@ -18552,9 +18589,9 @@
         <v>110</v>
       </c>
       <c r="B1454" s="87"/>
-      <c r="C1454" s="168"/>
-      <c r="D1454" s="169"/>
-      <c r="E1454" s="169"/>
+      <c r="C1454" s="165"/>
+      <c r="D1454" s="166"/>
+      <c r="E1454" s="166"/>
     </row>
     <row r="1455" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1455" s="74">
@@ -18705,9 +18742,9 @@
         <v>111</v>
       </c>
       <c r="B1471" s="87"/>
-      <c r="C1471" s="168"/>
-      <c r="D1471" s="169"/>
-      <c r="E1471" s="169"/>
+      <c r="C1471" s="165"/>
+      <c r="D1471" s="166"/>
+      <c r="E1471" s="166"/>
     </row>
     <row r="1472" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1472" s="74">
@@ -18858,9 +18895,9 @@
         <v>112</v>
       </c>
       <c r="B1488" s="87"/>
-      <c r="C1488" s="168"/>
-      <c r="D1488" s="169"/>
-      <c r="E1488" s="169"/>
+      <c r="C1488" s="165"/>
+      <c r="D1488" s="166"/>
+      <c r="E1488" s="166"/>
     </row>
     <row r="1489" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1489" s="74">
@@ -19011,9 +19048,9 @@
         <v>113</v>
       </c>
       <c r="B1505" s="87"/>
-      <c r="C1505" s="168"/>
-      <c r="D1505" s="169"/>
-      <c r="E1505" s="169"/>
+      <c r="C1505" s="165"/>
+      <c r="D1505" s="166"/>
+      <c r="E1505" s="166"/>
     </row>
     <row r="1506" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1506" s="74">
@@ -19164,9 +19201,9 @@
         <v>114</v>
       </c>
       <c r="B1522" s="87"/>
-      <c r="C1522" s="168"/>
-      <c r="D1522" s="169"/>
-      <c r="E1522" s="169"/>
+      <c r="C1522" s="165"/>
+      <c r="D1522" s="166"/>
+      <c r="E1522" s="166"/>
     </row>
     <row r="1523" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1523" s="74">
@@ -19317,9 +19354,9 @@
         <v>95</v>
       </c>
       <c r="B1539" s="87"/>
-      <c r="C1539" s="168"/>
-      <c r="D1539" s="169"/>
-      <c r="E1539" s="169"/>
+      <c r="C1539" s="165"/>
+      <c r="D1539" s="166"/>
+      <c r="E1539" s="166"/>
     </row>
     <row r="1540" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1540" s="74">
@@ -19470,9 +19507,9 @@
         <v>115</v>
       </c>
       <c r="B1556" s="87"/>
-      <c r="C1556" s="168"/>
-      <c r="D1556" s="169"/>
-      <c r="E1556" s="169"/>
+      <c r="C1556" s="165"/>
+      <c r="D1556" s="166"/>
+      <c r="E1556" s="166"/>
     </row>
     <row r="1557" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1557" s="74">
@@ -19623,9 +19660,9 @@
         <v>116</v>
       </c>
       <c r="B1573" s="87"/>
-      <c r="C1573" s="168"/>
-      <c r="D1573" s="169"/>
-      <c r="E1573" s="169"/>
+      <c r="C1573" s="165"/>
+      <c r="D1573" s="166"/>
+      <c r="E1573" s="166"/>
     </row>
     <row r="1574" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1574" s="74">
@@ -19776,9 +19813,9 @@
         <v>117</v>
       </c>
       <c r="B1590" s="87"/>
-      <c r="C1590" s="168"/>
-      <c r="D1590" s="169"/>
-      <c r="E1590" s="169"/>
+      <c r="C1590" s="165"/>
+      <c r="D1590" s="166"/>
+      <c r="E1590" s="166"/>
     </row>
     <row r="1591" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1591" s="74">
@@ -19929,9 +19966,9 @@
         <v>118</v>
       </c>
       <c r="B1607" s="87"/>
-      <c r="C1607" s="168"/>
-      <c r="D1607" s="169"/>
-      <c r="E1607" s="169"/>
+      <c r="C1607" s="165"/>
+      <c r="D1607" s="166"/>
+      <c r="E1607" s="166"/>
     </row>
     <row r="1608" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1608" s="74">
@@ -20082,9 +20119,9 @@
         <v>119</v>
       </c>
       <c r="B1624" s="87"/>
-      <c r="C1624" s="168"/>
-      <c r="D1624" s="169"/>
-      <c r="E1624" s="169"/>
+      <c r="C1624" s="165"/>
+      <c r="D1624" s="166"/>
+      <c r="E1624" s="166"/>
     </row>
     <row r="1625" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1625" s="74">
@@ -20235,18 +20272,18 @@
         <v>120</v>
       </c>
       <c r="B1641" s="42"/>
-      <c r="C1641" s="182"/>
-      <c r="D1641" s="183"/>
-      <c r="E1641" s="183"/>
+      <c r="C1641" s="171"/>
+      <c r="D1641" s="172"/>
+      <c r="E1641" s="172"/>
     </row>
     <row r="1642" spans="1:5" ht="18" hidden="1" outlineLevel="1" collapsed="1">
       <c r="A1642" s="78" t="s">
         <v>121</v>
       </c>
       <c r="B1642" s="87"/>
-      <c r="C1642" s="168"/>
-      <c r="D1642" s="169"/>
-      <c r="E1642" s="169"/>
+      <c r="C1642" s="165"/>
+      <c r="D1642" s="166"/>
+      <c r="E1642" s="166"/>
     </row>
     <row r="1643" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1643" s="79">
@@ -20397,9 +20434,9 @@
         <v>122</v>
       </c>
       <c r="B1659" s="90"/>
-      <c r="C1659" s="170"/>
-      <c r="D1659" s="171"/>
-      <c r="E1659" s="171"/>
+      <c r="C1659" s="167"/>
+      <c r="D1659" s="168"/>
+      <c r="E1659" s="168"/>
     </row>
     <row r="1660" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1660" s="79">
@@ -20550,9 +20587,9 @@
         <v>123</v>
       </c>
       <c r="B1676" s="87"/>
-      <c r="C1676" s="168"/>
-      <c r="D1676" s="169"/>
-      <c r="E1676" s="169"/>
+      <c r="C1676" s="165"/>
+      <c r="D1676" s="166"/>
+      <c r="E1676" s="166"/>
     </row>
     <row r="1677" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1677" s="79">
@@ -20703,9 +20740,9 @@
         <v>124</v>
       </c>
       <c r="B1693" s="87"/>
-      <c r="C1693" s="168"/>
-      <c r="D1693" s="169"/>
-      <c r="E1693" s="169"/>
+      <c r="C1693" s="165"/>
+      <c r="D1693" s="166"/>
+      <c r="E1693" s="166"/>
     </row>
     <row r="1694" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1694" s="79">
@@ -20856,9 +20893,9 @@
         <v>125</v>
       </c>
       <c r="B1710" s="87"/>
-      <c r="C1710" s="168"/>
-      <c r="D1710" s="169"/>
-      <c r="E1710" s="169"/>
+      <c r="C1710" s="165"/>
+      <c r="D1710" s="166"/>
+      <c r="E1710" s="166"/>
     </row>
     <row r="1711" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1711" s="79">
@@ -21009,9 +21046,9 @@
         <v>126</v>
       </c>
       <c r="B1727" s="87"/>
-      <c r="C1727" s="168"/>
-      <c r="D1727" s="169"/>
-      <c r="E1727" s="169"/>
+      <c r="C1727" s="165"/>
+      <c r="D1727" s="166"/>
+      <c r="E1727" s="166"/>
     </row>
     <row r="1728" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1728" s="79">
@@ -21162,9 +21199,9 @@
         <v>127</v>
       </c>
       <c r="B1744" s="87"/>
-      <c r="C1744" s="168"/>
-      <c r="D1744" s="169"/>
-      <c r="E1744" s="169"/>
+      <c r="C1744" s="165"/>
+      <c r="D1744" s="166"/>
+      <c r="E1744" s="166"/>
     </row>
     <row r="1745" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1745" s="79">
@@ -21315,9 +21352,9 @@
         <v>128</v>
       </c>
       <c r="B1761" s="87"/>
-      <c r="C1761" s="168"/>
-      <c r="D1761" s="169"/>
-      <c r="E1761" s="169"/>
+      <c r="C1761" s="165"/>
+      <c r="D1761" s="166"/>
+      <c r="E1761" s="166"/>
     </row>
     <row r="1762" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1762" s="79">
@@ -21468,9 +21505,9 @@
         <v>129</v>
       </c>
       <c r="B1778" s="87"/>
-      <c r="C1778" s="168"/>
-      <c r="D1778" s="169"/>
-      <c r="E1778" s="169"/>
+      <c r="C1778" s="165"/>
+      <c r="D1778" s="166"/>
+      <c r="E1778" s="166"/>
     </row>
     <row r="1779" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1779" s="79">
@@ -21621,9 +21658,9 @@
         <v>130</v>
       </c>
       <c r="B1795" s="87"/>
-      <c r="C1795" s="168"/>
-      <c r="D1795" s="169"/>
-      <c r="E1795" s="169"/>
+      <c r="C1795" s="165"/>
+      <c r="D1795" s="166"/>
+      <c r="E1795" s="166"/>
     </row>
     <row r="1796" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1796" s="79">
@@ -21774,9 +21811,9 @@
         <v>131</v>
       </c>
       <c r="B1812" s="87"/>
-      <c r="C1812" s="168"/>
-      <c r="D1812" s="169"/>
-      <c r="E1812" s="169"/>
+      <c r="C1812" s="165"/>
+      <c r="D1812" s="166"/>
+      <c r="E1812" s="166"/>
     </row>
     <row r="1813" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1813" s="79">
@@ -21927,9 +21964,9 @@
         <v>96</v>
       </c>
       <c r="B1829" s="87"/>
-      <c r="C1829" s="168"/>
-      <c r="D1829" s="169"/>
-      <c r="E1829" s="169"/>
+      <c r="C1829" s="165"/>
+      <c r="D1829" s="166"/>
+      <c r="E1829" s="166"/>
     </row>
     <row r="1830" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1830" s="79">
@@ -22080,9 +22117,9 @@
         <v>132</v>
       </c>
       <c r="B1846" s="87"/>
-      <c r="C1846" s="168"/>
-      <c r="D1846" s="169"/>
-      <c r="E1846" s="169"/>
+      <c r="C1846" s="165"/>
+      <c r="D1846" s="166"/>
+      <c r="E1846" s="166"/>
     </row>
     <row r="1847" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1847" s="79">
@@ -22233,9 +22270,9 @@
         <v>133</v>
       </c>
       <c r="B1863" s="87"/>
-      <c r="C1863" s="168"/>
-      <c r="D1863" s="169"/>
-      <c r="E1863" s="169"/>
+      <c r="C1863" s="165"/>
+      <c r="D1863" s="166"/>
+      <c r="E1863" s="166"/>
     </row>
     <row r="1864" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1864" s="79">
@@ -22386,9 +22423,9 @@
         <v>134</v>
       </c>
       <c r="B1880" s="87"/>
-      <c r="C1880" s="168"/>
-      <c r="D1880" s="169"/>
-      <c r="E1880" s="169"/>
+      <c r="C1880" s="165"/>
+      <c r="D1880" s="166"/>
+      <c r="E1880" s="166"/>
     </row>
     <row r="1881" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1881" s="79">
@@ -22539,9 +22576,9 @@
         <v>135</v>
       </c>
       <c r="B1897" s="87"/>
-      <c r="C1897" s="168"/>
-      <c r="D1897" s="169"/>
-      <c r="E1897" s="169"/>
+      <c r="C1897" s="165"/>
+      <c r="D1897" s="166"/>
+      <c r="E1897" s="166"/>
     </row>
     <row r="1898" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1898" s="79">
@@ -22692,35 +22729,35 @@
         <v>136</v>
       </c>
       <c r="B1914" s="43"/>
-      <c r="C1914" s="184" t="s">
-        <v>405</v>
-      </c>
-      <c r="D1914" s="185"/>
-      <c r="E1914" s="185"/>
+      <c r="C1914" s="169" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1914" s="170"/>
+      <c r="E1914" s="170"/>
     </row>
     <row r="1915" spans="1:5" ht="18" outlineLevel="1" collapsed="1">
       <c r="A1915" s="83" t="s">
         <v>137</v>
       </c>
       <c r="B1915" s="87"/>
-      <c r="C1915" s="168" t="s">
-        <v>355</v>
-      </c>
-      <c r="D1915" s="169"/>
-      <c r="E1915" s="169"/>
+      <c r="C1915" s="165" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1915" s="166"/>
+      <c r="E1915" s="166"/>
     </row>
     <row r="1916" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1916" s="84">
         <v>0</v>
       </c>
       <c r="B1916" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1916" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1916" s="152" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E1916" s="15"/>
     </row>
@@ -22729,13 +22766,13 @@
         <v>1</v>
       </c>
       <c r="B1917" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1917" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1917" s="152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E1917" s="15"/>
     </row>
@@ -22744,13 +22781,13 @@
         <v>2</v>
       </c>
       <c r="B1918" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1918" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1918" s="152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E1918" s="15"/>
     </row>
@@ -22759,13 +22796,13 @@
         <v>3</v>
       </c>
       <c r="B1919" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1919" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1919" s="152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1919" s="15"/>
     </row>
@@ -22774,13 +22811,13 @@
         <v>4</v>
       </c>
       <c r="B1920" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1920" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1920" s="152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E1920" s="15"/>
     </row>
@@ -22789,13 +22826,13 @@
         <v>5</v>
       </c>
       <c r="B1921" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1921" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1921" s="152" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E1921" s="15"/>
     </row>
@@ -22804,13 +22841,13 @@
         <v>6</v>
       </c>
       <c r="B1922" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1922" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1922" s="152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E1922" s="15"/>
     </row>
@@ -22819,13 +22856,13 @@
         <v>7</v>
       </c>
       <c r="B1923" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1923" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1923" s="152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E1923" s="15"/>
     </row>
@@ -22834,13 +22871,13 @@
         <v>8</v>
       </c>
       <c r="B1924" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1924" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1924" s="152" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E1924" s="15"/>
     </row>
@@ -22849,13 +22886,13 @@
         <v>9</v>
       </c>
       <c r="B1925" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1925" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1925" s="152" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E1925" s="15"/>
     </row>
@@ -22864,13 +22901,13 @@
         <v>2</v>
       </c>
       <c r="B1926" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1926" s="154" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1926" s="152" t="s">
         <v>326</v>
-      </c>
-      <c r="D1926" s="152" t="s">
-        <v>327</v>
       </c>
       <c r="E1926" s="15"/>
     </row>
@@ -22879,13 +22916,13 @@
         <v>3</v>
       </c>
       <c r="B1927" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1927" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1927" s="152" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E1927" s="15"/>
     </row>
@@ -22894,13 +22931,13 @@
         <v>4</v>
       </c>
       <c r="B1928" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1928" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1928" s="152" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E1928" s="15"/>
     </row>
@@ -22909,13 +22946,13 @@
         <v>5</v>
       </c>
       <c r="B1929" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1929" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1929" s="152" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E1929" s="15"/>
     </row>
@@ -22924,13 +22961,13 @@
         <v>6</v>
       </c>
       <c r="B1930" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1930" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1930" s="152" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E1930" s="15"/>
     </row>
@@ -22939,13 +22976,13 @@
         <v>7</v>
       </c>
       <c r="B1931" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1931" s="154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D1931" s="155" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E1931" s="16"/>
     </row>
@@ -22954,11 +22991,11 @@
         <v>138</v>
       </c>
       <c r="B1932" s="90"/>
-      <c r="C1932" s="170" t="s">
-        <v>346</v>
-      </c>
-      <c r="D1932" s="171"/>
-      <c r="E1932" s="171"/>
+      <c r="C1932" s="167" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1932" s="168"/>
+      <c r="E1932" s="168"/>
     </row>
     <row r="1933" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1933" s="84">
@@ -22967,7 +23004,7 @@
       <c r="B1933" s="88"/>
       <c r="C1933" s="33"/>
       <c r="D1933" s="152" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E1933" s="15"/>
     </row>
@@ -22978,7 +23015,7 @@
       <c r="B1934" s="88"/>
       <c r="C1934" s="33"/>
       <c r="D1934" s="152" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E1934" s="15"/>
     </row>
@@ -22989,7 +23026,7 @@
       <c r="B1935" s="88"/>
       <c r="C1935" s="33"/>
       <c r="D1935" s="152" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E1935" s="15"/>
     </row>
@@ -23000,7 +23037,7 @@
       <c r="B1936" s="88"/>
       <c r="C1936" s="33"/>
       <c r="D1936" s="152" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E1936" s="15"/>
     </row>
@@ -23011,7 +23048,7 @@
       <c r="B1937" s="88"/>
       <c r="C1937" s="33"/>
       <c r="D1937" s="152" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E1937" s="15"/>
     </row>
@@ -23022,7 +23059,7 @@
       <c r="B1938" s="88"/>
       <c r="C1938" s="33"/>
       <c r="D1938" s="152" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E1938" s="15"/>
     </row>
@@ -23033,7 +23070,7 @@
       <c r="B1939" s="88"/>
       <c r="C1939" s="33"/>
       <c r="D1939" s="152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E1939" s="15"/>
     </row>
@@ -23044,7 +23081,7 @@
       <c r="B1940" s="88"/>
       <c r="C1940" s="33"/>
       <c r="D1940" s="152" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E1940" s="15"/>
     </row>
@@ -23055,7 +23092,7 @@
       <c r="B1941" s="88"/>
       <c r="C1941" s="33"/>
       <c r="D1941" s="152" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E1941" s="15"/>
     </row>
@@ -23066,7 +23103,7 @@
       <c r="B1942" s="88"/>
       <c r="C1942" s="33"/>
       <c r="D1942" s="152" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E1942" s="15"/>
     </row>
@@ -23077,7 +23114,7 @@
       <c r="B1943" s="88"/>
       <c r="C1943" s="33"/>
       <c r="D1943" s="152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E1943" s="15"/>
     </row>
@@ -23088,7 +23125,7 @@
       <c r="B1944" s="88"/>
       <c r="C1944" s="33"/>
       <c r="D1944" s="152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E1944" s="15"/>
     </row>
@@ -23097,11 +23134,11 @@
         <v>4</v>
       </c>
       <c r="B1945" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1945" s="33"/>
       <c r="D1945" s="152" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E1945" s="15"/>
     </row>
@@ -23112,7 +23149,7 @@
       <c r="B1946" s="88"/>
       <c r="C1946" s="33"/>
       <c r="D1946" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1946" s="15"/>
     </row>
@@ -23121,11 +23158,11 @@
         <v>6</v>
       </c>
       <c r="B1947" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1947" s="33"/>
       <c r="D1947" s="152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1947" s="15"/>
     </row>
@@ -23136,7 +23173,7 @@
       <c r="B1948" s="88"/>
       <c r="C1948" s="33"/>
       <c r="D1948" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1948" s="15"/>
     </row>
@@ -23145,22 +23182,22 @@
         <v>139</v>
       </c>
       <c r="B1949" s="87"/>
-      <c r="C1949" s="168" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1949" s="169"/>
-      <c r="E1949" s="169"/>
+      <c r="C1949" s="165" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1949" s="166"/>
+      <c r="E1949" s="166"/>
     </row>
     <row r="1950" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1950" s="84">
         <v>0</v>
       </c>
       <c r="B1950" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1950" s="33"/>
       <c r="D1950" s="152" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E1950" s="15"/>
     </row>
@@ -23171,7 +23208,7 @@
       <c r="B1951" s="88"/>
       <c r="C1951" s="33"/>
       <c r="D1951" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1951" s="15"/>
     </row>
@@ -23180,11 +23217,11 @@
         <v>2</v>
       </c>
       <c r="B1952" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1952" s="33"/>
       <c r="D1952" s="152" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1952" s="15"/>
     </row>
@@ -23195,7 +23232,7 @@
       <c r="B1953" s="88"/>
       <c r="C1953" s="33"/>
       <c r="D1953" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1953" s="15"/>
     </row>
@@ -23204,11 +23241,11 @@
         <v>4</v>
       </c>
       <c r="B1954" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1954" s="33"/>
       <c r="D1954" s="152" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1954" s="15"/>
     </row>
@@ -23219,7 +23256,7 @@
       <c r="B1955" s="88"/>
       <c r="C1955" s="33"/>
       <c r="D1955" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1955" s="15"/>
     </row>
@@ -23228,11 +23265,11 @@
         <v>6</v>
       </c>
       <c r="B1956" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1956" s="33"/>
       <c r="D1956" s="152" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1956" s="15"/>
     </row>
@@ -23243,7 +23280,7 @@
       <c r="B1957" s="88"/>
       <c r="C1957" s="33"/>
       <c r="D1957" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1957" s="15"/>
     </row>
@@ -23252,11 +23289,11 @@
         <v>8</v>
       </c>
       <c r="B1958" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1958" s="33"/>
       <c r="D1958" s="152" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1958" s="15"/>
     </row>
@@ -23267,7 +23304,7 @@
       <c r="B1959" s="88"/>
       <c r="C1959" s="33"/>
       <c r="D1959" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1959" s="15"/>
     </row>
@@ -23276,11 +23313,11 @@
         <v>2</v>
       </c>
       <c r="B1960" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1960" s="33"/>
       <c r="D1960" s="152" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E1960" s="15"/>
     </row>
@@ -23291,7 +23328,7 @@
       <c r="B1961" s="153"/>
       <c r="C1961" s="33"/>
       <c r="D1961" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1961" s="15"/>
     </row>
@@ -23300,11 +23337,11 @@
         <v>4</v>
       </c>
       <c r="B1962" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1962" s="33"/>
       <c r="D1962" s="152" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E1962" s="15"/>
     </row>
@@ -23315,7 +23352,7 @@
       <c r="B1963" s="88"/>
       <c r="C1963" s="33"/>
       <c r="D1963" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1963" s="15"/>
     </row>
@@ -23324,11 +23361,11 @@
         <v>6</v>
       </c>
       <c r="B1964" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1964" s="33"/>
       <c r="D1964" s="152" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E1964" s="15"/>
     </row>
@@ -23339,7 +23376,7 @@
       <c r="B1965" s="88"/>
       <c r="C1965" s="33"/>
       <c r="D1965" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1965" s="16"/>
     </row>
@@ -23348,22 +23385,22 @@
         <v>140</v>
       </c>
       <c r="B1966" s="87"/>
-      <c r="C1966" s="168" t="s">
-        <v>403</v>
-      </c>
-      <c r="D1966" s="169"/>
-      <c r="E1966" s="169"/>
+      <c r="C1966" s="165" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1966" s="166"/>
+      <c r="E1966" s="166"/>
     </row>
     <row r="1967" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1967" s="84">
         <v>0</v>
       </c>
       <c r="B1967" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1967" s="33"/>
       <c r="D1967" s="152" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E1967" s="15"/>
     </row>
@@ -23374,7 +23411,7 @@
       <c r="B1968" s="88"/>
       <c r="C1968" s="33"/>
       <c r="D1968" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1968" s="15"/>
     </row>
@@ -23383,11 +23420,11 @@
         <v>2</v>
       </c>
       <c r="B1969" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1969" s="33"/>
       <c r="D1969" s="152" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E1969" s="15"/>
     </row>
@@ -23398,7 +23435,7 @@
       <c r="B1970" s="88"/>
       <c r="C1970" s="33"/>
       <c r="D1970" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1970" s="15"/>
     </row>
@@ -23407,11 +23444,11 @@
         <v>4</v>
       </c>
       <c r="B1971" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1971" s="33"/>
       <c r="D1971" s="152" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E1971" s="15"/>
     </row>
@@ -23422,7 +23459,7 @@
       <c r="B1972" s="88"/>
       <c r="C1972" s="33"/>
       <c r="D1972" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1972" s="15"/>
     </row>
@@ -23431,11 +23468,11 @@
         <v>6</v>
       </c>
       <c r="B1973" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1973" s="33"/>
       <c r="D1973" s="152" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E1973" s="15"/>
     </row>
@@ -23446,7 +23483,7 @@
       <c r="B1974" s="88"/>
       <c r="C1974" s="33"/>
       <c r="D1974" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1974" s="15"/>
     </row>
@@ -23455,11 +23492,11 @@
         <v>8</v>
       </c>
       <c r="B1975" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1975" s="33"/>
       <c r="D1975" s="152" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E1975" s="15"/>
     </row>
@@ -23470,7 +23507,7 @@
       <c r="B1976" s="88"/>
       <c r="C1976" s="33"/>
       <c r="D1976" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1976" s="15"/>
     </row>
@@ -23479,11 +23516,11 @@
         <v>2</v>
       </c>
       <c r="B1977" s="153" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C1977" s="33"/>
       <c r="D1977" s="152" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1977" s="15"/>
     </row>
@@ -23494,7 +23531,7 @@
       <c r="B1978" s="153"/>
       <c r="C1978" s="33"/>
       <c r="D1978" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1978" s="15"/>
     </row>
@@ -23505,7 +23542,7 @@
       <c r="B1979" s="153"/>
       <c r="C1979" s="154"/>
       <c r="D1979" s="152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E1979" s="15"/>
     </row>
@@ -23516,7 +23553,7 @@
       <c r="B1980" s="88"/>
       <c r="C1980" s="33"/>
       <c r="D1980" s="152" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E1980" s="15"/>
     </row>
@@ -23527,7 +23564,7 @@
       <c r="B1981" s="88"/>
       <c r="C1981" s="33"/>
       <c r="D1981" s="152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E1981" s="15"/>
     </row>
@@ -23538,7 +23575,7 @@
       <c r="B1982" s="89"/>
       <c r="C1982" s="34"/>
       <c r="D1982" s="155" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E1982" s="16"/>
     </row>
@@ -23547,11 +23584,11 @@
         <v>141</v>
       </c>
       <c r="B1983" s="87"/>
-      <c r="C1983" s="168" t="s">
-        <v>404</v>
-      </c>
-      <c r="D1983" s="169"/>
-      <c r="E1983" s="169"/>
+      <c r="C1983" s="165" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1983" s="166"/>
+      <c r="E1983" s="166"/>
     </row>
     <row r="1984" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A1984" s="84">
@@ -23560,7 +23597,7 @@
       <c r="B1984" s="88"/>
       <c r="C1984" s="33"/>
       <c r="D1984" s="152" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E1984" s="15"/>
     </row>
@@ -23571,7 +23608,7 @@
       <c r="B1985" s="88"/>
       <c r="C1985" s="33"/>
       <c r="D1985" s="152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E1985" s="15"/>
     </row>
@@ -23582,7 +23619,7 @@
       <c r="B1986" s="88"/>
       <c r="C1986" s="33"/>
       <c r="D1986" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E1986" s="15"/>
     </row>
@@ -23593,7 +23630,7 @@
       <c r="B1987" s="88"/>
       <c r="C1987" s="33"/>
       <c r="D1987" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E1987" s="15"/>
     </row>
@@ -23602,13 +23639,13 @@
         <v>4</v>
       </c>
       <c r="B1988" s="153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1988" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1988" s="152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E1988" s="15"/>
     </row>
@@ -23619,7 +23656,7 @@
       <c r="B1989" s="88"/>
       <c r="C1989" s="33"/>
       <c r="D1989" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1989" s="15"/>
     </row>
@@ -23630,7 +23667,7 @@
       <c r="B1990" s="88"/>
       <c r="C1990" s="33"/>
       <c r="D1990" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E1990" s="15"/>
     </row>
@@ -23639,13 +23676,13 @@
         <v>7</v>
       </c>
       <c r="B1991" s="153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1991" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1991" s="152" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E1991" s="15"/>
     </row>
@@ -23656,7 +23693,7 @@
       <c r="B1992" s="88"/>
       <c r="C1992" s="33"/>
       <c r="D1992" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1992" s="15"/>
     </row>
@@ -23667,7 +23704,7 @@
       <c r="B1993" s="88"/>
       <c r="C1993" s="33"/>
       <c r="D1993" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E1993" s="15"/>
     </row>
@@ -23676,13 +23713,13 @@
         <v>2</v>
       </c>
       <c r="B1994" s="153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1994" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1994" s="152" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1994" s="15"/>
     </row>
@@ -23693,7 +23730,7 @@
       <c r="B1995" s="88"/>
       <c r="C1995" s="33"/>
       <c r="D1995" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1995" s="15"/>
     </row>
@@ -23704,7 +23741,7 @@
       <c r="B1996" s="88"/>
       <c r="C1996" s="33"/>
       <c r="D1996" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E1996" s="15"/>
     </row>
@@ -23713,13 +23750,13 @@
         <v>5</v>
       </c>
       <c r="B1997" s="153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C1997" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D1997" s="152" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E1997" s="15"/>
     </row>
@@ -23730,7 +23767,7 @@
       <c r="B1998" s="88"/>
       <c r="C1998" s="33"/>
       <c r="D1998" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E1998" s="15"/>
     </row>
@@ -23741,7 +23778,7 @@
       <c r="B1999" s="88"/>
       <c r="C1999" s="33"/>
       <c r="D1999" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E1999" s="16"/>
     </row>
@@ -23750,22 +23787,22 @@
         <v>142</v>
       </c>
       <c r="B2000" s="87"/>
-      <c r="C2000" s="168" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2000" s="169"/>
-      <c r="E2000" s="169"/>
+      <c r="C2000" s="165" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2000" s="166"/>
+      <c r="E2000" s="166"/>
     </row>
     <row r="2001" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2001" s="84">
         <v>0</v>
       </c>
       <c r="B2001" s="153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2001" s="33"/>
       <c r="D2001" s="152" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2001" s="15"/>
     </row>
@@ -23776,7 +23813,7 @@
       <c r="B2002" s="88"/>
       <c r="C2002" s="33"/>
       <c r="D2002" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2002" s="15"/>
     </row>
@@ -23787,7 +23824,7 @@
       <c r="B2003" s="88"/>
       <c r="C2003" s="33"/>
       <c r="D2003" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2003" s="15"/>
     </row>
@@ -23796,11 +23833,11 @@
         <v>3</v>
       </c>
       <c r="B2004" s="153" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C2004" s="33"/>
       <c r="D2004" s="152" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E2004" s="15"/>
     </row>
@@ -23811,7 +23848,7 @@
       <c r="B2005" s="88"/>
       <c r="C2005" s="33"/>
       <c r="D2005" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2005" s="15"/>
     </row>
@@ -23822,7 +23859,7 @@
       <c r="B2006" s="88"/>
       <c r="C2006" s="33"/>
       <c r="D2006" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2006" s="15"/>
     </row>
@@ -23831,11 +23868,11 @@
         <v>6</v>
       </c>
       <c r="B2007" s="153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2007" s="33"/>
       <c r="D2007" s="152" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2007" s="15"/>
     </row>
@@ -23846,7 +23883,7 @@
       <c r="B2008" s="88"/>
       <c r="C2008" s="33"/>
       <c r="D2008" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2008" s="15"/>
     </row>
@@ -23857,7 +23894,7 @@
       <c r="B2009" s="88"/>
       <c r="C2009" s="33"/>
       <c r="D2009" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2009" s="15"/>
     </row>
@@ -23866,11 +23903,11 @@
         <v>9</v>
       </c>
       <c r="B2010" s="153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2010" s="33"/>
       <c r="D2010" s="152" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2010" s="15"/>
     </row>
@@ -23881,7 +23918,7 @@
       <c r="B2011" s="88"/>
       <c r="C2011" s="33"/>
       <c r="D2011" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2011" s="15"/>
     </row>
@@ -23892,7 +23929,7 @@
       <c r="B2012" s="88"/>
       <c r="C2012" s="33"/>
       <c r="D2012" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2012" s="15"/>
     </row>
@@ -23903,7 +23940,7 @@
       <c r="B2013" s="88"/>
       <c r="C2013" s="33"/>
       <c r="D2013" s="152" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E2013" s="15"/>
     </row>
@@ -23914,7 +23951,7 @@
       <c r="B2014" s="88"/>
       <c r="C2014" s="33"/>
       <c r="D2014" s="152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2014" s="15"/>
     </row>
@@ -23925,7 +23962,7 @@
       <c r="B2015" s="88"/>
       <c r="C2015" s="33"/>
       <c r="D2015" s="152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2015" s="15"/>
     </row>
@@ -23936,7 +23973,7 @@
       <c r="B2016" s="89"/>
       <c r="C2016" s="34"/>
       <c r="D2016" s="155" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2016" s="16"/>
     </row>
@@ -23945,11 +23982,11 @@
         <v>143</v>
       </c>
       <c r="B2017" s="87"/>
-      <c r="C2017" s="168" t="s">
-        <v>371</v>
-      </c>
-      <c r="D2017" s="169"/>
-      <c r="E2017" s="169"/>
+      <c r="C2017" s="165" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2017" s="166"/>
+      <c r="E2017" s="166"/>
     </row>
     <row r="2018" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2018" s="84">
@@ -23958,7 +23995,7 @@
       <c r="B2018" s="88"/>
       <c r="C2018" s="33"/>
       <c r="D2018" s="152" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2018" s="15"/>
     </row>
@@ -23969,7 +24006,7 @@
       <c r="B2019" s="88"/>
       <c r="C2019" s="33"/>
       <c r="D2019" s="152" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E2019" s="15"/>
     </row>
@@ -23980,7 +24017,7 @@
       <c r="B2020" s="88"/>
       <c r="C2020" s="33"/>
       <c r="D2020" s="152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2020" s="15"/>
     </row>
@@ -23991,7 +24028,7 @@
       <c r="B2021" s="88"/>
       <c r="C2021" s="33"/>
       <c r="D2021" s="152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2021" s="15"/>
     </row>
@@ -24002,7 +24039,7 @@
       <c r="B2022" s="88"/>
       <c r="C2022" s="33"/>
       <c r="D2022" s="152" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E2022" s="15"/>
     </row>
@@ -24013,7 +24050,7 @@
       <c r="B2023" s="88"/>
       <c r="C2023" s="33"/>
       <c r="D2023" s="152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2023" s="15"/>
     </row>
@@ -24024,7 +24061,7 @@
       <c r="B2024" s="88"/>
       <c r="C2024" s="33"/>
       <c r="D2024" s="152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2024" s="15"/>
     </row>
@@ -24035,7 +24072,7 @@
       <c r="B2025" s="88"/>
       <c r="C2025" s="33"/>
       <c r="D2025" s="152" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2025" s="15"/>
     </row>
@@ -24046,7 +24083,7 @@
       <c r="B2026" s="88"/>
       <c r="C2026" s="33"/>
       <c r="D2026" s="152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E2026" s="15"/>
     </row>
@@ -24057,7 +24094,7 @@
       <c r="B2027" s="88"/>
       <c r="C2027" s="33"/>
       <c r="D2027" s="152" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E2027" s="15"/>
     </row>
@@ -24068,7 +24105,7 @@
       <c r="B2028" s="88"/>
       <c r="C2028" s="33"/>
       <c r="D2028" s="152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2028" s="15"/>
     </row>
@@ -24079,7 +24116,7 @@
       <c r="B2029" s="88"/>
       <c r="C2029" s="33"/>
       <c r="D2029" s="152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2029" s="15"/>
     </row>
@@ -24090,7 +24127,7 @@
       <c r="B2030" s="88"/>
       <c r="C2030" s="33"/>
       <c r="D2030" s="152" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E2030" s="15"/>
     </row>
@@ -24101,7 +24138,7 @@
       <c r="B2031" s="88"/>
       <c r="C2031" s="33"/>
       <c r="D2031" s="152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2031" s="15"/>
     </row>
@@ -24112,7 +24149,7 @@
       <c r="B2032" s="88"/>
       <c r="C2032" s="33"/>
       <c r="D2032" s="152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2032" s="15"/>
     </row>
@@ -24123,7 +24160,7 @@
       <c r="B2033" s="89"/>
       <c r="C2033" s="34"/>
       <c r="D2033" s="152" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2033" s="16"/>
     </row>
@@ -24132,11 +24169,11 @@
         <v>144</v>
       </c>
       <c r="B2034" s="87"/>
-      <c r="C2034" s="168" t="s">
-        <v>373</v>
-      </c>
-      <c r="D2034" s="169"/>
-      <c r="E2034" s="169"/>
+      <c r="C2034" s="165" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2034" s="166"/>
+      <c r="E2034" s="166"/>
     </row>
     <row r="2035" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2035" s="84">
@@ -24145,7 +24182,7 @@
       <c r="B2035" s="88"/>
       <c r="C2035" s="33"/>
       <c r="D2035" s="152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E2035" s="15"/>
     </row>
@@ -24156,7 +24193,7 @@
       <c r="B2036" s="88"/>
       <c r="C2036" s="33"/>
       <c r="D2036" s="152" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E2036" s="15"/>
     </row>
@@ -24167,7 +24204,7 @@
       <c r="B2037" s="88"/>
       <c r="C2037" s="33"/>
       <c r="D2037" s="152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2037" s="15"/>
     </row>
@@ -24178,7 +24215,7 @@
       <c r="B2038" s="88"/>
       <c r="C2038" s="33"/>
       <c r="D2038" s="152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2038" s="15"/>
     </row>
@@ -24189,7 +24226,7 @@
       <c r="B2039" s="88"/>
       <c r="C2039" s="33"/>
       <c r="D2039" s="152" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E2039" s="15"/>
     </row>
@@ -24200,7 +24237,7 @@
       <c r="B2040" s="88"/>
       <c r="C2040" s="33"/>
       <c r="D2040" s="152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2040" s="15"/>
     </row>
@@ -24211,7 +24248,7 @@
       <c r="B2041" s="88"/>
       <c r="C2041" s="33"/>
       <c r="D2041" s="152" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2041" s="15"/>
     </row>
@@ -24222,7 +24259,7 @@
       <c r="B2042" s="88"/>
       <c r="C2042" s="33"/>
       <c r="D2042" s="152" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E2042" s="15"/>
     </row>
@@ -24233,7 +24270,7 @@
       <c r="B2043" s="88"/>
       <c r="C2043" s="33"/>
       <c r="D2043" s="152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E2043" s="15"/>
     </row>
@@ -24244,7 +24281,7 @@
       <c r="B2044" s="88"/>
       <c r="C2044" s="33"/>
       <c r="D2044" s="152" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E2044" s="15"/>
     </row>
@@ -24255,7 +24292,7 @@
       <c r="B2045" s="88"/>
       <c r="C2045" s="33"/>
       <c r="D2045" s="152" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E2045" s="15"/>
     </row>
@@ -24266,7 +24303,7 @@
       <c r="B2046" s="88"/>
       <c r="C2046" s="33"/>
       <c r="D2046" s="152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E2046" s="15"/>
     </row>
@@ -24275,14 +24312,14 @@
         <v>4</v>
       </c>
       <c r="B2047" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2047" s="33"/>
       <c r="D2047" s="152" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2047" s="152" t="s">
         <v>255</v>
-      </c>
-      <c r="E2047" s="152" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2048" spans="1:5" hidden="1" outlineLevel="2">
@@ -24290,11 +24327,11 @@
         <v>5</v>
       </c>
       <c r="B2048" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2048" s="33"/>
       <c r="D2048" s="152" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E2048" s="15"/>
     </row>
@@ -24303,11 +24340,11 @@
         <v>6</v>
       </c>
       <c r="B2049" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2049" s="33"/>
       <c r="D2049" s="152" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2049" s="15"/>
     </row>
@@ -24316,11 +24353,11 @@
         <v>7</v>
       </c>
       <c r="B2050" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2050" s="34"/>
       <c r="D2050" s="152" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2050" s="16"/>
     </row>
@@ -24329,22 +24366,22 @@
         <v>145</v>
       </c>
       <c r="B2051" s="87"/>
-      <c r="C2051" s="168" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2051" s="169"/>
-      <c r="E2051" s="169"/>
+      <c r="C2051" s="165" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2051" s="166"/>
+      <c r="E2051" s="166"/>
     </row>
     <row r="2052" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2052" s="84">
         <v>0</v>
       </c>
       <c r="B2052" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2052" s="33"/>
       <c r="D2052" s="152" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2052" s="15"/>
     </row>
@@ -24353,11 +24390,11 @@
         <v>1</v>
       </c>
       <c r="B2053" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2053" s="33"/>
       <c r="D2053" s="152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2053" s="15"/>
     </row>
@@ -24366,11 +24403,11 @@
         <v>2</v>
       </c>
       <c r="B2054" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2054" s="33"/>
       <c r="D2054" s="152" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2054" s="15"/>
     </row>
@@ -24379,11 +24416,11 @@
         <v>3</v>
       </c>
       <c r="B2055" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2055" s="33"/>
       <c r="D2055" s="152" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E2055" s="15"/>
     </row>
@@ -24392,11 +24429,11 @@
         <v>4</v>
       </c>
       <c r="B2056" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2056" s="33"/>
       <c r="D2056" s="152" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2056" s="15"/>
     </row>
@@ -24405,11 +24442,11 @@
         <v>5</v>
       </c>
       <c r="B2057" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2057" s="33"/>
       <c r="D2057" s="152" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2057" s="15"/>
     </row>
@@ -24418,11 +24455,11 @@
         <v>6</v>
       </c>
       <c r="B2058" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2058" s="33"/>
       <c r="D2058" s="152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2058" s="15"/>
     </row>
@@ -24431,11 +24468,11 @@
         <v>7</v>
       </c>
       <c r="B2059" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2059" s="33"/>
       <c r="D2059" s="152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2059" s="15"/>
     </row>
@@ -24444,11 +24481,11 @@
         <v>8</v>
       </c>
       <c r="B2060" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2060" s="33"/>
       <c r="D2060" s="152" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E2060" s="15"/>
     </row>
@@ -24457,11 +24494,11 @@
         <v>9</v>
       </c>
       <c r="B2061" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2061" s="33"/>
       <c r="D2061" s="152" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E2061" s="15"/>
     </row>
@@ -24470,11 +24507,11 @@
         <v>2</v>
       </c>
       <c r="B2062" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2062" s="33"/>
       <c r="D2062" s="152" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2062" s="15"/>
     </row>
@@ -24483,11 +24520,11 @@
         <v>3</v>
       </c>
       <c r="B2063" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2063" s="33"/>
       <c r="D2063" s="152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E2063" s="15"/>
     </row>
@@ -24496,11 +24533,11 @@
         <v>4</v>
       </c>
       <c r="B2064" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2064" s="33"/>
       <c r="D2064" s="152" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E2064" s="15"/>
     </row>
@@ -24509,11 +24546,11 @@
         <v>5</v>
       </c>
       <c r="B2065" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2065" s="33"/>
       <c r="D2065" s="152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E2065" s="15"/>
     </row>
@@ -24522,11 +24559,11 @@
         <v>6</v>
       </c>
       <c r="B2066" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2066" s="33"/>
       <c r="D2066" s="152" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E2066" s="15"/>
     </row>
@@ -24535,11 +24572,11 @@
         <v>7</v>
       </c>
       <c r="B2067" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2067" s="34"/>
       <c r="D2067" s="152" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E2067" s="16"/>
     </row>
@@ -24548,22 +24585,22 @@
         <v>146</v>
       </c>
       <c r="B2068" s="87"/>
-      <c r="C2068" s="168" t="s">
-        <v>392</v>
-      </c>
-      <c r="D2068" s="169"/>
-      <c r="E2068" s="169"/>
+      <c r="C2068" s="165" t="s">
+        <v>391</v>
+      </c>
+      <c r="D2068" s="166"/>
+      <c r="E2068" s="166"/>
     </row>
     <row r="2069" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2069" s="84">
         <v>0</v>
       </c>
       <c r="B2069" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2069" s="33"/>
       <c r="D2069" s="152" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2069" s="15"/>
     </row>
@@ -24572,11 +24609,11 @@
         <v>1</v>
       </c>
       <c r="B2070" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2070" s="33"/>
       <c r="D2070" s="152" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2070" s="15"/>
     </row>
@@ -24585,11 +24622,11 @@
         <v>2</v>
       </c>
       <c r="B2071" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2071" s="33"/>
       <c r="D2071" s="152" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2071" s="15"/>
     </row>
@@ -24598,11 +24635,11 @@
         <v>3</v>
       </c>
       <c r="B2072" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2072" s="33"/>
       <c r="D2072" s="152" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E2072" s="15"/>
     </row>
@@ -24611,11 +24648,11 @@
         <v>4</v>
       </c>
       <c r="B2073" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2073" s="33"/>
       <c r="D2073" s="152" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2073" s="15"/>
     </row>
@@ -24624,11 +24661,11 @@
         <v>5</v>
       </c>
       <c r="B2074" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2074" s="33"/>
       <c r="D2074" s="152" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E2074" s="15"/>
     </row>
@@ -24637,11 +24674,11 @@
         <v>6</v>
       </c>
       <c r="B2075" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2075" s="33"/>
       <c r="D2075" s="152" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E2075" s="15"/>
     </row>
@@ -24650,11 +24687,11 @@
         <v>7</v>
       </c>
       <c r="B2076" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2076" s="33"/>
       <c r="D2076" s="152" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E2076" s="15"/>
     </row>
@@ -24663,11 +24700,11 @@
         <v>8</v>
       </c>
       <c r="B2077" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2077" s="33"/>
       <c r="D2077" s="152" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E2077" s="15"/>
     </row>
@@ -24676,11 +24713,11 @@
         <v>9</v>
       </c>
       <c r="B2078" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2078" s="33"/>
       <c r="D2078" s="152" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E2078" s="15"/>
     </row>
@@ -24689,11 +24726,11 @@
         <v>2</v>
       </c>
       <c r="B2079" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2079" s="33"/>
       <c r="D2079" s="152" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E2079" s="15"/>
     </row>
@@ -24702,11 +24739,11 @@
         <v>3</v>
       </c>
       <c r="B2080" s="153" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2080" s="33"/>
       <c r="D2080" s="152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2080" s="15"/>
     </row>
@@ -24715,14 +24752,14 @@
         <v>4</v>
       </c>
       <c r="B2081" s="153" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C2081" s="154"/>
       <c r="D2081" s="152" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2081" s="152" t="s">
         <v>382</v>
-      </c>
-      <c r="E2081" s="152" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="2082" spans="1:5" hidden="1" outlineLevel="2">
@@ -24732,7 +24769,7 @@
       <c r="B2082" s="88"/>
       <c r="C2082" s="33"/>
       <c r="D2082" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2082" s="15"/>
     </row>
@@ -24743,7 +24780,7 @@
       <c r="B2083" s="88"/>
       <c r="C2083" s="33"/>
       <c r="D2083" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2083" s="15"/>
     </row>
@@ -24754,7 +24791,7 @@
       <c r="B2084" s="89"/>
       <c r="C2084" s="34"/>
       <c r="D2084" s="155" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E2084" s="16"/>
     </row>
@@ -24763,22 +24800,22 @@
         <v>147</v>
       </c>
       <c r="B2085" s="87"/>
-      <c r="C2085" s="168" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2085" s="169"/>
-      <c r="E2085" s="169"/>
+      <c r="C2085" s="165" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2085" s="166"/>
+      <c r="E2085" s="166"/>
     </row>
     <row r="2086" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2086" s="84">
         <v>0</v>
       </c>
       <c r="B2086" s="153" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C2086" s="33"/>
       <c r="D2086" s="152" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E2086" s="15"/>
     </row>
@@ -24789,7 +24826,7 @@
       <c r="B2087" s="88"/>
       <c r="C2087" s="33"/>
       <c r="D2087" s="152" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2087" s="15"/>
     </row>
@@ -24800,7 +24837,7 @@
       <c r="B2088" s="88"/>
       <c r="C2088" s="33"/>
       <c r="D2088" s="152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2088" s="15"/>
     </row>
@@ -24811,7 +24848,7 @@
       <c r="B2089" s="88"/>
       <c r="C2089" s="33"/>
       <c r="D2089" s="152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2089" s="15"/>
     </row>
@@ -24822,7 +24859,7 @@
       <c r="B2090" s="88"/>
       <c r="C2090" s="33"/>
       <c r="D2090" s="152" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E2090" s="15"/>
     </row>
@@ -24833,7 +24870,7 @@
       <c r="B2091" s="88"/>
       <c r="C2091" s="33"/>
       <c r="D2091" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2091" s="15"/>
     </row>
@@ -24844,7 +24881,7 @@
       <c r="B2092" s="88"/>
       <c r="C2092" s="33"/>
       <c r="D2092" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2092" s="15"/>
     </row>
@@ -24855,7 +24892,7 @@
       <c r="B2093" s="88"/>
       <c r="C2093" s="33"/>
       <c r="D2093" s="152" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E2093" s="15"/>
     </row>
@@ -24866,7 +24903,7 @@
       <c r="B2094" s="88"/>
       <c r="C2094" s="33"/>
       <c r="D2094" s="152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E2094" s="15"/>
     </row>
@@ -24877,7 +24914,7 @@
       <c r="B2095" s="88"/>
       <c r="C2095" s="33"/>
       <c r="D2095" s="152" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2095" s="15"/>
     </row>
@@ -24888,7 +24925,7 @@
       <c r="B2096" s="88"/>
       <c r="C2096" s="33"/>
       <c r="D2096" s="152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2096" s="15"/>
     </row>
@@ -24899,7 +24936,7 @@
       <c r="B2097" s="88"/>
       <c r="C2097" s="33"/>
       <c r="D2097" s="152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2097" s="15"/>
     </row>
@@ -24910,7 +24947,7 @@
       <c r="B2098" s="88"/>
       <c r="C2098" s="33"/>
       <c r="D2098" s="152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E2098" s="15"/>
     </row>
@@ -24921,7 +24958,7 @@
       <c r="B2099" s="88"/>
       <c r="C2099" s="33"/>
       <c r="D2099" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2099" s="15"/>
     </row>
@@ -24932,7 +24969,7 @@
       <c r="B2100" s="88"/>
       <c r="C2100" s="33"/>
       <c r="D2100" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2100" s="15"/>
     </row>
@@ -24943,7 +24980,7 @@
       <c r="B2101" s="89"/>
       <c r="C2101" s="34"/>
       <c r="D2101" s="155" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E2101" s="16"/>
     </row>
@@ -24952,22 +24989,22 @@
         <v>148</v>
       </c>
       <c r="B2102" s="87"/>
-      <c r="C2102" s="168" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2102" s="169"/>
-      <c r="E2102" s="169"/>
+      <c r="C2102" s="165" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2102" s="166"/>
+      <c r="E2102" s="166"/>
     </row>
     <row r="2103" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2103" s="84">
         <v>0</v>
       </c>
       <c r="B2103" s="153" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C2103" s="33"/>
       <c r="D2103" s="152" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E2103" s="15"/>
     </row>
@@ -24978,7 +25015,7 @@
       <c r="B2104" s="88"/>
       <c r="C2104" s="33"/>
       <c r="D2104" s="152" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2104" s="15"/>
     </row>
@@ -24989,7 +25026,7 @@
       <c r="B2105" s="88"/>
       <c r="C2105" s="33"/>
       <c r="D2105" s="152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2105" s="15"/>
     </row>
@@ -25000,7 +25037,7 @@
       <c r="B2106" s="88"/>
       <c r="C2106" s="33"/>
       <c r="D2106" s="152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2106" s="15"/>
     </row>
@@ -25009,11 +25046,11 @@
         <v>4</v>
       </c>
       <c r="B2107" s="153" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C2107" s="33"/>
       <c r="D2107" s="152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E2107" s="15"/>
     </row>
@@ -25024,7 +25061,7 @@
       <c r="B2108" s="88"/>
       <c r="C2108" s="33"/>
       <c r="D2108" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2108" s="15"/>
     </row>
@@ -25035,7 +25072,7 @@
       <c r="B2109" s="88"/>
       <c r="C2109" s="33"/>
       <c r="D2109" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2109" s="15"/>
     </row>
@@ -25046,7 +25083,7 @@
       <c r="B2110" s="88"/>
       <c r="C2110" s="33"/>
       <c r="D2110" s="152" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E2110" s="15"/>
     </row>
@@ -25057,7 +25094,7 @@
       <c r="B2111" s="88"/>
       <c r="C2111" s="33"/>
       <c r="D2111" s="152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E2111" s="15"/>
     </row>
@@ -25068,7 +25105,7 @@
       <c r="B2112" s="88"/>
       <c r="C2112" s="33"/>
       <c r="D2112" s="152" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E2112" s="15"/>
     </row>
@@ -25079,7 +25116,7 @@
       <c r="B2113" s="88"/>
       <c r="C2113" s="33"/>
       <c r="D2113" s="152" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2113" s="15"/>
     </row>
@@ -25090,7 +25127,7 @@
       <c r="B2114" s="88"/>
       <c r="C2114" s="33"/>
       <c r="D2114" s="152" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2114" s="15"/>
     </row>
@@ -25099,11 +25136,11 @@
         <v>4</v>
       </c>
       <c r="B2115" s="153" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2115" s="33"/>
       <c r="D2115" s="152" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2115" s="15"/>
     </row>
@@ -25114,7 +25151,7 @@
       <c r="B2116" s="88"/>
       <c r="C2116" s="33"/>
       <c r="D2116" s="152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2116" s="15"/>
     </row>
@@ -25125,7 +25162,7 @@
       <c r="B2117" s="88"/>
       <c r="C2117" s="33"/>
       <c r="D2117" s="152" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2117" s="15"/>
     </row>
@@ -25136,7 +25173,7 @@
       <c r="B2118" s="89"/>
       <c r="C2118" s="34"/>
       <c r="D2118" s="155" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E2118" s="16"/>
     </row>
@@ -25145,9 +25182,9 @@
         <v>97</v>
       </c>
       <c r="B2119" s="87"/>
-      <c r="C2119" s="168"/>
-      <c r="D2119" s="169"/>
-      <c r="E2119" s="169"/>
+      <c r="C2119" s="165"/>
+      <c r="D2119" s="166"/>
+      <c r="E2119" s="166"/>
     </row>
     <row r="2120" spans="1:5" outlineLevel="2">
       <c r="A2120" s="84">
@@ -25298,9 +25335,9 @@
         <v>149</v>
       </c>
       <c r="B2136" s="87"/>
-      <c r="C2136" s="168"/>
-      <c r="D2136" s="169"/>
-      <c r="E2136" s="169"/>
+      <c r="C2136" s="165"/>
+      <c r="D2136" s="166"/>
+      <c r="E2136" s="166"/>
     </row>
     <row r="2137" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2137" s="84">
@@ -25451,9 +25488,9 @@
         <v>150</v>
       </c>
       <c r="B2153" s="87"/>
-      <c r="C2153" s="168"/>
-      <c r="D2153" s="169"/>
-      <c r="E2153" s="169"/>
+      <c r="C2153" s="165"/>
+      <c r="D2153" s="166"/>
+      <c r="E2153" s="166"/>
     </row>
     <row r="2154" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2154" s="84">
@@ -25604,9 +25641,9 @@
         <v>151</v>
       </c>
       <c r="B2170" s="87"/>
-      <c r="C2170" s="168"/>
-      <c r="D2170" s="169"/>
-      <c r="E2170" s="169"/>
+      <c r="C2170" s="165"/>
+      <c r="D2170" s="166"/>
+      <c r="E2170" s="166"/>
     </row>
     <row r="2171" spans="1:5" hidden="1" outlineLevel="2">
       <c r="A2171" s="84">
@@ -25754,15 +25791,122 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="C2034:E2034"/>
-    <mergeCell ref="C2051:E2051"/>
-    <mergeCell ref="C2068:E2068"/>
-    <mergeCell ref="C2085:E2085"/>
-    <mergeCell ref="C2170:E2170"/>
-    <mergeCell ref="C2102:E2102"/>
-    <mergeCell ref="C2119:E2119"/>
-    <mergeCell ref="C2136:E2136"/>
-    <mergeCell ref="C2153:E2153"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C225:E225"/>
+    <mergeCell ref="C242:E242"/>
+    <mergeCell ref="C259:E259"/>
+    <mergeCell ref="C276:E276"/>
+    <mergeCell ref="C277:E277"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C396:E396"/>
+    <mergeCell ref="C413:E413"/>
+    <mergeCell ref="C430:E430"/>
+    <mergeCell ref="C447:E447"/>
+    <mergeCell ref="C464:E464"/>
+    <mergeCell ref="C481:E481"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C328:E328"/>
+    <mergeCell ref="C345:E345"/>
+    <mergeCell ref="C362:E362"/>
+    <mergeCell ref="C379:E379"/>
+    <mergeCell ref="C584:E584"/>
+    <mergeCell ref="C601:E601"/>
+    <mergeCell ref="C618:E618"/>
+    <mergeCell ref="C635:E635"/>
+    <mergeCell ref="C652:E652"/>
+    <mergeCell ref="C669:E669"/>
+    <mergeCell ref="C498:E498"/>
+    <mergeCell ref="C515:E515"/>
+    <mergeCell ref="C532:E532"/>
+    <mergeCell ref="C549:E549"/>
+    <mergeCell ref="C550:E550"/>
+    <mergeCell ref="C567:E567"/>
+    <mergeCell ref="C788:E788"/>
+    <mergeCell ref="C805:E805"/>
+    <mergeCell ref="C822:E822"/>
+    <mergeCell ref="C823:E823"/>
+    <mergeCell ref="C840:E840"/>
+    <mergeCell ref="C857:E857"/>
+    <mergeCell ref="C686:E686"/>
+    <mergeCell ref="C703:E703"/>
+    <mergeCell ref="C720:E720"/>
+    <mergeCell ref="C737:E737"/>
+    <mergeCell ref="C754:E754"/>
+    <mergeCell ref="C771:E771"/>
+    <mergeCell ref="C976:E976"/>
+    <mergeCell ref="C993:E993"/>
+    <mergeCell ref="C1010:E1010"/>
+    <mergeCell ref="C1027:E1027"/>
+    <mergeCell ref="C1044:E1044"/>
+    <mergeCell ref="C1061:E1061"/>
+    <mergeCell ref="C874:E874"/>
+    <mergeCell ref="C891:E891"/>
+    <mergeCell ref="C908:E908"/>
+    <mergeCell ref="C925:E925"/>
+    <mergeCell ref="C942:E942"/>
+    <mergeCell ref="C959:E959"/>
+    <mergeCell ref="C1164:E1164"/>
+    <mergeCell ref="C1181:E1181"/>
+    <mergeCell ref="C1198:E1198"/>
+    <mergeCell ref="C1215:E1215"/>
+    <mergeCell ref="C1232:E1232"/>
+    <mergeCell ref="C1249:E1249"/>
+    <mergeCell ref="C1078:E1078"/>
+    <mergeCell ref="C1095:E1095"/>
+    <mergeCell ref="C1096:E1096"/>
+    <mergeCell ref="C1113:E1113"/>
+    <mergeCell ref="C1130:E1130"/>
+    <mergeCell ref="C1147:E1147"/>
+    <mergeCell ref="C1368:E1368"/>
+    <mergeCell ref="C1369:E1369"/>
+    <mergeCell ref="C1386:E1386"/>
+    <mergeCell ref="C1403:E1403"/>
+    <mergeCell ref="C1420:E1420"/>
+    <mergeCell ref="C1437:E1437"/>
+    <mergeCell ref="C1266:E1266"/>
+    <mergeCell ref="C1283:E1283"/>
+    <mergeCell ref="C1300:E1300"/>
+    <mergeCell ref="C1317:E1317"/>
+    <mergeCell ref="C1334:E1334"/>
+    <mergeCell ref="C1351:E1351"/>
+    <mergeCell ref="C1556:E1556"/>
+    <mergeCell ref="C1573:E1573"/>
+    <mergeCell ref="C1590:E1590"/>
+    <mergeCell ref="C1607:E1607"/>
+    <mergeCell ref="C1624:E1624"/>
+    <mergeCell ref="C1641:E1641"/>
+    <mergeCell ref="C1454:E1454"/>
+    <mergeCell ref="C1471:E1471"/>
+    <mergeCell ref="C1488:E1488"/>
+    <mergeCell ref="C1505:E1505"/>
+    <mergeCell ref="C1522:E1522"/>
+    <mergeCell ref="C1539:E1539"/>
+    <mergeCell ref="C1744:E1744"/>
+    <mergeCell ref="C1761:E1761"/>
+    <mergeCell ref="C1778:E1778"/>
+    <mergeCell ref="C1795:E1795"/>
+    <mergeCell ref="C1812:E1812"/>
+    <mergeCell ref="C1829:E1829"/>
+    <mergeCell ref="C1642:E1642"/>
+    <mergeCell ref="C1659:E1659"/>
+    <mergeCell ref="C1676:E1676"/>
+    <mergeCell ref="C1693:E1693"/>
+    <mergeCell ref="C1710:E1710"/>
+    <mergeCell ref="C1727:E1727"/>
     <mergeCell ref="C1932:E1932"/>
     <mergeCell ref="C1949:E1949"/>
     <mergeCell ref="C1966:E1966"/>
@@ -25775,124 +25919,17 @@
     <mergeCell ref="C1897:E1897"/>
     <mergeCell ref="C1914:E1914"/>
     <mergeCell ref="C1915:E1915"/>
-    <mergeCell ref="C1744:E1744"/>
-    <mergeCell ref="C1761:E1761"/>
-    <mergeCell ref="C1778:E1778"/>
-    <mergeCell ref="C1795:E1795"/>
-    <mergeCell ref="C1812:E1812"/>
-    <mergeCell ref="C1829:E1829"/>
-    <mergeCell ref="C1642:E1642"/>
-    <mergeCell ref="C1659:E1659"/>
-    <mergeCell ref="C1676:E1676"/>
-    <mergeCell ref="C1693:E1693"/>
-    <mergeCell ref="C1710:E1710"/>
-    <mergeCell ref="C1727:E1727"/>
-    <mergeCell ref="C1556:E1556"/>
-    <mergeCell ref="C1573:E1573"/>
-    <mergeCell ref="C1590:E1590"/>
-    <mergeCell ref="C1607:E1607"/>
-    <mergeCell ref="C1624:E1624"/>
-    <mergeCell ref="C1641:E1641"/>
-    <mergeCell ref="C1454:E1454"/>
-    <mergeCell ref="C1471:E1471"/>
-    <mergeCell ref="C1488:E1488"/>
-    <mergeCell ref="C1505:E1505"/>
-    <mergeCell ref="C1522:E1522"/>
-    <mergeCell ref="C1539:E1539"/>
-    <mergeCell ref="C1368:E1368"/>
-    <mergeCell ref="C1369:E1369"/>
-    <mergeCell ref="C1386:E1386"/>
-    <mergeCell ref="C1403:E1403"/>
-    <mergeCell ref="C1420:E1420"/>
-    <mergeCell ref="C1437:E1437"/>
-    <mergeCell ref="C1266:E1266"/>
-    <mergeCell ref="C1283:E1283"/>
-    <mergeCell ref="C1300:E1300"/>
-    <mergeCell ref="C1317:E1317"/>
-    <mergeCell ref="C1334:E1334"/>
-    <mergeCell ref="C1351:E1351"/>
-    <mergeCell ref="C1164:E1164"/>
-    <mergeCell ref="C1181:E1181"/>
-    <mergeCell ref="C1198:E1198"/>
-    <mergeCell ref="C1215:E1215"/>
-    <mergeCell ref="C1232:E1232"/>
-    <mergeCell ref="C1249:E1249"/>
-    <mergeCell ref="C1078:E1078"/>
-    <mergeCell ref="C1095:E1095"/>
-    <mergeCell ref="C1096:E1096"/>
-    <mergeCell ref="C1113:E1113"/>
-    <mergeCell ref="C1130:E1130"/>
-    <mergeCell ref="C1147:E1147"/>
-    <mergeCell ref="C976:E976"/>
-    <mergeCell ref="C993:E993"/>
-    <mergeCell ref="C1010:E1010"/>
-    <mergeCell ref="C1027:E1027"/>
-    <mergeCell ref="C1044:E1044"/>
-    <mergeCell ref="C1061:E1061"/>
-    <mergeCell ref="C874:E874"/>
-    <mergeCell ref="C891:E891"/>
-    <mergeCell ref="C908:E908"/>
-    <mergeCell ref="C925:E925"/>
-    <mergeCell ref="C942:E942"/>
-    <mergeCell ref="C959:E959"/>
-    <mergeCell ref="C788:E788"/>
-    <mergeCell ref="C805:E805"/>
-    <mergeCell ref="C822:E822"/>
-    <mergeCell ref="C823:E823"/>
-    <mergeCell ref="C840:E840"/>
-    <mergeCell ref="C857:E857"/>
-    <mergeCell ref="C686:E686"/>
-    <mergeCell ref="C703:E703"/>
-    <mergeCell ref="C720:E720"/>
-    <mergeCell ref="C737:E737"/>
-    <mergeCell ref="C754:E754"/>
-    <mergeCell ref="C771:E771"/>
-    <mergeCell ref="C584:E584"/>
-    <mergeCell ref="C601:E601"/>
-    <mergeCell ref="C618:E618"/>
-    <mergeCell ref="C635:E635"/>
-    <mergeCell ref="C652:E652"/>
-    <mergeCell ref="C669:E669"/>
-    <mergeCell ref="C498:E498"/>
-    <mergeCell ref="C515:E515"/>
-    <mergeCell ref="C532:E532"/>
-    <mergeCell ref="C549:E549"/>
-    <mergeCell ref="C550:E550"/>
-    <mergeCell ref="C567:E567"/>
-    <mergeCell ref="C396:E396"/>
-    <mergeCell ref="C413:E413"/>
-    <mergeCell ref="C430:E430"/>
-    <mergeCell ref="C447:E447"/>
-    <mergeCell ref="C464:E464"/>
-    <mergeCell ref="C481:E481"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C328:E328"/>
-    <mergeCell ref="C345:E345"/>
-    <mergeCell ref="C362:E362"/>
-    <mergeCell ref="C379:E379"/>
-    <mergeCell ref="C225:E225"/>
-    <mergeCell ref="C242:E242"/>
-    <mergeCell ref="C259:E259"/>
-    <mergeCell ref="C276:E276"/>
-    <mergeCell ref="C277:E277"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C174:E174"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C2034:E2034"/>
+    <mergeCell ref="C2051:E2051"/>
+    <mergeCell ref="C2068:E2068"/>
+    <mergeCell ref="C2085:E2085"/>
+    <mergeCell ref="C2170:E2170"/>
+    <mergeCell ref="C2102:E2102"/>
+    <mergeCell ref="C2119:E2119"/>
+    <mergeCell ref="C2136:E2136"/>
+    <mergeCell ref="C2153:E2153"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -25917,51 +25954,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="195" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="191"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" s="31" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="189" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="188"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="191"/>
     </row>
     <row r="4" spans="1:12" s="27" customFormat="1">
       <c r="A4" s="28" t="s">
@@ -26178,19 +26215,19 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="186" t="s">
+      <c r="A20" s="189" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="188"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="191"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="28" t="s">
@@ -26407,19 +26444,19 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="186" t="s">
+      <c r="A37" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="187"/>
-      <c r="K37" s="188"/>
+      <c r="B37" s="190"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="191"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="28" t="s">
@@ -26643,7 +26680,7 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A20:K20"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -26677,28 +26714,28 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="193"/>
+      <c r="A3" s="196"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="194"/>
+      <c r="A4" s="197"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="194"/>
+      <c r="A5" s="197"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="194"/>
+      <c r="A6" s="197"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="194"/>
+      <c r="A7" s="197"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="194"/>
+      <c r="A8" s="197"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="194"/>
+      <c r="A9" s="197"/>
     </row>
     <row r="10" spans="1:1" ht="13.5" thickBot="1">
-      <c r="A10" s="195"/>
+      <c r="A10" s="198"/>
     </row>
     <row r="11" spans="1:1" ht="27" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -26854,7 +26891,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:A10"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -26881,10 +26918,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="197"/>
+      <c r="C1" s="200"/>
       <c r="D1" s="92"/>
       <c r="E1" s="32"/>
     </row>
@@ -26895,11 +26932,11 @@
       <c r="E2" s="119"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="198" t="s">
-        <v>208</v>
+      <c r="A3" s="201" t="s">
+        <v>207</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="130" t="str">
         <f>FrameCounts!B2</f>
@@ -26909,7 +26946,7 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="199"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="128" t="s">
         <v>159</v>
       </c>
@@ -26921,7 +26958,7 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="199"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="128" t="s">
         <v>160</v>
       </c>
@@ -26930,9 +26967,9 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="199"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="139" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="134">
         <f>FrameCounts!H2</f>
@@ -26942,9 +26979,9 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="199"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="135">
         <f>C6/60</f>
@@ -26954,16 +26991,16 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="199"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="132"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A9" s="200"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="136" t="s">
         <v>161</v>
       </c>
@@ -26978,11 +27015,11 @@
       <c r="E10" s="94"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A11" s="198" t="s">
-        <v>209</v>
+      <c r="A11" s="201" t="s">
+        <v>208</v>
       </c>
       <c r="B11" s="131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="130" t="str">
         <f>FrameCounts!B11</f>
@@ -26992,7 +27029,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="199"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="128" t="s">
         <v>159</v>
       </c>
@@ -27004,7 +27041,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="199"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="128" t="s">
         <v>160</v>
       </c>
@@ -27013,9 +27050,9 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="199"/>
+      <c r="A14" s="202"/>
       <c r="B14" s="139" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" s="134">
         <f>FrameCounts!H11</f>
@@ -27025,9 +27062,9 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="199"/>
+      <c r="A15" s="202"/>
       <c r="B15" s="128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="135">
         <f>C14/60</f>
@@ -27037,16 +27074,16 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="199"/>
+      <c r="A16" s="202"/>
       <c r="B16" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="132"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A17" s="200"/>
+      <c r="A17" s="203"/>
       <c r="B17" s="136" t="s">
         <v>161</v>
       </c>
@@ -27061,16 +27098,16 @@
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" collapsed="1">
-      <c r="A19" s="198" t="s">
-        <v>209</v>
+      <c r="A19" s="201" t="s">
+        <v>208</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="130"/>
     </row>
     <row r="20" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A20" s="199"/>
+      <c r="A20" s="202"/>
       <c r="B20" s="128" t="s">
         <v>159</v>
       </c>
@@ -27080,16 +27117,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A21" s="199"/>
+      <c r="A21" s="202"/>
       <c r="B21" s="128" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="133"/>
     </row>
     <row r="22" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A22" s="199"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="139" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="134">
         <f>FrameCounts!H20</f>
@@ -27097,9 +27134,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A23" s="199"/>
+      <c r="A23" s="202"/>
       <c r="B23" s="128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="135">
         <f>C22/60</f>
@@ -27107,14 +27144,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" outlineLevel="1">
-      <c r="A24" s="199"/>
+      <c r="A24" s="202"/>
       <c r="B24" s="128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A25" s="200"/>
+      <c r="A25" s="203"/>
       <c r="B25" s="136" t="s">
         <v>161</v>
       </c>
@@ -27127,7 +27164,7 @@
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A25"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -27149,150 +27186,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33">
-      <c r="A1" s="211" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="212"/>
+      <c r="A1" s="213" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="214"/>
       <c r="C1" s="118"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="217" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="218"/>
+      <c r="A2" s="210" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="211"/>
       <c r="C2" s="120"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="212" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="211"/>
+      <c r="C3" s="120"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="120"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="215" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="216"/>
+      <c r="C5" s="120"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75">
+      <c r="A7" s="221" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="120"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="215"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="120"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="213" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="120"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="205" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="206"/>
+      <c r="B7" s="222"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="120"/>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="39" customHeight="1">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="219" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="220"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="206"/>
+      <c r="B10" s="207"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="208" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="208"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="209"/>
-      <c r="B10" s="210"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="201" t="s">
+      <c r="B11" s="209"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="208" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="202"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="201" t="s">
+      <c r="B12" s="209"/>
+    </row>
+    <row r="13" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A13" s="208" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="202"/>
-    </row>
-    <row r="13" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A13" s="201" t="s">
+      <c r="B13" s="209"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A14" s="208" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="202"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A14" s="201" t="s">
+      <c r="B14" s="209"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1">
+      <c r="A15" s="208" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="202"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1">
-      <c r="A15" s="201" t="s">
+      <c r="B15" s="209"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" customHeight="1">
+      <c r="A16" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="202"/>
-    </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1">
-      <c r="A16" s="201" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="202"/>
+      <c r="B16" s="209"/>
     </row>
     <row r="17" spans="1:2" ht="48.75" customHeight="1">
-      <c r="A17" s="203" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="204"/>
+      <c r="A17" s="204" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="205"/>
     </row>
     <row r="19" spans="1:2" ht="18.75">
-      <c r="A19" s="205" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="206"/>
+      <c r="A19" s="221" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="222"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="120"/>
       <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="219" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="220"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="206"/>
+      <c r="B22" s="207"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="208" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="208"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="209"/>
-      <c r="B22" s="210"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="201" t="s">
+      <c r="B23" s="209"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="208"/>
+      <c r="B24" s="209"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="208" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="202"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="201"/>
-      <c r="B24" s="202"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="201" t="s">
+      <c r="B25" s="209"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="208" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="202"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="201" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="202"/>
+      <c r="B26" s="209"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="203"/>
-      <c r="B27" s="204"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -27303,19 +27353,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
